--- a/ind-IRs-to-common-shocks.xlsx
+++ b/ind-IRs-to-common-shocks.xlsx
@@ -760,196 +760,196 @@
         <v>112</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.510166573062449e-18</v>
+        <v>0.000150135692885436</v>
       </c>
       <c r="C2" t="n">
-        <v>-6.938196299008178e-17</v>
+        <v>0.0003926711231621193</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.485841543351011e-17</v>
+        <v>5.045571717008145e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.994131766467105e-18</v>
+        <v>1.47031357796681e-05</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.216174516302141e-18</v>
+        <v>8.008414995295727e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>7.017679861391211e-18</v>
+        <v>-2.457781674789119e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.144781556497171e-18</v>
+        <v>7.353939152070026e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>1.879787297032449e-19</v>
+        <v>-1.119174922694156e-06</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.380668626690764e-18</v>
+        <v>3.782648658472711e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>-2.843613211663905e-20</v>
+        <v>-3.171761962573622e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>2.749493453601074e-19</v>
+        <v>-1.00401780551963e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.53028510296545e-19</v>
+        <v>5.624679196144378e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>1.247251874527142e-19</v>
+        <v>-2.315405973501143e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>-3.02977789794627e-20</v>
+        <v>7.203350124517265e-08</v>
       </c>
       <c r="P2" t="n">
-        <v>-5.643965952715466e-21</v>
+        <v>-4.212066781878225e-08</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.84043736542174e-20</v>
+        <v>3.243809768779919e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>-2.838410120293165e-16</v>
+        <v>5.767220763344778e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>1.884730642718848e-16</v>
+        <v>-4.872797560992115e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>9.39986961233353e-17</v>
+        <v>-1.290533885082644e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>2.836871046696234e-17</v>
+        <v>2.26332374805487e-08</v>
       </c>
       <c r="V2" t="n">
-        <v>-2.033074402411924e-17</v>
+        <v>4.215201261065681e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.963314307712166e-17</v>
+        <v>1.080759590322749e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>1.596719375508647e-17</v>
+        <v>-2.550934989917961e-07</v>
       </c>
       <c r="Y2" t="n">
-        <v>-4.718250046985088e-18</v>
+        <v>1.229825817006167e-07</v>
       </c>
       <c r="Z2" t="n">
-        <v>-4.71012956664218e-19</v>
+        <v>7.433703660349477e-10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2.216881473921203e-18</v>
+        <v>-3.048699394091564e-08</v>
       </c>
       <c r="AB2" t="n">
-        <v>9.71155452771586e-19</v>
+        <v>-4.357418506891348e-09</v>
       </c>
       <c r="AC2" t="n">
-        <v>-5.183815496113636e-19</v>
+        <v>8.338352015319348e-09</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.136613252889741e-18</v>
+        <v>7.246429852668601e-09</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.980981190171207e-19</v>
+        <v>-7.486287848636067e-09</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.503790545985073e-19</v>
+        <v>9.095878912232398e-11</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.950217808692076e-19</v>
+        <v>1.903866671944987e-09</v>
       </c>
       <c r="AH2" t="n">
-        <v>-8.054593080808166e-17</v>
+        <v>0.0005686178729459002</v>
       </c>
       <c r="AI2" t="n">
-        <v>-1.145518859219041e-17</v>
+        <v>5.99795349386391e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-2.193383714440249e-17</v>
+        <v>7.24301098129685e-05</v>
       </c>
       <c r="AK2" t="n">
-        <v>5.238315599930421e-18</v>
+        <v>-3.209821813325194e-05</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.693933744353151e-18</v>
+        <v>-1.658701877032464e-06</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.987465747193662e-18</v>
+        <v>2.69323040991979e-06</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.397984885587698e-22</v>
+        <v>-4.70109721941815e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>-1.62637729851982e-18</v>
+        <v>5.57873476245585e-06</v>
       </c>
       <c r="AP2" t="n">
-        <v>-1.558107511375706e-19</v>
+        <v>-2.393728135985808e-07</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.761615061478411e-20</v>
+        <v>-1.624827561054737e-08</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.70677037974092e-19</v>
+        <v>-4.357678987471457e-07</v>
       </c>
       <c r="AS2" t="n">
-        <v>-3.145013874041296e-20</v>
+        <v>-6.968216711486045e-08</v>
       </c>
       <c r="AT2" t="n">
-        <v>-4.618435293557186e-20</v>
+        <v>2.774299079353064e-07</v>
       </c>
       <c r="AU2" t="n">
-        <v>4.744120447151953e-20</v>
+        <v>-1.45367670258364e-07</v>
       </c>
       <c r="AV2" t="n">
-        <v>-2.787723256231162e-20</v>
+        <v>2.537148589792115e-08</v>
       </c>
       <c r="AW2" t="n">
-        <v>-1.075063856384329e-20</v>
+        <v>1.377480692903937e-08</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.321636417714891e-18</v>
+        <v>-1.522752361101027e-06</v>
       </c>
       <c r="AY2" t="n">
-        <v>3.082644819150258e-17</v>
+        <v>-1.326455442856711e-07</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.285431946592047e-16</v>
+        <v>-2.101593584244666e-06</v>
       </c>
       <c r="BA2" t="n">
-        <v>-1.860519515457869e-17</v>
+        <v>5.721281669667618e-07</v>
       </c>
       <c r="BB2" t="n">
-        <v>-2.671419152364145e-17</v>
+        <v>4.203610938814687e-07</v>
       </c>
       <c r="BC2" t="n">
-        <v>-1.690456943235145e-18</v>
+        <v>-1.11481371642004e-07</v>
       </c>
       <c r="BD2" t="n">
-        <v>9.961095818376747e-18</v>
+        <v>-8.264489652425957e-08</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.185190023259196e-18</v>
+        <v>-1.401281921487232e-08</v>
       </c>
       <c r="BF2" t="n">
-        <v>-4.344340437415015e-18</v>
+        <v>5.958874517553098e-08</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.326482430411554e-18</v>
+        <v>-2.916754238004609e-08</v>
       </c>
       <c r="BH2" t="n">
-        <v>1.284413965343699e-18</v>
+        <v>-1.009207275909442e-08</v>
       </c>
       <c r="BI2" t="n">
-        <v>-1.113937198362365e-18</v>
+        <v>1.193794458461085e-08</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-5.579660967845787e-19</v>
+        <v>1.418682842691438e-09</v>
       </c>
       <c r="BK2" t="n">
-        <v>4.258045204059801e-19</v>
+        <v>-2.736349411385702e-09</v>
       </c>
       <c r="BL2" t="n">
-        <v>3.195813107179679e-19</v>
+        <v>-1.703556932804203e-09</v>
       </c>
       <c r="BM2" t="n">
-        <v>-2.450871774352727e-19</v>
+        <v>1.816725210734641e-09</v>
       </c>
     </row>
     <row r="3">
@@ -957,196 +957,196 @@
         <v>124</v>
       </c>
       <c r="B3" t="n">
-        <v>3.06022613313622e-18</v>
+        <v>0.0002878781731364179</v>
       </c>
       <c r="C3" t="n">
-        <v>9.195502159504138e-18</v>
+        <v>0.000363927074435622</v>
       </c>
       <c r="D3" t="n">
-        <v>2.427429021377241e-19</v>
+        <v>2.420436857262094e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>1.43324709782368e-18</v>
+        <v>4.56005817695087e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>6.014038508398529e-19</v>
+        <v>3.110166298605369e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.062737224771953e-19</v>
+        <v>-4.635932421763151e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>6.19342277143709e-19</v>
+        <v>5.24907982800892e-06</v>
       </c>
       <c r="I3" t="n">
-        <v>1.158299892112812e-19</v>
+        <v>-3.278113311251e-06</v>
       </c>
       <c r="J3" t="n">
-        <v>9.765611122883819e-20</v>
+        <v>-3.362883793143529e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>-6.513658737806678e-20</v>
+        <v>-2.801899425706975e-06</v>
       </c>
       <c r="L3" t="n">
-        <v>2.320332341241336e-20</v>
+        <v>2.492479246379723e-06</v>
       </c>
       <c r="M3" t="n">
-        <v>3.478300263874724e-20</v>
+        <v>-8.448891057859991e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>1.964281473939352e-20</v>
+        <v>6.891272059092791e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>-1.085276709552716e-20</v>
+        <v>-7.872404534184806e-09</v>
       </c>
       <c r="P3" t="n">
-        <v>-5.925488670411631e-22</v>
+        <v>-4.375881113933536e-08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.761990750210336e-21</v>
+        <v>2.985344013679737e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>-2.905304155542824e-17</v>
+        <v>-3.142146298523407e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>2.822680044027686e-17</v>
+        <v>3.535436727480916e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>2.058204918274176e-18</v>
+        <v>-1.606046697348383e-06</v>
       </c>
       <c r="U3" t="n">
-        <v>3.672857612949359e-19</v>
+        <v>-2.783263898205707e-06</v>
       </c>
       <c r="V3" t="n">
-        <v>-3.628956191230963e-18</v>
+        <v>-3.03537111730073e-07</v>
       </c>
       <c r="W3" t="n">
-        <v>3.858980413361939e-19</v>
+        <v>1.35446505479759e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>1.692856467948544e-18</v>
+        <v>-4.127334069822909e-07</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.006367629024021e-19</v>
+        <v>1.358603611525936e-07</v>
       </c>
       <c r="Z3" t="n">
-        <v>-6.70149088819756e-19</v>
+        <v>-3.868910264200968e-07</v>
       </c>
       <c r="AA3" t="n">
-        <v>-1.064396407348049e-19</v>
+        <v>-1.066010563415928e-07</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.093403834795032e-19</v>
+        <v>2.35140725494175e-07</v>
       </c>
       <c r="AC3" t="n">
-        <v>2.021865173749813e-19</v>
+        <v>-2.785929605941054e-08</v>
       </c>
       <c r="AD3" t="n">
-        <v>-6.463330561823819e-20</v>
+        <v>-5.508307436137369e-08</v>
       </c>
       <c r="AE3" t="n">
-        <v>-4.722201988464621e-20</v>
+        <v>2.457671884987178e-09</v>
       </c>
       <c r="AF3" t="n">
-        <v>-6.792002848729915e-21</v>
+        <v>2.605834524098105e-08</v>
       </c>
       <c r="AG3" t="n">
-        <v>3.402451167727797e-20</v>
+        <v>-4.870880696611838e-09</v>
       </c>
       <c r="AH3" t="n">
-        <v>1.248593276998722e-17</v>
+        <v>0.0006497594127022708</v>
       </c>
       <c r="AI3" t="n">
-        <v>7.659392327286171e-19</v>
+        <v>2.545204684232773e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1.249571311297955e-18</v>
+        <v>6.374060482449334e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>6.571815191874903e-19</v>
+        <v>1.438425141514676e-05</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.641792264331647e-19</v>
+        <v>-2.079521349668321e-06</v>
       </c>
       <c r="AM3" t="n">
-        <v>2.04848691841266e-19</v>
+        <v>-2.161555101914293e-05</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.352689413188257e-19</v>
+        <v>4.711284607326086e-06</v>
       </c>
       <c r="AO3" t="n">
-        <v>1.78674431273322e-20</v>
+        <v>-8.822127617154624e-06</v>
       </c>
       <c r="AP3" t="n">
-        <v>7.717928605290239e-20</v>
+        <v>-1.443900083272217e-06</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-9.866123025813832e-21</v>
+        <v>1.671662010036501e-06</v>
       </c>
       <c r="AR3" t="n">
-        <v>3.775140396780801e-20</v>
+        <v>-8.158706760953715e-09</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.307353838683736e-21</v>
+        <v>-1.757555259697548e-07</v>
       </c>
       <c r="AT3" t="n">
-        <v>8.848654461404786e-21</v>
+        <v>3.400928012969597e-07</v>
       </c>
       <c r="AU3" t="n">
-        <v>-2.634769217122663e-21</v>
+        <v>1.036067674998638e-07</v>
       </c>
       <c r="AV3" t="n">
-        <v>4.01255107406739e-21</v>
+        <v>-4.987773989190143e-08</v>
       </c>
       <c r="AW3" t="n">
-        <v>1.365912448497662e-22</v>
+        <v>6.225687016861242e-08</v>
       </c>
       <c r="AX3" t="n">
-        <v>7.12071827737292e-18</v>
+        <v>1.392138248152824e-05</v>
       </c>
       <c r="AY3" t="n">
-        <v>5.884491711705372e-18</v>
+        <v>3.972391476777085e-06</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-2.01195801391095e-18</v>
+        <v>-4.916718815682544e-06</v>
       </c>
       <c r="BA3" t="n">
-        <v>1.695882758031721e-18</v>
+        <v>2.06486372869004e-06</v>
       </c>
       <c r="BB3" t="n">
-        <v>-9.458300096326705e-19</v>
+        <v>2.541986916418765e-06</v>
       </c>
       <c r="BC3" t="n">
-        <v>1.165416886324465e-18</v>
+        <v>-1.744308860024956e-06</v>
       </c>
       <c r="BD3" t="n">
-        <v>-8.809498002168961e-20</v>
+        <v>-1.575609374232079e-07</v>
       </c>
       <c r="BE3" t="n">
-        <v>1.372659630127124e-19</v>
+        <v>-2.675710050920951e-09</v>
       </c>
       <c r="BF3" t="n">
-        <v>-1.506332629383602e-19</v>
+        <v>9.220506119165488e-08</v>
       </c>
       <c r="BG3" t="n">
-        <v>1.126449725170052e-19</v>
+        <v>-2.51377327821557e-08</v>
       </c>
       <c r="BH3" t="n">
-        <v>2.915145109079448e-21</v>
+        <v>4.82007043553497e-09</v>
       </c>
       <c r="BI3" t="n">
-        <v>3.782109680001146e-20</v>
+        <v>-6.149052823847835e-08</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-3.394261629931777e-20</v>
+        <v>4.444865918507813e-08</v>
       </c>
       <c r="BK3" t="n">
-        <v>1.292704148512295e-20</v>
+        <v>1.339279035744052e-08</v>
       </c>
       <c r="BL3" t="n">
-        <v>-1.899597440668936e-21</v>
+        <v>-1.197324739034692e-08</v>
       </c>
       <c r="BM3" t="n">
-        <v>8.744858007603489e-21</v>
+        <v>-4.493967598105757e-09</v>
       </c>
     </row>
     <row r="4">
@@ -1154,196 +1154,196 @@
         <v>128</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.195065309385355e-17</v>
+        <v>0.0001037350471032701</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.055066225626883e-16</v>
+        <v>0.0004781510256928292</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.773608781403861e-18</v>
+        <v>3.495265754301218e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.231438345116894e-17</v>
+        <v>6.778530827057114e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.612723862205718e-18</v>
+        <v>1.557034603239456e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>6.03002438515225e-18</v>
+        <v>-4.911656604135603e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>-5.926598402931664e-18</v>
+        <v>-9.339419031701178e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>-6.090795476060158e-19</v>
+        <v>-1.111052761322293e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>-3.117666161245501e-22</v>
+        <v>-1.075878980524911e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>8.409933579230255e-19</v>
+        <v>-1.324636550931499e-06</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.319317049091839e-19</v>
+        <v>4.087561642682209e-06</v>
       </c>
       <c r="M4" t="n">
-        <v>-2.928375654095766e-19</v>
+        <v>1.471301968012046e-07</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.355803095411714e-20</v>
+        <v>1.7528035330795e-06</v>
       </c>
       <c r="O4" t="n">
-        <v>1.813908278953961e-19</v>
+        <v>6.384776420773036e-07</v>
       </c>
       <c r="P4" t="n">
-        <v>-9.825600928286031e-21</v>
+        <v>1.640972638956739e-07</v>
       </c>
       <c r="Q4" t="n">
-        <v>-3.932740403684844e-20</v>
+        <v>-2.48049193814006e-08</v>
       </c>
       <c r="R4" t="n">
-        <v>-2.247922170114723e-16</v>
+        <v>3.581521938190006e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.832986922862181e-16</v>
+        <v>-3.235559254226249e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>3.279728463723708e-17</v>
+        <v>-2.27501887653034e-06</v>
       </c>
       <c r="U4" t="n">
-        <v>2.93161662952121e-17</v>
+        <v>-2.412262949040829e-06</v>
       </c>
       <c r="V4" t="n">
-        <v>-2.97319693269e-17</v>
+        <v>7.642444873390577e-07</v>
       </c>
       <c r="W4" t="n">
-        <v>-2.893763092820196e-18</v>
+        <v>-8.382834439136883e-07</v>
       </c>
       <c r="X4" t="n">
-        <v>1.178955933971134e-17</v>
+        <v>5.245377665659764e-07</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.997957818568036e-18</v>
+        <v>8.810895929551833e-08</v>
       </c>
       <c r="Z4" t="n">
-        <v>-5.082903290389503e-18</v>
+        <v>8.217059217108256e-07</v>
       </c>
       <c r="AA4" t="n">
-        <v>-1.35925842019263e-18</v>
+        <v>1.043366830180277e-07</v>
       </c>
       <c r="AB4" t="n">
-        <v>9.440444519307255e-19</v>
+        <v>-2.050954842689427e-07</v>
       </c>
       <c r="AC4" t="n">
-        <v>1.410912307929855e-18</v>
+        <v>3.454368353643207e-08</v>
       </c>
       <c r="AD4" t="n">
-        <v>-5.59847182498367e-19</v>
+        <v>6.4557026933833e-09</v>
       </c>
       <c r="AE4" t="n">
-        <v>-4.405416517975411e-19</v>
+        <v>-4.582782025291857e-08</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.891752026235619e-20</v>
+        <v>-3.107880247217614e-08</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.669653190060136e-19</v>
+        <v>4.007332682049196e-09</v>
       </c>
       <c r="AH4" t="n">
-        <v>-1.262010096362062e-16</v>
+        <v>0.0006249563192299393</v>
       </c>
       <c r="AI4" t="n">
-        <v>-5.127516617437665e-18</v>
+        <v>2.57537182902548e-05</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-2.365140713653295e-17</v>
+        <v>9.389507912737044e-05</v>
       </c>
       <c r="AK4" t="n">
-        <v>-1.157093986566011e-17</v>
+        <v>4.890868037673008e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>1.72283616217251e-20</v>
+        <v>-2.074610689730048e-05</v>
       </c>
       <c r="AM4" t="n">
-        <v>4.977776264408362e-19</v>
+        <v>-4.495189663520669e-05</v>
       </c>
       <c r="AN4" t="n">
-        <v>-1.818417014324966e-18</v>
+        <v>-2.365480298612499e-06</v>
       </c>
       <c r="AO4" t="n">
-        <v>-2.736745033941604e-19</v>
+        <v>-1.469736607932049e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>-4.298222529200955e-19</v>
+        <v>-2.721149247325482e-06</v>
       </c>
       <c r="AQ4" t="n">
-        <v>5.136963715680916e-19</v>
+        <v>1.716017026340538e-06</v>
       </c>
       <c r="AR4" t="n">
-        <v>-1.417452983027694e-19</v>
+        <v>1.116946506265776e-06</v>
       </c>
       <c r="AS4" t="n">
-        <v>-7.418667200638408e-20</v>
+        <v>1.6197285250154e-06</v>
       </c>
       <c r="AT4" t="n">
-        <v>-6.112344656610444e-20</v>
+        <v>1.484279427784041e-06</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.391513363873719e-20</v>
+        <v>7.415203745720459e-08</v>
       </c>
       <c r="AV4" t="n">
-        <v>-1.028162307771287e-21</v>
+        <v>-2.709141767218974e-08</v>
       </c>
       <c r="AW4" t="n">
-        <v>-8.102285182843641e-21</v>
+        <v>2.279557531684281e-08</v>
       </c>
       <c r="AX4" t="n">
-        <v>2.128664878637174e-17</v>
+        <v>-5.944879630177884e-06</v>
       </c>
       <c r="AY4" t="n">
-        <v>3.582233448866025e-17</v>
+        <v>-4.587358893051762e-06</v>
       </c>
       <c r="AZ4" t="n">
-        <v>2.290445628831442e-17</v>
+        <v>-2.975386472323171e-06</v>
       </c>
       <c r="BA4" t="n">
-        <v>2.469152320168391e-17</v>
+        <v>-4.6616695383987e-06</v>
       </c>
       <c r="BB4" t="n">
-        <v>-1.595514464028674e-17</v>
+        <v>-3.345305657121362e-07</v>
       </c>
       <c r="BC4" t="n">
-        <v>1.319893840761777e-18</v>
+        <v>2.445064042892519e-06</v>
       </c>
       <c r="BD4" t="n">
-        <v>2.529336955729975e-18</v>
+        <v>-4.467696224465778e-07</v>
       </c>
       <c r="BE4" t="n">
-        <v>3.176382664022199e-18</v>
+        <v>2.807562917468959e-07</v>
       </c>
       <c r="BF4" t="n">
-        <v>-1.721458462722329e-18</v>
+        <v>3.424026419688867e-07</v>
       </c>
       <c r="BG4" t="n">
-        <v>-6.285095043632987e-19</v>
+        <v>1.489371062763412e-07</v>
       </c>
       <c r="BH4" t="n">
-        <v>1.028524980891452e-19</v>
+        <v>-9.920439599840129e-08</v>
       </c>
       <c r="BI4" t="n">
-        <v>6.829297966110349e-19</v>
+        <v>-2.724192887241576e-08</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-1.861901898343993e-19</v>
+        <v>-6.152667922374249e-08</v>
       </c>
       <c r="BK4" t="n">
-        <v>-1.446516802953706e-19</v>
+        <v>4.642533930278843e-09</v>
       </c>
       <c r="BL4" t="n">
-        <v>-4.35240673036177e-20</v>
+        <v>-7.649158871472306e-09</v>
       </c>
       <c r="BM4" t="n">
-        <v>1.148909711534357e-19</v>
+        <v>-1.005923120120431e-08</v>
       </c>
     </row>
     <row r="5">
@@ -1351,196 +1351,196 @@
         <v>132</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.499591919320249e-17</v>
+        <v>0.000199442600249807</v>
       </c>
       <c r="C5" t="n">
-        <v>-7.134531892423692e-17</v>
+        <v>0.0004081906660237505</v>
       </c>
       <c r="D5" t="n">
-        <v>1.138661619642642e-18</v>
+        <v>-5.988637573002795e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.634901685291493e-17</v>
+        <v>6.48172852426761e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.515220912086894e-18</v>
+        <v>4.905289279473231e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>1.832229087900621e-18</v>
+        <v>-1.663335245044263e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>-6.233361812456357e-18</v>
+        <v>2.055934723710005e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.335923534828664e-18</v>
+        <v>5.247140370283619e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>-1.923814765501251e-18</v>
+        <v>9.808117958609468e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>-1.121125996940771e-19</v>
+        <v>1.98416947537111e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.691642303028403e-19</v>
+        <v>1.061763640689227e-06</v>
       </c>
       <c r="M5" t="n">
-        <v>-8.689415240684804e-19</v>
+        <v>5.667139087664745e-07</v>
       </c>
       <c r="N5" t="n">
-        <v>-3.260655995160875e-19</v>
+        <v>3.909269224736827e-07</v>
       </c>
       <c r="O5" t="n">
-        <v>-5.01057891288477e-20</v>
+        <v>-2.512415937183017e-07</v>
       </c>
       <c r="P5" t="n">
-        <v>-7.370556190654152e-20</v>
+        <v>1.307933221547955e-07</v>
       </c>
       <c r="Q5" t="n">
-        <v>-1.031086608972003e-19</v>
+        <v>7.856432906158721e-08</v>
       </c>
       <c r="R5" t="n">
-        <v>-1.355445120654695e-16</v>
+        <v>-4.07576969197954e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>1.108947288592098e-16</v>
+        <v>3.961768903184407e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>8.84793056693435e-18</v>
+        <v>-1.508558783813588e-07</v>
       </c>
       <c r="U5" t="n">
-        <v>1.931725391078675e-17</v>
+        <v>1.447228786032052e-07</v>
       </c>
       <c r="V5" t="n">
-        <v>-8.495818247141675e-18</v>
+        <v>6.078431316730664e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>-1.004013533031148e-17</v>
+        <v>-1.136279723731346e-07</v>
       </c>
       <c r="X5" t="n">
-        <v>1.146433299041536e-17</v>
+        <v>1.503920903493124e-07</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.99162763415023e-18</v>
+        <v>5.481653429671944e-08</v>
       </c>
       <c r="Z5" t="n">
-        <v>-1.154170367995817e-18</v>
+        <v>-5.367254289231714e-08</v>
       </c>
       <c r="AA5" t="n">
-        <v>-9.148654754486321e-19</v>
+        <v>5.356675657804561e-09</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.917691238356536e-19</v>
+        <v>1.227965156566878e-08</v>
       </c>
       <c r="AC5" t="n">
-        <v>1.538120105805417e-18</v>
+        <v>6.900057083458448e-09</v>
       </c>
       <c r="AD5" t="n">
-        <v>-1.231323529512289e-19</v>
+        <v>-4.097324404226239e-09</v>
       </c>
       <c r="AE5" t="n">
-        <v>-2.116731504491156e-19</v>
+        <v>-2.068132344906004e-09</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.973795973178349e-20</v>
+        <v>1.601996477956401e-09</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.788058388980334e-19</v>
+        <v>1.468441989564417e-09</v>
       </c>
       <c r="AH5" t="n">
-        <v>-9.230357654247336e-17</v>
+        <v>0.0006307562447094131</v>
       </c>
       <c r="AI5" t="n">
-        <v>-1.373690526177118e-18</v>
+        <v>7.211933558933646e-06</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-1.050039734717145e-17</v>
+        <v>4.627010993841728e-05</v>
       </c>
       <c r="AK5" t="n">
-        <v>-1.287677284963915e-17</v>
+        <v>6.207449110799305e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>-6.191032698224552e-18</v>
+        <v>3.095869529430212e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>-2.030215629894569e-18</v>
+        <v>-4.833522718082521e-06</v>
       </c>
       <c r="AN5" t="n">
-        <v>-2.356585579958095e-18</v>
+        <v>1.075403087683914e-05</v>
       </c>
       <c r="AO5" t="n">
-        <v>-2.317479487525824e-18</v>
+        <v>8.773167447364681e-07</v>
       </c>
       <c r="AP5" t="n">
-        <v>-1.960695680370584e-18</v>
+        <v>5.153910148673415e-06</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.556267670941643e-19</v>
+        <v>-7.994387009337715e-07</v>
       </c>
       <c r="AR5" t="n">
-        <v>-5.761456841264952e-19</v>
+        <v>4.473923909526865e-07</v>
       </c>
       <c r="AS5" t="n">
-        <v>-4.303352922216506e-19</v>
+        <v>1.860995973396343e-07</v>
       </c>
       <c r="AT5" t="n">
-        <v>-3.702544433785956e-19</v>
+        <v>6.154287124155114e-07</v>
       </c>
       <c r="AU5" t="n">
-        <v>-3.915964725813697e-20</v>
+        <v>-1.515879151579557e-07</v>
       </c>
       <c r="AV5" t="n">
-        <v>-6.781589395978274e-20</v>
+        <v>4.338859450357619e-08</v>
       </c>
       <c r="AW5" t="n">
-        <v>-8.51053566455166e-20</v>
+        <v>-1.532093485239548e-08</v>
       </c>
       <c r="AX5" t="n">
-        <v>2.202098888059806e-17</v>
+        <v>1.288743643333945e-06</v>
       </c>
       <c r="AY5" t="n">
-        <v>8.620281878851854e-18</v>
+        <v>2.045321550738343e-07</v>
       </c>
       <c r="AZ5" t="n">
-        <v>5.50916980837185e-18</v>
+        <v>-2.630062894202653e-07</v>
       </c>
       <c r="BA5" t="n">
-        <v>2.820654246692083e-17</v>
+        <v>8.217552839521146e-07</v>
       </c>
       <c r="BB5" t="n">
-        <v>-1.397550039930661e-17</v>
+        <v>-1.012525928378473e-07</v>
       </c>
       <c r="BC5" t="n">
-        <v>2.360837067011077e-18</v>
+        <v>-8.726994962484346e-08</v>
       </c>
       <c r="BD5" t="n">
-        <v>1.729161896278662e-18</v>
+        <v>3.323071534284911e-08</v>
       </c>
       <c r="BE5" t="n">
-        <v>4.957683155841387e-18</v>
+        <v>6.752730383347916e-08</v>
       </c>
       <c r="BF5" t="n">
-        <v>-7.38279438391864e-19</v>
+        <v>-1.798673361262093e-09</v>
       </c>
       <c r="BG5" t="n">
-        <v>-6.839732308432273e-19</v>
+        <v>-1.005002326727406e-08</v>
       </c>
       <c r="BH5" t="n">
-        <v>3.043426891279163e-19</v>
+        <v>-5.388599303873056e-09</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.025353185969031e-18</v>
+        <v>1.140597466333522e-08</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-1.131120143022391e-19</v>
+        <v>7.174581898915118e-10</v>
       </c>
       <c r="BK5" t="n">
-        <v>-1.998221437664214e-20</v>
+        <v>-2.03855871533341e-09</v>
       </c>
       <c r="BL5" t="n">
-        <v>-4.666747834540547e-20</v>
+        <v>-1.059109257405366e-09</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.970924658108323e-19</v>
+        <v>1.390447454523892e-09</v>
       </c>
     </row>
     <row r="6">
@@ -1548,196 +1548,196 @@
         <v>134</v>
       </c>
       <c r="B6" t="n">
-        <v>2.60639191670623e-18</v>
+        <v>0.0002225816967763895</v>
       </c>
       <c r="C6" t="n">
-        <v>1.492109402904793e-17</v>
+        <v>0.0004155406053673525</v>
       </c>
       <c r="D6" t="n">
-        <v>3.674857399889254e-19</v>
+        <v>6.777222870035817e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>3.069195988480595e-18</v>
+        <v>5.105274980458566e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.804852933192281e-19</v>
+        <v>2.260583412847473e-06</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.710093051190179e-18</v>
+        <v>-5.935469302106473e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>4.060848660063369e-19</v>
+        <v>-1.225686457127822e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>-1.887969501868406e-19</v>
+        <v>-9.657777850658587e-06</v>
       </c>
       <c r="J6" t="n">
-        <v>4.104235745363228e-20</v>
+        <v>-1.7594465600049e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>-8.762353612933179e-20</v>
+        <v>3.871752847417506e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>1.161039555271446e-21</v>
+        <v>3.234673491056698e-06</v>
       </c>
       <c r="M6" t="n">
-        <v>4.696750282046654e-20</v>
+        <v>5.684473160926829e-07</v>
       </c>
       <c r="N6" t="n">
-        <v>1.934224480935207e-20</v>
+        <v>1.221681272821391e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>-2.212085269521618e-20</v>
+        <v>-3.59907499978907e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>2.636252461538101e-22</v>
+        <v>-7.911117403853463e-08</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.304980498647047e-22</v>
+        <v>-9.25737669240753e-08</v>
       </c>
       <c r="R6" t="n">
-        <v>2.395266529247222e-17</v>
+        <v>-6.198387148634037e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>-2.095146041211309e-17</v>
+        <v>6.242808662443703e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>-9.00171113903477e-19</v>
+        <v>-2.900622610881352e-07</v>
       </c>
       <c r="U6" t="n">
-        <v>-5.031717014459461e-18</v>
+        <v>7.323860559434038e-07</v>
       </c>
       <c r="V6" t="n">
-        <v>2.27362188953309e-18</v>
+        <v>-3.310993881299703e-07</v>
       </c>
       <c r="W6" t="n">
-        <v>1.318507920506489e-18</v>
+        <v>-8.910341777058279e-08</v>
       </c>
       <c r="X6" t="n">
-        <v>-7.398757762470919e-19</v>
+        <v>1.353153041740866e-08</v>
       </c>
       <c r="Y6" t="n">
-        <v>-3.452799016073664e-19</v>
+        <v>9.613919894085771e-09</v>
       </c>
       <c r="Z6" t="n">
-        <v>4.37699500407085e-19</v>
+        <v>-1.369717234845811e-07</v>
       </c>
       <c r="AA6" t="n">
-        <v>9.346900606171091e-20</v>
+        <v>7.164592827372091e-10</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.18151878029685e-21</v>
+        <v>3.943341645888572e-08</v>
       </c>
       <c r="AC6" t="n">
-        <v>-1.642275782931636e-19</v>
+        <v>6.559471556595817e-09</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.761986365840397e-20</v>
+        <v>-2.046549317456359e-09</v>
       </c>
       <c r="AE6" t="n">
-        <v>3.60149747374792e-20</v>
+        <v>-2.397421360221817e-09</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.231817233078293e-21</v>
+        <v>3.756397638481807e-09</v>
       </c>
       <c r="AG6" t="n">
-        <v>-2.427998676618247e-20</v>
+        <v>1.261996147066313e-09</v>
       </c>
       <c r="AH6" t="n">
-        <v>1.8261228923151e-17</v>
+        <v>0.0006547165369731619</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.152272023544127e-18</v>
+        <v>1.61714418227144e-05</v>
       </c>
       <c r="AJ6" t="n">
-        <v>2.454310817874077e-18</v>
+        <v>5.945318066193741e-05</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.525557262117131e-18</v>
+        <v>1.632469127839192e-05</v>
       </c>
       <c r="AL6" t="n">
-        <v>-6.359408994275068e-19</v>
+        <v>-2.56800715212558e-05</v>
       </c>
       <c r="AM6" t="n">
-        <v>-6.905564214416186e-19</v>
+        <v>-3.315476523367359e-05</v>
       </c>
       <c r="AN6" t="n">
-        <v>-1.377534116825049e-19</v>
+        <v>-5.709778223869602e-06</v>
       </c>
       <c r="AO6" t="n">
-        <v>-7.683023913468164e-20</v>
+        <v>-8.176211037217199e-06</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.440520790914634e-19</v>
+        <v>3.195105784830873e-06</v>
       </c>
       <c r="AQ6" t="n">
-        <v>-8.883164200213615e-20</v>
+        <v>2.162422204895392e-06</v>
       </c>
       <c r="AR6" t="n">
-        <v>7.925065457509464e-21</v>
+        <v>8.372528965713698e-07</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.334893257933824e-20</v>
+        <v>1.022634461419965e-06</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.182625792223455e-20</v>
+        <v>5.678727294764293e-07</v>
       </c>
       <c r="AU6" t="n">
-        <v>-8.663269364145577e-21</v>
+        <v>-1.817816045648471e-07</v>
       </c>
       <c r="AV6" t="n">
-        <v>-4.315535374525931e-21</v>
+        <v>-2.070523667954578e-07</v>
       </c>
       <c r="AW6" t="n">
-        <v>-1.71538794959462e-21</v>
+        <v>-1.258486298650471e-07</v>
       </c>
       <c r="AX6" t="n">
-        <v>-3.418762558299305e-18</v>
+        <v>2.107245117164421e-06</v>
       </c>
       <c r="AY6" t="n">
-        <v>-2.548429339921829e-18</v>
+        <v>5.604520756052448e-08</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-2.030235881356887e-18</v>
+        <v>3.178673447923526e-07</v>
       </c>
       <c r="BA6" t="n">
-        <v>-4.803616899510995e-18</v>
+        <v>9.883291704774935e-07</v>
       </c>
       <c r="BB6" t="n">
-        <v>2.186104393776675e-18</v>
+        <v>-1.309859346430065e-07</v>
       </c>
       <c r="BC6" t="n">
-        <v>6.074654470398167e-19</v>
+        <v>-4.222976547602654e-07</v>
       </c>
       <c r="BD6" t="n">
-        <v>2.010188372525553e-19</v>
+        <v>6.603624773802076e-09</v>
       </c>
       <c r="BE6" t="n">
-        <v>-4.317077635543808e-19</v>
+        <v>5.639666943957306e-09</v>
       </c>
       <c r="BF6" t="n">
-        <v>8.225501636016082e-20</v>
+        <v>-4.392644816939471e-10</v>
       </c>
       <c r="BG6" t="n">
-        <v>1.307558606170061e-19</v>
+        <v>-2.44176360708461e-08</v>
       </c>
       <c r="BH6" t="n">
-        <v>5.543307985269582e-20</v>
+        <v>1.995852031283559e-10</v>
       </c>
       <c r="BI6" t="n">
-        <v>-1.135828736319814e-19</v>
+        <v>1.738229096046846e-08</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-5.483732667470144e-22</v>
+        <v>1.01671138990708e-08</v>
       </c>
       <c r="BK6" t="n">
-        <v>1.520614210475291e-20</v>
+        <v>-5.898404309652081e-09</v>
       </c>
       <c r="BL6" t="n">
-        <v>2.04325499655625e-20</v>
+        <v>-2.274385390958972e-09</v>
       </c>
       <c r="BM6" t="n">
-        <v>-1.439925232102335e-20</v>
+        <v>1.252701883013457e-09</v>
       </c>
     </row>
     <row r="7">
@@ -1745,196 +1745,196 @@
         <v>136</v>
       </c>
       <c r="B7" t="n">
-        <v>-6.582757802102612e-16</v>
+        <v>0.0001904644632401063</v>
       </c>
       <c r="C7" t="n">
-        <v>-1.752700414996124e-15</v>
+        <v>0.0003983417256357994</v>
       </c>
       <c r="D7" t="n">
-        <v>-8.520581259101144e-17</v>
+        <v>3.878085362306837e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.794990471081616e-16</v>
+        <v>4.651238016249173e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.3680538160004e-17</v>
+        <v>8.427191285051169e-07</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.650882029189388e-17</v>
+        <v>-9.754075029296813e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.974053857934118e-16</v>
+        <v>1.658643485949087e-05</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.304375045949375e-18</v>
+        <v>-5.147182890822775e-06</v>
       </c>
       <c r="J7" t="n">
-        <v>-3.723923500476712e-17</v>
+        <v>-4.634875686592241e-07</v>
       </c>
       <c r="K7" t="n">
-        <v>-1.508297048787076e-17</v>
+        <v>1.615039140903361e-06</v>
       </c>
       <c r="L7" t="n">
-        <v>-8.386294153906171e-18</v>
+        <v>-2.621784915396286e-07</v>
       </c>
       <c r="M7" t="n">
-        <v>-2.202141117380133e-17</v>
+        <v>4.218466615316853e-07</v>
       </c>
       <c r="N7" t="n">
-        <v>2.652089865236351e-18</v>
+        <v>-5.560765541082742e-07</v>
       </c>
       <c r="O7" t="n">
-        <v>-5.78904483530929e-18</v>
+        <v>1.160546820580121e-07</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.235127922431607e-18</v>
+        <v>2.446672972913055e-07</v>
       </c>
       <c r="Q7" t="n">
-        <v>-7.725027985926431e-19</v>
+        <v>-1.491427707976664e-07</v>
       </c>
       <c r="R7" t="n">
-        <v>-4.416486170664813e-15</v>
+        <v>-6.563148323342108e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>4.096461060766318e-15</v>
+        <v>6.4186995940557e-06</v>
       </c>
       <c r="T7" t="n">
-        <v>1.496112151736852e-16</v>
+        <v>5.013753108142923e-08</v>
       </c>
       <c r="U7" t="n">
-        <v>6.791211863814229e-16</v>
+        <v>5.928846907939079e-07</v>
       </c>
       <c r="V7" t="n">
-        <v>-9.923983401230842e-16</v>
+        <v>-8.935013764362821e-07</v>
       </c>
       <c r="W7" t="n">
-        <v>6.853813952795039e-18</v>
+        <v>2.105518214717027e-07</v>
       </c>
       <c r="X7" t="n">
-        <v>5.524039416760572e-16</v>
+        <v>3.615709924411425e-07</v>
       </c>
       <c r="Y7" t="n">
-        <v>-2.912494873345813e-17</v>
+        <v>-1.28925827362874e-07</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1.122617306048477e-16</v>
+        <v>-1.426904756375928e-07</v>
       </c>
       <c r="AA7" t="n">
-        <v>7.704797618392126e-19</v>
+        <v>9.271444738884014e-08</v>
       </c>
       <c r="AB7" t="n">
-        <v>4.004905127681742e-17</v>
+        <v>2.255217874004469e-08</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.325860998761631e-17</v>
+        <v>-8.869044332581752e-09</v>
       </c>
       <c r="AD7" t="n">
-        <v>-4.898914528338439e-17</v>
+        <v>-2.951340782592036e-08</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.208156375229341e-18</v>
+        <v>1.471067171466485e-08</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.256769959129499e-17</v>
+        <v>9.227194910291096e-09</v>
       </c>
       <c r="AG7" t="n">
-        <v>1.955120466735335e-18</v>
+        <v>-6.400667660319582e-09</v>
       </c>
       <c r="AH7" t="n">
-        <v>-2.35440991565397e-15</v>
+        <v>0.0005772139337387716</v>
       </c>
       <c r="AI7" t="n">
-        <v>-1.048923207209969e-16</v>
+        <v>2.941034007638933e-05</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-3.818035431534196e-16</v>
+        <v>8.373704649813404e-05</v>
       </c>
       <c r="AK7" t="n">
-        <v>-2.012873802560911e-16</v>
+        <v>4.602984580588334e-05</v>
       </c>
       <c r="AL7" t="n">
-        <v>6.230201539709607e-17</v>
+        <v>-3.360404071383267e-05</v>
       </c>
       <c r="AM7" t="n">
-        <v>-2.451942409079013e-16</v>
+        <v>1.617381689653136e-05</v>
       </c>
       <c r="AN7" t="n">
-        <v>-1.138781598243773e-17</v>
+        <v>-8.667920328663977e-07</v>
       </c>
       <c r="AO7" t="n">
-        <v>-5.755612119871539e-17</v>
+        <v>8.657059629074889e-07</v>
       </c>
       <c r="AP7" t="n">
-        <v>-2.594540071752422e-17</v>
+        <v>1.60730465095683e-06</v>
       </c>
       <c r="AQ7" t="n">
-        <v>7.387280756226054e-18</v>
+        <v>-2.535897096559863e-06</v>
       </c>
       <c r="AR7" t="n">
-        <v>-3.273658285965307e-17</v>
+        <v>1.72641500449245e-06</v>
       </c>
       <c r="AS7" t="n">
-        <v>6.005792526886628e-20</v>
+        <v>-4.057641686120431e-09</v>
       </c>
       <c r="AT7" t="n">
-        <v>-5.746083944366162e-18</v>
+        <v>-4.725883148703268e-07</v>
       </c>
       <c r="AU7" t="n">
-        <v>-3.929703923951288e-18</v>
+        <v>1.682550635522605e-07</v>
       </c>
       <c r="AV7" t="n">
-        <v>1.447128994014543e-19</v>
+        <v>-7.988240428396405e-09</v>
       </c>
       <c r="AW7" t="n">
-        <v>-4.048685564089224e-18</v>
+        <v>7.323432961171389e-08</v>
       </c>
       <c r="AX7" t="n">
-        <v>1.234813740195979e-15</v>
+        <v>2.165651856032959e-06</v>
       </c>
       <c r="AY7" t="n">
-        <v>-5.166308240395071e-16</v>
+        <v>-9.969339233115964e-07</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.122115949365127e-15</v>
+        <v>1.416032962953137e-06</v>
       </c>
       <c r="BA7" t="n">
-        <v>4.898529600661287e-16</v>
+        <v>1.144291096325257e-06</v>
       </c>
       <c r="BB7" t="n">
-        <v>-1.01892762094119e-15</v>
+        <v>-1.194863754586635e-06</v>
       </c>
       <c r="BC7" t="n">
-        <v>4.609675093342206e-16</v>
+        <v>2.180690325405255e-07</v>
       </c>
       <c r="BD7" t="n">
-        <v>5.181937989912589e-17</v>
+        <v>1.308001800088258e-07</v>
       </c>
       <c r="BE7" t="n">
-        <v>1.533236203731462e-16</v>
+        <v>7.440129746736252e-08</v>
       </c>
       <c r="BF7" t="n">
-        <v>-9.995122204602405e-17</v>
+        <v>-8.903071724181738e-08</v>
       </c>
       <c r="BG7" t="n">
-        <v>-6.111421119307305e-17</v>
+        <v>-4.32138743486953e-08</v>
       </c>
       <c r="BH7" t="n">
-        <v>9.744192679442406e-17</v>
+        <v>6.235243566466483e-08</v>
       </c>
       <c r="BI7" t="n">
-        <v>-1.098409613925874e-18</v>
+        <v>7.297291554558014e-09</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-1.549003445270868e-17</v>
+        <v>-2.800100096899298e-08</v>
       </c>
       <c r="BK7" t="n">
-        <v>-5.468125306109862e-19</v>
+        <v>2.813787005617814e-09</v>
       </c>
       <c r="BL7" t="n">
-        <v>2.837691324516482e-18</v>
+        <v>7.271155962926224e-09</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.117711393600462e-17</v>
+        <v>1.677097956574728e-09</v>
       </c>
     </row>
     <row r="8">
@@ -1942,196 +1942,196 @@
         <v>138</v>
       </c>
       <c r="B8" t="n">
-        <v>2.178317131543554e-17</v>
+        <v>0.0002592514226815431</v>
       </c>
       <c r="C8" t="n">
-        <v>6.947464657819075e-17</v>
+        <v>0.0003755805645705154</v>
       </c>
       <c r="D8" t="n">
-        <v>1.922474870881307e-18</v>
+        <v>1.002249374157083e-05</v>
       </c>
       <c r="E8" t="n">
-        <v>1.51044749533316e-17</v>
+        <v>5.177325831009248e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.688834029142402e-18</v>
+        <v>2.737394264687057e-06</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.506935000399936e-18</v>
+        <v>-5.152459574342834e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>1.566868321660695e-18</v>
+        <v>-5.262369731943276e-06</v>
       </c>
       <c r="I8" t="n">
-        <v>-5.542708999035572e-19</v>
+        <v>-9.447177634897071e-06</v>
       </c>
       <c r="J8" t="n">
-        <v>3.895367740127907e-19</v>
+        <v>-1.695738912214105e-08</v>
       </c>
       <c r="K8" t="n">
-        <v>-7.788373319451545e-19</v>
+        <v>-1.232953460431744e-06</v>
       </c>
       <c r="L8" t="n">
-        <v>6.71231214564636e-20</v>
+        <v>3.157236478542477e-06</v>
       </c>
       <c r="M8" t="n">
-        <v>1.472395073893687e-19</v>
+        <v>3.341304442950293e-07</v>
       </c>
       <c r="N8" t="n">
-        <v>1.576988903627636e-19</v>
+        <v>1.48606576769678e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>-1.245807785884714e-19</v>
+        <v>-3.783170429778052e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>-2.192363439892962e-20</v>
+        <v>-9.807762157218428e-09</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.948166192497217e-21</v>
+        <v>-1.700560686587996e-07</v>
       </c>
       <c r="R8" t="n">
-        <v>1.269442339806544e-16</v>
+        <v>-1.934351428717971e-05</v>
       </c>
       <c r="S8" t="n">
-        <v>-1.123308603329895e-16</v>
+        <v>1.886207600215969e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>-7.08529422649462e-18</v>
+        <v>-3.217071015538329e-07</v>
       </c>
       <c r="U8" t="n">
-        <v>-2.629474751055987e-17</v>
+        <v>2.784265730215443e-06</v>
       </c>
       <c r="V8" t="n">
-        <v>2.049198691723329e-17</v>
+        <v>-1.828897045840118e-06</v>
       </c>
       <c r="W8" t="n">
-        <v>3.075479300828164e-18</v>
+        <v>4.993065322058662e-08</v>
       </c>
       <c r="X8" t="n">
-        <v>-4.367258659039683e-18</v>
+        <v>-5.049221517078684e-09</v>
       </c>
       <c r="Y8" t="n">
-        <v>-4.01079325905004e-18</v>
+        <v>1.900182796880196e-07</v>
       </c>
       <c r="Z8" t="n">
-        <v>3.253585336848714e-18</v>
+        <v>-5.083964433392731e-07</v>
       </c>
       <c r="AA8" t="n">
-        <v>1.322852947044758e-18</v>
+        <v>-5.587560194849795e-08</v>
       </c>
       <c r="AB8" t="n">
-        <v>-1.155933706306504e-19</v>
+        <v>1.298305674393872e-07</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.402851054705323e-18</v>
+        <v>6.53014805794666e-08</v>
       </c>
       <c r="AD8" t="n">
-        <v>2.724267286433793e-19</v>
+        <v>-2.183948660183537e-08</v>
       </c>
       <c r="AE8" t="n">
-        <v>3.749771858341315e-19</v>
+        <v>-2.35092876763602e-08</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.502077909911724e-19</v>
+        <v>1.577942488214339e-08</v>
       </c>
       <c r="AG8" t="n">
-        <v>-2.783517746082349e-19</v>
+        <v>1.158633746875293e-08</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.562314854434125e-17</v>
+        <v>0.0006529566493388794</v>
       </c>
       <c r="AI8" t="n">
-        <v>2.721276757631751e-18</v>
+        <v>7.82458118593694e-06</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1.523439785314117e-17</v>
+        <v>7.286868581337918e-05</v>
       </c>
       <c r="AK8" t="n">
-        <v>3.671948213567889e-18</v>
+        <v>-2.155043051803827e-07</v>
       </c>
       <c r="AL8" t="n">
-        <v>-8.519911672046886e-19</v>
+        <v>-1.69711909450184e-05</v>
       </c>
       <c r="AM8" t="n">
-        <v>-2.116866207801567e-18</v>
+        <v>-3.13265341714508e-05</v>
       </c>
       <c r="AN8" t="n">
-        <v>-6.424033922430377e-19</v>
+        <v>-5.975975355876662e-06</v>
       </c>
       <c r="AO8" t="n">
-        <v>-3.580198156705563e-19</v>
+        <v>-8.932898128884764e-06</v>
       </c>
       <c r="AP8" t="n">
-        <v>5.287468708526708e-19</v>
+        <v>2.788165177884282e-06</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-3.47377652535311e-19</v>
+        <v>2.086148184715535e-06</v>
       </c>
       <c r="AR8" t="n">
-        <v>2.150136351601815e-20</v>
+        <v>1.017020124743649e-06</v>
       </c>
       <c r="AS8" t="n">
-        <v>-3.951522346079061e-20</v>
+        <v>6.777338248153138e-07</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.298928399809936e-19</v>
+        <v>5.65410218089746e-07</v>
       </c>
       <c r="AU8" t="n">
-        <v>-2.928925435466612e-20</v>
+        <v>2.374078075812019e-08</v>
       </c>
       <c r="AV8" t="n">
-        <v>-1.108211924458871e-20</v>
+        <v>-1.925301220634293e-07</v>
       </c>
       <c r="AW8" t="n">
-        <v>-2.220633180461635e-20</v>
+        <v>-1.451692264308789e-07</v>
       </c>
       <c r="AX8" t="n">
-        <v>-2.891816052057957e-17</v>
+        <v>7.680200554599926e-06</v>
       </c>
       <c r="AY8" t="n">
-        <v>-8.279337104184498e-18</v>
+        <v>-8.91344378941586e-07</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-9.441281749996646e-18</v>
+        <v>1.447276171548725e-06</v>
       </c>
       <c r="BA8" t="n">
-        <v>-2.082352202855052e-17</v>
+        <v>2.816050297406101e-06</v>
       </c>
       <c r="BB8" t="n">
-        <v>9.126936791935672e-18</v>
+        <v>6.924665138301057e-08</v>
       </c>
       <c r="BC8" t="n">
-        <v>1.846075122800315e-18</v>
+        <v>-1.514687047736843e-06</v>
       </c>
       <c r="BD8" t="n">
-        <v>2.094758908388354e-18</v>
+        <v>-7.814413711513912e-08</v>
       </c>
       <c r="BE8" t="n">
-        <v>-3.086399315038884e-18</v>
+        <v>5.532890839862077e-08</v>
       </c>
       <c r="BF8" t="n">
-        <v>4.297630619089485e-19</v>
+        <v>9.38934872433032e-08</v>
       </c>
       <c r="BG8" t="n">
-        <v>5.682350195000236e-19</v>
+        <v>-1.330884394533024e-07</v>
       </c>
       <c r="BH8" t="n">
-        <v>6.383283200512148e-19</v>
+        <v>-2.177587403008949e-08</v>
       </c>
       <c r="BI8" t="n">
-        <v>-6.192992753347725e-19</v>
+        <v>5.107538372744233e-08</v>
       </c>
       <c r="BJ8" t="n">
-        <v>-1.035115360244203e-19</v>
+        <v>5.505597415751022e-08</v>
       </c>
       <c r="BK8" t="n">
-        <v>3.982042995469572e-20</v>
+        <v>-1.89176239119896e-08</v>
       </c>
       <c r="BL8" t="n">
-        <v>2.004934921621842e-19</v>
+        <v>-1.567621144918746e-08</v>
       </c>
       <c r="BM8" t="n">
-        <v>-7.54997672042222e-20</v>
+        <v>2.249583307885301e-09</v>
       </c>
     </row>
     <row r="9">
@@ -2139,196 +2139,196 @@
         <v>144</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.907623986958843e-16</v>
+        <v>0.0002748179204801652</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.04100631152051e-16</v>
+        <v>0.0002474352481558288</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.174366310225006e-17</v>
+        <v>4.211552379074189e-05</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.989243499901447e-17</v>
+        <v>2.248683626370174e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>-3.110296059382897e-17</v>
+        <v>2.426130838535815e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>6.895992883675322e-18</v>
+        <v>-2.080942901562849e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.466678671920023e-18</v>
+        <v>-4.167235693876173e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>-6.08245946770919e-19</v>
+        <v>-3.863838527036071e-06</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.024902578201991e-18</v>
+        <v>-2.284092628818411e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>1.061834939063167e-18</v>
+        <v>-1.140660178539671e-06</v>
       </c>
       <c r="L9" t="n">
-        <v>7.563719473941486e-20</v>
+        <v>5.821988507074364e-07</v>
       </c>
       <c r="M9" t="n">
-        <v>3.877707018377247e-20</v>
+        <v>-1.75175191200211e-07</v>
       </c>
       <c r="N9" t="n">
-        <v>-3.391425472789634e-19</v>
+        <v>3.520279029654572e-07</v>
       </c>
       <c r="O9" t="n">
-        <v>8.969741089667049e-20</v>
+        <v>1.176921516184719e-07</v>
       </c>
       <c r="P9" t="n">
-        <v>9.86511990219611e-20</v>
+        <v>2.540958846330951e-08</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.93116578390257e-21</v>
+        <v>3.373657840235217e-10</v>
       </c>
       <c r="R9" t="n">
-        <v>-3.132109254665585e-16</v>
+        <v>-4.343814515520903e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>2.877351976144934e-16</v>
+        <v>4.2844329090981e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>-1.037943627862371e-17</v>
+        <v>-3.756386863850712e-06</v>
       </c>
       <c r="U9" t="n">
-        <v>3.53183703724811e-17</v>
+        <v>1.769579570100308e-06</v>
       </c>
       <c r="V9" t="n">
-        <v>3.101732672159282e-19</v>
+        <v>4.356558274019106e-06</v>
       </c>
       <c r="W9" t="n">
-        <v>-9.062754614097736e-18</v>
+        <v>-1.123114626271086e-06</v>
       </c>
       <c r="X9" t="n">
-        <v>5.785674667217546e-18</v>
+        <v>-7.154070608440232e-07</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.110400172029126e-18</v>
+        <v>6.486612069847869e-07</v>
       </c>
       <c r="Z9" t="n">
-        <v>-2.308619348201235e-18</v>
+        <v>-4.424547060074099e-07</v>
       </c>
       <c r="AA9" t="n">
-        <v>-3.24954440285846e-18</v>
+        <v>-2.560165491519081e-07</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.113520812564411e-18</v>
+        <v>1.143856302291235e-07</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.426438456048058e-18</v>
+        <v>5.633174279927731e-10</v>
       </c>
       <c r="AD9" t="n">
-        <v>-2.487459597167142e-19</v>
+        <v>-2.168776284845406e-08</v>
       </c>
       <c r="AE9" t="n">
-        <v>-7.488184200360252e-19</v>
+        <v>8.690955753526646e-09</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.385202674806273e-20</v>
+        <v>4.615622711035656e-09</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.452171013383628e-19</v>
+        <v>5.829055974844264e-09</v>
       </c>
       <c r="AH9" t="n">
-        <v>-3.769040603157816e-16</v>
+        <v>0.0004957018140633161</v>
       </c>
       <c r="AI9" t="n">
-        <v>-4.069509793498306e-17</v>
+        <v>5.697253578282468e-05</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-1.367390700411121e-17</v>
+        <v>3.01314094434973e-05</v>
       </c>
       <c r="AK9" t="n">
-        <v>-1.888886245193648e-17</v>
+        <v>1.210057868787452e-05</v>
       </c>
       <c r="AL9" t="n">
-        <v>-2.373244105900546e-17</v>
+        <v>9.268582419080627e-06</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.989984361037458e-18</v>
+        <v>-1.37526014189235e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.204316373304255e-18</v>
+        <v>-4.528462695395831e-06</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.909579354932695e-19</v>
+        <v>-6.700617641242082e-06</v>
       </c>
       <c r="AP9" t="n">
-        <v>-2.772572290363022e-18</v>
+        <v>9.48317548843426e-07</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-4.036804918004222e-19</v>
+        <v>5.198645373934662e-07</v>
       </c>
       <c r="AR9" t="n">
-        <v>9.702885119275449e-19</v>
+        <v>-5.14152847746027e-07</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.406136584087033e-19</v>
+        <v>-2.987738924063707e-07</v>
       </c>
       <c r="AT9" t="n">
-        <v>-5.174556168217151e-19</v>
+        <v>6.513357483428808e-07</v>
       </c>
       <c r="AU9" t="n">
-        <v>-2.133610460550481e-19</v>
+        <v>1.613165284749949e-07</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.014189933758618e-19</v>
+        <v>-1.025512482721214e-07</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.326477297979753e-19</v>
+        <v>-6.143351637278865e-08</v>
       </c>
       <c r="AX9" t="n">
-        <v>1.585347785462268e-16</v>
+        <v>2.40821604348184e-05</v>
       </c>
       <c r="AY9" t="n">
-        <v>-7.278330861848987e-17</v>
+        <v>-9.425315201629456e-06</v>
       </c>
       <c r="AZ9" t="n">
-        <v>7.622538379332976e-18</v>
+        <v>-2.408700925836412e-06</v>
       </c>
       <c r="BA9" t="n">
-        <v>8.329016273539205e-17</v>
+        <v>1.530351597841209e-05</v>
       </c>
       <c r="BB9" t="n">
-        <v>9.858048372032617e-18</v>
+        <v>4.974950487106661e-07</v>
       </c>
       <c r="BC9" t="n">
-        <v>-3.352398092660257e-17</v>
+        <v>-5.584774060300866e-06</v>
       </c>
       <c r="BD9" t="n">
-        <v>-1.544058503213616e-18</v>
+        <v>4.938386786665084e-07</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.473309456745858e-17</v>
+        <v>1.585628757496461e-06</v>
       </c>
       <c r="BF9" t="n">
-        <v>3.135231775518483e-18</v>
+        <v>-3.150869941685741e-07</v>
       </c>
       <c r="BG9" t="n">
-        <v>-6.579059284521264e-18</v>
+        <v>-6.946411253642015e-07</v>
       </c>
       <c r="BH9" t="n">
-        <v>-2.058059848713593e-18</v>
+        <v>-3.558981543752946e-08</v>
       </c>
       <c r="BI9" t="n">
-        <v>2.823196446934034e-18</v>
+        <v>2.81585276441301e-07</v>
       </c>
       <c r="BJ9" t="n">
-        <v>1.341566395624819e-18</v>
+        <v>5.528807949508495e-08</v>
       </c>
       <c r="BK9" t="n">
-        <v>-1.229249264370073e-18</v>
+        <v>-1.278074136157063e-07</v>
       </c>
       <c r="BL9" t="n">
-        <v>-7.54173629856513e-19</v>
+        <v>-2.120065011199859e-08</v>
       </c>
       <c r="BM9" t="n">
-        <v>5.00275063594218e-19</v>
+        <v>6.089661962399806e-08</v>
       </c>
     </row>
     <row r="10">
@@ -2336,196 +2336,196 @@
         <v>146</v>
       </c>
       <c r="B10" t="n">
-        <v>6.047059267205604e-18</v>
+        <v>0.000249251344690498</v>
       </c>
       <c r="C10" t="n">
-        <v>4.441491756973124e-17</v>
+        <v>0.0004279153783084023</v>
       </c>
       <c r="D10" t="n">
-        <v>1.782432550765091e-18</v>
+        <v>5.912473232605499e-06</v>
       </c>
       <c r="E10" t="n">
-        <v>9.199572997049921e-18</v>
+        <v>5.313540506478162e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>1.130864744687377e-18</v>
+        <v>9.664155196012543e-06</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.513581409534335e-18</v>
+        <v>-4.674804711895057e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.142074028584385e-19</v>
+        <v>-1.169372952936124e-05</v>
       </c>
       <c r="I10" t="n">
-        <v>-4.78833040517206e-19</v>
+        <v>-3.896914439216095e-06</v>
       </c>
       <c r="J10" t="n">
-        <v>-4.711838682667743e-19</v>
+        <v>-4.558505778387441e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>-1.77067674538823e-19</v>
+        <v>-1.639558418102692e-06</v>
       </c>
       <c r="L10" t="n">
-        <v>1.147918200065965e-19</v>
+        <v>3.298822782758235e-06</v>
       </c>
       <c r="M10" t="n">
-        <v>8.201397302917926e-20</v>
+        <v>6.372962023789322e-07</v>
       </c>
       <c r="N10" t="n">
-        <v>5.104831969625382e-20</v>
+        <v>8.756313768252687e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>-2.939288282127737e-20</v>
+        <v>5.311575769126224e-08</v>
       </c>
       <c r="P10" t="n">
-        <v>1.431791048329583e-20</v>
+        <v>-1.294125452516715e-08</v>
       </c>
       <c r="Q10" t="n">
-        <v>9.799054505390727e-21</v>
+        <v>-5.725531763743064e-08</v>
       </c>
       <c r="R10" t="n">
-        <v>8.970646559716964e-17</v>
+        <v>-1.585268570367533e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>-7.424560190310837e-17</v>
+        <v>1.447423445155914e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>-2.754783993675206e-18</v>
+        <v>1.849054614650136e-08</v>
       </c>
       <c r="U10" t="n">
-        <v>-1.744247531134291e-17</v>
+        <v>2.428868000500807e-06</v>
       </c>
       <c r="V10" t="n">
-        <v>3.773362174160834e-19</v>
+        <v>-5.598258886069693e-07</v>
       </c>
       <c r="W10" t="n">
-        <v>5.265082051781482e-18</v>
+        <v>-3.041526945598241e-07</v>
       </c>
       <c r="X10" t="n">
-        <v>-2.159394673041582e-18</v>
+        <v>-7.199497750996121e-08</v>
       </c>
       <c r="Y10" t="n">
-        <v>-3.377254506334982e-19</v>
+        <v>2.007021204327113e-07</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.649225285629037e-18</v>
+        <v>-3.452466076870116e-07</v>
       </c>
       <c r="AA10" t="n">
-        <v>3.943195579661091e-19</v>
+        <v>-1.425176783959664e-07</v>
       </c>
       <c r="AB10" t="n">
-        <v>-3.042028151241784e-19</v>
+        <v>1.23319747283177e-07</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.727184732709434e-19</v>
+        <v>3.689105057276535e-08</v>
       </c>
       <c r="AD10" t="n">
-        <v>4.952264685237653e-20</v>
+        <v>-1.469520656936227e-08</v>
       </c>
       <c r="AE10" t="n">
-        <v>6.690148324106653e-20</v>
+        <v>-1.35793018912358e-08</v>
       </c>
       <c r="AF10" t="n">
-        <v>-5.401002299229216e-20</v>
+        <v>1.566826969858051e-08</v>
       </c>
       <c r="AG10" t="n">
-        <v>-3.794019690665325e-20</v>
+        <v>6.523872701950959e-09</v>
       </c>
       <c r="AH10" t="n">
-        <v>5.235144966915232e-17</v>
+        <v>0.0006807093535351944</v>
       </c>
       <c r="AI10" t="n">
-        <v>3.775577367972929e-18</v>
+        <v>2.467711620584581e-05</v>
       </c>
       <c r="AJ10" t="n">
-        <v>8.093467376630435e-18</v>
+        <v>5.620649758759845e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>6.86286593696246e-18</v>
+        <v>3.428977228644877e-05</v>
       </c>
       <c r="AL10" t="n">
-        <v>-6.29743357093541e-19</v>
+        <v>-6.23360128278726e-06</v>
       </c>
       <c r="AM10" t="n">
-        <v>-3.781092026074427e-18</v>
+        <v>-4.689231045150149e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>-8.183759239457264e-21</v>
+        <v>-4.027046249317675e-06</v>
       </c>
       <c r="AO10" t="n">
-        <v>-3.734580655729863e-19</v>
+        <v>-6.083110932620563e-06</v>
       </c>
       <c r="AP10" t="n">
-        <v>3.953309136041539e-20</v>
+        <v>-1.018384848264849e-07</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-2.750164090499375e-19</v>
+        <v>9.483389413444108e-07</v>
       </c>
       <c r="AR10" t="n">
-        <v>5.818152920166435e-20</v>
+        <v>7.79577981024489e-07</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.156286578467815e-19</v>
+        <v>9.23339386023283e-07</v>
       </c>
       <c r="AT10" t="n">
-        <v>5.708584354369635e-20</v>
+        <v>1.020379696222981e-06</v>
       </c>
       <c r="AU10" t="n">
-        <v>-4.095105920100148e-20</v>
+        <v>-2.337841560334812e-08</v>
       </c>
       <c r="AV10" t="n">
-        <v>2.523376353980754e-21</v>
+        <v>-3.307627710196888e-07</v>
       </c>
       <c r="AW10" t="n">
-        <v>9.190449583653415e-21</v>
+        <v>1.184929601568799e-08</v>
       </c>
       <c r="AX10" t="n">
-        <v>-1.035871584216093e-17</v>
+        <v>5.804678284431063e-06</v>
       </c>
       <c r="AY10" t="n">
-        <v>-2.364646491194286e-18</v>
+        <v>-2.154585050943282e-06</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-1.295227688616628e-17</v>
+        <v>2.134784182466687e-06</v>
       </c>
       <c r="BA10" t="n">
-        <v>-2.10224370725301e-17</v>
+        <v>3.178000126163309e-06</v>
       </c>
       <c r="BB10" t="n">
-        <v>4.24226234982892e-18</v>
+        <v>4.498302882574351e-07</v>
       </c>
       <c r="BC10" t="n">
-        <v>5.995664752620529e-18</v>
+        <v>-2.043407015252037e-06</v>
       </c>
       <c r="BD10" t="n">
-        <v>-1.451251355934334e-18</v>
+        <v>2.385175639954667e-07</v>
       </c>
       <c r="BE10" t="n">
-        <v>-8.097305361567176e-19</v>
+        <v>2.263112263260556e-07</v>
       </c>
       <c r="BF10" t="n">
-        <v>7.801862756799997e-19</v>
+        <v>-3.299601777246877e-08</v>
       </c>
       <c r="BG10" t="n">
-        <v>7.620830932468273e-19</v>
+        <v>-2.341012989146199e-07</v>
       </c>
       <c r="BH10" t="n">
-        <v>-1.552578970913335e-19</v>
+        <v>2.170583205752792e-08</v>
       </c>
       <c r="BI10" t="n">
-        <v>-3.460201590645996e-19</v>
+        <v>7.418460734902541e-08</v>
       </c>
       <c r="BJ10" t="n">
-        <v>9.097710113591748e-21</v>
+        <v>4.033281137939998e-08</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.208838745501879e-19</v>
+        <v>-3.267790175880166e-08</v>
       </c>
       <c r="BL10" t="n">
-        <v>-2.582929856581172e-20</v>
+        <v>-1.195147175136605e-08</v>
       </c>
       <c r="BM10" t="n">
-        <v>-5.077809259912167e-20</v>
+        <v>1.436883973143224e-08</v>
       </c>
     </row>
     <row r="11">
@@ -2533,196 +2533,196 @@
         <v>156</v>
       </c>
       <c r="B11" t="n">
-        <v>-4.902680059353808e-18</v>
+        <v>4.249010848261745e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>1.732278265818183e-19</v>
+        <v>-4.675644347118968e-07</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.911938105186537e-19</v>
+        <v>7.70855823949513e-06</v>
       </c>
       <c r="E11" t="n">
-        <v>2.703726069985755e-19</v>
+        <v>-2.270334974039178e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>-4.419665498605006e-19</v>
+        <v>4.760313908967239e-06</v>
       </c>
       <c r="G11" t="n">
-        <v>2.29449206983485e-19</v>
+        <v>-1.811459470846858e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.595528515244838e-19</v>
+        <v>2.162394027764256e-06</v>
       </c>
       <c r="I11" t="n">
-        <v>5.841573828832841e-20</v>
+        <v>-5.444634885999541e-07</v>
       </c>
       <c r="J11" t="n">
-        <v>-3.705702695710605e-20</v>
+        <v>3.935794341126496e-07</v>
       </c>
       <c r="K11" t="n">
-        <v>4.352430228141989e-20</v>
+        <v>-2.791125141868813e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>-3.841984920952684e-20</v>
+        <v>3.38107894230932e-07</v>
       </c>
       <c r="M11" t="n">
-        <v>5.996928316065971e-21</v>
+        <v>-7.972051869664185e-08</v>
       </c>
       <c r="N11" t="n">
-        <v>-5.368491596922043e-21</v>
+        <v>3.855256181237149e-08</v>
       </c>
       <c r="O11" t="n">
-        <v>9.258131246279513e-21</v>
+        <v>-5.112516539418513e-08</v>
       </c>
       <c r="P11" t="n">
-        <v>-5.459012236629007e-21</v>
+        <v>4.979650925892984e-08</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.666954169851505e-22</v>
+        <v>-8.999763600160726e-09</v>
       </c>
       <c r="R11" t="n">
-        <v>-1.515774265421453e-18</v>
+        <v>-5.808454129247534e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>2.498752556009963e-18</v>
+        <v>9.256514223029588e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.312860406722378e-18</v>
+        <v>-4.715470129707216e-06</v>
       </c>
       <c r="U11" t="n">
-        <v>2.465180131343111e-19</v>
+        <v>9.584800939345432e-07</v>
       </c>
       <c r="V11" t="n">
-        <v>4.75774083483897e-20</v>
+        <v>1.508200178226743e-07</v>
       </c>
       <c r="W11" t="n">
-        <v>1.014301868902325e-19</v>
+        <v>4.457885489314884e-07</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.443155850547308e-20</v>
+        <v>-4.440702876703071e-07</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.944861432088427e-21</v>
+        <v>1.289515957009531e-07</v>
       </c>
       <c r="Z11" t="n">
-        <v>-4.477134852497436e-21</v>
+        <v>2.621479457841592e-09</v>
       </c>
       <c r="AA11" t="n">
-        <v>2.873664768424138e-20</v>
+        <v>6.882115805538186e-08</v>
       </c>
       <c r="AB11" t="n">
-        <v>-1.698989835196379e-20</v>
+        <v>-6.237054888697093e-08</v>
       </c>
       <c r="AC11" t="n">
-        <v>2.261431214689441e-21</v>
+        <v>1.653647440595625e-08</v>
       </c>
       <c r="AD11" t="n">
-        <v>-3.10513992588926e-21</v>
+        <v>-4.499516772976222e-09</v>
       </c>
       <c r="AE11" t="n">
-        <v>5.192771899490883e-21</v>
+        <v>1.334202260556799e-08</v>
       </c>
       <c r="AF11" t="n">
-        <v>-1.702730346550035e-21</v>
+        <v>-7.97743317562331e-09</v>
       </c>
       <c r="AG11" t="n">
-        <v>-7.274248728292603e-23</v>
+        <v>9.664315161104207e-10</v>
       </c>
       <c r="AH11" t="n">
-        <v>-3.164209370858152e-18</v>
+        <v>2.871864449936635e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>-1.423305158922113e-18</v>
+        <v>1.201136166953156e-05</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-2.128163647660051e-19</v>
+        <v>1.904119483059824e-07</v>
       </c>
       <c r="AK11" t="n">
-        <v>4.744571626756742e-19</v>
+        <v>-2.539042733678585e-06</v>
       </c>
       <c r="AL11" t="n">
-        <v>-1.411740653724342e-22</v>
+        <v>4.481840477726661e-07</v>
       </c>
       <c r="AM11" t="n">
-        <v>-3.543909183328366e-19</v>
+        <v>3.274419667451186e-06</v>
       </c>
       <c r="AN11" t="n">
-        <v>-1.222002123503764e-19</v>
+        <v>5.50693670705519e-07</v>
       </c>
       <c r="AO11" t="n">
-        <v>1.223265127845736e-19</v>
+        <v>-9.159208971109821e-07</v>
       </c>
       <c r="AP11" t="n">
-        <v>4.751344259506371e-20</v>
+        <v>-2.537469017854933e-07</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-4.731825164976382e-20</v>
+        <v>5.351798732542363e-07</v>
       </c>
       <c r="AR11" t="n">
-        <v>-3.803428996137092e-20</v>
+        <v>2.04154588846823e-07</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.53352006103598e-20</v>
+        <v>-1.559555879528071e-07</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.601542289294491e-20</v>
+        <v>-1.003256558769559e-07</v>
       </c>
       <c r="AU11" t="n">
-        <v>-3.691041788402688e-21</v>
+        <v>7.013289266066819e-08</v>
       </c>
       <c r="AV11" t="n">
-        <v>-8.503209175184782e-21</v>
+        <v>5.29991360575981e-08</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.792459808314973e-22</v>
+        <v>-1.684225311012545e-08</v>
       </c>
       <c r="AX11" t="n">
-        <v>2.348562699130042e-18</v>
+        <v>8.593801706725683e-06</v>
       </c>
       <c r="AY11" t="n">
-        <v>-1.458612137363887e-18</v>
+        <v>-5.529836908928941e-06</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-3.548231807384524e-19</v>
+        <v>-8.92104753758968e-07</v>
       </c>
       <c r="BA11" t="n">
-        <v>5.625251533307767e-19</v>
+        <v>1.918906484025655e-06</v>
       </c>
       <c r="BB11" t="n">
-        <v>1.221637506043595e-19</v>
+        <v>5.96105176035404e-07</v>
       </c>
       <c r="BC11" t="n">
-        <v>-1.128177249118983e-19</v>
+        <v>-6.809957672271749e-07</v>
       </c>
       <c r="BD11" t="n">
-        <v>-1.172173047819119e-19</v>
+        <v>-2.744861605670838e-07</v>
       </c>
       <c r="BE11" t="n">
-        <v>5.69261989088212e-20</v>
+        <v>2.611198688517257e-07</v>
       </c>
       <c r="BF11" t="n">
-        <v>5.288615930340483e-20</v>
+        <v>1.531894887664234e-07</v>
       </c>
       <c r="BG11" t="n">
-        <v>-1.418163245451784e-20</v>
+        <v>-8.741327816868208e-08</v>
       </c>
       <c r="BH11" t="n">
-        <v>-2.391697378573271e-20</v>
+        <v>-6.686495989386325e-08</v>
       </c>
       <c r="BI11" t="n">
-        <v>2.057636943526801e-21</v>
+        <v>2.354237960042769e-08</v>
       </c>
       <c r="BJ11" t="n">
-        <v>1.052972993783556e-20</v>
+        <v>3.503865467234037e-08</v>
       </c>
       <c r="BK11" t="n">
-        <v>1.3771648289163e-21</v>
+        <v>-5.723331252020211e-09</v>
       </c>
       <c r="BL11" t="n">
-        <v>-4.65423402830522e-21</v>
+        <v>-1.473751708403849e-08</v>
       </c>
       <c r="BM11" t="n">
-        <v>-1.125875783974621e-21</v>
+        <v>-1.469306037592474e-10</v>
       </c>
     </row>
     <row r="12">
@@ -2730,196 +2730,196 @@
         <v>158</v>
       </c>
       <c r="B12" t="n">
-        <v>2.652629912263155e-17</v>
+        <v>6.014346840733705e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>3.328907413649811e-16</v>
+        <v>0.0003733645384210431</v>
       </c>
       <c r="D12" t="n">
-        <v>1.342452384870517e-17</v>
+        <v>1.749560727215773e-05</v>
       </c>
       <c r="E12" t="n">
-        <v>-9.98631757206443e-18</v>
+        <v>-3.135074672510101e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.308229382604754e-17</v>
+        <v>-6.613755618543012e-06</v>
       </c>
       <c r="G12" t="n">
-        <v>4.515709468517697e-17</v>
+        <v>3.919663592122274e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>1.69207454017152e-17</v>
+        <v>1.348496312456435e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>-6.401181854598849e-18</v>
+        <v>-5.396399059032068e-06</v>
       </c>
       <c r="J12" t="n">
-        <v>-6.446183552042725e-18</v>
+        <v>-6.723113913976122e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>8.467578964684309e-18</v>
+        <v>7.328103769530768e-06</v>
       </c>
       <c r="L12" t="n">
-        <v>3.91937452424009e-18</v>
+        <v>3.499998837483656e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>-1.487745178982359e-18</v>
+        <v>-1.875516368717342e-06</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.669564623574631e-18</v>
+        <v>-1.846385017632714e-06</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37362547070537e-18</v>
+        <v>1.381278538409085e-06</v>
       </c>
       <c r="P12" t="n">
-        <v>9.189540476078279e-19</v>
+        <v>8.597034754592376e-07</v>
       </c>
       <c r="Q12" t="n">
-        <v>-2.697364744576696e-19</v>
+        <v>-4.286635764698607e-07</v>
       </c>
       <c r="R12" t="n">
-        <v>3.917092721427417e-16</v>
+        <v>4.422399883762816e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>-4.255386876387781e-16</v>
+        <v>-4.717817209545399e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>-2.401790969992045e-17</v>
+        <v>-3.877951268038286e-06</v>
       </c>
       <c r="U12" t="n">
-        <v>4.892708893166512e-17</v>
+        <v>5.835327139799341e-06</v>
       </c>
       <c r="V12" t="n">
-        <v>8.859862344448854e-17</v>
+        <v>9.549641969308758e-06</v>
       </c>
       <c r="W12" t="n">
-        <v>-7.936263695442294e-17</v>
+        <v>-8.892539856235516e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>-1.811749250372473e-17</v>
+        <v>-1.793051593002268e-06</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.464034863899972e-17</v>
+        <v>1.73452055781278e-06</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.844439284829428e-17</v>
+        <v>2.148884883668505e-06</v>
       </c>
       <c r="AA12" t="n">
-        <v>-1.35218482271992e-17</v>
+        <v>-1.645273358964732e-06</v>
       </c>
       <c r="AB12" t="n">
-        <v>-5.443574353924094e-18</v>
+        <v>-6.247505968565867e-07</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.761423113632138e-18</v>
+        <v>4.149684768813192e-07</v>
       </c>
       <c r="AD12" t="n">
-        <v>4.064802797521593e-18</v>
+        <v>5.059645306910542e-07</v>
       </c>
       <c r="AE12" t="n">
-        <v>-2.145051154616918e-18</v>
+        <v>-3.079674940958834e-07</v>
       </c>
       <c r="AF12" t="n">
-        <v>-1.454272682023516e-18</v>
+        <v>-1.836986667716763e-07</v>
       </c>
       <c r="AG12" t="n">
-        <v>4.555212972679473e-19</v>
+        <v>9.009853362901657e-08</v>
       </c>
       <c r="AH12" t="n">
-        <v>3.290204225787765e-16</v>
+        <v>0.0004126322376578592</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.451233931055985e-17</v>
+        <v>7.114966536862254e-05</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-4.940280869431779e-18</v>
+        <v>-3.770384182700733e-06</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.869103741351014e-17</v>
+        <v>3.109898663452903e-05</v>
       </c>
       <c r="AL12" t="n">
-        <v>1.505089428192755e-17</v>
+        <v>2.0746529533524e-05</v>
       </c>
       <c r="AM12" t="n">
-        <v>2.487218440127472e-17</v>
+        <v>1.271722760167978e-05</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.255139942965549e-18</v>
+        <v>1.960148320299493e-06</v>
       </c>
       <c r="AO12" t="n">
-        <v>-3.620915473270651e-18</v>
+        <v>-1.01042677136171e-06</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.527936735584275e-18</v>
+        <v>2.201261000228306e-06</v>
       </c>
       <c r="AQ12" t="n">
-        <v>5.001911582417732e-18</v>
+        <v>3.034993520820385e-06</v>
       </c>
       <c r="AR12" t="n">
-        <v>4.651340605749581e-19</v>
+        <v>-2.376207243766666e-07</v>
       </c>
       <c r="AS12" t="n">
-        <v>-1.035315913580048e-18</v>
+        <v>-7.82983046356974e-07</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.346098896945221e-19</v>
+        <v>3.690207083320416e-07</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.381003191793267e-19</v>
+        <v>5.999683319358201e-07</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.377686874050647e-19</v>
+        <v>-8.32919177775718e-08</v>
       </c>
       <c r="AW12" t="n">
-        <v>-2.497180769276844e-19</v>
+        <v>-2.157934875839717e-07</v>
       </c>
       <c r="AX12" t="n">
-        <v>-3.158052524699137e-17</v>
+        <v>-6.4459266791698e-06</v>
       </c>
       <c r="AY12" t="n">
-        <v>-1.391742869441467e-16</v>
+        <v>-1.397903999868284e-05</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1.381279738582375e-17</v>
+        <v>3.651806651083911e-06</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.307315708793287e-17</v>
+        <v>2.711380368013308e-06</v>
       </c>
       <c r="BB12" t="n">
-        <v>-2.886913851185964e-18</v>
+        <v>-1.774719764811024e-06</v>
       </c>
       <c r="BC12" t="n">
-        <v>-3.917152583365218e-17</v>
+        <v>-2.63004152122726e-06</v>
       </c>
       <c r="BD12" t="n">
-        <v>4.488707810301415e-18</v>
+        <v>8.817187873379614e-07</v>
       </c>
       <c r="BE12" t="n">
-        <v>1.154373718855008e-17</v>
+        <v>7.848358310214982e-07</v>
       </c>
       <c r="BF12" t="n">
-        <v>-5.655586636178047e-19</v>
+        <v>-3.042720100874026e-07</v>
       </c>
       <c r="BG12" t="n">
-        <v>-7.427839196297731e-18</v>
+        <v>-5.56398626536958e-07</v>
       </c>
       <c r="BH12" t="n">
-        <v>2.050198216798293e-19</v>
+        <v>1.551851584893954e-07</v>
       </c>
       <c r="BI12" t="n">
-        <v>2.513190348479305e-18</v>
+        <v>2.130377960916388e-07</v>
       </c>
       <c r="BJ12" t="n">
-        <v>2.250150514454174e-19</v>
+        <v>-4.784626381975173e-08</v>
       </c>
       <c r="BK12" t="n">
-        <v>-1.45466967803635e-18</v>
+        <v>-1.267430544647606e-07</v>
       </c>
       <c r="BL12" t="n">
-        <v>-1.338686936627547e-19</v>
+        <v>2.453297496368238e-08</v>
       </c>
       <c r="BM12" t="n">
-        <v>5.321317057351841e-19</v>
+        <v>5.392927791694086e-08</v>
       </c>
     </row>
     <row r="13">
@@ -2927,196 +2927,196 @@
         <v>174</v>
       </c>
       <c r="B13" t="n">
-        <v>2.463157390846996e-17</v>
+        <v>0.0003856531131026665</v>
       </c>
       <c r="C13" t="n">
-        <v>2.391659342449557e-18</v>
+        <v>-5.033109426218043e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>4.390106569747586e-18</v>
+        <v>7.840549508150306e-05</v>
       </c>
       <c r="E13" t="n">
-        <v>-8.578098984129757e-19</v>
+        <v>3.955783521495661e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.628212972354094e-18</v>
+        <v>-2.31382462538522e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.87531106860914e-18</v>
+        <v>-2.235384059974837e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.182792294330041e-19</v>
+        <v>-3.710504422597354e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>2.121930183861935e-19</v>
+        <v>1.59632839596382e-07</v>
       </c>
       <c r="J13" t="n">
-        <v>8.641148317786757e-20</v>
+        <v>2.826198667945928e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>3.041656439417242e-19</v>
+        <v>6.137796669093398e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>1.014850689252102e-19</v>
+        <v>2.099958329451269e-07</v>
       </c>
       <c r="M13" t="n">
-        <v>3.622499645549482e-20</v>
+        <v>9.399247038336122e-07</v>
       </c>
       <c r="N13" t="n">
-        <v>-5.151383728097347e-21</v>
+        <v>-2.753287464082681e-07</v>
       </c>
       <c r="O13" t="n">
-        <v>-5.582985079153017e-20</v>
+        <v>-1.585960621207108e-07</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.405796290054963e-20</v>
+        <v>-1.405154754480618e-07</v>
       </c>
       <c r="Q13" t="n">
-        <v>-1.070184568107698e-20</v>
+        <v>-4.958295091906527e-08</v>
       </c>
       <c r="R13" t="n">
-        <v>-9.943818293657602e-16</v>
+        <v>-8.016385619053004e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>1.399288652427103e-15</v>
+        <v>0.000124163604545974</v>
       </c>
       <c r="T13" t="n">
-        <v>-5.310032885187849e-16</v>
+        <v>-4.914232966166012e-05</v>
       </c>
       <c r="U13" t="n">
-        <v>1.753663315094267e-16</v>
+        <v>6.294684062244992e-06</v>
       </c>
       <c r="V13" t="n">
-        <v>6.730285639643247e-17</v>
+        <v>3.533858785886733e-06</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.805373867232104e-16</v>
+        <v>-1.059031270303948e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>1.225583568258091e-16</v>
+        <v>1.079486497286717e-05</v>
       </c>
       <c r="Y13" t="n">
-        <v>-8.384075804189922e-17</v>
+        <v>-6.336345779701983e-06</v>
       </c>
       <c r="Z13" t="n">
-        <v>1.446630828861342e-17</v>
+        <v>6.050276738464323e-07</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.816668908237507e-17</v>
+        <v>1.592109218204885e-06</v>
       </c>
       <c r="AB13" t="n">
-        <v>-1.554458311205731e-17</v>
+        <v>-1.190528412380551e-06</v>
       </c>
       <c r="AC13" t="n">
-        <v>1.444024258712504e-17</v>
+        <v>8.875546017294177e-07</v>
       </c>
       <c r="AD13" t="n">
-        <v>-5.951054327227442e-18</v>
+        <v>-4.895964811208004e-07</v>
       </c>
       <c r="AE13" t="n">
-        <v>7.887237432198808e-19</v>
+        <v>8.668954005833435e-09</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.096484476383163e-18</v>
+        <v>2.023625985982118e-07</v>
       </c>
       <c r="AG13" t="n">
-        <v>-2.215745247550506e-18</v>
+        <v>-1.697661849286813e-07</v>
       </c>
       <c r="AH13" t="n">
-        <v>1.829369070855761e-17</v>
+        <v>0.0002795077704572153</v>
       </c>
       <c r="AI13" t="n">
-        <v>1.074143547599654e-17</v>
+        <v>9.356111648779975e-05</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-3.266106953729114e-18</v>
+        <v>2.983642615401861e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>-2.379332629279221e-18</v>
+        <v>-4.422820566189683e-05</v>
       </c>
       <c r="AL13" t="n">
-        <v>-1.864916372656823e-18</v>
+        <v>-2.424311506130926e-05</v>
       </c>
       <c r="AM13" t="n">
-        <v>-4.128070046910869e-19</v>
+        <v>1.643762147689548e-06</v>
       </c>
       <c r="AN13" t="n">
-        <v>-3.753634278053873e-19</v>
+        <v>-3.725250765960317e-06</v>
       </c>
       <c r="AO13" t="n">
-        <v>-1.400691292890047e-19</v>
+        <v>-7.634719672818144e-07</v>
       </c>
       <c r="AP13" t="n">
-        <v>4.903366596224898e-19</v>
+        <v>7.870227601688316e-07</v>
       </c>
       <c r="AQ13" t="n">
-        <v>2.008613259770131e-19</v>
+        <v>1.791128374766731e-06</v>
       </c>
       <c r="AR13" t="n">
-        <v>5.196701508348685e-20</v>
+        <v>1.336629589872069e-06</v>
       </c>
       <c r="AS13" t="n">
-        <v>-2.058685141398421e-20</v>
+        <v>-5.17271868079201e-07</v>
       </c>
       <c r="AT13" t="n">
-        <v>-4.387679509226165e-20</v>
+        <v>-3.245958474283998e-07</v>
       </c>
       <c r="AU13" t="n">
-        <v>-1.364092938562184e-20</v>
+        <v>-4.675386494940764e-09</v>
       </c>
       <c r="AV13" t="n">
-        <v>-2.424738097349607e-20</v>
+        <v>-2.292450704175286e-08</v>
       </c>
       <c r="AW13" t="n">
-        <v>-3.961713230138543e-21</v>
+        <v>1.757412689371802e-09</v>
       </c>
       <c r="AX13" t="n">
-        <v>1.338884328791032e-15</v>
+        <v>0.0001106069362063501</v>
       </c>
       <c r="AY13" t="n">
-        <v>-1.134902558987796e-15</v>
+        <v>-6.697785464728132e-05</v>
       </c>
       <c r="AZ13" t="n">
-        <v>5.273828409251854e-16</v>
+        <v>1.639061967968746e-06</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.059361857210236e-16</v>
+        <v>1.777088070771987e-05</v>
       </c>
       <c r="BB13" t="n">
-        <v>-1.89562835543985e-16</v>
+        <v>-9.068904818979727e-06</v>
       </c>
       <c r="BC13" t="n">
-        <v>7.108537251224305e-17</v>
+        <v>3.936204933840546e-06</v>
       </c>
       <c r="BD13" t="n">
-        <v>-8.850087294801536e-17</v>
+        <v>-5.176428210521791e-06</v>
       </c>
       <c r="BE13" t="n">
-        <v>4.48764321854994e-17</v>
+        <v>8.218787780403832e-07</v>
       </c>
       <c r="BF13" t="n">
-        <v>6.724886542699155e-19</v>
+        <v>2.452191202917405e-06</v>
       </c>
       <c r="BG13" t="n">
-        <v>-1.556033794935792e-17</v>
+        <v>-1.543781104517873e-06</v>
       </c>
       <c r="BH13" t="n">
-        <v>1.687802715157281e-17</v>
+        <v>3.876611782358016e-07</v>
       </c>
       <c r="BI13" t="n">
-        <v>-5.092601956643208e-18</v>
+        <v>-9.028713535095892e-08</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1.894265539022738e-18</v>
+        <v>9.332772316788537e-09</v>
       </c>
       <c r="BK13" t="n">
-        <v>-7.107231147196685e-19</v>
+        <v>1.675137910887011e-07</v>
       </c>
       <c r="BL13" t="n">
-        <v>-1.63138293866556e-18</v>
+        <v>-1.937691908143673e-07</v>
       </c>
       <c r="BM13" t="n">
-        <v>1.261454945516526e-18</v>
+        <v>5.250960727858218e-08</v>
       </c>
     </row>
     <row r="14">
@@ -3124,196 +3124,196 @@
         <v>182</v>
       </c>
       <c r="B14" t="n">
-        <v>-8.284357390891915e-17</v>
+        <v>0.0002364644225889335</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.91520189442204e-17</v>
+        <v>0.0003401555954134977</v>
       </c>
       <c r="D14" t="n">
-        <v>2.252006956917788e-18</v>
+        <v>1.744548199533014e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.564032622877861e-17</v>
+        <v>3.934248423291974e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.358971247023599e-17</v>
+        <v>2.28141331681929e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>3.244660962340819e-18</v>
+        <v>-2.452569849361859e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.726273645089625e-18</v>
+        <v>1.794906986055755e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>-7.995356449595005e-19</v>
+        <v>2.988569149266858e-07</v>
       </c>
       <c r="J14" t="n">
-        <v>-3.15645637733232e-18</v>
+        <v>8.771463349070812e-08</v>
       </c>
       <c r="K14" t="n">
-        <v>-4.124747239424733e-19</v>
+        <v>-1.495951968761241e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>7.475574642948548e-19</v>
+        <v>-5.406099595628701e-07</v>
       </c>
       <c r="M14" t="n">
-        <v>-7.854284555222043e-19</v>
+        <v>7.800757413131996e-07</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.890662003426493e-19</v>
+        <v>1.445337652187419e-07</v>
       </c>
       <c r="O14" t="n">
-        <v>-1.819161170664773e-19</v>
+        <v>-3.650210237773105e-07</v>
       </c>
       <c r="P14" t="n">
-        <v>1.596196385788758e-20</v>
+        <v>1.162823508018468e-07</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.774612659767491e-20</v>
+        <v>7.442550290938852e-09</v>
       </c>
       <c r="R14" t="n">
-        <v>-5.275844360735778e-16</v>
+        <v>-2.505048345214271e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>5.290169363381122e-16</v>
+        <v>2.726684751160126e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>7.362252716401749e-18</v>
+        <v>-8.999048440010699e-07</v>
       </c>
       <c r="U14" t="n">
-        <v>3.958002546675254e-17</v>
+        <v>-7.223752568961015e-07</v>
       </c>
       <c r="V14" t="n">
-        <v>-7.800020568776257e-17</v>
+        <v>-1.695849001073235e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>-2.825940548124596e-17</v>
+        <v>3.784093448599517e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>6.524268757498537e-17</v>
+        <v>1.092262081615993e-06</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.470189041289083e-18</v>
+        <v>-8.727818246135487e-08</v>
       </c>
       <c r="Z14" t="n">
-        <v>-9.192582760526593e-18</v>
+        <v>-5.297918391294008e-07</v>
       </c>
       <c r="AA14" t="n">
-        <v>-3.928938122083374e-18</v>
+        <v>2.089745694958024e-07</v>
       </c>
       <c r="AB14" t="n">
-        <v>-6.114175150021036e-19</v>
+        <v>4.793350987299893e-08</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.663047075307745e-18</v>
+        <v>2.898517117036906e-08</v>
       </c>
       <c r="AD14" t="n">
-        <v>-2.08195591999181e-18</v>
+        <v>-5.794495478232553e-08</v>
       </c>
       <c r="AE14" t="n">
-        <v>-1.094339771561741e-18</v>
+        <v>-3.147673673746453e-09</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.702373202655288e-19</v>
+        <v>2.044696514674584e-08</v>
       </c>
       <c r="AG14" t="n">
-        <v>1.479057986318473e-19</v>
+        <v>2.916050396921387e-09</v>
       </c>
       <c r="AH14" t="n">
-        <v>-1.400361590509671e-16</v>
+        <v>0.0005672100957489136</v>
       </c>
       <c r="AI14" t="n">
-        <v>-6.856429517639154e-18</v>
+        <v>3.269805987869473e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>-9.676331516385313e-18</v>
+        <v>3.208400435616402e-05</v>
       </c>
       <c r="AK14" t="n">
-        <v>-7.928070924475154e-18</v>
+        <v>2.91808055971267e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>-3.438530934992943e-18</v>
+        <v>-6.135643306415921e-06</v>
       </c>
       <c r="AM14" t="n">
-        <v>-8.684598777267835e-18</v>
+        <v>9.505803231283184e-06</v>
       </c>
       <c r="AN14" t="n">
-        <v>-2.509321711669615e-19</v>
+        <v>2.631922623239178e-06</v>
       </c>
       <c r="AO14" t="n">
-        <v>-1.323421304121831e-18</v>
+        <v>-2.329660911175263e-06</v>
       </c>
       <c r="AP14" t="n">
-        <v>-1.714939245943663e-18</v>
+        <v>2.842912533442411e-06</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2.74405537281571e-19</v>
+        <v>-1.034191970593691e-06</v>
       </c>
       <c r="AR14" t="n">
-        <v>-8.102233176042239e-19</v>
+        <v>3.852308739253692e-07</v>
       </c>
       <c r="AS14" t="n">
-        <v>-2.772708396573283e-20</v>
+        <v>4.911623755903704e-08</v>
       </c>
       <c r="AT14" t="n">
-        <v>-2.081965202805605e-19</v>
+        <v>-7.644279314143811e-08</v>
       </c>
       <c r="AU14" t="n">
-        <v>-1.450585400254213e-19</v>
+        <v>7.551172612006979e-08</v>
       </c>
       <c r="AV14" t="n">
-        <v>5.942559305945588e-20</v>
+        <v>-9.168870351432564e-09</v>
       </c>
       <c r="AW14" t="n">
-        <v>-8.755957703411454e-20</v>
+        <v>-2.13697521494068e-08</v>
       </c>
       <c r="AX14" t="n">
-        <v>3.121114141995259e-16</v>
+        <v>1.044329894432982e-05</v>
       </c>
       <c r="AY14" t="n">
-        <v>-6.073200421763618e-17</v>
+        <v>2.071822978286679e-06</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-3.153051824825392e-19</v>
+        <v>-2.587802233301234e-06</v>
       </c>
       <c r="BA14" t="n">
-        <v>4.590206978253199e-17</v>
+        <v>3.110211165070103e-06</v>
       </c>
       <c r="BB14" t="n">
-        <v>-5.236948603989123e-17</v>
+        <v>-1.443732147501771e-06</v>
       </c>
       <c r="BC14" t="n">
-        <v>4.620531224037239e-17</v>
+        <v>6.145043154070718e-07</v>
       </c>
       <c r="BD14" t="n">
-        <v>-7.067262995554654e-18</v>
+        <v>-1.068923867318002e-07</v>
       </c>
       <c r="BE14" t="n">
-        <v>3.050872266198233e-18</v>
+        <v>1.058748213220392e-08</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.303100212509336e-18</v>
+        <v>4.95460883342597e-08</v>
       </c>
       <c r="BG14" t="n">
-        <v>-4.880257998019326e-18</v>
+        <v>-1.231969008328193e-08</v>
       </c>
       <c r="BH14" t="n">
-        <v>5.211014324016149e-18</v>
+        <v>-2.328099244759132e-08</v>
       </c>
       <c r="BI14" t="n">
-        <v>-4.202781809785894e-19</v>
+        <v>2.958421300184792e-08</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-4.233882180029852e-19</v>
+        <v>-1.553317629105181e-08</v>
       </c>
       <c r="BK14" t="n">
-        <v>3.712435799394168e-19</v>
+        <v>7.561685513756256e-09</v>
       </c>
       <c r="BL14" t="n">
-        <v>-4.847121817924765e-19</v>
+        <v>-4.00143387266487e-09</v>
       </c>
       <c r="BM14" t="n">
-        <v>6.248967146281242e-19</v>
+        <v>1.181496790656001e-09</v>
       </c>
     </row>
     <row r="15">
@@ -3321,196 +3321,196 @@
         <v>184</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.487393559840392e-17</v>
+        <v>0.0003667138001423379</v>
       </c>
       <c r="C15" t="n">
-        <v>-9.652327424676361e-18</v>
+        <v>0.0001352734883184584</v>
       </c>
       <c r="D15" t="n">
-        <v>6.979370940653026e-19</v>
+        <v>1.792940384196611e-05</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.431247128005082e-18</v>
+        <v>5.115225128146214e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.353340111576091e-18</v>
+        <v>3.774116126157391e-05</v>
       </c>
       <c r="G15" t="n">
-        <v>4.690229805997058e-19</v>
+        <v>-2.158634178648343e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.323511091296628e-18</v>
+        <v>1.689880246696738e-05</v>
       </c>
       <c r="I15" t="n">
-        <v>-2.372320903917042e-19</v>
+        <v>6.022802542757747e-06</v>
       </c>
       <c r="J15" t="n">
-        <v>-6.678690718236929e-19</v>
+        <v>4.450529689490164e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>5.452570324944204e-20</v>
+        <v>5.370738478354529e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>9.300301542493224e-20</v>
+        <v>-2.440549375347847e-06</v>
       </c>
       <c r="M15" t="n">
-        <v>-3.051832316099174e-19</v>
+        <v>2.582131633141426e-06</v>
       </c>
       <c r="N15" t="n">
-        <v>3.104493610410078e-20</v>
+        <v>-2.091890302145414e-07</v>
       </c>
       <c r="O15" t="n">
-        <v>-1.185024991777489e-19</v>
+        <v>4.871508338955813e-07</v>
       </c>
       <c r="P15" t="n">
-        <v>3.693990915548946e-20</v>
+        <v>4.991718823790445e-08</v>
       </c>
       <c r="Q15" t="n">
-        <v>-4.842304534349321e-21</v>
+        <v>-3.011866290847724e-07</v>
       </c>
       <c r="R15" t="n">
-        <v>-5.113038272076537e-16</v>
+        <v>-7.101255216616441e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>5.407040753291237e-16</v>
+        <v>9.233929409870883e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>3.86443458202198e-17</v>
+        <v>-5.847764453559779e-06</v>
       </c>
       <c r="U15" t="n">
-        <v>2.813532505847148e-17</v>
+        <v>-9.936043284884016e-06</v>
       </c>
       <c r="V15" t="n">
-        <v>-1.586333802004574e-16</v>
+        <v>-1.415619145920284e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>-2.028774487928016e-17</v>
+        <v>2.572680072478825e-06</v>
       </c>
       <c r="X15" t="n">
-        <v>1.072320900007545e-16</v>
+        <v>1.041115086217243e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>-2.187423772191019e-17</v>
+        <v>-3.799214592302972e-06</v>
       </c>
       <c r="Z15" t="n">
-        <v>1.634289415783692e-17</v>
+        <v>7.276191746604117e-08</v>
       </c>
       <c r="AA15" t="n">
-        <v>-2.833280977439396e-17</v>
+        <v>-1.349823632362884e-06</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.898851262671953e-19</v>
+        <v>1.96019860187364e-07</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.187916117498346e-17</v>
+        <v>1.003619483418774e-06</v>
       </c>
       <c r="AD15" t="n">
-        <v>-4.288769159756575e-18</v>
+        <v>-4.775110208456504e-07</v>
       </c>
       <c r="AE15" t="n">
-        <v>7.100975637224755e-18</v>
+        <v>1.882096219924731e-07</v>
       </c>
       <c r="AF15" t="n">
-        <v>-7.141023579041485e-18</v>
+        <v>-2.452763143476984e-07</v>
       </c>
       <c r="AG15" t="n">
-        <v>1.03304021761535e-18</v>
+        <v>4.064100724335583e-08</v>
       </c>
       <c r="AH15" t="n">
-        <v>-2.219027028741326e-17</v>
+        <v>0.0004368676717024981</v>
       </c>
       <c r="AI15" t="n">
-        <v>-8.688256764643617e-19</v>
+        <v>3.920889791606282e-05</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-1.019255876510591e-18</v>
+        <v>3.072313150035529e-05</v>
       </c>
       <c r="AK15" t="n">
-        <v>-1.841813642575419e-18</v>
+        <v>4.444251788862602e-05</v>
       </c>
       <c r="AL15" t="n">
-        <v>-8.548101327883985e-19</v>
+        <v>-9.535528718419177e-06</v>
       </c>
       <c r="AM15" t="n">
-        <v>-1.78715540267412e-18</v>
+        <v>2.017864051531675e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.0379509394178e-19</v>
+        <v>2.064324869788236e-06</v>
       </c>
       <c r="AO15" t="n">
-        <v>-9.411237997287188e-19</v>
+        <v>8.070616006331531e-06</v>
       </c>
       <c r="AP15" t="n">
-        <v>-5.867854990986721e-20</v>
+        <v>1.92852024644933e-06</v>
       </c>
       <c r="AQ15" t="n">
-        <v>6.657976027807815e-20</v>
+        <v>-3.284070447013403e-06</v>
       </c>
       <c r="AR15" t="n">
-        <v>-3.018032768696622e-19</v>
+        <v>2.997545793833446e-06</v>
       </c>
       <c r="AS15" t="n">
-        <v>4.960501967386845e-20</v>
+        <v>-3.666304423888937e-07</v>
       </c>
       <c r="AT15" t="n">
-        <v>-1.885226693152055e-19</v>
+        <v>8.757421929320375e-07</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.432077807342822e-20</v>
+        <v>7.911571633798362e-09</v>
       </c>
       <c r="AV15" t="n">
-        <v>-1.623524430071237e-20</v>
+        <v>-3.571312545532604e-07</v>
       </c>
       <c r="AW15" t="n">
-        <v>-4.349939312559857e-20</v>
+        <v>3.699583300464397e-07</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.427217880319231e-16</v>
+        <v>5.960894380585122e-05</v>
       </c>
       <c r="AY15" t="n">
-        <v>-1.221404561950504e-16</v>
+        <v>-1.200299702925683e-05</v>
       </c>
       <c r="AZ15" t="n">
-        <v>1.728033791665358e-16</v>
+        <v>6.035805756437293e-06</v>
       </c>
       <c r="BA15" t="n">
-        <v>-1.531566704945752e-16</v>
+        <v>-1.8456449684592e-05</v>
       </c>
       <c r="BB15" t="n">
-        <v>-4.819551971993554e-17</v>
+        <v>-1.88842850603397e-06</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.042616597059133e-16</v>
+        <v>1.25523441228158e-05</v>
       </c>
       <c r="BD15" t="n">
-        <v>-2.048911165153468e-17</v>
+        <v>-3.375869019572782e-06</v>
       </c>
       <c r="BE15" t="n">
-        <v>3.233286394780043e-17</v>
+        <v>8.283133310708064e-07</v>
       </c>
       <c r="BF15" t="n">
-        <v>-4.215246318196249e-17</v>
+        <v>-2.351796607535778e-06</v>
       </c>
       <c r="BG15" t="n">
-        <v>5.268534815206714e-18</v>
+        <v>2.603994497511795e-07</v>
       </c>
       <c r="BH15" t="n">
-        <v>1.245413396327261e-17</v>
+        <v>1.213498660053864e-06</v>
       </c>
       <c r="BI15" t="n">
-        <v>-5.877283806970587e-18</v>
+        <v>-5.727560195875842e-07</v>
       </c>
       <c r="BJ15" t="n">
-        <v>9.152512213388446e-18</v>
+        <v>3.184504954083849e-07</v>
       </c>
       <c r="BK15" t="n">
-        <v>-9.145506238074192e-18</v>
+        <v>-3.530399416424286e-07</v>
       </c>
       <c r="BL15" t="n">
-        <v>2.685997959035135e-18</v>
+        <v>6.071626557576975e-08</v>
       </c>
       <c r="BM15" t="n">
-        <v>2.019063320895578e-19</v>
+        <v>1.166579769683523e-07</v>
       </c>
     </row>
     <row r="16">
@@ -3518,196 +3518,196 @@
         <v>186</v>
       </c>
       <c r="B16" t="n">
-        <v>1.390314093053142e-14</v>
+        <v>0.0001885215070348936</v>
       </c>
       <c r="C16" t="n">
-        <v>4.768418598270363e-15</v>
+        <v>0.0001276927266985963</v>
       </c>
       <c r="D16" t="n">
-        <v>1.177590436159304e-14</v>
+        <v>7.79672139307415e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>5.66101978901998e-15</v>
+        <v>1.32577868180213e-05</v>
       </c>
       <c r="F16" t="n">
-        <v>5.180839637609591e-15</v>
+        <v>-2.45631925267612e-06</v>
       </c>
       <c r="G16" t="n">
-        <v>9.65523599129136e-15</v>
+        <v>-1.013253029519118e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>9.245284514371651e-15</v>
+        <v>8.293382849626798e-06</v>
       </c>
       <c r="I16" t="n">
-        <v>8.316701483746941e-15</v>
+        <v>-7.094710945672714e-08</v>
       </c>
       <c r="J16" t="n">
-        <v>7.924844590805187e-15</v>
+        <v>1.77493209054486e-07</v>
       </c>
       <c r="K16" t="n">
-        <v>8.340449148430877e-15</v>
+        <v>-1.144045035374698e-06</v>
       </c>
       <c r="L16" t="n">
-        <v>9.63420631426546e-15</v>
+        <v>3.615980910527604e-07</v>
       </c>
       <c r="M16" t="n">
-        <v>9.601829609769044e-15</v>
+        <v>3.028746016200528e-07</v>
       </c>
       <c r="N16" t="n">
-        <v>9.175103288827787e-15</v>
+        <v>-7.693698352965463e-08</v>
       </c>
       <c r="O16" t="n">
-        <v>9.41171474933339e-15</v>
+        <v>-1.624502893170429e-07</v>
       </c>
       <c r="P16" t="n">
-        <v>9.9320832231799e-15</v>
+        <v>9.36556997138317e-08</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.034773684683129e-14</v>
+        <v>6.992456940520807e-09</v>
       </c>
       <c r="R16" t="n">
-        <v>4.36648088726575e-15</v>
+        <v>-4.838692120206546e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>-7.544935344198338e-15</v>
+        <v>6.404516825268224e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>3.201986405647735e-15</v>
+        <v>-1.058273138233776e-05</v>
       </c>
       <c r="U16" t="n">
-        <v>2.623181690512728e-15</v>
+        <v>-3.400256802750096e-06</v>
       </c>
       <c r="V16" t="n">
-        <v>-2.697723513210164e-15</v>
+        <v>-7.376502260539839e-06</v>
       </c>
       <c r="W16" t="n">
-        <v>2.550692293021685e-16</v>
+        <v>6.682739124171254e-06</v>
       </c>
       <c r="X16" t="n">
-        <v>-1.539627223853768e-16</v>
+        <v>1.188121215949914e-07</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.498133639182649e-16</v>
+        <v>-8.932252007286531e-07</v>
       </c>
       <c r="Z16" t="n">
-        <v>5.561083376018183e-16</v>
+        <v>-1.045922917710696e-06</v>
       </c>
       <c r="AA16" t="n">
-        <v>-6.385075879038808e-16</v>
+        <v>1.077785447470332e-06</v>
       </c>
       <c r="AB16" t="n">
-        <v>-2.174057214723935e-16</v>
+        <v>-1.386664992211187e-07</v>
       </c>
       <c r="AC16" t="n">
-        <v>2.087392700837863e-16</v>
+        <v>-6.656647529883119e-08</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.554418035028383e-17</v>
+        <v>-1.526969700965552e-07</v>
       </c>
       <c r="AE16" t="n">
-        <v>-2.065789370689926e-17</v>
+        <v>1.504944212468586e-07</v>
       </c>
       <c r="AF16" t="n">
-        <v>-1.877782791417476e-16</v>
+        <v>-1.599471120074501e-08</v>
       </c>
       <c r="AG16" t="n">
-        <v>-7.595230266398086e-17</v>
+        <v>-1.551494521547788e-08</v>
       </c>
       <c r="AH16" t="n">
-        <v>1.227726247846837e-14</v>
+        <v>0.0003030739493854508</v>
       </c>
       <c r="AI16" t="n">
-        <v>1.291754315664418e-14</v>
+        <v>-4.674870691062371e-06</v>
       </c>
       <c r="AJ16" t="n">
-        <v>6.059844181163726e-15</v>
+        <v>1.068957284790681e-05</v>
       </c>
       <c r="AK16" t="n">
-        <v>3.635330795238988e-15</v>
+        <v>1.371631203287202e-06</v>
       </c>
       <c r="AL16" t="n">
-        <v>7.885582864446848e-15</v>
+        <v>-8.847684671976549e-06</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.03269652472276e-14</v>
+        <v>7.26867241295983e-06</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.431773371478677e-15</v>
+        <v>1.791284337127978e-07</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.281533528238322e-15</v>
+        <v>-7.710672679375185e-07</v>
       </c>
       <c r="AP16" t="n">
-        <v>7.528281321714314e-15</v>
+        <v>5.216816228552401e-07</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9.400399951262976e-15</v>
+        <v>-5.143007868789556e-07</v>
       </c>
       <c r="AR16" t="n">
-        <v>9.989658772151904e-15</v>
+        <v>4.133360695530373e-07</v>
       </c>
       <c r="AS16" t="n">
-        <v>9.307912611016842e-15</v>
+        <v>-1.233932130194076e-07</v>
       </c>
       <c r="AT16" t="n">
-        <v>8.971333384033697e-15</v>
+        <v>-2.856764206336356e-08</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.571448952840887e-15</v>
+        <v>3.046615605695602e-08</v>
       </c>
       <c r="AV16" t="n">
-        <v>1.032323944673031e-14</v>
+        <v>1.48466309322189e-09</v>
       </c>
       <c r="AW16" t="n">
-        <v>1.046449034819337e-14</v>
+        <v>-4.646464441124046e-09</v>
       </c>
       <c r="AX16" t="n">
-        <v>-4.944736952865845e-15</v>
+        <v>3.009818644066989e-05</v>
       </c>
       <c r="AY16" t="n">
-        <v>1.604772090736256e-15</v>
+        <v>-3.152637526641822e-07</v>
       </c>
       <c r="AZ16" t="n">
-        <v>2.564285420367339e-15</v>
+        <v>-8.959875531813306e-06</v>
       </c>
       <c r="BA16" t="n">
-        <v>-2.359467419139489e-16</v>
+        <v>3.591730988896945e-06</v>
       </c>
       <c r="BB16" t="n">
-        <v>-1.265303866461435e-15</v>
+        <v>-1.61023507367983e-06</v>
       </c>
       <c r="BC16" t="n">
-        <v>-9.020511912340669e-16</v>
+        <v>2.274172456499792e-06</v>
       </c>
       <c r="BD16" t="n">
-        <v>8.382846656995601e-16</v>
+        <v>-1.294594766538028e-06</v>
       </c>
       <c r="BE16" t="n">
-        <v>8.047210233332904e-16</v>
+        <v>1.124469756195175e-07</v>
       </c>
       <c r="BF16" t="n">
-        <v>-4.651422271086529e-16</v>
+        <v>1.202176579308559e-07</v>
       </c>
       <c r="BG16" t="n">
-        <v>-5.804038293718149e-16</v>
+        <v>8.477124255017599e-08</v>
       </c>
       <c r="BH16" t="n">
-        <v>2.370374498533381e-18</v>
+        <v>-1.1683723206263e-07</v>
       </c>
       <c r="BI16" t="n">
-        <v>3.410857025133583e-16</v>
+        <v>3.036326425414343e-08</v>
       </c>
       <c r="BJ16" t="n">
-        <v>1.000392228046725e-16</v>
+        <v>-8.271174603146781e-09</v>
       </c>
       <c r="BK16" t="n">
-        <v>-2.668917426489422e-16</v>
+        <v>2.98611624634169e-08</v>
       </c>
       <c r="BL16" t="n">
-        <v>-1.852557142510281e-16</v>
+        <v>-2.59139812690789e-08</v>
       </c>
       <c r="BM16" t="n">
-        <v>6.858163760851054e-17</v>
+        <v>6.590575583737368e-09</v>
       </c>
     </row>
     <row r="17">
@@ -3715,196 +3715,196 @@
         <v>199</v>
       </c>
       <c r="B17" t="n">
-        <v>-1.990718722817504e-17</v>
+        <v>-6.185765600027239e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>8.423346836499908e-17</v>
+        <v>0.0002930921393814358</v>
       </c>
       <c r="D17" t="n">
-        <v>2.069818112548586e-17</v>
+        <v>7.101485549876523e-05</v>
       </c>
       <c r="E17" t="n">
-        <v>5.105450385183511e-17</v>
+        <v>0.0001230422896679764</v>
       </c>
       <c r="F17" t="n">
-        <v>-7.493294787893233e-19</v>
+        <v>-2.516650748533153e-06</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.972085690375409e-17</v>
+        <v>-5.998246194028687e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>-1.965647441152671e-17</v>
+        <v>-2.904613814164483e-05</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.27291107663712e-18</v>
+        <v>-1.132318447214503e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>-9.483827722920049e-18</v>
+        <v>-3.078773979050697e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>9.755434729739979e-19</v>
+        <v>-5.017100067599982e-06</v>
       </c>
       <c r="L17" t="n">
-        <v>7.239100424309712e-18</v>
+        <v>1.146585796795055e-05</v>
       </c>
       <c r="M17" t="n">
-        <v>5.849022253371379e-18</v>
+        <v>7.255985983065362e-06</v>
       </c>
       <c r="N17" t="n">
-        <v>4.977616563069343e-18</v>
+        <v>6.403989048058557e-06</v>
       </c>
       <c r="O17" t="n">
-        <v>1.689757681676344e-18</v>
+        <v>4.577282249409881e-06</v>
       </c>
       <c r="P17" t="n">
-        <v>-1.737797752885319e-18</v>
+        <v>3.649347172336198e-07</v>
       </c>
       <c r="Q17" t="n">
-        <v>-2.288361714737139e-18</v>
+        <v>-8.417949379695845e-07</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.77866018062256e-16</v>
+        <v>9.339313914070886e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>9.066684904696265e-17</v>
+        <v>-5.587689443978942e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>3.564230609488662e-17</v>
+        <v>-1.965425467972461e-05</v>
       </c>
       <c r="U17" t="n">
-        <v>8.387618393961333e-17</v>
+        <v>-2.763693511960523e-05</v>
       </c>
       <c r="V17" t="n">
-        <v>9.006087005648092e-18</v>
+        <v>-6.287943324503525e-07</v>
       </c>
       <c r="W17" t="n">
-        <v>-7.635947324865992e-18</v>
+        <v>6.035383196455196e-07</v>
       </c>
       <c r="X17" t="n">
-        <v>-2.237922616390709e-17</v>
+        <v>3.498780769663644e-06</v>
       </c>
       <c r="Y17" t="n">
-        <v>-3.812928330632544e-18</v>
+        <v>-2.324227843361497e-08</v>
       </c>
       <c r="Z17" t="n">
-        <v>-1.852034752095188e-17</v>
+        <v>7.360894474999576e-06</v>
       </c>
       <c r="AA17" t="n">
-        <v>-8.325957004830354e-18</v>
+        <v>3.148021511188214e-06</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.01867059762249e-18</v>
+        <v>-8.387740864182281e-07</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.88484674755619e-18</v>
+        <v>-1.051120611159289e-06</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.191287853103374e-18</v>
+        <v>-5.19145263754611e-07</v>
       </c>
       <c r="AE17" t="n">
-        <v>4.602275100154257e-18</v>
+        <v>-1.029176933835943e-06</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.758459298737432e-19</v>
+        <v>-5.839803668972173e-07</v>
       </c>
       <c r="AG17" t="n">
-        <v>-1.123927907976607e-18</v>
+        <v>-1.620561041324348e-07</v>
       </c>
       <c r="AH17" t="n">
-        <v>8.833359576085654e-17</v>
+        <v>0.0002720373995137562</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.615254059936678e-17</v>
+        <v>6.464496646572043e-05</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1.905569903563135e-17</v>
+        <v>6.479388124378217e-05</v>
       </c>
       <c r="AK17" t="n">
-        <v>4.186279711895115e-17</v>
+        <v>0.0001162251643668154</v>
       </c>
       <c r="AL17" t="n">
-        <v>-6.92733906767361e-18</v>
+        <v>-2.144599254921498e-05</v>
       </c>
       <c r="AM17" t="n">
-        <v>-3.950376324935904e-17</v>
+        <v>-8.762589744599869e-05</v>
       </c>
       <c r="AN17" t="n">
-        <v>-9.125336862603328e-18</v>
+        <v>-6.773923748095875e-06</v>
       </c>
       <c r="AO17" t="n">
-        <v>-8.867335911336031e-18</v>
+        <v>-1.770821777757549e-05</v>
       </c>
       <c r="AP17" t="n">
-        <v>-3.291939635698614e-18</v>
+        <v>-1.856017011724192e-05</v>
       </c>
       <c r="AQ17" t="n">
-        <v>5.42542373008417e-18</v>
+        <v>3.288383103968978e-06</v>
       </c>
       <c r="AR17" t="n">
-        <v>6.676682048209158e-18</v>
+        <v>9.927332201024969e-06</v>
       </c>
       <c r="AS17" t="n">
-        <v>3.989213989436935e-18</v>
+        <v>5.750841684592005e-06</v>
       </c>
       <c r="AT17" t="n">
-        <v>4.569802638996507e-18</v>
+        <v>7.826194493861957e-06</v>
       </c>
       <c r="AU17" t="n">
-        <v>-1.387599594231778e-19</v>
+        <v>1.632992093998943e-06</v>
       </c>
       <c r="AV17" t="n">
-        <v>-2.593722394335001e-18</v>
+        <v>-1.29128006870848e-06</v>
       </c>
       <c r="AW17" t="n">
-        <v>-2.043914975990119e-18</v>
+        <v>-7.171769518828196e-07</v>
       </c>
       <c r="AX17" t="n">
-        <v>-4.008470345734837e-17</v>
+        <v>2.123642000415154e-05</v>
       </c>
       <c r="AY17" t="n">
-        <v>3.883604643174353e-17</v>
+        <v>-2.355709570709602e-05</v>
       </c>
       <c r="AZ17" t="n">
-        <v>3.364687066939892e-17</v>
+        <v>-1.530390839646885e-05</v>
       </c>
       <c r="BA17" t="n">
-        <v>7.053386044831905e-17</v>
+        <v>-2.864852075744741e-05</v>
       </c>
       <c r="BB17" t="n">
-        <v>1.68909281003896e-17</v>
+        <v>-2.961458431573447e-06</v>
       </c>
       <c r="BC17" t="n">
-        <v>-3.490306328437812e-17</v>
+        <v>1.202744871383621e-05</v>
       </c>
       <c r="BD17" t="n">
-        <v>-1.394808763485771e-17</v>
+        <v>5.878374261364091e-07</v>
       </c>
       <c r="BE17" t="n">
-        <v>-9.70327667684625e-18</v>
+        <v>1.194877444437768e-06</v>
       </c>
       <c r="BF17" t="n">
-        <v>-1.089047568110409e-17</v>
+        <v>5.503023978535459e-06</v>
       </c>
       <c r="BG17" t="n">
-        <v>-4.160798770776204e-18</v>
+        <v>2.177702672488656e-06</v>
       </c>
       <c r="BH17" t="n">
-        <v>5.413016949572922e-18</v>
+        <v>-1.387980303207669e-06</v>
       </c>
       <c r="BI17" t="n">
-        <v>4.943142889358399e-18</v>
+        <v>-7.879164101782295e-07</v>
       </c>
       <c r="BJ17" t="n">
-        <v>7.042168268877931e-18</v>
+        <v>-1.154489724797608e-06</v>
       </c>
       <c r="BK17" t="n">
-        <v>2.763250620459747e-18</v>
+        <v>-6.480333286223801e-07</v>
       </c>
       <c r="BL17" t="n">
-        <v>-7.088242374055596e-19</v>
+        <v>-2.043525916586989e-07</v>
       </c>
       <c r="BM17" t="n">
-        <v>-1.804428993821858e-18</v>
+        <v>-8.503251354710792e-08</v>
       </c>
     </row>
     <row r="18">
@@ -3912,196 +3912,196 @@
         <v>228</v>
       </c>
       <c r="B18" t="n">
-        <v>-3.766097630346119e-16</v>
+        <v>5.228162080758329e-18</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.112184291740945e-15</v>
+        <v>7.086874637588384e-18</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.545908959671539e-17</v>
+        <v>6.636305396095709e-18</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.203415545061006e-16</v>
+        <v>1.869666682276224e-18</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.426104406611873e-17</v>
+        <v>4.191595716962542e-18</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.075240192027463e-17</v>
+        <v>3.250649322839523e-18</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.676467655487985e-16</v>
+        <v>2.89334987906547e-18</v>
       </c>
       <c r="I18" t="n">
-        <v>-4.100152259392047e-17</v>
+        <v>2.454371184327306e-18</v>
       </c>
       <c r="J18" t="n">
-        <v>-2.446340675427568e-17</v>
+        <v>2.357600048908758e-18</v>
       </c>
       <c r="K18" t="n">
-        <v>-3.755524894853026e-17</v>
+        <v>1.983652546722985e-18</v>
       </c>
       <c r="L18" t="n">
-        <v>6.168001234368715e-19</v>
+        <v>1.820201107238781e-18</v>
       </c>
       <c r="M18" t="n">
-        <v>-2.796076587571149e-17</v>
+        <v>1.600831090211675e-18</v>
       </c>
       <c r="N18" t="n">
-        <v>-9.391162707177156e-18</v>
+        <v>1.436796224289578e-18</v>
       </c>
       <c r="O18" t="n">
-        <v>-4.596213440774442e-18</v>
+        <v>1.270805566398272e-18</v>
       </c>
       <c r="P18" t="n">
-        <v>-8.910947304831406e-18</v>
+        <v>1.138521439658836e-18</v>
       </c>
       <c r="Q18" t="n">
-        <v>-8.653951058242606e-19</v>
+        <v>1.010255526329192e-18</v>
       </c>
       <c r="R18" t="n">
-        <v>-8.091817534715803e-16</v>
+        <v>-2.432745776203051e-17</v>
       </c>
       <c r="S18" t="n">
-        <v>9.487465607659046e-16</v>
+        <v>8.628562454401231e-18</v>
       </c>
       <c r="T18" t="n">
-        <v>-1.293494554463979e-16</v>
+        <v>3.859203483116754e-18</v>
       </c>
       <c r="U18" t="n">
-        <v>8.969596653038855e-17</v>
+        <v>2.940535966216333e-18</v>
       </c>
       <c r="V18" t="n">
-        <v>-2.235358024677575e-16</v>
+        <v>-6.133049477704599e-19</v>
       </c>
       <c r="W18" t="n">
-        <v>6.281334839816427e-17</v>
+        <v>2.312679336896575e-18</v>
       </c>
       <c r="X18" t="n">
-        <v>7.422125140920045e-17</v>
+        <v>8.555413509735928e-19</v>
       </c>
       <c r="Y18" t="n">
-        <v>-9.247041383007476e-18</v>
+        <v>1.21563766849882e-18</v>
       </c>
       <c r="Z18" t="n">
-        <v>-2.064478967179173e-17</v>
+        <v>8.257797614705128e-19</v>
       </c>
       <c r="AA18" t="n">
-        <v>2.178559151108581e-17</v>
+        <v>9.236179957172379e-19</v>
       </c>
       <c r="AB18" t="n">
-        <v>-1.685750375520201e-17</v>
+        <v>6.869052185528055e-19</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.420273454328155e-17</v>
+        <v>6.958547098471365e-19</v>
       </c>
       <c r="AD18" t="n">
-        <v>-4.070394383018797e-18</v>
+        <v>5.759624308317006e-19</v>
       </c>
       <c r="AE18" t="n">
-        <v>1.612573829345357e-18</v>
+        <v>5.353671560546373e-19</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.847219153268063e-18</v>
+        <v>4.634470398190359e-19</v>
       </c>
       <c r="AG18" t="n">
-        <v>-2.038505561908686e-18</v>
+        <v>4.216681373984549e-19</v>
       </c>
       <c r="AH18" t="n">
-        <v>-1.357349355651119e-15</v>
+        <v>-2.08394963456218e-18</v>
       </c>
       <c r="AI18" t="n">
-        <v>-2.884515035414418e-16</v>
+        <v>1.384192263083157e-17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>-4.859814902425868e-17</v>
+        <v>1.079659743719236e-17</v>
       </c>
       <c r="AK18" t="n">
-        <v>-2.598902605626876e-16</v>
+        <v>-7.40923070229215e-19</v>
       </c>
       <c r="AL18" t="n">
-        <v>1.032715355426095e-16</v>
+        <v>5.669630529676031e-18</v>
       </c>
       <c r="AM18" t="n">
-        <v>-1.989618635788025e-16</v>
+        <v>4.310301222337741e-18</v>
       </c>
       <c r="AN18" t="n">
-        <v>-8.84555219174708e-17</v>
+        <v>3.393797598024025e-18</v>
       </c>
       <c r="AO18" t="n">
-        <v>-3.843814581647341e-19</v>
+        <v>2.92527106841502e-18</v>
       </c>
       <c r="AP18" t="n">
-        <v>-6.143619917647427e-17</v>
+        <v>2.972210054786974e-18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4.041852880490046e-18</v>
+        <v>2.380546953000578e-18</v>
       </c>
       <c r="AR18" t="n">
-        <v>-2.049222717871273e-17</v>
+        <v>2.229841893216687e-18</v>
       </c>
       <c r="AS18" t="n">
-        <v>-2.476222895436448e-17</v>
+        <v>1.956471293568989e-18</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.125378662230917e-18</v>
+        <v>1.756712199316971e-18</v>
       </c>
       <c r="AU18" t="n">
-        <v>-1.308677897531911e-17</v>
+        <v>1.548633873478619e-18</v>
       </c>
       <c r="AV18" t="n">
-        <v>-2.281113247416351e-18</v>
+        <v>1.392983207655419e-18</v>
       </c>
       <c r="AW18" t="n">
-        <v>-1.494319379540675e-18</v>
+        <v>1.23294919666281e-18</v>
       </c>
       <c r="AX18" t="n">
-        <v>2.245152504003242e-16</v>
+        <v>-6.103217734759182e-17</v>
       </c>
       <c r="AY18" t="n">
-        <v>1.317257381689011e-16</v>
+        <v>1.339727952672415e-17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-2.117414355487689e-17</v>
+        <v>1.106036760101451e-17</v>
       </c>
       <c r="BA18" t="n">
-        <v>7.511001525208167e-17</v>
+        <v>3.733650598998668e-18</v>
       </c>
       <c r="BB18" t="n">
-        <v>-2.332302153046768e-16</v>
+        <v>-3.058294524247946e-18</v>
       </c>
       <c r="BC18" t="n">
-        <v>1.670876836021035e-16</v>
+        <v>3.849532716899617e-18</v>
       </c>
       <c r="BD18" t="n">
-        <v>8.685232907438436e-18</v>
+        <v>8.848445083240492e-19</v>
       </c>
       <c r="BE18" t="n">
-        <v>-2.564142146384084e-17</v>
+        <v>1.48826426897012e-18</v>
       </c>
       <c r="BF18" t="n">
-        <v>1.482358574716554e-17</v>
+        <v>9.721150457007164e-19</v>
       </c>
       <c r="BG18" t="n">
-        <v>-1.281251934686014e-17</v>
+        <v>1.19028798205727e-18</v>
       </c>
       <c r="BH18" t="n">
-        <v>7.236622529249464e-18</v>
+        <v>7.886890152058153e-19</v>
       </c>
       <c r="BI18" t="n">
-        <v>8.301817351223889e-18</v>
+        <v>8.739600785321295e-19</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-9.516123574982411e-18</v>
+        <v>6.955432749633886e-19</v>
       </c>
       <c r="BK18" t="n">
-        <v>7.948959113987294e-18</v>
+        <v>6.57619913996435e-19</v>
       </c>
       <c r="BL18" t="n">
-        <v>-2.95168075669445e-18</v>
+        <v>5.626335964353343e-19</v>
       </c>
       <c r="BM18" t="n">
-        <v>-3.353804278027632e-19</v>
+        <v>5.177314498417637e-19</v>
       </c>
     </row>
     <row r="19">
@@ -4109,196 +4109,196 @@
         <v>273</v>
       </c>
       <c r="B19" t="n">
-        <v>-9.689512516920735e-06</v>
+        <v>7.262707079601122e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>3.816665033285702e-05</v>
+        <v>1.997279583173531e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>1.440842376529088e-05</v>
+        <v>4.456149575921626e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>1.220605713516125e-05</v>
+        <v>-5.912638104778368e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>1.154741345279722e-05</v>
+        <v>1.401679492376368e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>7.560867427380525e-06</v>
+        <v>1.796775638501861e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>6.541948005599556e-06</v>
+        <v>8.788527723284333e-06</v>
       </c>
       <c r="I19" t="n">
-        <v>4.925253062323424e-06</v>
+        <v>2.275895336375725e-06</v>
       </c>
       <c r="J19" t="n">
-        <v>3.872804653857884e-06</v>
+        <v>1.723683451220697e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>3.037846801786555e-06</v>
+        <v>3.967858982897892e-06</v>
       </c>
       <c r="L19" t="n">
-        <v>2.36259669897468e-06</v>
+        <v>5.256273357718353e-06</v>
       </c>
       <c r="M19" t="n">
-        <v>1.851192561654123e-06</v>
+        <v>2.985900272015434e-06</v>
       </c>
       <c r="N19" t="n">
-        <v>1.44477850097407e-06</v>
+        <v>1.796328270312335e-06</v>
       </c>
       <c r="O19" t="n">
-        <v>1.129147312800068e-06</v>
+        <v>1.280132139462291e-06</v>
       </c>
       <c r="P19" t="n">
-        <v>8.823241332473157e-07</v>
+        <v>1.416647325593174e-06</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.89317936208678e-07</v>
+        <v>1.569161223115806e-06</v>
       </c>
       <c r="R19" t="n">
-        <v>3.253920816349432e-05</v>
+        <v>-6.462368431534858e-05</v>
       </c>
       <c r="S19" t="n">
-        <v>-1.814306080694336e-05</v>
+        <v>4.605368551012167e-05</v>
       </c>
       <c r="T19" t="n">
-        <v>-2.835137459479034e-06</v>
+        <v>1.705851472204341e-05</v>
       </c>
       <c r="U19" t="n">
-        <v>-1.031654981371919e-06</v>
+        <v>1.144036976964634e-05</v>
       </c>
       <c r="V19" t="n">
-        <v>-3.540760272067696e-06</v>
+        <v>-9.82413301092568e-06</v>
       </c>
       <c r="W19" t="n">
-        <v>-1.165028982941471e-06</v>
+        <v>-1.618303603710948e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>-1.525848346370704e-06</v>
+        <v>8.211070130565893e-06</v>
       </c>
       <c r="Y19" t="n">
-        <v>-1.03827918981254e-06</v>
+        <v>6.44295029739184e-06</v>
       </c>
       <c r="Z19" t="n">
-        <v>-8.181380676493101e-07</v>
+        <v>2.355691603916696e-06</v>
       </c>
       <c r="AA19" t="n">
-        <v>-6.574137817469045e-07</v>
+        <v>-2.705447792418242e-07</v>
       </c>
       <c r="AB19" t="n">
-        <v>-5.01256727058532e-07</v>
+        <v>-3.790767193626898e-06</v>
       </c>
       <c r="AC19" t="n">
-        <v>-3.967924804198041e-07</v>
+        <v>1.532287774865122e-06</v>
       </c>
       <c r="AD19" t="n">
-        <v>-3.086222672862838e-07</v>
+        <v>1.287343813224806e-06</v>
       </c>
       <c r="AE19" t="n">
-        <v>-2.412749279218521e-07</v>
+        <v>5.70884401216231e-07</v>
       </c>
       <c r="AF19" t="n">
-        <v>-1.886417312587645e-07</v>
+        <v>4.015893398146047e-07</v>
       </c>
       <c r="AG19" t="n">
-        <v>-1.472981411849787e-07</v>
+        <v>-6.622220265590268e-07</v>
       </c>
       <c r="AH19" t="n">
-        <v>2.233666877329726e-05</v>
+        <v>6.175287643012716e-05</v>
       </c>
       <c r="AI19" t="n">
-        <v>3.675724234061665e-05</v>
+        <v>1.722793859737554e-05</v>
       </c>
       <c r="AJ19" t="n">
-        <v>3.028767335088491e-06</v>
+        <v>-1.096153242188371e-05</v>
       </c>
       <c r="AK19" t="n">
-        <v>1.744505002281472e-05</v>
+        <v>5.247891114727845e-06</v>
       </c>
       <c r="AL19" t="n">
-        <v>7.616253959751287e-06</v>
+        <v>3.138483929844707e-05</v>
       </c>
       <c r="AM19" t="n">
-        <v>7.573880483511975e-06</v>
+        <v>1.515477186074599e-05</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.769814402095567e-06</v>
+        <v>5.732376940928197e-06</v>
       </c>
       <c r="AO19" t="n">
-        <v>4.365135535402037e-06</v>
+        <v>-2.850887488581023e-06</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.521994915820372e-06</v>
+        <v>3.943112938428447e-06</v>
       </c>
       <c r="AQ19" t="n">
-        <v>2.702958631169282e-06</v>
+        <v>8.646171764544399e-06</v>
       </c>
       <c r="AR19" t="n">
-        <v>2.126392904244536e-06</v>
+        <v>5.180676557941861e-06</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.659541205949784e-06</v>
+        <v>2.669331570471497e-06</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.295761640358717e-06</v>
+        <v>8.518407370566111e-07</v>
       </c>
       <c r="AU19" t="n">
-        <v>1.013293957524822e-06</v>
+        <v>1.470304170330479e-06</v>
       </c>
       <c r="AV19" t="n">
-        <v>7.913309870819771e-07</v>
+        <v>2.465665947442831e-06</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.184319845151763e-07</v>
+        <v>1.651071272848203e-06</v>
       </c>
       <c r="AX19" t="n">
-        <v>1.411532505857787e-05</v>
+        <v>7.600334648814075e-05</v>
       </c>
       <c r="AY19" t="n">
-        <v>-2.764103821751808e-05</v>
+        <v>-3.105406849980469e-06</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1.037405588964885e-05</v>
+        <v>2.733143968019674e-05</v>
       </c>
       <c r="BA19" t="n">
-        <v>-7.988903302922303e-06</v>
+        <v>-8.422492676222437e-06</v>
       </c>
       <c r="BB19" t="n">
-        <v>-5.248720893158159e-07</v>
+        <v>-4.257046251703398e-05</v>
       </c>
       <c r="BC19" t="n">
-        <v>-1.694831222554383e-06</v>
+        <v>1.917109560571467e-05</v>
       </c>
       <c r="BD19" t="n">
-        <v>-1.345706932159381e-06</v>
+        <v>5.820303539029103e-06</v>
       </c>
       <c r="BE19" t="n">
-        <v>-8.513343916938687e-07</v>
+        <v>1.095584432355337e-05</v>
       </c>
       <c r="BF19" t="n">
-        <v>-7.87537448127647e-07</v>
+        <v>1.041285213717105e-07</v>
       </c>
       <c r="BG19" t="n">
-        <v>-5.678112386570229e-07</v>
+        <v>-1.084980307746827e-05</v>
       </c>
       <c r="BH19" t="n">
-        <v>-4.555992524824624e-07</v>
+        <v>3.149099884950144e-06</v>
       </c>
       <c r="BI19" t="n">
-        <v>-3.554377749365458e-07</v>
+        <v>1.470628653997647e-06</v>
       </c>
       <c r="BJ19" t="n">
-        <v>-2.763129551392732e-07</v>
+        <v>2.139080474728431e-06</v>
       </c>
       <c r="BK19" t="n">
-        <v>-2.168599327981787e-07</v>
+        <v>1.182833491278488e-06</v>
       </c>
       <c r="BL19" t="n">
-        <v>-1.690433556936559e-07</v>
+        <v>-2.24800477920884e-06</v>
       </c>
       <c r="BM19" t="n">
-        <v>-1.32191369098374e-07</v>
+        <v>6.234558007918883e-07</v>
       </c>
     </row>
     <row r="20">
@@ -4306,196 +4306,196 @@
         <v>534</v>
       </c>
       <c r="B20" t="n">
-        <v>4.342543315617752e-17</v>
+        <v>0.0001543160664012177</v>
       </c>
       <c r="C20" t="n">
-        <v>2.520368375165219e-18</v>
+        <v>-8.711420956584041e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>2.048502070349136e-18</v>
+        <v>6.294607218274406e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>4.092392569358395e-18</v>
+        <v>1.906368653945838e-05</v>
       </c>
       <c r="F20" t="n">
-        <v>6.42373889087539e-19</v>
+        <v>4.095499774027893e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>7.555043359215086e-19</v>
+        <v>5.420656660061963e-06</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25147176916811e-19</v>
+        <v>-3.902494104514625e-06</v>
       </c>
       <c r="I20" t="n">
-        <v>1.962786536465423e-19</v>
+        <v>9.068878702781433e-07</v>
       </c>
       <c r="J20" t="n">
-        <v>1.843977579824353e-19</v>
+        <v>1.667079955650026e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>-6.506504234834987e-20</v>
+        <v>4.344093382167723e-07</v>
       </c>
       <c r="L20" t="n">
-        <v>9.204201913444335e-20</v>
+        <v>8.58199637810068e-07</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.10278328689683e-20</v>
+        <v>-1.259606117321295e-06</v>
       </c>
       <c r="N20" t="n">
-        <v>2.050137759700556e-20</v>
+        <v>1.181032526012763e-07</v>
       </c>
       <c r="O20" t="n">
-        <v>1.350543963849501e-20</v>
+        <v>2.635489179668255e-07</v>
       </c>
       <c r="P20" t="n">
-        <v>-1.698869610425608e-20</v>
+        <v>1.498587440809863e-07</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.293397947559407e-20</v>
+        <v>1.434266282172812e-07</v>
       </c>
       <c r="R20" t="n">
-        <v>-4.500207772813862e-17</v>
+        <v>-3.09357480802797e-05</v>
       </c>
       <c r="S20" t="n">
-        <v>3.807784136335433e-17</v>
+        <v>3.755292750826463e-05</v>
       </c>
       <c r="T20" t="n">
-        <v>1.629725245973098e-17</v>
+        <v>4.174660946762495e-06</v>
       </c>
       <c r="U20" t="n">
-        <v>-1.326168246646314e-17</v>
+        <v>-9.901208827468542e-06</v>
       </c>
       <c r="V20" t="n">
-        <v>1.232922474886534e-17</v>
+        <v>-1.783970522232226e-06</v>
       </c>
       <c r="W20" t="n">
-        <v>-1.749877141656723e-17</v>
+        <v>-5.522122765189451e-06</v>
       </c>
       <c r="X20" t="n">
-        <v>9.494600407796365e-18</v>
+        <v>8.74202541095836e-06</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.2061182181882e-18</v>
+        <v>4.288303469865952e-07</v>
       </c>
       <c r="Z20" t="n">
-        <v>-1.039748583149202e-18</v>
+        <v>-1.834454472524569e-06</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.160249987283704e-18</v>
+        <v>-1.025023532243682e-06</v>
       </c>
       <c r="AB20" t="n">
-        <v>-3.302497157780481e-18</v>
+        <v>-1.143241907502629e-06</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.118702174564166e-18</v>
+        <v>2.145039196690692e-06</v>
       </c>
       <c r="AD20" t="n">
-        <v>-1.144334956196372e-19</v>
+        <v>5.181410466746602e-08</v>
       </c>
       <c r="AE20" t="n">
-        <v>1.29379520371486e-19</v>
+        <v>-3.529565941483221e-07</v>
       </c>
       <c r="AF20" t="n">
-        <v>-2.611217261897498e-20</v>
+        <v>-3.777650656383941e-07</v>
       </c>
       <c r="AG20" t="n">
-        <v>-5.680458598152784e-19</v>
+        <v>-2.188057471023073e-07</v>
       </c>
       <c r="AH20" t="n">
-        <v>4.120725961337835e-17</v>
+        <v>9.25824873557737e-05</v>
       </c>
       <c r="AI20" t="n">
-        <v>3.488931344549807e-18</v>
+        <v>3.516929623821335e-05</v>
       </c>
       <c r="AJ20" t="n">
-        <v>1.106371459847674e-18</v>
+        <v>-2.003909395626859e-07</v>
       </c>
       <c r="AK20" t="n">
-        <v>3.980277494778578e-18</v>
+        <v>1.898696448363363e-05</v>
       </c>
       <c r="AL20" t="n">
-        <v>1.10184233162436e-18</v>
+        <v>3.015472004294884e-06</v>
       </c>
       <c r="AM20" t="n">
-        <v>4.06712136096186e-19</v>
+        <v>-5.948336798759541e-06</v>
       </c>
       <c r="AN20" t="n">
-        <v>5.192807636302856e-19</v>
+        <v>6.219523254978288e-06</v>
       </c>
       <c r="AO20" t="n">
-        <v>-3.428720839337639e-21</v>
+        <v>-7.16840302893942e-07</v>
       </c>
       <c r="AP20" t="n">
-        <v>2.303614956470678e-19</v>
+        <v>2.649074564204435e-06</v>
       </c>
       <c r="AQ20" t="n">
-        <v>-5.881143946116628e-21</v>
+        <v>-6.453113649839227e-07</v>
       </c>
       <c r="AR20" t="n">
-        <v>4.589265987410083e-20</v>
+        <v>-1.396221716831782e-06</v>
       </c>
       <c r="AS20" t="n">
-        <v>2.422179109187294e-20</v>
+        <v>1.04607145982496e-06</v>
       </c>
       <c r="AT20" t="n">
-        <v>-2.343226065901658e-20</v>
+        <v>-2.482530091022442e-07</v>
       </c>
       <c r="AU20" t="n">
-        <v>3.103616642503922e-20</v>
+        <v>6.44085767981782e-07</v>
       </c>
       <c r="AV20" t="n">
-        <v>-1.134658668954726e-20</v>
+        <v>-2.918861007630815e-07</v>
       </c>
       <c r="AW20" t="n">
-        <v>8.459489697960242e-21</v>
+        <v>-2.905559117597641e-07</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.742450312010088e-17</v>
+        <v>5.156338106416456e-05</v>
       </c>
       <c r="AY20" t="n">
-        <v>-3.342083493616706e-17</v>
+        <v>-2.736923245378355e-05</v>
       </c>
       <c r="AZ20" t="n">
-        <v>2.465098032353841e-17</v>
+        <v>7.864605639308772e-06</v>
       </c>
       <c r="BA20" t="n">
-        <v>-2.389077925103618e-17</v>
+        <v>-1.501123947431786e-05</v>
       </c>
       <c r="BB20" t="n">
-        <v>2.110836765084416e-17</v>
+        <v>3.661073764742856e-06</v>
       </c>
       <c r="BC20" t="n">
-        <v>-2.903944384319314e-18</v>
+        <v>1.175410100422838e-05</v>
       </c>
       <c r="BD20" t="n">
-        <v>-3.822830504372587e-18</v>
+        <v>-6.142694770489688e-06</v>
       </c>
       <c r="BE20" t="n">
-        <v>3.101499432362057e-18</v>
+        <v>1.437789152584833e-06</v>
       </c>
       <c r="BF20" t="n">
-        <v>-4.385195031523882e-18</v>
+        <v>-4.138136386850197e-06</v>
       </c>
       <c r="BG20" t="n">
-        <v>4.403741615196724e-18</v>
+        <v>1.532834554366294e-06</v>
       </c>
       <c r="BH20" t="n">
-        <v>-1.257639682896695e-18</v>
+        <v>2.386607668821409e-06</v>
       </c>
       <c r="BI20" t="n">
-        <v>-1.609930976215841e-19</v>
+        <v>-1.183409795300118e-06</v>
       </c>
       <c r="BJ20" t="n">
-        <v>1.211655768172082e-19</v>
+        <v>2.136087387313387e-07</v>
       </c>
       <c r="BK20" t="n">
-        <v>-6.567760224044039e-19</v>
+        <v>-1.086662792458165e-06</v>
       </c>
       <c r="BL20" t="n">
-        <v>8.604266504550713e-19</v>
+        <v>5.000765222778113e-07</v>
       </c>
       <c r="BM20" t="n">
-        <v>-3.234317188772881e-19</v>
+        <v>4.869474137058227e-07</v>
       </c>
     </row>
     <row r="21">
@@ -4503,196 +4503,196 @@
         <v>542</v>
       </c>
       <c r="B21" t="n">
-        <v>0.003379878357372633</v>
+        <v>-1.439040700861686e-16</v>
       </c>
       <c r="C21" t="n">
-        <v>0.003822671029313584</v>
+        <v>-8.99407020210174e-17</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0006275713320043972</v>
+        <v>-1.113313998493725e-17</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0004639250865986171</v>
+        <v>-8.794854672278436e-18</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0007617524892561347</v>
+        <v>-1.174593681936368e-17</v>
       </c>
       <c r="G21" t="n">
-        <v>0.000372998318279119</v>
+        <v>-5.703183498810796e-18</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001399373508826085</v>
+        <v>-8.119585794710021e-19</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001623974293959966</v>
+        <v>-1.278048954900948e-18</v>
       </c>
       <c r="J21" t="n">
-        <v>9.990842706337825e-05</v>
+        <v>-1.04147156193171e-18</v>
       </c>
       <c r="K21" t="n">
-        <v>5.11759660148643e-05</v>
+        <v>-2.237599896715753e-19</v>
       </c>
       <c r="L21" t="n">
-        <v>4.001311471745474e-05</v>
+        <v>-1.495678757513712e-19</v>
       </c>
       <c r="M21" t="n">
-        <v>2.501202705374265e-05</v>
+        <v>-1.536712406566955e-19</v>
       </c>
       <c r="N21" t="n">
-        <v>1.518006273588803e-05</v>
+        <v>-4.413828931484938e-20</v>
       </c>
       <c r="O21" t="n">
-        <v>1.081388279208168e-05</v>
+        <v>-2.444703033680418e-20</v>
       </c>
       <c r="P21" t="n">
-        <v>6.4880291905352e-06</v>
+        <v>-2.178293918227076e-20</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.190872318719843e-06</v>
+        <v>-6.896737754207424e-21</v>
       </c>
       <c r="R21" t="n">
-        <v>0.001402635258949178</v>
+        <v>-1.373648496015205e-16</v>
       </c>
       <c r="S21" t="n">
-        <v>-0.001712019140627562</v>
+        <v>1.775454365394073e-16</v>
       </c>
       <c r="T21" t="n">
-        <v>0.0002120131066332575</v>
+        <v>-2.424872589677442e-17</v>
       </c>
       <c r="U21" t="n">
-        <v>0.0004478213122796753</v>
+        <v>-4.718845379673417e-17</v>
       </c>
       <c r="V21" t="n">
-        <v>-0.0003755246378472575</v>
+        <v>3.621083774136971e-17</v>
       </c>
       <c r="W21" t="n">
-        <v>3.610643056920772e-06</v>
+        <v>-2.983208723613402e-19</v>
       </c>
       <c r="X21" t="n">
-        <v>8.881671647176425e-05</v>
+        <v>-9.784116364719945e-18</v>
       </c>
       <c r="Y21" t="n">
-        <v>-6.72972204370598e-05</v>
+        <v>5.693993014131225e-18</v>
       </c>
       <c r="Z21" t="n">
-        <v>4.656819468580325e-07</v>
+        <v>2.166041133986047e-19</v>
       </c>
       <c r="AA21" t="n">
-        <v>1.177075290119783e-05</v>
+        <v>-1.539069570482878e-18</v>
       </c>
       <c r="AB21" t="n">
-        <v>-1.218659614199955e-05</v>
+        <v>8.705247897829395e-19</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.420649429483469e-07</v>
+        <v>1.24110574182331e-20</v>
       </c>
       <c r="AD21" t="n">
-        <v>1.154155455883483e-06</v>
+        <v>-2.290797150789346e-19</v>
       </c>
       <c r="AE21" t="n">
-        <v>-2.435409346375155e-06</v>
+        <v>1.445292684848981e-19</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.0106800752223e-07</v>
+        <v>-6.653741681902364e-21</v>
       </c>
       <c r="AG21" t="n">
-        <v>3.22437637864691e-08</v>
+        <v>-3.506696464397555e-20</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.006950441155039209</v>
+        <v>-2.302592776900193e-16</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.001123597242441811</v>
+        <v>-1.912907854058535e-17</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.000511008129713219</v>
+        <v>-9.268099038480473e-18</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.0007241010556249897</v>
+        <v>-1.324218386852527e-17</v>
       </c>
       <c r="AL21" t="n">
-        <v>0.0006814934797301214</v>
+        <v>-1.137984474675423e-17</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.000205723199857674</v>
+        <v>-2.101414555511506e-18</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.0001595109578067782</v>
+        <v>-1.215216545994521e-18</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.000148831677719891</v>
+        <v>-1.438038211923227e-18</v>
       </c>
       <c r="AP21" t="n">
-        <v>7.853411912055553e-05</v>
+        <v>-6.800659703442675e-19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>4.460370051477215e-05</v>
+        <v>-1.47072157072311e-19</v>
       </c>
       <c r="AR21" t="n">
-        <v>3.541362355936227e-05</v>
+        <v>-1.820915437865592e-19</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.13424868023974e-05</v>
+        <v>-1.133274422464548e-19</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.335585531369857e-05</v>
+        <v>-3.25337974098499e-20</v>
       </c>
       <c r="AU21" t="n">
-        <v>9.107750192000457e-06</v>
+        <v>-2.468519483944993e-20</v>
       </c>
       <c r="AV21" t="n">
-        <v>5.637395611576843e-06</v>
+        <v>-1.663339377805946e-20</v>
       </c>
       <c r="AW21" t="n">
-        <v>3.71592335175716e-06</v>
+        <v>-5.780137546539925e-21</v>
       </c>
       <c r="AX21" t="n">
-        <v>-0.0006820837634548989</v>
+        <v>8.584827035412736e-17</v>
       </c>
       <c r="AY21" t="n">
-        <v>-0.0003951393812914724</v>
+        <v>3.769988907396776e-17</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.0003348664591382698</v>
+        <v>-3.793384477307584e-17</v>
       </c>
       <c r="BA21" t="n">
-        <v>1.688051547132417e-05</v>
+        <v>-1.138452031803416e-18</v>
       </c>
       <c r="BB21" t="n">
-        <v>-0.0002358706449616842</v>
+        <v>2.149123521927854e-17</v>
       </c>
       <c r="BC21" t="n">
-        <v>7.875011307498212e-05</v>
+        <v>-8.154540500663468e-18</v>
       </c>
       <c r="BD21" t="n">
-        <v>1.420284605786184e-05</v>
+        <v>-1.918479135577329e-18</v>
       </c>
       <c r="BE21" t="n">
-        <v>-4.580658295820911e-05</v>
+        <v>3.826047776128631e-18</v>
       </c>
       <c r="BF21" t="n">
-        <v>9.451274151887825e-06</v>
+        <v>-9.842822036411102e-19</v>
       </c>
       <c r="BG21" t="n">
-        <v>1.862611019473625e-06</v>
+        <v>-4.422231065122456e-19</v>
       </c>
       <c r="BH21" t="n">
-        <v>-7.819277236640228e-06</v>
+        <v>5.841696203467367e-19</v>
       </c>
       <c r="BI21" t="n">
-        <v>1.412457781268423e-06</v>
+        <v>-1.442851830830461e-19</v>
       </c>
       <c r="BJ21" t="n">
-        <v>-3.864878544217973e-07</v>
+        <v>-5.880655640710537e-20</v>
       </c>
       <c r="BK21" t="n">
-        <v>-1.368953925634919e-06</v>
+        <v>8.743696645039293e-20</v>
       </c>
       <c r="BL21" t="n">
-        <v>2.482352968077096e-07</v>
+        <v>-2.607127886605324e-20</v>
       </c>
       <c r="BM21" t="n">
-        <v>-2.224771105802895e-07</v>
+        <v>-6.78811824562319e-21</v>
       </c>
     </row>
   </sheetData>

--- a/ind-IRs-to-common-shocks.xlsx
+++ b/ind-IRs-to-common-shocks.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BM21"/>
+  <dimension ref="A1:BM20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -756,3944 +756,3653 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>112</v>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
       </c>
       <c r="B2" t="n">
-        <v>0.000150135692885436</v>
+        <v>0.0002499589041293174</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003926711231621193</v>
+        <v>7.573192498641132e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>5.045571717008145e-05</v>
+        <v>2.281731142785e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>1.47031357796681e-05</v>
+        <v>6.846238022000318e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>8.008414995295727e-06</v>
+        <v>2.047835542168502e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.457781674789119e-05</v>
+        <v>6.111199329723137e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>7.353939152070026e-06</v>
+        <v>1.820509157044416e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.119174922694156e-06</v>
+        <v>5.4160020509317e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>3.782648658472711e-06</v>
+        <v>1.609619033114753e-08</v>
       </c>
       <c r="K2" t="n">
-        <v>-3.171761962573622e-07</v>
+        <v>4.780029893155664e-09</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.00401780551963e-06</v>
+        <v>1.418668565788488e-09</v>
       </c>
       <c r="M2" t="n">
-        <v>5.624679196144378e-07</v>
+        <v>4.208570810373664e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.315405973501143e-07</v>
+        <v>1.248066829972778e-10</v>
       </c>
       <c r="O2" t="n">
-        <v>7.203350124517265e-08</v>
+        <v>3.700205043275716e-11</v>
       </c>
       <c r="P2" t="n">
-        <v>-4.212066781878225e-08</v>
+        <v>1.096794911287162e-11</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.243809768779919e-08</v>
+        <v>3.250553838551978e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>5.767220763344778e-06</v>
+        <v>3.066569952868231e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>-4.872797560992115e-06</v>
+        <v>-1.460917534841666e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.290533885082644e-06</v>
+        <v>-9.714817874426261e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26332374805487e-08</v>
+        <v>-4.10267491378824e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>4.215201261065681e-07</v>
+        <v>-1.493819928644068e-06</v>
       </c>
       <c r="W2" t="n">
-        <v>1.080759590322749e-07</v>
+        <v>-5.058291011392792e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.550934989917961e-07</v>
+        <v>-1.64236158452622e-07</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.229825817006167e-07</v>
+        <v>-5.192403717892971e-08</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.433703660349477e-10</v>
+        <v>-1.612533470196976e-08</v>
       </c>
       <c r="AA2" t="n">
-        <v>-3.048699394091564e-08</v>
+        <v>-4.94589321631626e-09</v>
       </c>
       <c r="AB2" t="n">
-        <v>-4.357418506891348e-09</v>
+        <v>-1.503551408871847e-09</v>
       </c>
       <c r="AC2" t="n">
-        <v>8.338352015319348e-09</v>
+        <v>-4.541300118825544e-10</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.246429852668601e-09</v>
+        <v>-1.365111165298375e-10</v>
       </c>
       <c r="AE2" t="n">
-        <v>-7.486287848636067e-09</v>
+        <v>-4.088939935996727e-11</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.095878912232398e-11</v>
+        <v>-1.221501519047062e-11</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.903866671944987e-09</v>
+        <v>-3.641686064258427e-12</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0005686178729459002</v>
+        <v>4.319509195144918e-06</v>
       </c>
       <c r="AI2" t="n">
-        <v>5.99795349386391e-05</v>
+        <v>1.175876103511504e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>7.24301098129685e-05</v>
+        <v>3.247493321967999e-07</v>
       </c>
       <c r="AK2" t="n">
-        <v>-3.209821813325194e-05</v>
+        <v>9.083792207760252e-08</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.658701877032464e-06</v>
+        <v>2.568932810882765e-08</v>
       </c>
       <c r="AM2" t="n">
-        <v>2.69323040991979e-06</v>
+        <v>7.332566956431382e-09</v>
       </c>
       <c r="AN2" t="n">
-        <v>-4.70109721941815e-06</v>
+        <v>2.109033790536641e-09</v>
       </c>
       <c r="AO2" t="n">
-        <v>5.57873476245585e-06</v>
+        <v>6.104068613378479e-10</v>
       </c>
       <c r="AP2" t="n">
-        <v>-2.393728135985808e-07</v>
+        <v>1.775555795897674e-10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>-1.624827561054737e-08</v>
+        <v>5.185429621520592e-11</v>
       </c>
       <c r="AR2" t="n">
-        <v>-4.357678987471457e-07</v>
+        <v>1.519169650574164e-11</v>
       </c>
       <c r="AS2" t="n">
-        <v>-6.968216711486045e-08</v>
+        <v>4.461738692389414e-12</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.774299079353064e-07</v>
+        <v>1.312933317507574e-12</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.45367670258364e-07</v>
+        <v>3.869325463472745e-13</v>
       </c>
       <c r="AV2" t="n">
-        <v>2.537148589792115e-08</v>
+        <v>1.14165572133339e-13</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.377480692903937e-08</v>
+        <v>3.37153444325462e-14</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.522752361101027e-06</v>
+        <v>-2.432055920778341e-05</v>
       </c>
       <c r="AY2" t="n">
-        <v>-1.326455442856711e-07</v>
+        <v>-5.751304749674071e-06</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-2.101593584244666e-06</v>
+        <v>-1.373279354689007e-06</v>
       </c>
       <c r="BA2" t="n">
-        <v>5.721281669667618e-07</v>
+        <v>-3.316716860338336e-07</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.203610938814687e-07</v>
+        <v>-8.116647676780005e-08</v>
       </c>
       <c r="BC2" t="n">
-        <v>-1.11481371642004e-07</v>
+        <v>-2.015911932385178e-08</v>
       </c>
       <c r="BD2" t="n">
-        <v>-8.264489652425957e-08</v>
+        <v>-5.088370599963357e-09</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.401281921487232e-08</v>
+        <v>-1.306459172766384e-09</v>
       </c>
       <c r="BF2" t="n">
-        <v>5.958874517553098e-08</v>
+        <v>-3.413362618630716e-10</v>
       </c>
       <c r="BG2" t="n">
-        <v>-2.916754238004609e-08</v>
+        <v>-9.072747227121522e-11</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.009207275909442e-08</v>
+        <v>-2.451429366206877e-11</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.193794458461085e-08</v>
+        <v>-6.724759553798038e-12</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.418682842691438e-09</v>
+        <v>-1.869930298886911e-12</v>
       </c>
       <c r="BK2" t="n">
-        <v>-2.736349411385702e-09</v>
+        <v>-5.261510640876987e-13</v>
       </c>
       <c r="BL2" t="n">
-        <v>-1.703556932804203e-09</v>
+        <v>-1.495440184142746e-13</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.816725210734641e-09</v>
+        <v>-4.286247548360363e-14</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>124</v>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Russia</t>
+        </is>
       </c>
       <c r="B3" t="n">
-        <v>0.0002878781731364179</v>
+        <v>-0.01247208884926686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.000363927074435622</v>
+        <v>-0.00259761964084626</v>
       </c>
       <c r="D3" t="n">
-        <v>2.420436857262094e-05</v>
+        <v>0.002638595304687448</v>
       </c>
       <c r="E3" t="n">
-        <v>4.56005817695087e-05</v>
+        <v>0.0009920467579371678</v>
       </c>
       <c r="F3" t="n">
-        <v>3.110166298605369e-05</v>
+        <v>0.001216174927293032</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.635932421763151e-05</v>
+        <v>0.0002624441670718364</v>
       </c>
       <c r="H3" t="n">
-        <v>5.24907982800892e-06</v>
+        <v>-0.0006720277498249276</v>
       </c>
       <c r="I3" t="n">
-        <v>-3.278113311251e-06</v>
+        <v>-0.0004875059774716816</v>
       </c>
       <c r="J3" t="n">
-        <v>-3.362883793143529e-06</v>
+        <v>-8.083789496883309e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>-2.801899425706975e-06</v>
+        <v>9.176121959758774e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>2.492479246379723e-06</v>
+        <v>0.0001698980105675226</v>
       </c>
       <c r="M3" t="n">
-        <v>-8.448891057859991e-07</v>
+        <v>-3.311562280129565e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>6.891272059092791e-07</v>
+        <v>-1.537541308267224e-05</v>
       </c>
       <c r="O3" t="n">
-        <v>-7.872404534184806e-09</v>
+        <v>1.431132176642492e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>-4.375881113933536e-08</v>
+        <v>2.286913359563256e-05</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.985344013679737e-08</v>
+        <v>-9.53394647484344e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>-3.142146298523407e-05</v>
+        <v>0.0002002638726802537</v>
       </c>
       <c r="S3" t="n">
-        <v>3.535436727480916e-05</v>
+        <v>-2.213630224083552e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>-1.606046697348383e-06</v>
+        <v>-6.800807606188626e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>-2.783263898205707e-06</v>
+        <v>-9.741205056791617e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>-3.03537111730073e-07</v>
+        <v>2.798086190531927e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>1.35446505479759e-06</v>
+        <v>8.424003184928677e-06</v>
       </c>
       <c r="X3" t="n">
-        <v>-4.127334069822909e-07</v>
+        <v>1.520301477943099e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>1.358603611525936e-07</v>
+        <v>-5.812359905015329e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>-3.868910264200968e-07</v>
+        <v>4.525870483142159e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>-1.066010563415928e-07</v>
+        <v>4.31399635195741e-06</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.35140725494175e-07</v>
+        <v>2.254414589747095e-06</v>
       </c>
       <c r="AC3" t="n">
-        <v>-2.785929605941054e-08</v>
+        <v>-5.993076396724966e-05</v>
       </c>
       <c r="AD3" t="n">
-        <v>-5.508307436137369e-08</v>
+        <v>4.564605490101856e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>2.457671884987178e-09</v>
+        <v>8.175044173947464e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.605834524098105e-08</v>
+        <v>5.593691593324939e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>-4.870880696611838e-09</v>
+        <v>-5.75028671031397e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.0006497594127022708</v>
+        <v>-0.001256261703832377</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.545204684232773e-05</v>
+        <v>-0.0008740648352823547</v>
       </c>
       <c r="AJ3" t="n">
-        <v>6.374060482449334e-05</v>
+        <v>-7.418262798252811e-05</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.438425141514676e-05</v>
+        <v>0.0003027655472340206</v>
       </c>
       <c r="AL3" t="n">
-        <v>-2.079521349668321e-06</v>
+        <v>-0.0005449009143138616</v>
       </c>
       <c r="AM3" t="n">
-        <v>-2.161555101914293e-05</v>
+        <v>-0.0001984661406391989</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.711284607326086e-06</v>
+        <v>0.0002101150711138262</v>
       </c>
       <c r="AO3" t="n">
-        <v>-8.822127617154624e-06</v>
+        <v>0.0003614353137033742</v>
       </c>
       <c r="AP3" t="n">
-        <v>-1.443900083272217e-06</v>
+        <v>-0.0005285302493241101</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1.671662010036501e-06</v>
+        <v>-0.0002020825545661648</v>
       </c>
       <c r="AR3" t="n">
-        <v>-8.158706760953715e-09</v>
+        <v>0.0002347523294704575</v>
       </c>
       <c r="AS3" t="n">
-        <v>-1.757555259697548e-07</v>
+        <v>0.0004065816175649672</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.400928012969597e-07</v>
+        <v>-0.0004701207687498053</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.036067674998638e-07</v>
+        <v>-0.0001832008749232752</v>
       </c>
       <c r="AV3" t="n">
-        <v>-4.987773989190143e-08</v>
+        <v>0.0002286744828867091</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.225687016861242e-08</v>
+        <v>0.0003994082600885816</v>
       </c>
       <c r="AX3" t="n">
-        <v>1.392138248152824e-05</v>
+        <v>-0.0004548468475511107</v>
       </c>
       <c r="AY3" t="n">
-        <v>3.972391476777085e-06</v>
+        <v>0.0001590320777461168</v>
       </c>
       <c r="AZ3" t="n">
-        <v>-4.916718815682544e-06</v>
+        <v>9.964096594063287e-05</v>
       </c>
       <c r="BA3" t="n">
-        <v>2.06486372869004e-06</v>
+        <v>6.237090350537208e-05</v>
       </c>
       <c r="BB3" t="n">
-        <v>2.541986916418765e-06</v>
+        <v>-0.0004074161715356444</v>
       </c>
       <c r="BC3" t="n">
-        <v>-1.744308860024956e-06</v>
+        <v>0.0001728257074874928</v>
       </c>
       <c r="BD3" t="n">
-        <v>-1.575609374232079e-07</v>
+        <v>0.0001177684775808738</v>
       </c>
       <c r="BE3" t="n">
-        <v>-2.675710050920951e-09</v>
+        <v>7.989876589982197e-05</v>
       </c>
       <c r="BF3" t="n">
-        <v>9.220506119165488e-08</v>
+        <v>-0.0003838305218304846</v>
       </c>
       <c r="BG3" t="n">
-        <v>-2.51377327821557e-08</v>
+        <v>0.0001703822668606232</v>
       </c>
       <c r="BH3" t="n">
-        <v>4.82007043553497e-09</v>
+        <v>0.0001195045992095789</v>
       </c>
       <c r="BI3" t="n">
-        <v>-6.149052823847835e-08</v>
+        <v>8.351151675609915e-05</v>
       </c>
       <c r="BJ3" t="n">
-        <v>4.444865918507813e-08</v>
+        <v>-0.0003702745382049986</v>
       </c>
       <c r="BK3" t="n">
-        <v>1.339279035744052e-08</v>
+        <v>0.0001623778177596557</v>
       </c>
       <c r="BL3" t="n">
-        <v>-1.197324739034692e-08</v>
+        <v>0.0001179953505449426</v>
       </c>
       <c r="BM3" t="n">
-        <v>-4.493967598105757e-09</v>
+        <v>8.510404194021317e-05</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>128</v>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Croatia</t>
+        </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0001037350471032701</v>
+        <v>-0.01340447763710962</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004781510256928292</v>
+        <v>-0.002355338807092421</v>
       </c>
       <c r="D4" t="n">
-        <v>3.495265754301218e-05</v>
+        <v>0.00322439867123357</v>
       </c>
       <c r="E4" t="n">
-        <v>6.778530827057114e-05</v>
+        <v>0.002426717057127414</v>
       </c>
       <c r="F4" t="n">
-        <v>1.557034603239456e-05</v>
+        <v>0.001887976999661214</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.911656604135603e-05</v>
+        <v>-0.0003278294362085113</v>
       </c>
       <c r="H4" t="n">
-        <v>-9.339419031701178e-06</v>
+        <v>-0.001287366023375286</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.111052761322293e-05</v>
+        <v>-0.0007235393475737337</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.075878980524911e-05</v>
+        <v>-0.0001637276566844221</v>
       </c>
       <c r="K4" t="n">
-        <v>-1.324636550931499e-06</v>
+        <v>0.0003002207761600925</v>
       </c>
       <c r="L4" t="n">
-        <v>4.087561642682209e-06</v>
+        <v>0.0004512114653947258</v>
       </c>
       <c r="M4" t="n">
-        <v>1.471301968012046e-07</v>
+        <v>0.000145341055877901</v>
       </c>
       <c r="N4" t="n">
-        <v>1.7528035330795e-06</v>
+        <v>-0.0001924428150873172</v>
       </c>
       <c r="O4" t="n">
-        <v>6.384776420773036e-07</v>
+        <v>-0.0002036959223106572</v>
       </c>
       <c r="P4" t="n">
-        <v>1.640972638956739e-07</v>
+        <v>6.880876760420681e-06</v>
       </c>
       <c r="Q4" t="n">
-        <v>-2.48049193814006e-08</v>
+        <v>7.402380924838596e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>3.581521938190006e-05</v>
+        <v>-0.0001527398952259301</v>
       </c>
       <c r="S4" t="n">
-        <v>-3.235559254226249e-05</v>
+        <v>-2.532193754156739e-06</v>
       </c>
       <c r="T4" t="n">
-        <v>-2.27501887653034e-06</v>
+        <v>2.53106462210255e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>-2.412262949040829e-06</v>
+        <v>0.0001133850690655301</v>
       </c>
       <c r="V4" t="n">
-        <v>7.642444873390577e-07</v>
+        <v>2.352973594153677e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>-8.382834439136883e-07</v>
+        <v>-4.343228892780173e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>5.245377665659764e-07</v>
+        <v>-3.66711716029418e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.810895929551833e-08</v>
+        <v>5.353740118096418e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.217059217108256e-07</v>
+        <v>1.18837169731875e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.043366830180277e-07</v>
+        <v>-3.433103537243998e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>-2.050954842689427e-07</v>
+        <v>-1.24471847216441e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>3.454368353643207e-08</v>
+        <v>5.539884354176578e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.4557026933833e-09</v>
+        <v>1.106631616026092e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>-4.582782025291857e-08</v>
+        <v>-4.763365750305478e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>-3.107880247217614e-08</v>
+        <v>-1.754831882644246e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>4.007332682049196e-09</v>
+        <v>5.322401685014712e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0006249563192299393</v>
+        <v>-0.0006445950341095861</v>
       </c>
       <c r="AI4" t="n">
-        <v>2.57537182902548e-05</v>
+        <v>-0.0009917877890339274</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.389507912737044e-05</v>
+        <v>-0.0003990007450472555</v>
       </c>
       <c r="AK4" t="n">
-        <v>4.890868037673008e-05</v>
+        <v>0.0004213896295895422</v>
       </c>
       <c r="AL4" t="n">
-        <v>-2.074610689730048e-05</v>
+        <v>0.0001223980526670682</v>
       </c>
       <c r="AM4" t="n">
-        <v>-4.495189663520669e-05</v>
+        <v>-0.0005347839501926861</v>
       </c>
       <c r="AN4" t="n">
-        <v>-2.365480298612499e-06</v>
+        <v>-0.0002906075543669415</v>
       </c>
       <c r="AO4" t="n">
-        <v>-1.469736607932049e-05</v>
+        <v>0.0003409657801087236</v>
       </c>
       <c r="AP4" t="n">
-        <v>-2.721149247325482e-06</v>
+        <v>6.665278783972634e-05</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.716017026340538e-06</v>
+        <v>-0.0005087126296724283</v>
       </c>
       <c r="AR4" t="n">
-        <v>1.116946506265776e-06</v>
+        <v>-0.0001931702640664422</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.6197285250154e-06</v>
+        <v>0.0004480675282011276</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.484279427784041e-06</v>
+        <v>0.0001428949139659717</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.415203745720459e-08</v>
+        <v>-0.0004978622469339363</v>
       </c>
       <c r="AV4" t="n">
-        <v>-2.709141767218974e-08</v>
+        <v>-0.0002056882089594981</v>
       </c>
       <c r="AW4" t="n">
-        <v>2.279557531684281e-08</v>
+        <v>0.0004563483158026895</v>
       </c>
       <c r="AX4" t="n">
-        <v>-5.944879630177884e-06</v>
+        <v>0.0004214351822502868</v>
       </c>
       <c r="AY4" t="n">
-        <v>-4.587358893051762e-06</v>
+        <v>-1.547978295835814e-05</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-2.975386472323171e-06</v>
+        <v>-0.0001443716367741423</v>
       </c>
       <c r="BA4" t="n">
-        <v>-4.6616695383987e-06</v>
+        <v>-2.638259381156993e-07</v>
       </c>
       <c r="BB4" t="n">
-        <v>-3.345305657121362e-07</v>
+        <v>0.0003422853571893834</v>
       </c>
       <c r="BC4" t="n">
-        <v>2.445064042892519e-06</v>
+        <v>-5.335058938248978e-06</v>
       </c>
       <c r="BD4" t="n">
-        <v>-4.467696224465778e-07</v>
+        <v>-0.000212150833987332</v>
       </c>
       <c r="BE4" t="n">
-        <v>2.807562917468959e-07</v>
+        <v>-7.735295122618524e-06</v>
       </c>
       <c r="BF4" t="n">
-        <v>3.424026419688867e-07</v>
+        <v>0.0003027560045743789</v>
       </c>
       <c r="BG4" t="n">
-        <v>1.489371062763412e-07</v>
+        <v>2.742089693508704e-06</v>
       </c>
       <c r="BH4" t="n">
-        <v>-9.920439599840129e-08</v>
+        <v>-0.0002440734339955185</v>
       </c>
       <c r="BI4" t="n">
-        <v>-2.724192887241576e-08</v>
+        <v>-1.175711276249527e-05</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-6.152667922374249e-08</v>
+        <v>0.0002877287258341529</v>
       </c>
       <c r="BK4" t="n">
-        <v>4.642533930278843e-09</v>
+        <v>1.028771701435968e-05</v>
       </c>
       <c r="BL4" t="n">
-        <v>-7.649158871472306e-09</v>
+        <v>-0.0002618345269249247</v>
       </c>
       <c r="BM4" t="n">
-        <v>-1.005923120120431e-08</v>
+        <v>-1.735702302297607e-05</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>132</v>
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Belarus</t>
+        </is>
       </c>
       <c r="B5" t="n">
-        <v>0.000199442600249807</v>
+        <v>-0.0105328426116115</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004081906660237505</v>
+        <v>-0.001591730123362439</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.988637573002795e-06</v>
+        <v>0.002781100568545389</v>
       </c>
       <c r="E5" t="n">
-        <v>6.48172852426761e-05</v>
+        <v>0.0009889901927044075</v>
       </c>
       <c r="F5" t="n">
-        <v>4.905289279473231e-05</v>
+        <v>0.0008251809354941366</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.663335245044263e-05</v>
+        <v>0.0001040556447082739</v>
       </c>
       <c r="H5" t="n">
-        <v>2.055934723710005e-05</v>
+        <v>-0.0003219082230902691</v>
       </c>
       <c r="I5" t="n">
-        <v>5.247140370283619e-06</v>
+        <v>-0.0003558014653627363</v>
       </c>
       <c r="J5" t="n">
-        <v>9.808117958609468e-07</v>
+        <v>-0.0002409824487244205</v>
       </c>
       <c r="K5" t="n">
-        <v>1.98416947537111e-07</v>
+        <v>0.0001066981116065365</v>
       </c>
       <c r="L5" t="n">
-        <v>1.061763640689227e-06</v>
+        <v>0.000371545589442316</v>
       </c>
       <c r="M5" t="n">
-        <v>5.667139087664745e-07</v>
+        <v>-3.263166176604545e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>3.909269224736827e-07</v>
+        <v>-0.0002227923017295831</v>
       </c>
       <c r="O5" t="n">
-        <v>-2.512415937183017e-07</v>
+        <v>1.467603016123097e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>1.307933221547955e-07</v>
+        <v>0.0002208563799336105</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.856432906158721e-08</v>
+        <v>-7.329563926958971e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>-4.07576969197954e-06</v>
+        <v>-0.0002136004875584928</v>
       </c>
       <c r="S5" t="n">
-        <v>3.961768903184407e-06</v>
+        <v>0.0002795464962101029</v>
       </c>
       <c r="T5" t="n">
-        <v>-1.508558783813588e-07</v>
+        <v>-9.731904729197263e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>1.447228786032052e-07</v>
+        <v>1.509134090039513e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>6.078431316730664e-08</v>
+        <v>-4.341560873233935e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>-1.136279723731346e-07</v>
+        <v>0.0001896602359987792</v>
       </c>
       <c r="X5" t="n">
-        <v>1.503920903493124e-07</v>
+        <v>-0.0001128052801827177</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.481653429671944e-08</v>
+        <v>-1.930979936560755e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>-5.367254289231714e-08</v>
+        <v>-3.746297936950324e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>5.356675657804561e-09</v>
+        <v>0.0001625998209002425</v>
       </c>
       <c r="AB5" t="n">
-        <v>1.227965156566878e-08</v>
+        <v>-8.716584943677695e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.900057083458448e-09</v>
+        <v>-3.366824568357838e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>-4.097324404226239e-09</v>
+        <v>-2.117554918964954e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>-2.068132344906004e-09</v>
+        <v>0.0001369486533356425</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.601996477956401e-09</v>
+        <v>-7.491299518346499e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>1.468441989564417e-09</v>
+        <v>-4.301070535103594e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.0006307562447094131</v>
+        <v>6.922966840751045e-05</v>
       </c>
       <c r="AI5" t="n">
-        <v>7.211933558933646e-06</v>
+        <v>-0.00139204523599051</v>
       </c>
       <c r="AJ5" t="n">
-        <v>4.627010993841728e-05</v>
+        <v>-0.0002764118114474998</v>
       </c>
       <c r="AK5" t="n">
-        <v>6.207449110799305e-05</v>
+        <v>0.0008689729013129036</v>
       </c>
       <c r="AL5" t="n">
-        <v>3.095869529430212e-05</v>
+        <v>-4.82917711103161e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>-4.833522718082521e-06</v>
+        <v>-0.001089740157320466</v>
       </c>
       <c r="AN5" t="n">
-        <v>1.075403087683914e-05</v>
+        <v>9.352962252624129e-06</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.773167447364681e-07</v>
+        <v>0.0008405020721209984</v>
       </c>
       <c r="AP5" t="n">
-        <v>5.153910148673415e-06</v>
+        <v>-3.110470959192759e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-7.994387009337715e-07</v>
+        <v>-0.0009672034863833042</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.473923909526865e-07</v>
+        <v>4.663768791512893e-05</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.860995973396343e-07</v>
+        <v>0.0008359305916588565</v>
       </c>
       <c r="AT5" t="n">
-        <v>6.154287124155114e-07</v>
+        <v>-3.11425526109388e-05</v>
       </c>
       <c r="AU5" t="n">
-        <v>-1.515879151579557e-07</v>
+        <v>-0.0008892505361840841</v>
       </c>
       <c r="AV5" t="n">
-        <v>4.338859450357619e-08</v>
+        <v>7.275083295747981e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>-1.532093485239548e-08</v>
+        <v>0.0008020982123507638</v>
       </c>
       <c r="AX5" t="n">
-        <v>1.288743643333945e-06</v>
+        <v>-0.0007161689681290952</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.045321550738343e-07</v>
+        <v>9.019029852591205e-05</v>
       </c>
       <c r="AZ5" t="n">
-        <v>-2.630062894202653e-07</v>
+        <v>0.0001806603079946683</v>
       </c>
       <c r="BA5" t="n">
-        <v>8.217552839521146e-07</v>
+        <v>5.589424373861232e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>-1.012525928378473e-07</v>
+        <v>-0.0005702834516113524</v>
       </c>
       <c r="BC5" t="n">
-        <v>-8.726994962484346e-08</v>
+        <v>0.0001245434197904944</v>
       </c>
       <c r="BD5" t="n">
-        <v>3.323071534284911e-08</v>
+        <v>0.000245145031996731</v>
       </c>
       <c r="BE5" t="n">
-        <v>6.752730383347916e-08</v>
+        <v>4.683134062024944e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>-1.798673361262093e-09</v>
+        <v>-0.0004846546244905359</v>
       </c>
       <c r="BG5" t="n">
-        <v>-1.005002326727406e-08</v>
+        <v>0.0001225657856856439</v>
       </c>
       <c r="BH5" t="n">
-        <v>-5.388599303873056e-09</v>
+        <v>0.0002679237466539825</v>
       </c>
       <c r="BI5" t="n">
-        <v>1.140597466333522e-08</v>
+        <v>2.545272026641084e-05</v>
       </c>
       <c r="BJ5" t="n">
-        <v>7.174581898915118e-10</v>
+        <v>-0.0004278095673335058</v>
       </c>
       <c r="BK5" t="n">
-        <v>-2.03855871533341e-09</v>
+        <v>0.0001134194752055613</v>
       </c>
       <c r="BL5" t="n">
-        <v>-1.059109257405366e-09</v>
+        <v>0.0002736518524534749</v>
       </c>
       <c r="BM5" t="n">
-        <v>1.390447454523892e-09</v>
+        <v>3.394126012969395e-06</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>134</v>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Georgia</t>
+        </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002225816967763895</v>
+        <v>-0.006817454136490148</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0004155406053673525</v>
+        <v>-0.002824349490402249</v>
       </c>
       <c r="D6" t="n">
-        <v>6.777222870035817e-06</v>
+        <v>0.001908746294458336</v>
       </c>
       <c r="E6" t="n">
-        <v>5.105274980458566e-05</v>
+        <v>0.0009183449647471652</v>
       </c>
       <c r="F6" t="n">
-        <v>2.260583412847473e-06</v>
+        <v>0.00141196092540656</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.935469302106473e-05</v>
+        <v>-0.0004708797051527248</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.225686457127822e-06</v>
+        <v>-0.0007148733136847689</v>
       </c>
       <c r="I6" t="n">
-        <v>-9.657777850658587e-06</v>
+        <v>-0.0009767874470779463</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.7594465600049e-06</v>
+        <v>0.000503078560413692</v>
       </c>
       <c r="K6" t="n">
-        <v>3.871752847417506e-07</v>
+        <v>0.0001313498933376699</v>
       </c>
       <c r="L6" t="n">
-        <v>3.234673491056698e-06</v>
+        <v>0.0005337048892192508</v>
       </c>
       <c r="M6" t="n">
-        <v>5.684473160926829e-07</v>
+        <v>-0.000473385020645305</v>
       </c>
       <c r="N6" t="n">
-        <v>1.221681272821391e-06</v>
+        <v>0.0002195642953954438</v>
       </c>
       <c r="O6" t="n">
-        <v>-3.59907499978907e-07</v>
+        <v>-0.0003286676193286278</v>
       </c>
       <c r="P6" t="n">
-        <v>-7.911117403853463e-08</v>
+        <v>0.0002696613894595519</v>
       </c>
       <c r="Q6" t="n">
-        <v>-9.25737669240753e-08</v>
+        <v>-0.0003676975644150233</v>
       </c>
       <c r="R6" t="n">
-        <v>-6.198387148634037e-06</v>
+        <v>0.001216055286032424</v>
       </c>
       <c r="S6" t="n">
-        <v>6.242808662443703e-06</v>
+        <v>-0.0002795745100847273</v>
       </c>
       <c r="T6" t="n">
-        <v>-2.900622610881352e-07</v>
+        <v>-0.0005691126335926916</v>
       </c>
       <c r="U6" t="n">
-        <v>7.323860559434038e-07</v>
+        <v>-0.0005830951630117643</v>
       </c>
       <c r="V6" t="n">
-        <v>-3.310993881299703e-07</v>
+        <v>0.0001573277791492809</v>
       </c>
       <c r="W6" t="n">
-        <v>-8.910341777058279e-08</v>
+        <v>0.0002197927588826258</v>
       </c>
       <c r="X6" t="n">
-        <v>1.353153041740866e-08</v>
+        <v>0.0002600650604791017</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.613919894085771e-09</v>
+        <v>-0.0003018505284590701</v>
       </c>
       <c r="Z6" t="n">
-        <v>-1.369717234845811e-07</v>
+        <v>8.963026103253453e-05</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.164592827372091e-10</v>
+        <v>-5.266494003405934e-05</v>
       </c>
       <c r="AB6" t="n">
-        <v>3.943341645888572e-08</v>
+        <v>6.847123617284079e-05</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.559471556595817e-09</v>
+        <v>-0.000240644385097675</v>
       </c>
       <c r="AD6" t="n">
-        <v>-2.046549317456359e-09</v>
+        <v>0.0002165385274900791</v>
       </c>
       <c r="AE6" t="n">
-        <v>-2.397421360221817e-09</v>
+        <v>2.065604119064575e-05</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.756397638481807e-09</v>
+        <v>5.76281716373613e-05</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.261996147066313e-09</v>
+        <v>-0.0002792229617869397</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.0006547165369731619</v>
+        <v>-0.001868834067770949</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.61714418227144e-05</v>
+        <v>0.00116936493897521</v>
       </c>
       <c r="AJ6" t="n">
-        <v>5.945318066193741e-05</v>
+        <v>-0.0009875989338892117</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.632469127839192e-05</v>
+        <v>0.0006297560445297976</v>
       </c>
       <c r="AL6" t="n">
-        <v>-2.56800715212558e-05</v>
+        <v>-0.001740714892398925</v>
       </c>
       <c r="AM6" t="n">
-        <v>-3.315476523367359e-05</v>
+        <v>0.001521490567209997</v>
       </c>
       <c r="AN6" t="n">
-        <v>-5.709778223869602e-06</v>
+        <v>-0.0003756569660115169</v>
       </c>
       <c r="AO6" t="n">
-        <v>-8.176211037217199e-06</v>
+        <v>0.0006658859921988707</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.195105784830873e-06</v>
+        <v>-0.001765616011150358</v>
       </c>
       <c r="AQ6" t="n">
-        <v>2.162422204895392e-06</v>
+        <v>0.001396342869298769</v>
       </c>
       <c r="AR6" t="n">
-        <v>8.372528965713698e-07</v>
+        <v>-0.0004281498384506311</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.022634461419965e-06</v>
+        <v>0.000690976793022293</v>
       </c>
       <c r="AT6" t="n">
-        <v>5.678727294764293e-07</v>
+        <v>-0.001603205660755752</v>
       </c>
       <c r="AU6" t="n">
-        <v>-1.817816045648471e-07</v>
+        <v>0.001383436954469312</v>
       </c>
       <c r="AV6" t="n">
-        <v>-2.070523667954578e-07</v>
+        <v>-0.0004561865280287833</v>
       </c>
       <c r="AW6" t="n">
-        <v>-1.258486298650471e-07</v>
+        <v>0.0006279972710057978</v>
       </c>
       <c r="AX6" t="n">
-        <v>2.107245117164421e-06</v>
+        <v>-0.001481409670242136</v>
       </c>
       <c r="AY6" t="n">
-        <v>5.604520756052448e-08</v>
+        <v>0.0008190640786055996</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3.178673447923526e-07</v>
+        <v>0.0004753683442458637</v>
       </c>
       <c r="BA6" t="n">
-        <v>9.883291704774935e-07</v>
+        <v>1.469140024617399e-05</v>
       </c>
       <c r="BB6" t="n">
-        <v>-1.309859346430065e-07</v>
+        <v>-0.001325822076303825</v>
       </c>
       <c r="BC6" t="n">
-        <v>-4.222976547602654e-07</v>
+        <v>0.0007759242408129056</v>
       </c>
       <c r="BD6" t="n">
-        <v>6.603624773802076e-09</v>
+        <v>0.0003994069690658975</v>
       </c>
       <c r="BE6" t="n">
-        <v>5.639666943957306e-09</v>
+        <v>5.369274018256173e-05</v>
       </c>
       <c r="BF6" t="n">
-        <v>-4.392644816939471e-10</v>
+        <v>-0.001201982913856476</v>
       </c>
       <c r="BG6" t="n">
-        <v>-2.44176360708461e-08</v>
+        <v>0.0007877262001044842</v>
       </c>
       <c r="BH6" t="n">
-        <v>1.995852031283559e-10</v>
+        <v>0.000353730878009706</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.738229096046846e-08</v>
+        <v>1.644672141746335e-05</v>
       </c>
       <c r="BJ6" t="n">
-        <v>1.01671138990708e-08</v>
+        <v>-0.00113987776187163</v>
       </c>
       <c r="BK6" t="n">
-        <v>-5.898404309652081e-09</v>
+        <v>0.0007840810099507797</v>
       </c>
       <c r="BL6" t="n">
-        <v>-2.274385390958972e-09</v>
+        <v>0.0003212902493106685</v>
       </c>
       <c r="BM6" t="n">
-        <v>1.252701883013457e-09</v>
+        <v>3.116573100228982e-06</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>136</v>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Chile</t>
+        </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0001904644632401063</v>
+        <v>-0.008623675750620171</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0003983417256357994</v>
+        <v>-0.001879112288707652</v>
       </c>
       <c r="D7" t="n">
-        <v>3.878085362306837e-05</v>
+        <v>0.0009725922072498075</v>
       </c>
       <c r="E7" t="n">
-        <v>4.651238016249173e-05</v>
+        <v>0.00164196744220046</v>
       </c>
       <c r="F7" t="n">
-        <v>8.427191285051169e-07</v>
+        <v>-0.0002231950821626442</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.754075029296813e-06</v>
+        <v>0.000136637873580965</v>
       </c>
       <c r="H7" t="n">
-        <v>1.658643485949087e-05</v>
+        <v>0.0002851856551143374</v>
       </c>
       <c r="I7" t="n">
-        <v>-5.147182890822775e-06</v>
+        <v>-1.200577253818945e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>-4.634875686592241e-07</v>
+        <v>-0.0001170399722588486</v>
       </c>
       <c r="K7" t="n">
-        <v>1.615039140903361e-06</v>
+        <v>0.0003533726535911293</v>
       </c>
       <c r="L7" t="n">
-        <v>-2.621784915396286e-07</v>
+        <v>0.0002792920756787848</v>
       </c>
       <c r="M7" t="n">
-        <v>4.218466615316853e-07</v>
+        <v>-0.0003134699009246316</v>
       </c>
       <c r="N7" t="n">
-        <v>-5.560765541082742e-07</v>
+        <v>-0.000283313979187826</v>
       </c>
       <c r="O7" t="n">
-        <v>1.160546820580121e-07</v>
+        <v>0.000260948453417635</v>
       </c>
       <c r="P7" t="n">
-        <v>2.446672972913055e-07</v>
+        <v>0.00029701597834457</v>
       </c>
       <c r="Q7" t="n">
-        <v>-1.491427707976664e-07</v>
+        <v>-0.0002457005427102546</v>
       </c>
       <c r="R7" t="n">
-        <v>-6.563148323342108e-06</v>
+        <v>-0.0001098106710501806</v>
       </c>
       <c r="S7" t="n">
-        <v>6.4186995940557e-06</v>
+        <v>-4.549295569279074e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>5.013753108142923e-08</v>
+        <v>2.582750593343553e-05</v>
       </c>
       <c r="U7" t="n">
-        <v>5.928846907939079e-07</v>
+        <v>9.793861666089557e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>-8.935013764362821e-07</v>
+        <v>9.735954875290758e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>2.105518214717027e-07</v>
+        <v>-4.241230838765178e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>3.615709924411425e-07</v>
+        <v>-4.637129392552176e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>-1.28925827362874e-07</v>
+        <v>1.618672305551682e-05</v>
       </c>
       <c r="Z7" t="n">
-        <v>-1.426904756375928e-07</v>
+        <v>8.113637150526353e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>9.271444738884014e-08</v>
+        <v>-3.05226726343195e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>2.255217874004469e-08</v>
+        <v>-4.193749042955812e-05</v>
       </c>
       <c r="AC7" t="n">
-        <v>-8.869044332581752e-09</v>
+        <v>-4.581519698540396e-06</v>
       </c>
       <c r="AD7" t="n">
-        <v>-2.951340782592036e-08</v>
+        <v>6.435834637666579e-05</v>
       </c>
       <c r="AE7" t="n">
-        <v>1.471067171466485e-08</v>
+        <v>-2.364351393281584e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.227194910291096e-09</v>
+        <v>-2.972026682911395e-05</v>
       </c>
       <c r="AG7" t="n">
-        <v>-6.400667660319582e-09</v>
+        <v>-8.314419704172826e-06</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0005772139337387716</v>
+        <v>2.23542025083285e-05</v>
       </c>
       <c r="AI7" t="n">
-        <v>2.941034007638933e-05</v>
+        <v>-0.000376652449185115</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8.373704649813404e-05</v>
+        <v>-0.0003624253650925</v>
       </c>
       <c r="AK7" t="n">
-        <v>4.602984580588334e-05</v>
+        <v>7.13277665321259e-05</v>
       </c>
       <c r="AL7" t="n">
-        <v>-3.360404071383267e-05</v>
+        <v>0.0001652580593675823</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.617381689653136e-05</v>
+        <v>-0.0001239424845959904</v>
       </c>
       <c r="AN7" t="n">
-        <v>-8.667920328663977e-07</v>
+        <v>-0.0002322574684730112</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.657059629074889e-07</v>
+        <v>0.0001031758429834993</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.60730465095683e-06</v>
+        <v>0.0001715481041557776</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-2.535897096559863e-06</v>
+        <v>-5.633272801843274e-05</v>
       </c>
       <c r="AR7" t="n">
-        <v>1.72641500449245e-06</v>
+        <v>-0.0001817429046259457</v>
       </c>
       <c r="AS7" t="n">
-        <v>-4.057641686120431e-09</v>
+        <v>8.15107635499582e-05</v>
       </c>
       <c r="AT7" t="n">
-        <v>-4.725883148703268e-07</v>
+        <v>0.000137309733505627</v>
       </c>
       <c r="AU7" t="n">
-        <v>1.682550635522605e-07</v>
+        <v>-3.693491819418909e-05</v>
       </c>
       <c r="AV7" t="n">
-        <v>-7.988240428396405e-09</v>
+        <v>-0.000153546766000793</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.323432961171389e-08</v>
+        <v>6.18206329285906e-05</v>
       </c>
       <c r="AX7" t="n">
-        <v>2.165651856032959e-06</v>
+        <v>-7.600203142869161e-05</v>
       </c>
       <c r="AY7" t="n">
-        <v>-9.969339233115964e-07</v>
+        <v>1.184334029629983e-05</v>
       </c>
       <c r="AZ7" t="n">
-        <v>1.416032962953137e-06</v>
+        <v>4.692736621711232e-06</v>
       </c>
       <c r="BA7" t="n">
-        <v>1.144291096325257e-06</v>
+        <v>2.127794501162218e-05</v>
       </c>
       <c r="BB7" t="n">
-        <v>-1.194863754586635e-06</v>
+        <v>-5.269808172678279e-05</v>
       </c>
       <c r="BC7" t="n">
-        <v>2.180690325405255e-07</v>
+        <v>2.100669364193769e-05</v>
       </c>
       <c r="BD7" t="n">
-        <v>1.308001800088258e-07</v>
+        <v>3.685112842821075e-06</v>
       </c>
       <c r="BE7" t="n">
-        <v>7.440129746736252e-08</v>
+        <v>2.430519743160378e-05</v>
       </c>
       <c r="BF7" t="n">
-        <v>-8.903071724181738e-08</v>
+        <v>-4.534966333419292e-05</v>
       </c>
       <c r="BG7" t="n">
-        <v>-4.32138743486953e-08</v>
+        <v>2.049061675230852e-05</v>
       </c>
       <c r="BH7" t="n">
-        <v>6.235243566466483e-08</v>
+        <v>-7.37957636920753e-07</v>
       </c>
       <c r="BI7" t="n">
-        <v>7.297291554558014e-09</v>
+        <v>2.413499273339174e-05</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-2.800100096899298e-08</v>
+        <v>-4.073222121124961e-05</v>
       </c>
       <c r="BK7" t="n">
-        <v>2.813787005617814e-09</v>
+        <v>1.92970535521562e-05</v>
       </c>
       <c r="BL7" t="n">
-        <v>7.271155962926224e-09</v>
+        <v>-4.389591994440003e-06</v>
       </c>
       <c r="BM7" t="n">
-        <v>1.677097956574728e-09</v>
+        <v>2.39228694454118e-05</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>138</v>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Philippines</t>
+        </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0002592514226815431</v>
+        <v>-0.01396051345341312</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0003755805645705154</v>
+        <v>-0.002158976928164716</v>
       </c>
       <c r="D8" t="n">
-        <v>1.002249374157083e-05</v>
+        <v>0.003116494644317403</v>
       </c>
       <c r="E8" t="n">
-        <v>5.177325831009248e-05</v>
+        <v>0.002192089939542271</v>
       </c>
       <c r="F8" t="n">
-        <v>2.737394264687057e-06</v>
+        <v>0.001487031770628142</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.152459574342834e-05</v>
+        <v>-0.0005671184083243523</v>
       </c>
       <c r="H8" t="n">
-        <v>-5.262369731943276e-06</v>
+        <v>-0.001265750274180509</v>
       </c>
       <c r="I8" t="n">
-        <v>-9.447177634897071e-06</v>
+        <v>-0.0004040237840816947</v>
       </c>
       <c r="J8" t="n">
-        <v>-1.695738912214105e-08</v>
+        <v>0.0002912140634641279</v>
       </c>
       <c r="K8" t="n">
-        <v>-1.232953460431744e-06</v>
+        <v>0.0002589337520266327</v>
       </c>
       <c r="L8" t="n">
-        <v>3.157236478542477e-06</v>
+        <v>1.566441433938606e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>3.341304442950293e-07</v>
+        <v>-4.385363863131341e-06</v>
       </c>
       <c r="N8" t="n">
-        <v>1.48606576769678e-06</v>
+        <v>7.323272804820467e-05</v>
       </c>
       <c r="O8" t="n">
-        <v>-3.783170429778052e-07</v>
+        <v>-8.87079396244289e-05</v>
       </c>
       <c r="P8" t="n">
-        <v>-9.807762157218428e-09</v>
+        <v>-0.000152722109937445</v>
       </c>
       <c r="Q8" t="n">
-        <v>-1.700560686587996e-07</v>
+        <v>3.810932301609093e-05</v>
       </c>
       <c r="R8" t="n">
-        <v>-1.934351428717971e-05</v>
+        <v>-0.0002139685894622191</v>
       </c>
       <c r="S8" t="n">
-        <v>1.886207600215969e-05</v>
+        <v>8.76301931360159e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>-3.217071015538329e-07</v>
+        <v>0.0001226768641403904</v>
       </c>
       <c r="U8" t="n">
-        <v>2.784265730215443e-06</v>
+        <v>8.401365196164062e-06</v>
       </c>
       <c r="V8" t="n">
-        <v>-1.828897045840118e-06</v>
+        <v>-7.700029338406603e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>4.993065322058662e-08</v>
+        <v>4.260461600450783e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>-5.049221517078684e-09</v>
+        <v>3.739630515009481e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.900182796880196e-07</v>
+        <v>-1.433675737670788e-05</v>
       </c>
       <c r="Z8" t="n">
-        <v>-5.083964433392731e-07</v>
+        <v>-7.584249789264906e-05</v>
       </c>
       <c r="AA8" t="n">
-        <v>-5.587560194849795e-08</v>
+        <v>5.330356006443507e-05</v>
       </c>
       <c r="AB8" t="n">
-        <v>1.298305674393872e-07</v>
+        <v>4.33782974644208e-05</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.53014805794666e-08</v>
+        <v>-1.264869908348796e-05</v>
       </c>
       <c r="AD8" t="n">
-        <v>-2.183948660183537e-08</v>
+        <v>-7.686769145436746e-05</v>
       </c>
       <c r="AE8" t="n">
-        <v>-2.35092876763602e-08</v>
+        <v>4.664935348882033e-05</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.577942488214339e-08</v>
+        <v>3.738901090664405e-05</v>
       </c>
       <c r="AG8" t="n">
-        <v>1.158633746875293e-08</v>
+        <v>-8.765036897952209e-06</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0006529566493388794</v>
+        <v>-0.0004521498910312746</v>
       </c>
       <c r="AI8" t="n">
-        <v>7.82458118593694e-06</v>
+        <v>-0.0002621452860699645</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7.286868581337918e-05</v>
+        <v>8.715320815176587e-05</v>
       </c>
       <c r="AK8" t="n">
-        <v>-2.155043051803827e-07</v>
+        <v>1.026038065505312e-05</v>
       </c>
       <c r="AL8" t="n">
-        <v>-1.69711909450184e-05</v>
+        <v>-0.0002313720854066402</v>
       </c>
       <c r="AM8" t="n">
-        <v>-3.13265341714508e-05</v>
+        <v>-5.848951006772484e-07</v>
       </c>
       <c r="AN8" t="n">
-        <v>-5.975975355876662e-06</v>
+        <v>0.0001723622650875499</v>
       </c>
       <c r="AO8" t="n">
-        <v>-8.932898128884764e-06</v>
+        <v>2.30397345042161e-05</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.788165177884282e-06</v>
+        <v>-0.0002305859267309316</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2.086148184715535e-06</v>
+        <v>-7.676493391619687e-06</v>
       </c>
       <c r="AR8" t="n">
-        <v>1.017020124743649e-06</v>
+        <v>0.0001707335949599321</v>
       </c>
       <c r="AS8" t="n">
-        <v>6.777338248153138e-07</v>
+        <v>4.288379770602197e-05</v>
       </c>
       <c r="AT8" t="n">
-        <v>5.65410218089746e-07</v>
+        <v>-0.0002023575145804124</v>
       </c>
       <c r="AU8" t="n">
-        <v>2.374078075812019e-08</v>
+        <v>-2.8840304993375e-06</v>
       </c>
       <c r="AV8" t="n">
-        <v>-1.925301220634293e-07</v>
+        <v>0.0001533864352618064</v>
       </c>
       <c r="AW8" t="n">
-        <v>-1.451692264308789e-07</v>
+        <v>3.983948602330101e-05</v>
       </c>
       <c r="AX8" t="n">
-        <v>7.680200554599926e-06</v>
+        <v>0.0001594425700768687</v>
       </c>
       <c r="AY8" t="n">
-        <v>-8.91344378941586e-07</v>
+        <v>-6.271483753174544e-05</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1.447276171548725e-06</v>
+        <v>-2.745786114883133e-05</v>
       </c>
       <c r="BA8" t="n">
-        <v>2.816050297406101e-06</v>
+        <v>-2.58022146100628e-05</v>
       </c>
       <c r="BB8" t="n">
-        <v>6.924665138301057e-08</v>
+        <v>0.0001395704320665578</v>
       </c>
       <c r="BC8" t="n">
-        <v>-1.514687047736843e-06</v>
+        <v>-6.944265506908824e-05</v>
       </c>
       <c r="BD8" t="n">
-        <v>-7.814413711513912e-08</v>
+        <v>-2.65116009081893e-05</v>
       </c>
       <c r="BE8" t="n">
-        <v>5.532890839862077e-08</v>
+        <v>-3.2987028249834e-05</v>
       </c>
       <c r="BF8" t="n">
-        <v>9.38934872433032e-08</v>
+        <v>0.0001303618711053087</v>
       </c>
       <c r="BG8" t="n">
-        <v>-1.330884394533024e-07</v>
+        <v>-7.035803289000637e-05</v>
       </c>
       <c r="BH8" t="n">
-        <v>-2.177587403008949e-08</v>
+        <v>-2.062965602868131e-05</v>
       </c>
       <c r="BI8" t="n">
-        <v>5.107538372744233e-08</v>
+        <v>-3.580223137803959e-05</v>
       </c>
       <c r="BJ8" t="n">
-        <v>5.505597415751022e-08</v>
+        <v>0.0001244436778162422</v>
       </c>
       <c r="BK8" t="n">
-        <v>-1.89176239119896e-08</v>
+        <v>-6.983709384066289e-05</v>
       </c>
       <c r="BL8" t="n">
-        <v>-1.567621144918746e-08</v>
+        <v>-1.44794592640089e-05</v>
       </c>
       <c r="BM8" t="n">
-        <v>2.249583307885301e-09</v>
+        <v>-3.804509305107701e-05</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>144</v>
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0002748179204801652</v>
+        <v>-0.00335437437461476</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002474352481558288</v>
+        <v>-0.0008066426345402565</v>
       </c>
       <c r="D9" t="n">
-        <v>4.211552379074189e-05</v>
+        <v>0.0004722323401855299</v>
       </c>
       <c r="E9" t="n">
-        <v>2.248683626370174e-05</v>
+        <v>0.0002873251635292895</v>
       </c>
       <c r="F9" t="n">
-        <v>2.426130838535815e-05</v>
+        <v>-9.126100083625855e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>-2.080942901562849e-05</v>
+        <v>-4.420483487031786e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>-4.167235693876173e-06</v>
+        <v>4.066278080620381e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>-3.863838527036071e-06</v>
+        <v>2.89542649134531e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>-2.284092628818411e-06</v>
+        <v>-7.15650083485053e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>-1.140660178539671e-06</v>
+        <v>3.395968285659243e-07</v>
       </c>
       <c r="L9" t="n">
-        <v>5.821988507074364e-07</v>
+        <v>4.74042660901004e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.75175191200211e-07</v>
+        <v>2.185441467076684e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.520279029654572e-07</v>
+        <v>-6.458426082469765e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>1.176921516184719e-07</v>
+        <v>-3.080064153293987e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>2.540958846330951e-08</v>
+        <v>4.273662903284871e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.373657840235217e-10</v>
+        <v>2.05613342774975e-05</v>
       </c>
       <c r="R9" t="n">
-        <v>-4.343814515520903e-05</v>
+        <v>2.577434633176392e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>4.2844329090981e-05</v>
+        <v>1.207828838857885e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>-3.756386863850712e-06</v>
+        <v>-1.6172626606111e-05</v>
       </c>
       <c r="U9" t="n">
-        <v>1.769579570100308e-06</v>
+        <v>-3.147990604941173e-05</v>
       </c>
       <c r="V9" t="n">
-        <v>4.356558274019106e-06</v>
+        <v>2.606441380487036e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>-1.123114626271086e-06</v>
+        <v>1.94884449295365e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>-7.154070608440232e-07</v>
+        <v>-1.275402668232363e-05</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.486612069847869e-07</v>
+        <v>-2.885817811889236e-05</v>
       </c>
       <c r="Z9" t="n">
-        <v>-4.424547060074099e-07</v>
+        <v>2.090427119761166e-05</v>
       </c>
       <c r="AA9" t="n">
-        <v>-2.560165491519081e-07</v>
+        <v>1.837150324103578e-05</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.143856302291235e-07</v>
+        <v>-1.063517001009228e-05</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.633174279927731e-10</v>
+        <v>-2.54909706797644e-05</v>
       </c>
       <c r="AD9" t="n">
-        <v>-2.168776284845406e-08</v>
+        <v>1.702891213367311e-05</v>
       </c>
       <c r="AE9" t="n">
-        <v>8.690955753526646e-09</v>
+        <v>1.70872594737281e-05</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.615622711035656e-09</v>
+        <v>-8.869185596644911e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.829055974844264e-09</v>
+        <v>-2.253737575754608e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0004957018140633161</v>
+        <v>-0.0002411417879041685</v>
       </c>
       <c r="AI9" t="n">
-        <v>5.697253578282468e-05</v>
+        <v>-0.0004190048641971001</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.01314094434973e-05</v>
+        <v>5.485339659105089e-06</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.210057868787452e-05</v>
+        <v>6.708328221030322e-05</v>
       </c>
       <c r="AL9" t="n">
-        <v>9.268582419080627e-06</v>
+        <v>0.0001402112550110006</v>
       </c>
       <c r="AM9" t="n">
-        <v>-1.37526014189235e-05</v>
+        <v>-0.000204432363883603</v>
       </c>
       <c r="AN9" t="n">
-        <v>-4.528462695395831e-06</v>
+        <v>-2.39430205072122e-06</v>
       </c>
       <c r="AO9" t="n">
-        <v>-6.700617641242082e-06</v>
+        <v>5.241781308684986e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>9.48317548843426e-07</v>
+        <v>0.0001241187712102378</v>
       </c>
       <c r="AQ9" t="n">
-        <v>5.198645373934662e-07</v>
+        <v>-0.0001639900691221224</v>
       </c>
       <c r="AR9" t="n">
-        <v>-5.14152847746027e-07</v>
+        <v>-9.850988506498726e-06</v>
       </c>
       <c r="AS9" t="n">
-        <v>-2.987738924063707e-07</v>
+        <v>4.970256617702023e-05</v>
       </c>
       <c r="AT9" t="n">
-        <v>6.513357483428808e-07</v>
+        <v>0.0001076672888324608</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.613165284749949e-07</v>
+        <v>-0.0001362905198395821</v>
       </c>
       <c r="AV9" t="n">
-        <v>-1.025512482721214e-07</v>
+        <v>-1.720336301951457e-05</v>
       </c>
       <c r="AW9" t="n">
-        <v>-6.143351637278865e-08</v>
+        <v>4.585436462528876e-05</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.40821604348184e-05</v>
+        <v>-0.0001140659011306308</v>
       </c>
       <c r="AY9" t="n">
-        <v>-9.425315201629456e-06</v>
+        <v>5.340985556044578e-05</v>
       </c>
       <c r="AZ9" t="n">
-        <v>-2.408700925836412e-06</v>
+        <v>3.156822130307982e-05</v>
       </c>
       <c r="BA9" t="n">
-        <v>1.530351597841209e-05</v>
+        <v>9.012890604214104e-06</v>
       </c>
       <c r="BB9" t="n">
-        <v>4.974950487106661e-07</v>
+        <v>-9.132289206470997e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>-5.584774060300866e-06</v>
+        <v>4.495103448493151e-05</v>
       </c>
       <c r="BD9" t="n">
-        <v>4.938386786665084e-07</v>
+        <v>3.312643677395521e-05</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.585628757496461e-06</v>
+        <v>8.1972033277875e-06</v>
       </c>
       <c r="BF9" t="n">
-        <v>-3.150869941685741e-07</v>
+        <v>-7.795250168361567e-05</v>
       </c>
       <c r="BG9" t="n">
-        <v>-6.946411253642015e-07</v>
+        <v>3.487661066984684e-05</v>
       </c>
       <c r="BH9" t="n">
-        <v>-3.558981543752946e-08</v>
+        <v>3.208935592700033e-05</v>
       </c>
       <c r="BI9" t="n">
-        <v>2.81585276441301e-07</v>
+        <v>7.201325434242603e-06</v>
       </c>
       <c r="BJ9" t="n">
-        <v>5.528807949508495e-08</v>
+        <v>-6.687224886780032e-05</v>
       </c>
       <c r="BK9" t="n">
-        <v>-1.278074136157063e-07</v>
+        <v>2.665973125419076e-05</v>
       </c>
       <c r="BL9" t="n">
-        <v>-2.120065011199859e-08</v>
+        <v>3.044299607686966e-05</v>
       </c>
       <c r="BM9" t="n">
-        <v>6.089661962399806e-08</v>
+        <v>6.511513562445282e-06</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>146</v>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CostaRica</t>
+        </is>
       </c>
       <c r="B10" t="n">
-        <v>0.000249251344690498</v>
+        <v>-0.004211389424389104</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004279153783084023</v>
+        <v>0.001801562945747068</v>
       </c>
       <c r="D10" t="n">
-        <v>5.912473232605499e-06</v>
+        <v>-0.0001451315792163281</v>
       </c>
       <c r="E10" t="n">
-        <v>5.313540506478162e-05</v>
+        <v>9.957940692377236e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>9.664155196012543e-06</v>
+        <v>-0.0002760248202494819</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.674804711895057e-05</v>
+        <v>0.0002180040073599001</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.169372952936124e-05</v>
+        <v>-0.0001393266924149872</v>
       </c>
       <c r="I10" t="n">
-        <v>-3.896914439216095e-06</v>
+        <v>8.072696263516521e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>-4.558505778387441e-06</v>
+        <v>-3.561899881855213e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>-1.639558418102692e-06</v>
+        <v>4.622352487852608e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.298822782758235e-06</v>
+        <v>-7.459301091585917e-05</v>
       </c>
       <c r="M10" t="n">
-        <v>6.372962023789322e-07</v>
+        <v>5.194203606023637e-05</v>
       </c>
       <c r="N10" t="n">
-        <v>8.756313768252687e-07</v>
+        <v>-9.764762860796175e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>5.311575769126224e-08</v>
+        <v>1.371188018495599e-05</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.294125452516715e-08</v>
+        <v>-4.089588735002298e-05</v>
       </c>
       <c r="Q10" t="n">
-        <v>-5.725531763743064e-08</v>
+        <v>3.262767526185956e-05</v>
       </c>
       <c r="R10" t="n">
-        <v>-1.585268570367533e-05</v>
+        <v>-3.324102987555109e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>1.447423445155914e-05</v>
+        <v>-0.000140366223564028</v>
       </c>
       <c r="T10" t="n">
-        <v>1.849054614650136e-08</v>
+        <v>7.004536453765569e-05</v>
       </c>
       <c r="U10" t="n">
-        <v>2.428868000500807e-06</v>
+        <v>0.0002635139221584385</v>
       </c>
       <c r="V10" t="n">
-        <v>-5.598258886069693e-07</v>
+        <v>-0.000271032375935618</v>
       </c>
       <c r="W10" t="n">
-        <v>-3.041526945598241e-07</v>
+        <v>-4.945388129882832e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>-7.199497750996121e-08</v>
+        <v>9.831184292090049e-05</v>
       </c>
       <c r="Y10" t="n">
-        <v>2.007021204327113e-07</v>
+        <v>0.0001531048600238268</v>
       </c>
       <c r="Z10" t="n">
-        <v>-3.452466076870116e-07</v>
+        <v>-0.0002017633582428767</v>
       </c>
       <c r="AA10" t="n">
-        <v>-1.425176783959664e-07</v>
+        <v>-2.005162282808896e-05</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.23319747283177e-07</v>
+        <v>9.090697051552346e-05</v>
       </c>
       <c r="AC10" t="n">
-        <v>3.689105057276535e-08</v>
+        <v>7.603019569579213e-05</v>
       </c>
       <c r="AD10" t="n">
-        <v>-1.469520656936227e-08</v>
+        <v>-0.0001384954403689712</v>
       </c>
       <c r="AE10" t="n">
-        <v>-1.35793018912358e-08</v>
+        <v>-3.664265669874047e-06</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.566826969858051e-08</v>
+        <v>7.37236597418614e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>6.523872701950959e-09</v>
+        <v>3.24313821898932e-05</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0006807093535351944</v>
+        <v>-6.0283971876563e-05</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.467711620584581e-05</v>
+        <v>4.57983784108557e-05</v>
       </c>
       <c r="AJ10" t="n">
-        <v>5.620649758759845e-05</v>
+        <v>-7.257117343298604e-05</v>
       </c>
       <c r="AK10" t="n">
-        <v>3.428977228644877e-05</v>
+        <v>7.780232546299756e-05</v>
       </c>
       <c r="AL10" t="n">
-        <v>-6.23360128278726e-06</v>
+        <v>-3.453775738594633e-05</v>
       </c>
       <c r="AM10" t="n">
-        <v>-4.689231045150149e-05</v>
+        <v>1.223931131860855e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>-4.027046249317675e-06</v>
+        <v>-4.052653189961699e-05</v>
       </c>
       <c r="AO10" t="n">
-        <v>-6.083110932620563e-06</v>
+        <v>5.197100213082437e-05</v>
       </c>
       <c r="AP10" t="n">
-        <v>-1.018384848264849e-07</v>
+        <v>-2.067277650406911e-05</v>
       </c>
       <c r="AQ10" t="n">
-        <v>9.483389413444108e-07</v>
+        <v>8.881540460746051e-07</v>
       </c>
       <c r="AR10" t="n">
-        <v>7.79577981024489e-07</v>
+        <v>-1.934990446598109e-05</v>
       </c>
       <c r="AS10" t="n">
-        <v>9.23339386023283e-07</v>
+        <v>3.178063794509458e-05</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.020379696222981e-06</v>
+        <v>-1.287589334332308e-05</v>
       </c>
       <c r="AU10" t="n">
-        <v>-2.337841560334812e-08</v>
+        <v>-2.908646027652812e-06</v>
       </c>
       <c r="AV10" t="n">
-        <v>-3.307627710196888e-07</v>
+        <v>-8.215139704254001e-06</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.184929601568799e-08</v>
+        <v>1.93043816781864e-05</v>
       </c>
       <c r="AX10" t="n">
-        <v>5.804678284431063e-06</v>
+        <v>-0.0003221546823674668</v>
       </c>
       <c r="AY10" t="n">
-        <v>-2.154585050943282e-06</v>
+        <v>8.038390210105508e-05</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2.134784182466687e-06</v>
+        <v>8.531987829242041e-05</v>
       </c>
       <c r="BA10" t="n">
-        <v>3.178000126163309e-06</v>
+        <v>-9.750266313907187e-06</v>
       </c>
       <c r="BB10" t="n">
-        <v>4.498302882574351e-07</v>
+        <v>-0.0001794106152369146</v>
       </c>
       <c r="BC10" t="n">
-        <v>-2.043407015252037e-06</v>
+        <v>7.929059931092063e-05</v>
       </c>
       <c r="BD10" t="n">
-        <v>2.385175639954667e-07</v>
+        <v>7.1633850620545e-05</v>
       </c>
       <c r="BE10" t="n">
-        <v>2.263112263260556e-07</v>
+        <v>-2.559289378101197e-05</v>
       </c>
       <c r="BF10" t="n">
-        <v>-3.299601777246877e-08</v>
+        <v>-0.0001056178867479846</v>
       </c>
       <c r="BG10" t="n">
-        <v>-2.341012989146199e-07</v>
+        <v>6.449376501011359e-05</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.170583205752792e-08</v>
+        <v>4.891737162871557e-05</v>
       </c>
       <c r="BI10" t="n">
-        <v>7.418460734902541e-08</v>
+        <v>-3.117065958383373e-05</v>
       </c>
       <c r="BJ10" t="n">
-        <v>4.033281137939998e-08</v>
+        <v>-6.190050581578163e-05</v>
       </c>
       <c r="BK10" t="n">
-        <v>-3.267790175880166e-08</v>
+        <v>4.989416596359252e-05</v>
       </c>
       <c r="BL10" t="n">
-        <v>-1.195147175136605e-08</v>
+        <v>3.042066366208748e-05</v>
       </c>
       <c r="BM10" t="n">
-        <v>1.436883973143224e-08</v>
+        <v>-2.969763515772696e-05</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>156</v>
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Lithuania</t>
+        </is>
       </c>
       <c r="B11" t="n">
-        <v>4.249010848261745e-05</v>
+        <v>-0.01124494479166272</v>
       </c>
       <c r="C11" t="n">
-        <v>-4.675644347118968e-07</v>
+        <v>-0.001520653198364417</v>
       </c>
       <c r="D11" t="n">
-        <v>7.70855823949513e-06</v>
+        <v>0.00266885419042949</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.270334974039178e-06</v>
+        <v>0.001348636604942609</v>
       </c>
       <c r="F11" t="n">
-        <v>4.760313908967239e-06</v>
+        <v>0.0005595281414116825</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.811459470846858e-06</v>
+        <v>-0.0002341283208079955</v>
       </c>
       <c r="H11" t="n">
-        <v>2.162394027764256e-06</v>
+        <v>-0.0003985426764480988</v>
       </c>
       <c r="I11" t="n">
-        <v>-5.444634885999541e-07</v>
+        <v>-0.0001005081014103814</v>
       </c>
       <c r="J11" t="n">
-        <v>3.935794341126496e-07</v>
+        <v>-0.000101081676487103</v>
       </c>
       <c r="K11" t="n">
-        <v>-2.791125141868813e-07</v>
+        <v>3.131156799055212e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>3.38107894230932e-07</v>
+        <v>0.0001862408915076848</v>
       </c>
       <c r="M11" t="n">
-        <v>-7.972051869664185e-08</v>
+        <v>7.414954970476478e-05</v>
       </c>
       <c r="N11" t="n">
-        <v>3.855256181237149e-08</v>
+        <v>-0.0001538275181453616</v>
       </c>
       <c r="O11" t="n">
-        <v>-5.112516539418513e-08</v>
+        <v>-7.631298914762942e-05</v>
       </c>
       <c r="P11" t="n">
-        <v>4.979650925892984e-08</v>
+        <v>0.0001182547388272683</v>
       </c>
       <c r="Q11" t="n">
-        <v>-8.999763600160726e-09</v>
+        <v>6.724241467487257e-05</v>
       </c>
       <c r="R11" t="n">
-        <v>-5.808454129247534e-06</v>
+        <v>4.827618317432849e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>9.256514223029588e-06</v>
+        <v>-9.583178369320356e-06</v>
       </c>
       <c r="T11" t="n">
-        <v>-4.715470129707216e-06</v>
+        <v>6.267415724130409e-05</v>
       </c>
       <c r="U11" t="n">
-        <v>9.584800939345432e-07</v>
+        <v>-0.0001243332437738888</v>
       </c>
       <c r="V11" t="n">
-        <v>1.508200178226743e-07</v>
+        <v>1.185154139864934e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>4.457885489314884e-07</v>
+        <v>6.296709643398501e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>-4.440702876703071e-07</v>
+        <v>3.647762769452132e-05</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.289515957009531e-07</v>
+        <v>-9.414465817093889e-05</v>
       </c>
       <c r="Z11" t="n">
-        <v>2.621479457841592e-09</v>
+        <v>-3.694385046253209e-06</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.882115805538186e-08</v>
+        <v>6.61388418182574e-05</v>
       </c>
       <c r="AB11" t="n">
-        <v>-6.237054888697093e-08</v>
+        <v>2.225588746447834e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.653647440595625e-08</v>
+        <v>-8.118656124590128e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>-4.499516772976222e-09</v>
+        <v>-7.600354744077047e-06</v>
       </c>
       <c r="AE11" t="n">
-        <v>1.334202260556799e-08</v>
+        <v>6.902513163157527e-05</v>
       </c>
       <c r="AF11" t="n">
-        <v>-7.97743317562331e-09</v>
+        <v>1.532772206112763e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>9.664315161104207e-10</v>
+        <v>-7.445180756781202e-05</v>
       </c>
       <c r="AH11" t="n">
-        <v>2.871864449936635e-05</v>
+        <v>4.014843455820409e-05</v>
       </c>
       <c r="AI11" t="n">
-        <v>1.201136166953156e-05</v>
+        <v>-0.001207381575236411</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1.904119483059824e-07</v>
+        <v>-0.0005087488712532211</v>
       </c>
       <c r="AK11" t="n">
-        <v>-2.539042733678585e-06</v>
+        <v>0.0003502992033153338</v>
       </c>
       <c r="AL11" t="n">
-        <v>4.481840477726661e-07</v>
+        <v>7.040955581303119e-05</v>
       </c>
       <c r="AM11" t="n">
-        <v>3.274419667451186e-06</v>
+        <v>-0.0006387329502917993</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.50693670705519e-07</v>
+        <v>-0.0001451339775537079</v>
       </c>
       <c r="AO11" t="n">
-        <v>-9.159208971109821e-07</v>
+        <v>0.0004622386568182677</v>
       </c>
       <c r="AP11" t="n">
-        <v>-2.537469017854933e-07</v>
+        <v>7.964270109385136e-05</v>
       </c>
       <c r="AQ11" t="n">
-        <v>5.351798732542363e-07</v>
+        <v>-0.0005700032314892271</v>
       </c>
       <c r="AR11" t="n">
-        <v>2.04154588846823e-07</v>
+        <v>-0.0001086438667279979</v>
       </c>
       <c r="AS11" t="n">
-        <v>-1.559555879528071e-07</v>
+        <v>0.0004961741849321868</v>
       </c>
       <c r="AT11" t="n">
-        <v>-1.003256558769559e-07</v>
+        <v>9.11568422481247e-05</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.013289266066819e-08</v>
+        <v>-0.0005175015664254261</v>
       </c>
       <c r="AV11" t="n">
-        <v>5.29991360575981e-08</v>
+        <v>-8.676562118368263e-05</v>
       </c>
       <c r="AW11" t="n">
-        <v>-1.684225311012545e-08</v>
+        <v>0.0004855017759391453</v>
       </c>
       <c r="AX11" t="n">
-        <v>8.593801706725683e-06</v>
+        <v>-0.000512202851873453</v>
       </c>
       <c r="AY11" t="n">
-        <v>-5.529836908928941e-06</v>
+        <v>5.072483337081829e-05</v>
       </c>
       <c r="AZ11" t="n">
-        <v>-8.92104753758968e-07</v>
+        <v>0.0001908454348889969</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.918906484025655e-06</v>
+        <v>4.372283268432603e-06</v>
       </c>
       <c r="BB11" t="n">
-        <v>5.96105176035404e-07</v>
+        <v>-0.0003746552979910644</v>
       </c>
       <c r="BC11" t="n">
-        <v>-6.809957672271749e-07</v>
+        <v>4.631743467543516e-05</v>
       </c>
       <c r="BD11" t="n">
-        <v>-2.744861605670838e-07</v>
+        <v>0.0002507635651891117</v>
       </c>
       <c r="BE11" t="n">
-        <v>2.611198688517257e-07</v>
+        <v>-1.108118314065868e-05</v>
       </c>
       <c r="BF11" t="n">
-        <v>1.531894887664234e-07</v>
+        <v>-0.0003147467971448381</v>
       </c>
       <c r="BG11" t="n">
-        <v>-8.741327816868208e-08</v>
+        <v>4.169023549593001e-05</v>
       </c>
       <c r="BH11" t="n">
-        <v>-6.686495989386325e-08</v>
+        <v>0.000263064741423747</v>
       </c>
       <c r="BI11" t="n">
-        <v>2.354237960042769e-08</v>
+        <v>-2.383519513086031e-05</v>
       </c>
       <c r="BJ11" t="n">
-        <v>3.503865467234037e-08</v>
+        <v>-0.00028377946705019</v>
       </c>
       <c r="BK11" t="n">
-        <v>-5.723331252020211e-09</v>
+        <v>4.010279071250731e-05</v>
       </c>
       <c r="BL11" t="n">
-        <v>-1.473751708403849e-08</v>
+        <v>0.0002593014128646509</v>
       </c>
       <c r="BM11" t="n">
-        <v>-1.469306037592474e-10</v>
+        <v>-3.238152266751837e-05</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>158</v>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>NewZealand</t>
+        </is>
       </c>
       <c r="B12" t="n">
-        <v>6.014346840733705e-05</v>
+        <v>-0.001844770950923809</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003733645384210431</v>
+        <v>-0.0005252721056858477</v>
       </c>
       <c r="D12" t="n">
-        <v>1.749560727215773e-05</v>
+        <v>0.0003409218328701549</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.135074672510101e-06</v>
+        <v>0.0002330757610616912</v>
       </c>
       <c r="F12" t="n">
-        <v>-6.613755618543012e-06</v>
+        <v>-1.724212818082704e-05</v>
       </c>
       <c r="G12" t="n">
-        <v>3.919663592122274e-05</v>
+        <v>-6.382315009443081e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>1.348496312456435e-05</v>
+        <v>-1.532173342893182e-05</v>
       </c>
       <c r="I12" t="n">
-        <v>-5.396399059032068e-06</v>
+        <v>1.13453294446733e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>-6.723113913976122e-06</v>
+        <v>7.445738882396754e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>7.328103769530768e-06</v>
+        <v>-5.426226723386777e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>3.499998837483656e-06</v>
+        <v>-2.068992621807933e-06</v>
       </c>
       <c r="M12" t="n">
-        <v>-1.875516368717342e-06</v>
+        <v>-5.12732290966494e-07</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.846385017632714e-06</v>
+        <v>3.671196111080049e-07</v>
       </c>
       <c r="O12" t="n">
-        <v>1.381278538409085e-06</v>
+        <v>2.463042958362792e-07</v>
       </c>
       <c r="P12" t="n">
-        <v>8.597034754592376e-07</v>
+        <v>-1.641541287521996e-08</v>
       </c>
       <c r="Q12" t="n">
-        <v>-4.286635764698607e-07</v>
+        <v>-6.804469817288168e-08</v>
       </c>
       <c r="R12" t="n">
-        <v>4.422399883762816e-05</v>
+        <v>-0.0001133302537582249</v>
       </c>
       <c r="S12" t="n">
-        <v>-4.717817209545399e-05</v>
+        <v>6.176850202814514e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>-3.877951268038286e-06</v>
+        <v>7.775046083533069e-05</v>
       </c>
       <c r="U12" t="n">
-        <v>5.835327139799341e-06</v>
+        <v>-3.84137821911569e-06</v>
       </c>
       <c r="V12" t="n">
-        <v>9.549641969308758e-06</v>
+        <v>-2.355009655523186e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>-8.892539856235516e-06</v>
+        <v>-4.887157153101229e-06</v>
       </c>
       <c r="X12" t="n">
-        <v>-1.793051593002268e-06</v>
+        <v>4.661912561255115e-06</v>
       </c>
       <c r="Y12" t="n">
-        <v>1.73452055781278e-06</v>
+        <v>2.531742451738756e-06</v>
       </c>
       <c r="Z12" t="n">
-        <v>2.148884883668505e-06</v>
+        <v>-4.050999478932331e-07</v>
       </c>
       <c r="AA12" t="n">
-        <v>-1.645273358964732e-06</v>
+        <v>-7.530984410373949e-07</v>
       </c>
       <c r="AB12" t="n">
-        <v>-6.247505968565867e-07</v>
+        <v>-1.330804277500917e-07</v>
       </c>
       <c r="AC12" t="n">
-        <v>4.149684768813192e-07</v>
+        <v>1.482424048777899e-07</v>
       </c>
       <c r="AD12" t="n">
-        <v>5.059645306910542e-07</v>
+        <v>8.063886795178541e-08</v>
       </c>
       <c r="AE12" t="n">
-        <v>-3.079674940958834e-07</v>
+        <v>-1.229671792347337e-08</v>
       </c>
       <c r="AF12" t="n">
-        <v>-1.836986667716763e-07</v>
+        <v>-2.447248789122826e-08</v>
       </c>
       <c r="AG12" t="n">
-        <v>9.009853362901657e-08</v>
+        <v>-4.56544120506658e-09</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0004126322376578592</v>
+        <v>-5.667059030262301e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>7.114966536862254e-05</v>
+        <v>-7.700705123095396e-05</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-3.770384182700733e-06</v>
+        <v>9.594216730967735e-06</v>
       </c>
       <c r="AK12" t="n">
-        <v>3.109898663452903e-05</v>
+        <v>2.803950025104307e-05</v>
       </c>
       <c r="AL12" t="n">
-        <v>2.0746529533524e-05</v>
+        <v>3.905105476336399e-06</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.271722760167978e-05</v>
+        <v>-6.377551473475951e-06</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.960148320299493e-06</v>
+        <v>-2.7022878622261e-06</v>
       </c>
       <c r="AO12" t="n">
-        <v>-1.01042677136171e-06</v>
+        <v>8.11315604061255e-07</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.201261000228306e-06</v>
+        <v>9.0990211657568e-07</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.034993520820385e-06</v>
+        <v>7.704588312011679e-08</v>
       </c>
       <c r="AR12" t="n">
-        <v>-2.376207243766666e-07</v>
+        <v>-2.041939543765025e-07</v>
       </c>
       <c r="AS12" t="n">
-        <v>-7.82983046356974e-07</v>
+        <v>-8.38222479122803e-08</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.690207083320416e-07</v>
+        <v>2.539247819533712e-08</v>
       </c>
       <c r="AU12" t="n">
-        <v>5.999683319358201e-07</v>
+        <v>2.93979280798473e-08</v>
       </c>
       <c r="AV12" t="n">
-        <v>-8.32919177775718e-08</v>
+        <v>2.788849651512442e-09</v>
       </c>
       <c r="AW12" t="n">
-        <v>-2.157934875839717e-07</v>
+        <v>-6.63498330535317e-09</v>
       </c>
       <c r="AX12" t="n">
-        <v>-6.4459266791698e-06</v>
+        <v>0.0001211065616595247</v>
       </c>
       <c r="AY12" t="n">
-        <v>-1.397903999868284e-05</v>
+        <v>-5.644049836517429e-06</v>
       </c>
       <c r="AZ12" t="n">
-        <v>3.651806651083911e-06</v>
+        <v>-5.596391993309508e-06</v>
       </c>
       <c r="BA12" t="n">
-        <v>2.711380368013308e-06</v>
+        <v>2.877367434362951e-06</v>
       </c>
       <c r="BB12" t="n">
-        <v>-1.774719764811024e-06</v>
+        <v>-8.421779942545265e-07</v>
       </c>
       <c r="BC12" t="n">
-        <v>-2.63004152122726e-06</v>
+        <v>-1.161251283345174e-06</v>
       </c>
       <c r="BD12" t="n">
-        <v>8.817187873379614e-07</v>
+        <v>2.097624600738905e-07</v>
       </c>
       <c r="BE12" t="n">
-        <v>7.848358310214982e-07</v>
+        <v>3.587253349032454e-07</v>
       </c>
       <c r="BF12" t="n">
-        <v>-3.042720100874026e-07</v>
+        <v>1.967952983374167e-08</v>
       </c>
       <c r="BG12" t="n">
-        <v>-5.56398626536958e-07</v>
+        <v>-8.265640519933747e-08</v>
       </c>
       <c r="BH12" t="n">
-        <v>1.551851584893954e-07</v>
+        <v>-2.67910906370393e-08</v>
       </c>
       <c r="BI12" t="n">
-        <v>2.130377960916388e-07</v>
+        <v>1.214086002229205e-08</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-4.784626381975173e-08</v>
+        <v>1.022182575146466e-08</v>
       </c>
       <c r="BK12" t="n">
-        <v>-1.267430544647606e-07</v>
+        <v>1.948365182048541e-10</v>
       </c>
       <c r="BL12" t="n">
-        <v>2.453297496368238e-08</v>
+        <v>-2.506111877177766e-09</v>
       </c>
       <c r="BM12" t="n">
-        <v>5.392927791694086e-08</v>
+        <v>-8.481686077771498e-10</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>174</v>
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Peru</t>
+        </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0003856531131026665</v>
+        <v>3.350854589930979e-16</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.033109426218043e-06</v>
+        <v>8.57641546884664e-17</v>
       </c>
       <c r="D13" t="n">
-        <v>7.840549508150306e-05</v>
+        <v>5.827727981547471e-18</v>
       </c>
       <c r="E13" t="n">
-        <v>3.955783521495661e-06</v>
+        <v>-4.620780776611795e-17</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.31382462538522e-05</v>
+        <v>2.751924501713556e-19</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.235384059974837e-05</v>
+        <v>1.813586247263823e-17</v>
       </c>
       <c r="H13" t="n">
-        <v>-3.710504422597354e-06</v>
+        <v>1.389945995986441e-17</v>
       </c>
       <c r="I13" t="n">
-        <v>1.59632839596382e-07</v>
+        <v>3.230587888701884e-18</v>
       </c>
       <c r="J13" t="n">
-        <v>2.826198667945928e-06</v>
+        <v>-1.134100148960023e-18</v>
       </c>
       <c r="K13" t="n">
-        <v>6.137796669093398e-07</v>
+        <v>5.378990089184732e-18</v>
       </c>
       <c r="L13" t="n">
-        <v>2.099958329451269e-07</v>
+        <v>1.72624826750084e-18</v>
       </c>
       <c r="M13" t="n">
-        <v>9.399247038336122e-07</v>
+        <v>1.975858643188285e-18</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.753287464082681e-07</v>
+        <v>-1.357950914947365e-18</v>
       </c>
       <c r="O13" t="n">
-        <v>-1.585960621207108e-07</v>
+        <v>4.11677611147856e-18</v>
       </c>
       <c r="P13" t="n">
-        <v>-1.405154754480618e-07</v>
+        <v>3.061998965646183e-19</v>
       </c>
       <c r="Q13" t="n">
-        <v>-4.958295091906527e-08</v>
+        <v>1.25107388871035e-18</v>
       </c>
       <c r="R13" t="n">
-        <v>-8.016385619053004e-05</v>
+        <v>-1.822089403079222e-16</v>
       </c>
       <c r="S13" t="n">
-        <v>0.000124163604545974</v>
+        <v>2.248126013204231e-17</v>
       </c>
       <c r="T13" t="n">
-        <v>-4.914232966166012e-05</v>
+        <v>3.172965824986415e-17</v>
       </c>
       <c r="U13" t="n">
-        <v>6.294684062244992e-06</v>
+        <v>5.096098773166992e-17</v>
       </c>
       <c r="V13" t="n">
-        <v>3.533858785886733e-06</v>
+        <v>1.272870653504502e-17</v>
       </c>
       <c r="W13" t="n">
-        <v>-1.059031270303948e-05</v>
+        <v>2.564443090085199e-17</v>
       </c>
       <c r="X13" t="n">
-        <v>1.079486497286717e-05</v>
+        <v>1.033556471223158e-18</v>
       </c>
       <c r="Y13" t="n">
-        <v>-6.336345779701983e-06</v>
+        <v>5.145158816979649e-18</v>
       </c>
       <c r="Z13" t="n">
-        <v>6.050276738464323e-07</v>
+        <v>-2.674856738717085e-19</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.592109218204885e-06</v>
+        <v>1.908324822885671e-17</v>
       </c>
       <c r="AB13" t="n">
-        <v>-1.190528412380551e-06</v>
+        <v>2.329076783362274e-18</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.875546017294177e-07</v>
+        <v>2.492987108973205e-18</v>
       </c>
       <c r="AD13" t="n">
-        <v>-4.895964811208004e-07</v>
+        <v>-6.132034781310492e-18</v>
       </c>
       <c r="AE13" t="n">
-        <v>8.668954005833435e-09</v>
+        <v>1.148830834412567e-17</v>
       </c>
       <c r="AF13" t="n">
-        <v>2.023625985982118e-07</v>
+        <v>5.077701363974743e-19</v>
       </c>
       <c r="AG13" t="n">
-        <v>-1.697661849286813e-07</v>
+        <v>2.983311323903732e-18</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0002795077704572153</v>
+        <v>5.200162940398799e-17</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.356111648779975e-05</v>
+        <v>-5.933756723342589e-18</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.983642615401861e-05</v>
+        <v>2.257094138429085e-18</v>
       </c>
       <c r="AK13" t="n">
-        <v>-4.422820566189683e-05</v>
+        <v>-1.284721676988606e-17</v>
       </c>
       <c r="AL13" t="n">
-        <v>-2.424311506130926e-05</v>
+        <v>5.150275074523298e-17</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.643762147689548e-06</v>
+        <v>-5.080107895749152e-18</v>
       </c>
       <c r="AN13" t="n">
-        <v>-3.725250765960317e-06</v>
+        <v>2.909706666169467e-18</v>
       </c>
       <c r="AO13" t="n">
-        <v>-7.634719672818144e-07</v>
+        <v>-2.434329301952605e-17</v>
       </c>
       <c r="AP13" t="n">
-        <v>7.870227601688316e-07</v>
+        <v>3.621117281073781e-17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.791128374766731e-06</v>
+        <v>-5.154730422133643e-18</v>
       </c>
       <c r="AR13" t="n">
-        <v>1.336629589872069e-06</v>
+        <v>7.767441178062811e-18</v>
       </c>
       <c r="AS13" t="n">
-        <v>-5.17271868079201e-07</v>
+        <v>-2.562814723190435e-17</v>
       </c>
       <c r="AT13" t="n">
-        <v>-3.245958474283998e-07</v>
+        <v>2.619991780871358e-17</v>
       </c>
       <c r="AU13" t="n">
-        <v>-4.675386494940764e-09</v>
+        <v>-6.18198398159948e-18</v>
       </c>
       <c r="AV13" t="n">
-        <v>-2.292450704175286e-08</v>
+        <v>1.124395265947914e-17</v>
       </c>
       <c r="AW13" t="n">
-        <v>1.757412689371802e-09</v>
+        <v>-2.399992184899628e-17</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0001106069362063501</v>
+        <v>2.254855575794018e-16</v>
       </c>
       <c r="AY13" t="n">
-        <v>-6.697785464728132e-05</v>
+        <v>-2.016881280613513e-17</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1.639061967968746e-06</v>
+        <v>-1.272363162689549e-17</v>
       </c>
       <c r="BA13" t="n">
-        <v>1.777088070771987e-05</v>
+        <v>-6.024822096665147e-17</v>
       </c>
       <c r="BB13" t="n">
-        <v>-9.068904818979727e-06</v>
+        <v>1.458756263977994e-16</v>
       </c>
       <c r="BC13" t="n">
-        <v>3.936204933840546e-06</v>
+        <v>-1.770326062225913e-17</v>
       </c>
       <c r="BD13" t="n">
-        <v>-5.176428210521791e-06</v>
+        <v>4.221729037705183e-18</v>
       </c>
       <c r="BE13" t="n">
-        <v>8.218787780403832e-07</v>
+        <v>-7.518066439088609e-17</v>
       </c>
       <c r="BF13" t="n">
-        <v>2.452191202917405e-06</v>
+        <v>1.042780418148685e-16</v>
       </c>
       <c r="BG13" t="n">
-        <v>-1.543781104517873e-06</v>
+        <v>-1.670626415373184e-17</v>
       </c>
       <c r="BH13" t="n">
-        <v>3.876611782358016e-07</v>
+        <v>1.95288132004966e-17</v>
       </c>
       <c r="BI13" t="n">
-        <v>-9.028713535095892e-08</v>
+        <v>-7.677835574398287e-17</v>
       </c>
       <c r="BJ13" t="n">
-        <v>9.332772316788537e-09</v>
+        <v>7.650608026584854e-17</v>
       </c>
       <c r="BK13" t="n">
-        <v>1.675137910887011e-07</v>
+        <v>-1.800179381524212e-17</v>
       </c>
       <c r="BL13" t="n">
-        <v>-1.937691908143673e-07</v>
+        <v>3.12195959161396e-17</v>
       </c>
       <c r="BM13" t="n">
-        <v>5.250960727858218e-08</v>
+        <v>-7.132233385823511e-17</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>182</v>
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>SouthAfrica</t>
+        </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0002364644225889335</v>
+        <v>0.0004886071866749847</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003401555954134977</v>
+        <v>0.0001283848457481581</v>
       </c>
       <c r="D14" t="n">
-        <v>1.744548199533014e-05</v>
+        <v>3.406586550309955e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>3.934248423291974e-05</v>
+        <v>9.207381014673889e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>2.28141331681929e-05</v>
+        <v>2.573085639575122e-06</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.452569849361859e-05</v>
+        <v>7.607252799301883e-07</v>
       </c>
       <c r="H14" t="n">
-        <v>1.794906986055755e-05</v>
+        <v>2.447647361593976e-07</v>
       </c>
       <c r="I14" t="n">
-        <v>2.988569149266858e-07</v>
+        <v>8.770279430492774e-08</v>
       </c>
       <c r="J14" t="n">
-        <v>8.771463349070812e-08</v>
+        <v>3.513101090230767e-08</v>
       </c>
       <c r="K14" t="n">
-        <v>-1.495951968761241e-07</v>
+        <v>1.545034370378417e-08</v>
       </c>
       <c r="L14" t="n">
-        <v>-5.406099595628701e-07</v>
+        <v>7.253264729847675e-09</v>
       </c>
       <c r="M14" t="n">
-        <v>7.800757413131996e-07</v>
+        <v>3.543940979762612e-09</v>
       </c>
       <c r="N14" t="n">
-        <v>1.445337652187419e-07</v>
+        <v>1.770973442444183e-09</v>
       </c>
       <c r="O14" t="n">
-        <v>-3.650210237773105e-07</v>
+        <v>8.957339156397494e-10</v>
       </c>
       <c r="P14" t="n">
-        <v>1.162823508018468e-07</v>
+        <v>4.559147783215999e-10</v>
       </c>
       <c r="Q14" t="n">
-        <v>7.442550290938852e-09</v>
+        <v>2.328082859408469e-10</v>
       </c>
       <c r="R14" t="n">
-        <v>-2.505048345214271e-05</v>
+        <v>2.496327006937845e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>2.726684751160126e-05</v>
+        <v>-5.682331730421668e-07</v>
       </c>
       <c r="T14" t="n">
-        <v>-8.999048440010699e-07</v>
+        <v>-7.715019618252645e-07</v>
       </c>
       <c r="U14" t="n">
-        <v>-7.223752568961015e-07</v>
+        <v>-5.202035569562496e-07</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.695849001073235e-06</v>
+        <v>-2.990171735677575e-07</v>
       </c>
       <c r="W14" t="n">
-        <v>3.784093448599517e-07</v>
+        <v>-1.616533375374161e-07</v>
       </c>
       <c r="X14" t="n">
-        <v>1.092262081615993e-06</v>
+        <v>-8.502246912397576e-08</v>
       </c>
       <c r="Y14" t="n">
-        <v>-8.727818246135487e-08</v>
+        <v>-4.413399405905112e-08</v>
       </c>
       <c r="Z14" t="n">
-        <v>-5.297918391294008e-07</v>
+        <v>-2.276139987217152e-08</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.089745694958024e-07</v>
+        <v>-1.170085283787316e-08</v>
       </c>
       <c r="AB14" t="n">
-        <v>4.793350987299893e-08</v>
+        <v>-6.005195791404332e-09</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.898517117036906e-08</v>
+        <v>-3.079487157512642e-09</v>
       </c>
       <c r="AD14" t="n">
-        <v>-5.794495478232553e-08</v>
+        <v>-1.578512625787981e-09</v>
       </c>
       <c r="AE14" t="n">
-        <v>-3.147673673746453e-09</v>
+        <v>-8.089574243695408e-10</v>
       </c>
       <c r="AF14" t="n">
-        <v>2.044696514674584e-08</v>
+        <v>-4.14530578592058e-10</v>
       </c>
       <c r="AG14" t="n">
-        <v>2.916050396921387e-09</v>
+        <v>-2.124045354437271e-10</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.0005672100957489136</v>
+        <v>9.287828073714382e-06</v>
       </c>
       <c r="AI14" t="n">
-        <v>3.269805987869473e-05</v>
+        <v>1.406487635531341e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>3.208400435616402e-05</v>
+        <v>9.626318550134779e-06</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.91808055971267e-05</v>
+        <v>5.561490172935452e-06</v>
       </c>
       <c r="AL14" t="n">
-        <v>-6.135643306415921e-06</v>
+        <v>3.013165776322726e-06</v>
       </c>
       <c r="AM14" t="n">
-        <v>9.505803231283184e-06</v>
+        <v>1.586402440051808e-06</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.631922623239178e-06</v>
+        <v>8.238878273427711e-07</v>
       </c>
       <c r="AO14" t="n">
-        <v>-2.329660911175263e-06</v>
+        <v>4.25011697065221e-07</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.842912533442411e-06</v>
+        <v>2.185109592522193e-07</v>
       </c>
       <c r="AQ14" t="n">
-        <v>-1.034191970593691e-06</v>
+        <v>1.121527792101218e-07</v>
       </c>
       <c r="AR14" t="n">
-        <v>3.852308739253692e-07</v>
+        <v>5.751419105251429e-08</v>
       </c>
       <c r="AS14" t="n">
-        <v>4.911623755903704e-08</v>
+        <v>2.9481640605523e-08</v>
       </c>
       <c r="AT14" t="n">
-        <v>-7.644279314143811e-08</v>
+        <v>1.510889793858584e-08</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.551172612006979e-08</v>
+        <v>7.742219648934273e-09</v>
       </c>
       <c r="AV14" t="n">
-        <v>-9.168870351432564e-09</v>
+        <v>3.967104234113454e-09</v>
       </c>
       <c r="AW14" t="n">
-        <v>-2.13697521494068e-08</v>
+        <v>2.032681165518262e-09</v>
       </c>
       <c r="AX14" t="n">
-        <v>1.044329894432982e-05</v>
+        <v>-4.283023336123716e-05</v>
       </c>
       <c r="AY14" t="n">
-        <v>2.071822978286679e-06</v>
+        <v>-2.180392914491935e-05</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-2.587802233301234e-06</v>
+        <v>-1.113500356050127e-05</v>
       </c>
       <c r="BA14" t="n">
-        <v>3.110211165070103e-06</v>
+        <v>-5.695699050045989e-06</v>
       </c>
       <c r="BB14" t="n">
-        <v>-1.443732147501771e-06</v>
+        <v>-2.91582092387228e-06</v>
       </c>
       <c r="BC14" t="n">
-        <v>6.145043154070718e-07</v>
+        <v>-1.493331623091798e-06</v>
       </c>
       <c r="BD14" t="n">
-        <v>-1.068923867318002e-07</v>
+        <v>-7.649691648059772e-07</v>
       </c>
       <c r="BE14" t="n">
-        <v>1.058748213220392e-08</v>
+        <v>-3.919028667985148e-07</v>
       </c>
       <c r="BF14" t="n">
-        <v>4.95460883342597e-08</v>
+        <v>-2.007875270724512e-07</v>
       </c>
       <c r="BG14" t="n">
-        <v>-1.231969008328193e-08</v>
+        <v>-1.028743470060837e-07</v>
       </c>
       <c r="BH14" t="n">
-        <v>-2.328099244759132e-08</v>
+        <v>-5.270885454377946e-08</v>
       </c>
       <c r="BI14" t="n">
-        <v>2.958421300184792e-08</v>
+        <v>-2.700618101856199e-08</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-1.553317629105181e-08</v>
+        <v>-1.383707670296621e-08</v>
       </c>
       <c r="BK14" t="n">
-        <v>7.561685513756256e-09</v>
+        <v>-7.089674938789731e-09</v>
       </c>
       <c r="BL14" t="n">
-        <v>-4.00143387266487e-09</v>
+        <v>-3.632525775383655e-09</v>
       </c>
       <c r="BM14" t="n">
-        <v>1.181496790656001e-09</v>
+        <v>-1.861192493354593e-09</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>184</v>
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Uruguay</t>
+        </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0003667138001423379</v>
+        <v>-0.002684837924965605</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0001352734883184584</v>
+        <v>-0.001030210162049437</v>
       </c>
       <c r="D15" t="n">
-        <v>1.792940384196611e-05</v>
+        <v>0.0005409276678340413</v>
       </c>
       <c r="E15" t="n">
-        <v>5.115225128146214e-05</v>
+        <v>0.0007093285178104128</v>
       </c>
       <c r="F15" t="n">
-        <v>3.774116126157391e-05</v>
+        <v>0.0006818069730132979</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.158634178648343e-05</v>
+        <v>-0.0004703228548317074</v>
       </c>
       <c r="H15" t="n">
-        <v>1.689880246696738e-05</v>
+        <v>-0.000745735711351515</v>
       </c>
       <c r="I15" t="n">
-        <v>6.022802542757747e-06</v>
+        <v>-0.0005223794993428616</v>
       </c>
       <c r="J15" t="n">
-        <v>4.450529689490164e-06</v>
+        <v>0.0003737394419430133</v>
       </c>
       <c r="K15" t="n">
-        <v>5.370738478354529e-07</v>
+        <v>0.0003169856492798228</v>
       </c>
       <c r="L15" t="n">
-        <v>-2.440549375347847e-06</v>
+        <v>0.0001086798641678745</v>
       </c>
       <c r="M15" t="n">
-        <v>2.582131633141426e-06</v>
+        <v>-0.0003199297818909044</v>
       </c>
       <c r="N15" t="n">
-        <v>-2.091890302145414e-07</v>
+        <v>-5.124044986039787e-05</v>
       </c>
       <c r="O15" t="n">
-        <v>4.871508338955813e-07</v>
+        <v>-0.0001103777368566666</v>
       </c>
       <c r="P15" t="n">
-        <v>4.991718823790445e-08</v>
+        <v>5.035627457225896e-05</v>
       </c>
       <c r="Q15" t="n">
-        <v>-3.011866290847724e-07</v>
+        <v>-4.115054699897561e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>-7.101255216616441e-05</v>
+        <v>-0.0005773481470784791</v>
       </c>
       <c r="S15" t="n">
-        <v>9.233929409870883e-05</v>
+        <v>0.000113098764525269</v>
       </c>
       <c r="T15" t="n">
-        <v>-5.847764453559779e-06</v>
+        <v>0.0002769120813254084</v>
       </c>
       <c r="U15" t="n">
-        <v>-9.936043284884016e-06</v>
+        <v>0.0002176618141737224</v>
       </c>
       <c r="V15" t="n">
-        <v>-1.415619145920284e-05</v>
+        <v>-8.099160497194758e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>2.572680072478825e-06</v>
+        <v>-3.651465845362142e-05</v>
       </c>
       <c r="X15" t="n">
-        <v>1.041115086217243e-05</v>
+        <v>-6.767072253423078e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>-3.799214592302972e-06</v>
+        <v>2.859694645355165e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.276191746604117e-08</v>
+        <v>-2.971569119001488e-05</v>
       </c>
       <c r="AA15" t="n">
-        <v>-1.349823632362884e-06</v>
+        <v>0.0001224798401115482</v>
       </c>
       <c r="AB15" t="n">
-        <v>1.96019860187364e-07</v>
+        <v>3.093387646007566e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.003619483418774e-06</v>
+        <v>-1.21726315035291e-05</v>
       </c>
       <c r="AD15" t="n">
-        <v>-4.775110208456504e-07</v>
+        <v>-0.0001213941460409097</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.882096219924731e-07</v>
+        <v>4.99154435874827e-05</v>
       </c>
       <c r="AF15" t="n">
-        <v>-2.452763143476984e-07</v>
+        <v>4.46961529117875e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.064100724335583e-08</v>
+        <v>4.151268222401253e-05</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.0004368676717024981</v>
+        <v>-0.001040146206837731</v>
       </c>
       <c r="AI15" t="n">
-        <v>3.920889791606282e-05</v>
+        <v>-0.0003562948433662743</v>
       </c>
       <c r="AJ15" t="n">
-        <v>3.072313150035529e-05</v>
+        <v>-8.294279399410485e-05</v>
       </c>
       <c r="AK15" t="n">
-        <v>4.444251788862602e-05</v>
+        <v>0.0003811850832178101</v>
       </c>
       <c r="AL15" t="n">
-        <v>-9.535528718419177e-06</v>
+        <v>-0.0006883464522176652</v>
       </c>
       <c r="AM15" t="n">
-        <v>2.017864051531675e-05</v>
+        <v>-0.0001202505060505328</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.064324869788236e-06</v>
+        <v>-2.1750533690804e-05</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.070616006331531e-06</v>
+        <v>0.0003175771916211763</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.92852024644933e-06</v>
+        <v>-0.0005744357078888721</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-3.284070447013403e-06</v>
+        <v>-4.030276892064774e-05</v>
       </c>
       <c r="AR15" t="n">
-        <v>2.997545793833446e-06</v>
+        <v>6.178545324442914e-05</v>
       </c>
       <c r="AS15" t="n">
-        <v>-3.666304423888937e-07</v>
+        <v>0.0003420260482801652</v>
       </c>
       <c r="AT15" t="n">
-        <v>8.757421929320375e-07</v>
+        <v>-0.0004804002394411688</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.911571633798362e-09</v>
+        <v>-4.612055924124274e-05</v>
       </c>
       <c r="AV15" t="n">
-        <v>-3.571312545532604e-07</v>
+        <v>5.169321626193795e-05</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.699583300464397e-07</v>
+        <v>0.0003269560747704425</v>
       </c>
       <c r="AX15" t="n">
-        <v>5.960894380585122e-05</v>
+        <v>0.0003797286489191955</v>
       </c>
       <c r="AY15" t="n">
-        <v>-1.200299702925683e-05</v>
+        <v>-0.0001576335622625486</v>
       </c>
       <c r="AZ15" t="n">
-        <v>6.035805756437293e-06</v>
+        <v>-5.710439578717554e-05</v>
       </c>
       <c r="BA15" t="n">
-        <v>-1.8456449684592e-05</v>
+        <v>1.754753222002368e-05</v>
       </c>
       <c r="BB15" t="n">
-        <v>-1.88842850603397e-06</v>
+        <v>0.0003211407345764097</v>
       </c>
       <c r="BC15" t="n">
-        <v>1.25523441228158e-05</v>
+        <v>-0.0001432468515826733</v>
       </c>
       <c r="BD15" t="n">
-        <v>-3.375869019572782e-06</v>
+        <v>-7.880721077708461e-05</v>
       </c>
       <c r="BE15" t="n">
-        <v>8.283133310708064e-07</v>
+        <v>-1.951433371021851e-05</v>
       </c>
       <c r="BF15" t="n">
-        <v>-2.351796607535778e-06</v>
+        <v>0.0002684943928917021</v>
       </c>
       <c r="BG15" t="n">
-        <v>2.603994497511795e-07</v>
+        <v>-0.0001205780760755438</v>
       </c>
       <c r="BH15" t="n">
-        <v>1.213498660053864e-06</v>
+        <v>-6.7762345778202e-05</v>
       </c>
       <c r="BI15" t="n">
-        <v>-5.727560195875842e-07</v>
+        <v>-2.638520243591225e-05</v>
       </c>
       <c r="BJ15" t="n">
-        <v>3.184504954083849e-07</v>
+        <v>0.0002248632769197115</v>
       </c>
       <c r="BK15" t="n">
-        <v>-3.530399416424286e-07</v>
+        <v>-0.0001096884166562223</v>
       </c>
       <c r="BL15" t="n">
-        <v>6.071626557576975e-08</v>
+        <v>-6.300118544566062e-05</v>
       </c>
       <c r="BM15" t="n">
-        <v>1.166579769683523e-07</v>
+        <v>-2.708541722459698e-05</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>186</v>
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Bulgaria</t>
+        </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0001885215070348936</v>
+        <v>-0.011542484778405</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0001276927266985963</v>
+        <v>-0.0027841987228592</v>
       </c>
       <c r="D16" t="n">
-        <v>7.79672139307415e-06</v>
+        <v>0.002301219534904933</v>
       </c>
       <c r="E16" t="n">
-        <v>1.32577868180213e-05</v>
+        <v>0.002141423800213681</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.45631925267612e-06</v>
+        <v>0.0005921746221370563</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.013253029519118e-05</v>
+        <v>-0.0002239874546006131</v>
       </c>
       <c r="H16" t="n">
-        <v>8.293382849626798e-06</v>
+        <v>-0.0005088516293779625</v>
       </c>
       <c r="I16" t="n">
-        <v>-7.094710945672714e-08</v>
+        <v>-0.000129993192646906</v>
       </c>
       <c r="J16" t="n">
-        <v>1.77493209054486e-07</v>
+        <v>-4.701432280172318e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>-1.144045035374698e-06</v>
+        <v>0.0001531824945621654</v>
       </c>
       <c r="L16" t="n">
-        <v>3.615980910527604e-07</v>
+        <v>3.274053524201541e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>3.028746016200528e-07</v>
+        <v>4.693302467361065e-05</v>
       </c>
       <c r="N16" t="n">
-        <v>-7.693698352965463e-08</v>
+        <v>-9.884565423113951e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>-1.624502893170429e-07</v>
+        <v>2.750999595005686e-05</v>
       </c>
       <c r="P16" t="n">
-        <v>9.36556997138317e-08</v>
+        <v>-9.185148750313485e-06</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.992456940520807e-09</v>
+        <v>4.277207210603171e-05</v>
       </c>
       <c r="R16" t="n">
-        <v>-4.838692120206546e-05</v>
+        <v>2.927095768189455e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>6.404516825268224e-05</v>
+        <v>-2.827039696738755e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>-1.058273138233776e-05</v>
+        <v>7.199866608422091e-05</v>
       </c>
       <c r="U16" t="n">
-        <v>-3.400256802750096e-06</v>
+        <v>-9.343602087913911e-05</v>
       </c>
       <c r="V16" t="n">
-        <v>-7.376502260539839e-06</v>
+        <v>9.682269192847693e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>6.682739124171254e-06</v>
+        <v>-1.716045447717832e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>1.188121215949914e-07</v>
+        <v>1.465288959506389e-05</v>
       </c>
       <c r="Y16" t="n">
-        <v>-8.932252007286531e-07</v>
+        <v>-9.123390297232556e-05</v>
       </c>
       <c r="Z16" t="n">
-        <v>-1.045922917710696e-06</v>
+        <v>8.084489299605205e-05</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.077785447470332e-06</v>
+        <v>-4.154051843094286e-06</v>
       </c>
       <c r="AB16" t="n">
-        <v>-1.386664992211187e-07</v>
+        <v>7.852982629980063e-06</v>
       </c>
       <c r="AC16" t="n">
-        <v>-6.656647529883119e-08</v>
+        <v>-7.402035332472659e-05</v>
       </c>
       <c r="AD16" t="n">
-        <v>-1.526969700965552e-07</v>
+        <v>6.795508548853205e-05</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.504944212468586e-07</v>
+        <v>-1.682158804288142e-08</v>
       </c>
       <c r="AF16" t="n">
-        <v>-1.599471120074501e-08</v>
+        <v>-6.750677671356846e-07</v>
       </c>
       <c r="AG16" t="n">
-        <v>-1.551494521547788e-08</v>
+        <v>-6.043109658519211e-05</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.0003030739493854508</v>
+        <v>0.0004655613126746067</v>
       </c>
       <c r="AI16" t="n">
-        <v>-4.674870691062371e-06</v>
+        <v>-0.001077245638825984</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.068957284790681e-05</v>
+        <v>-0.0002277071482222299</v>
       </c>
       <c r="AK16" t="n">
-        <v>1.371631203287202e-06</v>
+        <v>-1.152386659833562e-05</v>
       </c>
       <c r="AL16" t="n">
-        <v>-8.847684671976549e-06</v>
+        <v>0.0004122535513756173</v>
       </c>
       <c r="AM16" t="n">
-        <v>7.26867241295983e-06</v>
+        <v>-0.0003943887749922669</v>
       </c>
       <c r="AN16" t="n">
-        <v>1.791284337127978e-07</v>
+        <v>0.0001073968974709503</v>
       </c>
       <c r="AO16" t="n">
-        <v>-7.710672679375185e-07</v>
+        <v>4.760599359832952e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>5.216816228552401e-07</v>
+        <v>0.0002444628182660329</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-5.143007868789556e-07</v>
+        <v>-0.0004010216038687176</v>
       </c>
       <c r="AR16" t="n">
-        <v>4.133360695530373e-07</v>
+        <v>7.133973243068994e-05</v>
       </c>
       <c r="AS16" t="n">
-        <v>-1.233932130194076e-07</v>
+        <v>9.283727904658188e-05</v>
       </c>
       <c r="AT16" t="n">
-        <v>-2.856764206336356e-08</v>
+        <v>0.000203597807405603</v>
       </c>
       <c r="AU16" t="n">
-        <v>3.046615605695602e-08</v>
+        <v>-0.0003438838005736204</v>
       </c>
       <c r="AV16" t="n">
-        <v>1.48466309322189e-09</v>
+        <v>5.113010050716808e-05</v>
       </c>
       <c r="AW16" t="n">
-        <v>-4.646464441124046e-09</v>
+        <v>0.0001051058543844435</v>
       </c>
       <c r="AX16" t="n">
-        <v>3.009818644066989e-05</v>
+        <v>-0.0006748241701191055</v>
       </c>
       <c r="AY16" t="n">
-        <v>-3.152637526641822e-07</v>
+        <v>0.0003646681919455549</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-8.959875531813306e-06</v>
+        <v>0.0001947409761920276</v>
       </c>
       <c r="BA16" t="n">
-        <v>3.591730988896945e-06</v>
+        <v>1.555615497352041e-05</v>
       </c>
       <c r="BB16" t="n">
-        <v>-1.61023507367983e-06</v>
+        <v>-0.0005526652965100798</v>
       </c>
       <c r="BC16" t="n">
-        <v>2.274172456499792e-06</v>
+        <v>0.0003358789764750778</v>
       </c>
       <c r="BD16" t="n">
-        <v>-1.294594766538028e-06</v>
+        <v>0.0002047805413076573</v>
       </c>
       <c r="BE16" t="n">
-        <v>1.124469756195175e-07</v>
+        <v>-3.051307395688114e-05</v>
       </c>
       <c r="BF16" t="n">
-        <v>1.202176579308559e-07</v>
+        <v>-0.0004725934012406942</v>
       </c>
       <c r="BG16" t="n">
-        <v>8.477124255017599e-08</v>
+        <v>0.0003004052208258338</v>
       </c>
       <c r="BH16" t="n">
-        <v>-1.1683723206263e-07</v>
+        <v>0.0002014713609796367</v>
       </c>
       <c r="BI16" t="n">
-        <v>3.036326425414343e-08</v>
+        <v>-6.477199607115762e-05</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-8.271174603146781e-09</v>
+        <v>-0.0004043887779086576</v>
       </c>
       <c r="BK16" t="n">
-        <v>2.98611624634169e-08</v>
+        <v>0.0002718675192607903</v>
       </c>
       <c r="BL16" t="n">
-        <v>-2.59139812690789e-08</v>
+        <v>0.0001930787607812153</v>
       </c>
       <c r="BM16" t="n">
-        <v>6.590575583737368e-09</v>
+        <v>-8.979418418545809e-05</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>199</v>
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
       </c>
       <c r="B17" t="n">
-        <v>-6.185765600027239e-05</v>
+        <v>0.000723789783913524</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0002930921393814358</v>
+        <v>5.337551159147233e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>7.101485549876523e-05</v>
+        <v>3.512206109297829e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0001230422896679764</v>
+        <v>1.190632137910052e-09</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.516650748533153e-06</v>
+        <v>-1.397434351554525e-07</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.998246194028687e-05</v>
+        <v>-8.503050745970242e-08</v>
       </c>
       <c r="H17" t="n">
-        <v>-2.904613814164483e-05</v>
+        <v>-4.612112489947368e-08</v>
       </c>
       <c r="I17" t="n">
-        <v>-1.132318447214503e-05</v>
+        <v>-2.464715724395904e-08</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.078773979050697e-05</v>
+        <v>-1.314422907094899e-08</v>
       </c>
       <c r="K17" t="n">
-        <v>-5.017100067599982e-06</v>
+        <v>-7.007726464997723e-09</v>
       </c>
       <c r="L17" t="n">
-        <v>1.146585796795055e-05</v>
+        <v>-3.735952969871812e-09</v>
       </c>
       <c r="M17" t="n">
-        <v>7.255985983065362e-06</v>
+        <v>-1.991696498388372e-09</v>
       </c>
       <c r="N17" t="n">
-        <v>6.403989048058557e-06</v>
+        <v>-1.061804514380514e-09</v>
       </c>
       <c r="O17" t="n">
-        <v>4.577282249409881e-06</v>
+        <v>-5.660645079103802e-10</v>
       </c>
       <c r="P17" t="n">
-        <v>3.649347172336198e-07</v>
+        <v>-3.017777920861969e-10</v>
       </c>
       <c r="Q17" t="n">
-        <v>-8.417949379695845e-07</v>
+        <v>-1.608824335711787e-10</v>
       </c>
       <c r="R17" t="n">
-        <v>9.339313914070886e-05</v>
+        <v>-1.459646503581326e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>-5.587689443978942e-05</v>
+        <v>5.720428061091758e-06</v>
       </c>
       <c r="T17" t="n">
-        <v>-1.965425467972461e-05</v>
+        <v>4.062565534814152e-06</v>
       </c>
       <c r="U17" t="n">
-        <v>-2.763693511960523e-05</v>
+        <v>2.241805399288638e-06</v>
       </c>
       <c r="V17" t="n">
-        <v>-6.287943324503525e-07</v>
+        <v>1.200841944617782e-06</v>
       </c>
       <c r="W17" t="n">
-        <v>6.035383196455196e-07</v>
+        <v>6.406151719115035e-07</v>
       </c>
       <c r="X17" t="n">
-        <v>3.498780769663644e-06</v>
+        <v>3.415539922658561e-07</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.324227843361497e-08</v>
+        <v>1.820901511690555e-07</v>
       </c>
       <c r="Z17" t="n">
-        <v>7.360894474999576e-06</v>
+        <v>9.707527159292597e-08</v>
       </c>
       <c r="AA17" t="n">
-        <v>3.148021511188214e-06</v>
+        <v>5.175235032189647e-08</v>
       </c>
       <c r="AB17" t="n">
-        <v>-8.387740864182281e-07</v>
+        <v>2.758998370569106e-08</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.051120611159289e-06</v>
+        <v>1.470864940538075e-08</v>
       </c>
       <c r="AD17" t="n">
-        <v>-5.19145263754611e-07</v>
+        <v>7.841409718639324e-09</v>
       </c>
       <c r="AE17" t="n">
-        <v>-1.029176933835943e-06</v>
+        <v>4.180377452911712e-09</v>
       </c>
       <c r="AF17" t="n">
-        <v>-5.839803668972173e-07</v>
+        <v>2.228624223745305e-09</v>
       </c>
       <c r="AG17" t="n">
-        <v>-1.620561041324348e-07</v>
+        <v>1.188114228092796e-09</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.0002720373995137562</v>
+        <v>1.147046921577e-05</v>
       </c>
       <c r="AI17" t="n">
-        <v>6.464496646572043e-05</v>
+        <v>1.244133414807385e-05</v>
       </c>
       <c r="AJ17" t="n">
-        <v>6.479388124378217e-05</v>
+        <v>7.10726108042742e-06</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.0001162251643668154</v>
+        <v>3.824595109534211e-06</v>
       </c>
       <c r="AL17" t="n">
-        <v>-2.144599254921498e-05</v>
+        <v>2.041622098937219e-06</v>
       </c>
       <c r="AM17" t="n">
-        <v>-8.762589744599869e-05</v>
+        <v>1.088620862882315e-06</v>
       </c>
       <c r="AN17" t="n">
-        <v>-6.773923748095875e-06</v>
+        <v>5.803757417881756e-07</v>
       </c>
       <c r="AO17" t="n">
-        <v>-1.770821777757549e-05</v>
+        <v>3.094084603084102e-07</v>
       </c>
       <c r="AP17" t="n">
-        <v>-1.856017011724192e-05</v>
+        <v>1.649505459949991e-07</v>
       </c>
       <c r="AQ17" t="n">
-        <v>3.288383103968978e-06</v>
+        <v>8.793770734610781e-08</v>
       </c>
       <c r="AR17" t="n">
-        <v>9.927332201024969e-06</v>
+        <v>4.688095966625943e-08</v>
       </c>
       <c r="AS17" t="n">
-        <v>5.750841684592005e-06</v>
+        <v>2.499296861810585e-08</v>
       </c>
       <c r="AT17" t="n">
-        <v>7.826194493861957e-06</v>
+        <v>1.332414020586062e-08</v>
       </c>
       <c r="AU17" t="n">
-        <v>1.632992093998943e-06</v>
+        <v>7.10330633017084e-09</v>
       </c>
       <c r="AV17" t="n">
-        <v>-1.29128006870848e-06</v>
+        <v>3.786883058827668e-09</v>
       </c>
       <c r="AW17" t="n">
-        <v>-7.171769518828196e-07</v>
+        <v>2.018846243512917e-09</v>
       </c>
       <c r="AX17" t="n">
-        <v>2.123642000415154e-05</v>
+        <v>-0.0001861341407346146</v>
       </c>
       <c r="AY17" t="n">
-        <v>-2.355709570709602e-05</v>
+        <v>-9.94879078076802e-05</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-1.530390839646885e-05</v>
+        <v>-5.305782341219773e-05</v>
       </c>
       <c r="BA17" t="n">
-        <v>-2.864852075744741e-05</v>
+        <v>-2.828739652716761e-05</v>
       </c>
       <c r="BB17" t="n">
-        <v>-2.961458431573447e-06</v>
+        <v>-1.508055941462212e-05</v>
       </c>
       <c r="BC17" t="n">
-        <v>1.202744871383621e-05</v>
+        <v>-8.039688858987654e-06</v>
       </c>
       <c r="BD17" t="n">
-        <v>5.878374261364091e-07</v>
+        <v>-4.286083755819537e-06</v>
       </c>
       <c r="BE17" t="n">
-        <v>1.194877444437768e-06</v>
+        <v>-2.284977943288148e-06</v>
       </c>
       <c r="BF17" t="n">
-        <v>5.503023978535459e-06</v>
+        <v>-1.218157275696945e-06</v>
       </c>
       <c r="BG17" t="n">
-        <v>2.177702672488656e-06</v>
+        <v>-6.494185858975684e-07</v>
       </c>
       <c r="BH17" t="n">
-        <v>-1.387980303207669e-06</v>
+        <v>-3.462151464178403e-07</v>
       </c>
       <c r="BI17" t="n">
-        <v>-7.879164101782295e-07</v>
+        <v>-1.845726780943726e-07</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-1.154489724797608e-06</v>
+        <v>-9.839856473981063e-08</v>
       </c>
       <c r="BK17" t="n">
-        <v>-6.480333286223801e-07</v>
+        <v>-5.245780492980071e-08</v>
       </c>
       <c r="BL17" t="n">
-        <v>-2.043525916586989e-07</v>
+        <v>-2.796607151058687e-08</v>
       </c>
       <c r="BM17" t="n">
-        <v>-8.503251354710792e-08</v>
+        <v>-1.490914758598564e-08</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>228</v>
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Colombia</t>
+        </is>
       </c>
       <c r="B18" t="n">
-        <v>5.228162080758329e-18</v>
+        <v>-0.01129781201639208</v>
       </c>
       <c r="C18" t="n">
-        <v>7.086874637588384e-18</v>
+        <v>-0.003750672387688495</v>
       </c>
       <c r="D18" t="n">
-        <v>6.636305396095709e-18</v>
+        <v>0.002158064106622794</v>
       </c>
       <c r="E18" t="n">
-        <v>1.869666682276224e-18</v>
+        <v>0.001491596504195784</v>
       </c>
       <c r="F18" t="n">
-        <v>4.191595716962542e-18</v>
+        <v>-0.000304332099853026</v>
       </c>
       <c r="G18" t="n">
-        <v>3.250649322839523e-18</v>
+        <v>-0.0004789439704000658</v>
       </c>
       <c r="H18" t="n">
-        <v>2.89334987906547e-18</v>
+        <v>-1.282572921602585e-05</v>
       </c>
       <c r="I18" t="n">
-        <v>2.454371184327306e-18</v>
+        <v>0.0001314598047460085</v>
       </c>
       <c r="J18" t="n">
-        <v>2.357600048908758e-18</v>
+        <v>3.042860567636523e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>1.983652546722985e-18</v>
+        <v>-3.057543079262467e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>1.820201107238781e-18</v>
+        <v>-1.476077933801122e-05</v>
       </c>
       <c r="M18" t="n">
-        <v>1.600831090211675e-18</v>
+        <v>5.542680556365517e-06</v>
       </c>
       <c r="N18" t="n">
-        <v>1.436796224289578e-18</v>
+        <v>5.263039408915522e-06</v>
       </c>
       <c r="O18" t="n">
-        <v>1.270805566398272e-18</v>
+        <v>-4.763702841943097e-07</v>
       </c>
       <c r="P18" t="n">
-        <v>1.138521439658836e-18</v>
+        <v>-1.57025395022482e-06</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.010255526329192e-18</v>
+        <v>-1.873661431387835e-07</v>
       </c>
       <c r="R18" t="n">
-        <v>-2.432745776203051e-17</v>
+        <v>-0.0005645770715270606</v>
       </c>
       <c r="S18" t="n">
-        <v>8.628562454401231e-18</v>
+        <v>0.0003021183309953039</v>
       </c>
       <c r="T18" t="n">
-        <v>3.859203483116754e-18</v>
+        <v>0.0003742726520876313</v>
       </c>
       <c r="U18" t="n">
-        <v>2.940535966216333e-18</v>
+        <v>-1.944201629540598e-05</v>
       </c>
       <c r="V18" t="n">
-        <v>-6.133049477704599e-19</v>
+        <v>-0.0001041285260479386</v>
       </c>
       <c r="W18" t="n">
-        <v>2.312679336896575e-18</v>
+        <v>-1.664257147428668e-05</v>
       </c>
       <c r="X18" t="n">
-        <v>8.555413509735928e-19</v>
+        <v>2.594155761011319e-05</v>
       </c>
       <c r="Y18" t="n">
-        <v>1.21563766849882e-18</v>
+        <v>9.913737467874904e-06</v>
       </c>
       <c r="Z18" t="n">
-        <v>8.257797614705128e-19</v>
+        <v>-5.226207041402771e-06</v>
       </c>
       <c r="AA18" t="n">
-        <v>9.236179957172379e-19</v>
+        <v>-3.843943136011078e-06</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.869052185528055e-19</v>
+        <v>6.780751532796277e-07</v>
       </c>
       <c r="AC18" t="n">
-        <v>6.958547098471365e-19</v>
+        <v>1.214184479316006e-06</v>
       </c>
       <c r="AD18" t="n">
-        <v>5.759624308317006e-19</v>
+        <v>5.821836531727477e-08</v>
       </c>
       <c r="AE18" t="n">
-        <v>5.353671560546373e-19</v>
+        <v>-3.279285778987807e-07</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.634470398190359e-19</v>
+        <v>-8.32643006229574e-08</v>
       </c>
       <c r="AG18" t="n">
-        <v>4.216681373984549e-19</v>
+        <v>7.477224194626928e-08</v>
       </c>
       <c r="AH18" t="n">
-        <v>-2.08394963456218e-18</v>
+        <v>-0.0004656474233849604</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.384192263083157e-17</v>
+        <v>-0.0002385255865849153</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1.079659743719236e-17</v>
+        <v>2.078972274810803e-05</v>
       </c>
       <c r="AK18" t="n">
-        <v>-7.40923070229215e-19</v>
+        <v>7.588071470848605e-05</v>
       </c>
       <c r="AL18" t="n">
-        <v>5.669630529676031e-18</v>
+        <v>7.818379039415234e-06</v>
       </c>
       <c r="AM18" t="n">
-        <v>4.310301222337741e-18</v>
+        <v>-1.930261675328244e-05</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.393797598024025e-18</v>
+        <v>-6.211235135160237e-06</v>
       </c>
       <c r="AO18" t="n">
-        <v>2.92527106841502e-18</v>
+        <v>4.150944957357818e-06</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.972210054786974e-18</v>
+        <v>2.582219085262826e-06</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.380546953000578e-18</v>
+        <v>-6.335220994128412e-07</v>
       </c>
       <c r="AR18" t="n">
-        <v>2.229841893216687e-18</v>
+        <v>-8.522534149296273e-07</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.956471293568989e-18</v>
+        <v>3.291636492048402e-09</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.756712199316971e-18</v>
+        <v>2.391831361992723e-07</v>
       </c>
       <c r="AU18" t="n">
-        <v>1.548633873478619e-18</v>
+        <v>4.792837243806067e-08</v>
       </c>
       <c r="AV18" t="n">
-        <v>1.392983207655419e-18</v>
+        <v>-5.715229777192262e-08</v>
       </c>
       <c r="AW18" t="n">
-        <v>1.23294919666281e-18</v>
+        <v>-2.508563611103822e-08</v>
       </c>
       <c r="AX18" t="n">
-        <v>-6.103217734759182e-17</v>
+        <v>8.65852086728806e-05</v>
       </c>
       <c r="AY18" t="n">
-        <v>1.339727952672415e-17</v>
+        <v>-1.985081832440554e-05</v>
       </c>
       <c r="AZ18" t="n">
-        <v>1.106036760101451e-17</v>
+        <v>2.096914348264309e-05</v>
       </c>
       <c r="BA18" t="n">
-        <v>3.733650598998668e-18</v>
+        <v>2.765628338221829e-06</v>
       </c>
       <c r="BB18" t="n">
-        <v>-3.058294524247946e-18</v>
+        <v>-3.397483427823654e-06</v>
       </c>
       <c r="BC18" t="n">
-        <v>3.849532716899617e-18</v>
+        <v>-1.855720689008862e-06</v>
       </c>
       <c r="BD18" t="n">
-        <v>8.848445083240492e-19</v>
+        <v>6.602654985352343e-07</v>
       </c>
       <c r="BE18" t="n">
-        <v>1.48826426897012e-18</v>
+        <v>6.350025691244352e-07</v>
       </c>
       <c r="BF18" t="n">
-        <v>9.721150457007164e-19</v>
+        <v>-5.084864263971351e-08</v>
       </c>
       <c r="BG18" t="n">
-        <v>1.19028798205727e-18</v>
+        <v>-1.890377156836957e-07</v>
       </c>
       <c r="BH18" t="n">
-        <v>7.886890152058153e-19</v>
+        <v>-2.416937281539293e-08</v>
       </c>
       <c r="BI18" t="n">
-        <v>8.739600785321295e-19</v>
+        <v>4.792449340720134e-08</v>
       </c>
       <c r="BJ18" t="n">
-        <v>6.955432749633886e-19</v>
+        <v>1.656174732145007e-08</v>
       </c>
       <c r="BK18" t="n">
-        <v>6.57619913996435e-19</v>
+        <v>-1.003246554819092e-08</v>
       </c>
       <c r="BL18" t="n">
-        <v>5.626335964353343e-19</v>
+        <v>-6.683544751776286e-09</v>
       </c>
       <c r="BM18" t="n">
-        <v>5.177314498417637e-19</v>
+        <v>1.442717313373361e-09</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>273</v>
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
       </c>
       <c r="B19" t="n">
-        <v>7.262707079601122e-05</v>
+        <v>-0.01340195179942198</v>
       </c>
       <c r="C19" t="n">
-        <v>1.997279583173531e-05</v>
+        <v>-0.00215910423311057</v>
       </c>
       <c r="D19" t="n">
-        <v>4.456149575921626e-06</v>
+        <v>0.004320808062186363</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.912638104778368e-06</v>
+        <v>0.001239627817110118</v>
       </c>
       <c r="F19" t="n">
-        <v>1.401679492376368e-05</v>
+        <v>3.44205137102013e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>1.796775638501861e-05</v>
+        <v>0.0008204165520472403</v>
       </c>
       <c r="H19" t="n">
-        <v>8.788527723284333e-06</v>
+        <v>-0.0002700300836826422</v>
       </c>
       <c r="I19" t="n">
-        <v>2.275895336375725e-06</v>
+        <v>-0.0005316160576060891</v>
       </c>
       <c r="J19" t="n">
-        <v>1.723683451220697e-06</v>
+        <v>-0.0006767830446146051</v>
       </c>
       <c r="K19" t="n">
-        <v>3.967858982897892e-06</v>
+        <v>0.0003289585658482285</v>
       </c>
       <c r="L19" t="n">
-        <v>5.256273357718353e-06</v>
+        <v>0.0003543857914316529</v>
       </c>
       <c r="M19" t="n">
-        <v>2.985900272015434e-06</v>
+        <v>0.0001741995960301874</v>
       </c>
       <c r="N19" t="n">
-        <v>1.796328270312335e-06</v>
+        <v>-0.0003995763720469457</v>
       </c>
       <c r="O19" t="n">
-        <v>1.280132139462291e-06</v>
+        <v>0.0001072739186662811</v>
       </c>
       <c r="P19" t="n">
-        <v>1.416647325593174e-06</v>
+        <v>4.241800913070983e-05</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.569161223115806e-06</v>
+        <v>9.729781752616009e-05</v>
       </c>
       <c r="R19" t="n">
-        <v>-6.462368431534858e-05</v>
+        <v>0.0001142886858605279</v>
       </c>
       <c r="S19" t="n">
-        <v>4.605368551012167e-05</v>
+        <v>-0.0002334590476133944</v>
       </c>
       <c r="T19" t="n">
-        <v>1.705851472204341e-05</v>
+        <v>-3.429228997985494e-05</v>
       </c>
       <c r="U19" t="n">
-        <v>1.144036976964634e-05</v>
+        <v>-0.0001376930675648804</v>
       </c>
       <c r="V19" t="n">
-        <v>-9.82413301092568e-06</v>
+        <v>0.0005037309300786058</v>
       </c>
       <c r="W19" t="n">
-        <v>-1.618303603710948e-05</v>
+        <v>-3.924766517760296e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>8.211070130565893e-06</v>
+        <v>-6.958059501682217e-05</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.44295029739184e-06</v>
+        <v>-0.0002091360895161582</v>
       </c>
       <c r="Z19" t="n">
-        <v>2.355691603916696e-06</v>
+        <v>0.0002578039087886762</v>
       </c>
       <c r="AA19" t="n">
-        <v>-2.705447792418242e-07</v>
+        <v>-7.380443774571235e-05</v>
       </c>
       <c r="AB19" t="n">
-        <v>-3.790767193626898e-06</v>
+        <v>3.397037461428601e-05</v>
       </c>
       <c r="AC19" t="n">
-        <v>1.532287774865122e-06</v>
+        <v>-0.0001452533319372399</v>
       </c>
       <c r="AD19" t="n">
-        <v>1.287343813224806e-06</v>
+        <v>0.0001766890213592016</v>
       </c>
       <c r="AE19" t="n">
-        <v>5.70884401216231e-07</v>
+        <v>-7.458922031190261e-05</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.015893398146047e-07</v>
+        <v>5.275247763382585e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>-6.622220265590268e-07</v>
+        <v>-0.0001221796534716068</v>
       </c>
       <c r="AH19" t="n">
-        <v>6.175287643012716e-05</v>
+        <v>-6.580829577023781e-05</v>
       </c>
       <c r="AI19" t="n">
-        <v>1.722793859737554e-05</v>
+        <v>-0.0007363228526325701</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-1.096153242188371e-05</v>
+        <v>-0.000196575159803734</v>
       </c>
       <c r="AK19" t="n">
-        <v>5.247891114727845e-06</v>
+        <v>0.0001981667385002265</v>
       </c>
       <c r="AL19" t="n">
-        <v>3.138483929844707e-05</v>
+        <v>0.000530052428104713</v>
       </c>
       <c r="AM19" t="n">
-        <v>1.515477186074599e-05</v>
+        <v>-0.000246549695441277</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.732376940928197e-06</v>
+        <v>-0.0001442107370915589</v>
       </c>
       <c r="AO19" t="n">
-        <v>-2.850887488581023e-06</v>
+        <v>-5.738948063004866e-05</v>
       </c>
       <c r="AP19" t="n">
-        <v>3.943112938428447e-06</v>
+        <v>0.0002601067252402717</v>
       </c>
       <c r="AQ19" t="n">
-        <v>8.646171764544399e-06</v>
+        <v>-0.0001642485840309623</v>
       </c>
       <c r="AR19" t="n">
-        <v>5.180676557941861e-06</v>
+        <v>-1.395338895941474e-05</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.669331570471497e-06</v>
+        <v>-5.23110844716494e-05</v>
       </c>
       <c r="AT19" t="n">
-        <v>8.518407370566111e-07</v>
+        <v>0.0001858774959933383</v>
       </c>
       <c r="AU19" t="n">
-        <v>1.470304170330479e-06</v>
+        <v>-0.0001143103217580227</v>
       </c>
       <c r="AV19" t="n">
-        <v>2.465665947442831e-06</v>
+        <v>1.435799618851657e-05</v>
       </c>
       <c r="AW19" t="n">
-        <v>1.651071272848203e-06</v>
+        <v>-7.011151867722117e-05</v>
       </c>
       <c r="AX19" t="n">
-        <v>7.600334648814075e-05</v>
+        <v>-0.0004264667967940048</v>
       </c>
       <c r="AY19" t="n">
-        <v>-3.105406849980469e-06</v>
+        <v>5.77292331510995e-05</v>
       </c>
       <c r="AZ19" t="n">
-        <v>2.733143968019674e-05</v>
+        <v>-1.837911910455632e-05</v>
       </c>
       <c r="BA19" t="n">
-        <v>-8.422492676222437e-06</v>
+        <v>0.0001000381288411034</v>
       </c>
       <c r="BB19" t="n">
-        <v>-4.257046251703398e-05</v>
+        <v>-0.0002178869855760796</v>
       </c>
       <c r="BC19" t="n">
-        <v>1.917109560571467e-05</v>
+        <v>8.627766153731088e-05</v>
       </c>
       <c r="BD19" t="n">
-        <v>5.820303539029103e-06</v>
+        <v>-3.784954780883978e-05</v>
       </c>
       <c r="BE19" t="n">
-        <v>1.095584432355337e-05</v>
+        <v>9.977981017687423e-05</v>
       </c>
       <c r="BF19" t="n">
-        <v>1.041285213717105e-07</v>
+        <v>-0.0001485039658908128</v>
       </c>
       <c r="BG19" t="n">
-        <v>-1.084980307746827e-05</v>
+        <v>7.575048552442566e-05</v>
       </c>
       <c r="BH19" t="n">
-        <v>3.149099884950144e-06</v>
+        <v>-4.925874690211417e-05</v>
       </c>
       <c r="BI19" t="n">
-        <v>1.470628653997647e-06</v>
+        <v>9.030254526872171e-05</v>
       </c>
       <c r="BJ19" t="n">
-        <v>2.139080474728431e-06</v>
+        <v>-0.0001054289674749679</v>
       </c>
       <c r="BK19" t="n">
-        <v>1.182833491278488e-06</v>
+        <v>6.630138853474988e-05</v>
       </c>
       <c r="BL19" t="n">
-        <v>-2.24800477920884e-06</v>
+        <v>-5.373156436809087e-05</v>
       </c>
       <c r="BM19" t="n">
-        <v>6.234558007918883e-07</v>
+        <v>7.582441429277511e-05</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.0001543160664012177</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-8.711420956584041e-06</v>
-      </c>
-      <c r="D20" t="n">
-        <v>6.294607218274406e-06</v>
-      </c>
-      <c r="E20" t="n">
-        <v>1.906368653945838e-05</v>
-      </c>
-      <c r="F20" t="n">
-        <v>4.095499774027893e-06</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5.420656660061963e-06</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-3.902494104514625e-06</v>
-      </c>
-      <c r="I20" t="n">
-        <v>9.068878702781433e-07</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.667079955650026e-06</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.344093382167723e-07</v>
-      </c>
-      <c r="L20" t="n">
-        <v>8.58199637810068e-07</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-1.259606117321295e-06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.181032526012763e-07</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2.635489179668255e-07</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.498587440809863e-07</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.434266282172812e-07</v>
-      </c>
-      <c r="R20" t="n">
-        <v>-3.09357480802797e-05</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3.755292750826463e-05</v>
-      </c>
-      <c r="T20" t="n">
-        <v>4.174660946762495e-06</v>
-      </c>
-      <c r="U20" t="n">
-        <v>-9.901208827468542e-06</v>
-      </c>
-      <c r="V20" t="n">
-        <v>-1.783970522232226e-06</v>
-      </c>
-      <c r="W20" t="n">
-        <v>-5.522122765189451e-06</v>
-      </c>
-      <c r="X20" t="n">
-        <v>8.74202541095836e-06</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>4.288303469865952e-07</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>-1.834454472524569e-06</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>-1.025023532243682e-06</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>-1.143241907502629e-06</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>2.145039196690692e-06</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>5.181410466746602e-08</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>-3.529565941483221e-07</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>-3.777650656383941e-07</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>-2.188057471023073e-07</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>9.25824873557737e-05</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>3.516929623821335e-05</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>-2.003909395626859e-07</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>1.898696448363363e-05</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>3.015472004294884e-06</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>-5.948336798759541e-06</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>6.219523254978288e-06</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>-7.16840302893942e-07</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>2.649074564204435e-06</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>-6.453113649839227e-07</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>-1.396221716831782e-06</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>1.04607145982496e-06</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>-2.482530091022442e-07</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>6.44085767981782e-07</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>-2.918861007630815e-07</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>-2.905559117597641e-07</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>5.156338106416456e-05</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>-2.736923245378355e-05</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>7.864605639308772e-06</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>-1.501123947431786e-05</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>3.661073764742856e-06</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>1.175410100422838e-05</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>-6.142694770489688e-06</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>1.437789152584833e-06</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>-4.138136386850197e-06</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>1.532834554366294e-06</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>2.386607668821409e-06</v>
-      </c>
-      <c r="BI20" t="n">
-        <v>-1.183409795300118e-06</v>
-      </c>
-      <c r="BJ20" t="n">
-        <v>2.136087387313387e-07</v>
-      </c>
-      <c r="BK20" t="n">
-        <v>-1.086662792458165e-06</v>
-      </c>
-      <c r="BL20" t="n">
-        <v>5.000765222778113e-07</v>
-      </c>
-      <c r="BM20" t="n">
-        <v>4.869474137058227e-07</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B21" t="n">
-        <v>-1.439040700861686e-16</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-8.99407020210174e-17</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-1.113313998493725e-17</v>
-      </c>
-      <c r="E21" t="n">
-        <v>-8.794854672278436e-18</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-1.174593681936368e-17</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-5.703183498810796e-18</v>
-      </c>
-      <c r="H21" t="n">
-        <v>-8.119585794710021e-19</v>
-      </c>
-      <c r="I21" t="n">
-        <v>-1.278048954900948e-18</v>
-      </c>
-      <c r="J21" t="n">
-        <v>-1.04147156193171e-18</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-2.237599896715753e-19</v>
-      </c>
-      <c r="L21" t="n">
-        <v>-1.495678757513712e-19</v>
-      </c>
-      <c r="M21" t="n">
-        <v>-1.536712406566955e-19</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-4.413828931484938e-20</v>
-      </c>
-      <c r="O21" t="n">
-        <v>-2.444703033680418e-20</v>
-      </c>
-      <c r="P21" t="n">
-        <v>-2.178293918227076e-20</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>-6.896737754207424e-21</v>
-      </c>
-      <c r="R21" t="n">
-        <v>-1.373648496015205e-16</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.775454365394073e-16</v>
-      </c>
-      <c r="T21" t="n">
-        <v>-2.424872589677442e-17</v>
-      </c>
-      <c r="U21" t="n">
-        <v>-4.718845379673417e-17</v>
-      </c>
-      <c r="V21" t="n">
-        <v>3.621083774136971e-17</v>
-      </c>
-      <c r="W21" t="n">
-        <v>-2.983208723613402e-19</v>
-      </c>
-      <c r="X21" t="n">
-        <v>-9.784116364719945e-18</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>5.693993014131225e-18</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>2.166041133986047e-19</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>-1.539069570482878e-18</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>8.705247897829395e-19</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>1.24110574182331e-20</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>-2.290797150789346e-19</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1.445292684848981e-19</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>-6.653741681902364e-21</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>-3.506696464397555e-20</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>-2.302592776900193e-16</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>-1.912907854058535e-17</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>-9.268099038480473e-18</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>-1.324218386852527e-17</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>-1.137984474675423e-17</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>-2.101414555511506e-18</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>-1.215216545994521e-18</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>-1.438038211923227e-18</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>-6.800659703442675e-19</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>-1.47072157072311e-19</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>-1.820915437865592e-19</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>-1.133274422464548e-19</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>-3.25337974098499e-20</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>-2.468519483944993e-20</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>-1.663339377805946e-20</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>-5.780137546539925e-21</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>8.584827035412736e-17</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>3.769988907396776e-17</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>-3.793384477307584e-17</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>-1.138452031803416e-18</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>2.149123521927854e-17</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>-8.154540500663468e-18</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>-1.918479135577329e-18</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>3.826047776128631e-18</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>-9.842822036411102e-19</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>-4.422231065122456e-19</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>5.841696203467367e-19</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>-1.442851830830461e-19</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>-5.880655640710537e-20</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>8.743696645039293e-20</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>-2.607127886605324e-20</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>-6.78811824562319e-21</v>
-      </c>
+      <c r="A20" s="1" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
+      <c r="AR20" t="inlineStr"/>
+      <c r="AS20" t="inlineStr"/>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AU20" t="inlineStr"/>
+      <c r="AV20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="inlineStr"/>
+      <c r="AY20" t="inlineStr"/>
+      <c r="AZ20" t="inlineStr"/>
+      <c r="BA20" t="inlineStr"/>
+      <c r="BB20" t="inlineStr"/>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
+      <c r="BH20" t="inlineStr"/>
+      <c r="BI20" t="inlineStr"/>
+      <c r="BJ20" t="inlineStr"/>
+      <c r="BK20" t="inlineStr"/>
+      <c r="BL20" t="inlineStr"/>
+      <c r="BM20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/ind-IRs-to-common-shocks.xlsx
+++ b/ind-IRs-to-common-shocks.xlsx
@@ -957,797 +957,797 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Belarus</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.01247208884926686</v>
+        <v>-0.0105328426116115</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.00259761964084626</v>
+        <v>-0.001591730123362439</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002638595304687448</v>
+        <v>0.002781100568545389</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0009920467579371678</v>
+        <v>0.0009889901927044075</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001216174927293032</v>
+        <v>0.0008251809354941366</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002624441670718364</v>
+        <v>0.0001040556447082739</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0006720277498249276</v>
+        <v>-0.0003219082230902691</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0004875059774716816</v>
+        <v>-0.0003558014653627363</v>
       </c>
       <c r="J3" t="n">
-        <v>-8.083789496883309e-05</v>
+        <v>-0.0002409824487244205</v>
       </c>
       <c r="K3" t="n">
-        <v>9.176121959758774e-05</v>
+        <v>0.0001066981116065365</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0001698980105675226</v>
+        <v>0.000371545589442316</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.311562280129565e-05</v>
+        <v>-3.263166176604545e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>-1.537541308267224e-05</v>
+        <v>-0.0002227923017295831</v>
       </c>
       <c r="O3" t="n">
-        <v>1.431132176642492e-05</v>
+        <v>1.467603016123097e-05</v>
       </c>
       <c r="P3" t="n">
-        <v>2.286913359563256e-05</v>
+        <v>0.0002208563799336105</v>
       </c>
       <c r="Q3" t="n">
-        <v>-9.53394647484344e-05</v>
+        <v>-7.329563926958971e-05</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0002002638726802537</v>
+        <v>-0.0002136004875584928</v>
       </c>
       <c r="S3" t="n">
-        <v>-2.213630224083552e-05</v>
+        <v>0.0002795464962101029</v>
       </c>
       <c r="T3" t="n">
-        <v>-6.800807606188626e-05</v>
+        <v>-9.731904729197263e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>-9.741205056791617e-05</v>
+        <v>1.509134090039513e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>2.798086190531927e-05</v>
+        <v>-4.341560873233935e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>8.424003184928677e-06</v>
+        <v>0.0001896602359987792</v>
       </c>
       <c r="X3" t="n">
-        <v>1.520301477943099e-05</v>
+        <v>-0.0001128052801827177</v>
       </c>
       <c r="Y3" t="n">
-        <v>-5.812359905015329e-05</v>
+        <v>-1.930979936560755e-05</v>
       </c>
       <c r="Z3" t="n">
-        <v>4.525870483142159e-05</v>
+        <v>-3.746297936950324e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>4.31399635195741e-06</v>
+        <v>0.0001625998209002425</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.254414589747095e-06</v>
+        <v>-8.716584943677695e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>-5.993076396724966e-05</v>
+        <v>-3.366824568357838e-05</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.564605490101856e-05</v>
+        <v>-2.117554918964954e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>8.175044173947464e-06</v>
+        <v>0.0001369486533356425</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.593691593324939e-06</v>
+        <v>-7.491299518346499e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>-5.75028671031397e-05</v>
+        <v>-4.301070535103594e-05</v>
       </c>
       <c r="AH3" t="n">
-        <v>-0.001256261703832377</v>
+        <v>6.922966840751045e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.0008740648352823547</v>
+        <v>-0.00139204523599051</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-7.418262798252811e-05</v>
+        <v>-0.0002764118114474998</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0003027655472340206</v>
+        <v>0.0008689729013129036</v>
       </c>
       <c r="AL3" t="n">
-        <v>-0.0005449009143138616</v>
+        <v>-4.82917711103161e-05</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.0001984661406391989</v>
+        <v>-0.001089740157320466</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.0002101150711138262</v>
+        <v>9.352962252624129e-06</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0003614353137033742</v>
+        <v>0.0008405020721209984</v>
       </c>
       <c r="AP3" t="n">
-        <v>-0.0005285302493241101</v>
+        <v>-3.110470959192759e-05</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.0002020825545661648</v>
+        <v>-0.0009672034863833042</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.0002347523294704575</v>
+        <v>4.663768791512893e-05</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0004065816175649672</v>
+        <v>0.0008359305916588565</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0.0004701207687498053</v>
+        <v>-3.11425526109388e-05</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.0001832008749232752</v>
+        <v>-0.0008892505361840841</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.0002286744828867091</v>
+        <v>7.275083295747981e-05</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0003994082600885816</v>
+        <v>0.0008020982123507638</v>
       </c>
       <c r="AX3" t="n">
-        <v>-0.0004548468475511107</v>
+        <v>-0.0007161689681290952</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.0001590320777461168</v>
+        <v>9.019029852591205e-05</v>
       </c>
       <c r="AZ3" t="n">
-        <v>9.964096594063287e-05</v>
+        <v>0.0001806603079946683</v>
       </c>
       <c r="BA3" t="n">
-        <v>6.237090350537208e-05</v>
+        <v>5.589424373861232e-05</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.0004074161715356444</v>
+        <v>-0.0005702834516113524</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0001728257074874928</v>
+        <v>0.0001245434197904944</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.0001177684775808738</v>
+        <v>0.000245145031996731</v>
       </c>
       <c r="BE3" t="n">
-        <v>7.989876589982197e-05</v>
+        <v>4.683134062024944e-05</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.0003838305218304846</v>
+        <v>-0.0004846546244905359</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0001703822668606232</v>
+        <v>0.0001225657856856439</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.0001195045992095789</v>
+        <v>0.0002679237466539825</v>
       </c>
       <c r="BI3" t="n">
-        <v>8.351151675609915e-05</v>
+        <v>2.545272026641084e-05</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.0003702745382049986</v>
+        <v>-0.0004278095673335058</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0001623778177596557</v>
+        <v>0.0001134194752055613</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0001179953505449426</v>
+        <v>0.0002736518524534749</v>
       </c>
       <c r="BM3" t="n">
-        <v>8.510404194021317e-05</v>
+        <v>3.394126012969395e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01340447763710962</v>
+        <v>-0.00335437437461476</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.002355338807092421</v>
+        <v>-0.0008066426345402565</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00322439867123357</v>
+        <v>0.0004722323401855299</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002426717057127414</v>
+        <v>0.0002873251635292895</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001887976999661214</v>
+        <v>-9.126100083625855e-05</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.0003278294362085113</v>
+        <v>-4.420483487031786e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.001287366023375286</v>
+        <v>4.066278080620381e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.0007235393475737337</v>
+        <v>2.89542649134531e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.0001637276566844221</v>
+        <v>-7.15650083485053e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003002207761600925</v>
+        <v>3.395968285659243e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004512114653947258</v>
+        <v>4.74042660901004e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.000145341055877901</v>
+        <v>2.185441467076684e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0001924428150873172</v>
+        <v>-6.458426082469765e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.0002036959223106572</v>
+        <v>-3.080064153293987e-06</v>
       </c>
       <c r="P4" t="n">
-        <v>6.880876760420681e-06</v>
+        <v>4.273662903284871e-05</v>
       </c>
       <c r="Q4" t="n">
-        <v>7.402380924838596e-05</v>
+        <v>2.05613342774975e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.0001527398952259301</v>
+        <v>2.577434633176392e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>-2.532193754156739e-06</v>
+        <v>1.207828838857885e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>2.53106462210255e-05</v>
+        <v>-1.6172626606111e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0001133850690655301</v>
+        <v>-3.147990604941173e-05</v>
       </c>
       <c r="V4" t="n">
-        <v>2.352973594153677e-05</v>
+        <v>2.606441380487036e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>-4.343228892780173e-05</v>
+        <v>1.94884449295365e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>-3.66711716029418e-05</v>
+        <v>-1.275402668232363e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.353740118096418e-05</v>
+        <v>-2.885817811889236e-05</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.18837169731875e-05</v>
+        <v>2.090427119761166e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>-3.433103537243998e-05</v>
+        <v>1.837150324103578e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>-1.24471847216441e-05</v>
+        <v>-1.063517001009228e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.539884354176578e-05</v>
+        <v>-2.54909706797644e-05</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.106631616026092e-05</v>
+        <v>1.702891213367311e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>-4.763365750305478e-05</v>
+        <v>1.70872594737281e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>-1.754831882644246e-05</v>
+        <v>-8.869185596644911e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5.322401685014712e-05</v>
+        <v>-2.253737575754608e-05</v>
       </c>
       <c r="AH4" t="n">
-        <v>-0.0006445950341095861</v>
+        <v>-0.0002411417879041685</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.0009917877890339274</v>
+        <v>-0.0004190048641971001</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.0003990007450472555</v>
+        <v>5.485339659105089e-06</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.0004213896295895422</v>
+        <v>6.708328221030322e-05</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0001223980526670682</v>
+        <v>0.0001402112550110006</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.0005347839501926861</v>
+        <v>-0.000204432363883603</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.0002906075543669415</v>
+        <v>-2.39430205072122e-06</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0003409657801087236</v>
+        <v>5.241781308684986e-05</v>
       </c>
       <c r="AP4" t="n">
-        <v>6.665278783972634e-05</v>
+        <v>0.0001241187712102378</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.0005087126296724283</v>
+        <v>-0.0001639900691221224</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.0001931702640664422</v>
+        <v>-9.850988506498726e-06</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0004480675282011276</v>
+        <v>4.970256617702023e-05</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0001428949139659717</v>
+        <v>0.0001076672888324608</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.0004978622469339363</v>
+        <v>-0.0001362905198395821</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.0002056882089594981</v>
+        <v>-1.720336301951457e-05</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.0004563483158026895</v>
+        <v>4.585436462528876e-05</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.0004214351822502868</v>
+        <v>-0.0001140659011306308</v>
       </c>
       <c r="AY4" t="n">
-        <v>-1.547978295835814e-05</v>
+        <v>5.340985556044578e-05</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0.0001443716367741423</v>
+        <v>3.156822130307982e-05</v>
       </c>
       <c r="BA4" t="n">
-        <v>-2.638259381156993e-07</v>
+        <v>9.012890604214104e-06</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.0003422853571893834</v>
+        <v>-9.132289206470997e-05</v>
       </c>
       <c r="BC4" t="n">
-        <v>-5.335058938248978e-06</v>
+        <v>4.495103448493151e-05</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0.000212150833987332</v>
+        <v>3.312643677395521e-05</v>
       </c>
       <c r="BE4" t="n">
-        <v>-7.735295122618524e-06</v>
+        <v>8.1972033277875e-06</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.0003027560045743789</v>
+        <v>-7.795250168361567e-05</v>
       </c>
       <c r="BG4" t="n">
-        <v>2.742089693508704e-06</v>
+        <v>3.487661066984684e-05</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0.0002440734339955185</v>
+        <v>3.208935592700033e-05</v>
       </c>
       <c r="BI4" t="n">
-        <v>-1.175711276249527e-05</v>
+        <v>7.201325434242603e-06</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.0002877287258341529</v>
+        <v>-6.687224886780032e-05</v>
       </c>
       <c r="BK4" t="n">
-        <v>1.028771701435968e-05</v>
+        <v>2.665973125419076e-05</v>
       </c>
       <c r="BL4" t="n">
-        <v>-0.0002618345269249247</v>
+        <v>3.044299607686966e-05</v>
       </c>
       <c r="BM4" t="n">
-        <v>-1.735702302297607e-05</v>
+        <v>6.511513562445282e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Belarus</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0105328426116115</v>
+        <v>-0.011542484778405</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.001591730123362439</v>
+        <v>-0.0027841987228592</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002781100568545389</v>
+        <v>0.002301219534904933</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0009889901927044075</v>
+        <v>0.002141423800213681</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0008251809354941366</v>
+        <v>0.0005921746221370563</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001040556447082739</v>
+        <v>-0.0002239874546006131</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0003219082230902691</v>
+        <v>-0.0005088516293779625</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0003558014653627363</v>
+        <v>-0.000129993192646906</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.0002409824487244205</v>
+        <v>-4.701432280172318e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001066981116065365</v>
+        <v>0.0001531824945621654</v>
       </c>
       <c r="L5" t="n">
-        <v>0.000371545589442316</v>
+        <v>3.274053524201541e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>-3.263166176604545e-05</v>
+        <v>4.693302467361065e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0002227923017295831</v>
+        <v>-9.884565423113951e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>1.467603016123097e-05</v>
+        <v>2.750999595005686e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0002208563799336105</v>
+        <v>-9.185148750313485e-06</v>
       </c>
       <c r="Q5" t="n">
-        <v>-7.329563926958971e-05</v>
+        <v>4.277207210603171e-05</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.0002136004875584928</v>
+        <v>2.927095768189455e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0002795464962101029</v>
+        <v>-2.827039696738755e-05</v>
       </c>
       <c r="T5" t="n">
-        <v>-9.731904729197263e-05</v>
+        <v>7.199866608422091e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>1.509134090039513e-05</v>
+        <v>-9.343602087913911e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>-4.341560873233935e-05</v>
+        <v>9.682269192847693e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>0.0001896602359987792</v>
+        <v>-1.716045447717832e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>-0.0001128052801827177</v>
+        <v>1.465288959506389e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>-1.930979936560755e-05</v>
+        <v>-9.123390297232556e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>-3.746297936950324e-05</v>
+        <v>8.084489299605205e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001625998209002425</v>
+        <v>-4.154051843094286e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>-8.716584943677695e-05</v>
+        <v>7.852982629980063e-06</v>
       </c>
       <c r="AC5" t="n">
-        <v>-3.366824568357838e-05</v>
+        <v>-7.402035332472659e-05</v>
       </c>
       <c r="AD5" t="n">
-        <v>-2.117554918964954e-05</v>
+        <v>6.795508548853205e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0001369486533356425</v>
+        <v>-1.682158804288142e-08</v>
       </c>
       <c r="AF5" t="n">
-        <v>-7.491299518346499e-05</v>
+        <v>-6.750677671356846e-07</v>
       </c>
       <c r="AG5" t="n">
-        <v>-4.301070535103594e-05</v>
+        <v>-6.043109658519211e-05</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.922966840751045e-05</v>
+        <v>0.0004655613126746067</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.00139204523599051</v>
+        <v>-0.001077245638825984</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.0002764118114474998</v>
+        <v>-0.0002277071482222299</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.0008689729013129036</v>
+        <v>-1.152386659833562e-05</v>
       </c>
       <c r="AL5" t="n">
-        <v>-4.82917711103161e-05</v>
+        <v>0.0004122535513756173</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.001089740157320466</v>
+        <v>-0.0003943887749922669</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.352962252624129e-06</v>
+        <v>0.0001073968974709503</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0008405020721209984</v>
+        <v>4.760599359832952e-05</v>
       </c>
       <c r="AP5" t="n">
-        <v>-3.110470959192759e-05</v>
+        <v>0.0002444628182660329</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.0009672034863833042</v>
+        <v>-0.0004010216038687176</v>
       </c>
       <c r="AR5" t="n">
-        <v>4.663768791512893e-05</v>
+        <v>7.133973243068994e-05</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.0008359305916588565</v>
+        <v>9.283727904658188e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>-3.11425526109388e-05</v>
+        <v>0.000203597807405603</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0.0008892505361840841</v>
+        <v>-0.0003438838005736204</v>
       </c>
       <c r="AV5" t="n">
-        <v>7.275083295747981e-05</v>
+        <v>5.113010050716808e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0008020982123507638</v>
+        <v>0.0001051058543844435</v>
       </c>
       <c r="AX5" t="n">
-        <v>-0.0007161689681290952</v>
+        <v>-0.0006748241701191055</v>
       </c>
       <c r="AY5" t="n">
-        <v>9.019029852591205e-05</v>
+        <v>0.0003646681919455549</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0001806603079946683</v>
+        <v>0.0001947409761920276</v>
       </c>
       <c r="BA5" t="n">
-        <v>5.589424373861232e-05</v>
+        <v>1.555615497352041e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.0005702834516113524</v>
+        <v>-0.0005526652965100798</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0001245434197904944</v>
+        <v>0.0003358789764750778</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.000245145031996731</v>
+        <v>0.0002047805413076573</v>
       </c>
       <c r="BE5" t="n">
-        <v>4.683134062024944e-05</v>
+        <v>-3.051307395688114e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.0004846546244905359</v>
+        <v>-0.0004725934012406942</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0001225657856856439</v>
+        <v>0.0003004052208258338</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.0002679237466539825</v>
+        <v>0.0002014713609796367</v>
       </c>
       <c r="BI5" t="n">
-        <v>2.545272026641084e-05</v>
+        <v>-6.477199607115762e-05</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.0004278095673335058</v>
+        <v>-0.0004043887779086576</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0001134194752055613</v>
+        <v>0.0002718675192607903</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.0002736518524534749</v>
+        <v>0.0001930787607812153</v>
       </c>
       <c r="BM5" t="n">
-        <v>3.394126012969395e-06</v>
+        <v>-8.979418418545809e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Georgia</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.006817454136490148</v>
+        <v>0.000723789783913524</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.002824349490402249</v>
+        <v>5.337551159147233e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001908746294458336</v>
+        <v>3.512206109297829e-06</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0009183449647471652</v>
+        <v>1.190632137910052e-09</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00141196092540656</v>
+        <v>-1.397434351554525e-07</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0004708797051527248</v>
+        <v>-8.503050745970242e-08</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0007148733136847689</v>
+        <v>-4.612112489947368e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0009767874470779463</v>
+        <v>-2.464715724395904e-08</v>
       </c>
       <c r="J6" t="n">
-        <v>0.000503078560413692</v>
+        <v>-1.314422907094899e-08</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0001313498933376699</v>
+        <v>-7.007726464997723e-09</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005337048892192508</v>
+        <v>-3.735952969871812e-09</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.000473385020645305</v>
+        <v>-1.991696498388372e-09</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0002195642953954438</v>
+        <v>-1.061804514380514e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.0003286676193286278</v>
+        <v>-5.660645079103802e-10</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0002696613894595519</v>
+        <v>-3.017777920861969e-10</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.0003676975644150233</v>
+        <v>-1.608824335711787e-10</v>
       </c>
       <c r="R6" t="n">
-        <v>0.001216055286032424</v>
+        <v>-1.459646503581326e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.0002795745100847273</v>
+        <v>5.720428061091758e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.0005691126335926916</v>
+        <v>4.062565534814152e-06</v>
       </c>
       <c r="U6" t="n">
-        <v>-0.0005830951630117643</v>
+        <v>2.241805399288638e-06</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0001573277791492809</v>
+        <v>1.200841944617782e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>0.0002197927588826258</v>
+        <v>6.406151719115035e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>0.0002600650604791017</v>
+        <v>3.415539922658561e-07</v>
       </c>
       <c r="Y6" t="n">
-        <v>-0.0003018505284590701</v>
+        <v>1.820901511690555e-07</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.963026103253453e-05</v>
+        <v>9.707527159292597e-08</v>
       </c>
       <c r="AA6" t="n">
-        <v>-5.266494003405934e-05</v>
+        <v>5.175235032189647e-08</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.847123617284079e-05</v>
+        <v>2.758998370569106e-08</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.000240644385097675</v>
+        <v>1.470864940538075e-08</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.0002165385274900791</v>
+        <v>7.841409718639324e-09</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.065604119064575e-05</v>
+        <v>4.180377452911712e-09</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.76281716373613e-05</v>
+        <v>2.228624223745305e-09</v>
       </c>
       <c r="AG6" t="n">
-        <v>-0.0002792229617869397</v>
+        <v>1.188114228092796e-09</v>
       </c>
       <c r="AH6" t="n">
-        <v>-0.001868834067770949</v>
+        <v>1.147046921577e-05</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.00116936493897521</v>
+        <v>1.244133414807385e-05</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0.0009875989338892117</v>
+        <v>7.10726108042742e-06</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.0006297560445297976</v>
+        <v>3.824595109534211e-06</v>
       </c>
       <c r="AL6" t="n">
-        <v>-0.001740714892398925</v>
+        <v>2.041622098937219e-06</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.001521490567209997</v>
+        <v>1.088620862882315e-06</v>
       </c>
       <c r="AN6" t="n">
-        <v>-0.0003756569660115169</v>
+        <v>5.803757417881756e-07</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.0006658859921988707</v>
+        <v>3.094084603084102e-07</v>
       </c>
       <c r="AP6" t="n">
-        <v>-0.001765616011150358</v>
+        <v>1.649505459949991e-07</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.001396342869298769</v>
+        <v>8.793770734610781e-08</v>
       </c>
       <c r="AR6" t="n">
-        <v>-0.0004281498384506311</v>
+        <v>4.688095966625943e-08</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.000690976793022293</v>
+        <v>2.499296861810585e-08</v>
       </c>
       <c r="AT6" t="n">
-        <v>-0.001603205660755752</v>
+        <v>1.332414020586062e-08</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.001383436954469312</v>
+        <v>7.10330633017084e-09</v>
       </c>
       <c r="AV6" t="n">
-        <v>-0.0004561865280287833</v>
+        <v>3.786883058827668e-09</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.0006279972710057978</v>
+        <v>2.018846243512917e-09</v>
       </c>
       <c r="AX6" t="n">
-        <v>-0.001481409670242136</v>
+        <v>-0.0001861341407346146</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.0008190640786055996</v>
+        <v>-9.94879078076802e-05</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.0004753683442458637</v>
+        <v>-5.305782341219773e-05</v>
       </c>
       <c r="BA6" t="n">
-        <v>1.469140024617399e-05</v>
+        <v>-2.828739652716761e-05</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0.001325822076303825</v>
+        <v>-1.508055941462212e-05</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0007759242408129056</v>
+        <v>-8.039688858987654e-06</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.0003994069690658975</v>
+        <v>-4.286083755819537e-06</v>
       </c>
       <c r="BE6" t="n">
-        <v>5.369274018256173e-05</v>
+        <v>-2.284977943288148e-06</v>
       </c>
       <c r="BF6" t="n">
-        <v>-0.001201982913856476</v>
+        <v>-1.218157275696945e-06</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.0007877262001044842</v>
+        <v>-6.494185858975684e-07</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.000353730878009706</v>
+        <v>-3.462151464178403e-07</v>
       </c>
       <c r="BI6" t="n">
-        <v>1.644672141746335e-05</v>
+        <v>-1.845726780943726e-07</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-0.00113987776187163</v>
+        <v>-9.839856473981063e-08</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.0007840810099507797</v>
+        <v>-5.245780492980071e-08</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.0003212902493106685</v>
+        <v>-2.796607151058687e-08</v>
       </c>
       <c r="BM6" t="n">
-        <v>3.116573100228982e-06</v>
+        <v>-1.490914758598564e-08</v>
       </c>
     </row>
     <row r="7">
@@ -1952,2389 +1952,2389 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.01396051345341312</v>
+        <v>-0.01129781201639208</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.002158976928164716</v>
+        <v>-0.003750672387688495</v>
       </c>
       <c r="D8" t="n">
-        <v>0.003116494644317403</v>
+        <v>0.002158064106622794</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002192089939542271</v>
+        <v>0.001491596504195784</v>
       </c>
       <c r="F8" t="n">
-        <v>0.001487031770628142</v>
+        <v>-0.000304332099853026</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0005671184083243523</v>
+        <v>-0.0004789439704000658</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.001265750274180509</v>
+        <v>-1.282572921602585e-05</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0004040237840816947</v>
+        <v>0.0001314598047460085</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0002912140634641279</v>
+        <v>3.042860567636523e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0002589337520266327</v>
+        <v>-3.057543079262467e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>1.566441433938606e-05</v>
+        <v>-1.476077933801122e-05</v>
       </c>
       <c r="M8" t="n">
-        <v>-4.385363863131341e-06</v>
+        <v>5.542680556365517e-06</v>
       </c>
       <c r="N8" t="n">
-        <v>7.323272804820467e-05</v>
+        <v>5.263039408915522e-06</v>
       </c>
       <c r="O8" t="n">
-        <v>-8.87079396244289e-05</v>
+        <v>-4.763702841943097e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.000152722109937445</v>
+        <v>-1.57025395022482e-06</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.810932301609093e-05</v>
+        <v>-1.873661431387835e-07</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.0002139685894622191</v>
+        <v>-0.0005645770715270606</v>
       </c>
       <c r="S8" t="n">
-        <v>8.76301931360159e-05</v>
+        <v>0.0003021183309953039</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0001226768641403904</v>
+        <v>0.0003742726520876313</v>
       </c>
       <c r="U8" t="n">
-        <v>8.401365196164062e-06</v>
+        <v>-1.944201629540598e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>-7.700029338406603e-05</v>
+        <v>-0.0001041285260479386</v>
       </c>
       <c r="W8" t="n">
-        <v>4.260461600450783e-05</v>
+        <v>-1.664257147428668e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>3.739630515009481e-05</v>
+        <v>2.594155761011319e-05</v>
       </c>
       <c r="Y8" t="n">
-        <v>-1.433675737670788e-05</v>
+        <v>9.913737467874904e-06</v>
       </c>
       <c r="Z8" t="n">
-        <v>-7.584249789264906e-05</v>
+        <v>-5.226207041402771e-06</v>
       </c>
       <c r="AA8" t="n">
-        <v>5.330356006443507e-05</v>
+        <v>-3.843943136011078e-06</v>
       </c>
       <c r="AB8" t="n">
-        <v>4.33782974644208e-05</v>
+        <v>6.780751532796277e-07</v>
       </c>
       <c r="AC8" t="n">
-        <v>-1.264869908348796e-05</v>
+        <v>1.214184479316006e-06</v>
       </c>
       <c r="AD8" t="n">
-        <v>-7.686769145436746e-05</v>
+        <v>5.821836531727477e-08</v>
       </c>
       <c r="AE8" t="n">
-        <v>4.664935348882033e-05</v>
+        <v>-3.279285778987807e-07</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.738901090664405e-05</v>
+        <v>-8.32643006229574e-08</v>
       </c>
       <c r="AG8" t="n">
-        <v>-8.765036897952209e-06</v>
+        <v>7.477224194626928e-08</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0.0004521498910312746</v>
+        <v>-0.0004656474233849604</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.0002621452860699645</v>
+        <v>-0.0002385255865849153</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.715320815176587e-05</v>
+        <v>2.078972274810803e-05</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.026038065505312e-05</v>
+        <v>7.588071470848605e-05</v>
       </c>
       <c r="AL8" t="n">
-        <v>-0.0002313720854066402</v>
+        <v>7.818379039415234e-06</v>
       </c>
       <c r="AM8" t="n">
-        <v>-5.848951006772484e-07</v>
+        <v>-1.930261675328244e-05</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.0001723622650875499</v>
+        <v>-6.211235135160237e-06</v>
       </c>
       <c r="AO8" t="n">
-        <v>2.30397345042161e-05</v>
+        <v>4.150944957357818e-06</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0.0002305859267309316</v>
+        <v>2.582219085262826e-06</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-7.676493391619687e-06</v>
+        <v>-6.335220994128412e-07</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.0001707335949599321</v>
+        <v>-8.522534149296273e-07</v>
       </c>
       <c r="AS8" t="n">
-        <v>4.288379770602197e-05</v>
+        <v>3.291636492048402e-09</v>
       </c>
       <c r="AT8" t="n">
-        <v>-0.0002023575145804124</v>
+        <v>2.391831361992723e-07</v>
       </c>
       <c r="AU8" t="n">
-        <v>-2.8840304993375e-06</v>
+        <v>4.792837243806067e-08</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.0001533864352618064</v>
+        <v>-5.715229777192262e-08</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.983948602330101e-05</v>
+        <v>-2.508563611103822e-08</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.0001594425700768687</v>
+        <v>8.65852086728806e-05</v>
       </c>
       <c r="AY8" t="n">
-        <v>-6.271483753174544e-05</v>
+        <v>-1.985081832440554e-05</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-2.745786114883133e-05</v>
+        <v>2.096914348264309e-05</v>
       </c>
       <c r="BA8" t="n">
-        <v>-2.58022146100628e-05</v>
+        <v>2.765628338221829e-06</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.0001395704320665578</v>
+        <v>-3.397483427823654e-06</v>
       </c>
       <c r="BC8" t="n">
-        <v>-6.944265506908824e-05</v>
+        <v>-1.855720689008862e-06</v>
       </c>
       <c r="BD8" t="n">
-        <v>-2.65116009081893e-05</v>
+        <v>6.602654985352343e-07</v>
       </c>
       <c r="BE8" t="n">
-        <v>-3.2987028249834e-05</v>
+        <v>6.350025691244352e-07</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0001303618711053087</v>
+        <v>-5.084864263971351e-08</v>
       </c>
       <c r="BG8" t="n">
-        <v>-7.035803289000637e-05</v>
+        <v>-1.890377156836957e-07</v>
       </c>
       <c r="BH8" t="n">
-        <v>-2.062965602868131e-05</v>
+        <v>-2.416937281539293e-08</v>
       </c>
       <c r="BI8" t="n">
-        <v>-3.580223137803959e-05</v>
+        <v>4.792449340720134e-08</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.0001244436778162422</v>
+        <v>1.656174732145007e-08</v>
       </c>
       <c r="BK8" t="n">
-        <v>-6.983709384066289e-05</v>
+        <v>-1.003246554819092e-08</v>
       </c>
       <c r="BL8" t="n">
-        <v>-1.44794592640089e-05</v>
+        <v>-6.683544751776286e-09</v>
       </c>
       <c r="BM8" t="n">
-        <v>-3.804509305107701e-05</v>
+        <v>1.442717313373361e-09</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>CostaRica</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.00335437437461476</v>
+        <v>-0.004211389424389104</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0008066426345402565</v>
+        <v>0.001801562945747068</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0004722323401855299</v>
+        <v>-0.0001451315792163281</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0002873251635292895</v>
+        <v>9.957940692377236e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>-9.126100083625855e-05</v>
+        <v>-0.0002760248202494819</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.420483487031786e-05</v>
+        <v>0.0002180040073599001</v>
       </c>
       <c r="H9" t="n">
-        <v>4.066278080620381e-05</v>
+        <v>-0.0001393266924149872</v>
       </c>
       <c r="I9" t="n">
-        <v>2.89542649134531e-05</v>
+        <v>8.072696263516521e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>-7.15650083485053e-05</v>
+        <v>-3.561899881855213e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>3.395968285659243e-07</v>
+        <v>4.622352487852608e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>4.74042660901004e-05</v>
+        <v>-7.459301091585917e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>2.185441467076684e-05</v>
+        <v>5.194203606023637e-05</v>
       </c>
       <c r="N9" t="n">
-        <v>-6.458426082469765e-05</v>
+        <v>-9.764762860796175e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>-3.080064153293987e-06</v>
+        <v>1.371188018495599e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>4.273662903284871e-05</v>
+        <v>-4.089588735002298e-05</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.05613342774975e-05</v>
+        <v>3.262767526185956e-05</v>
       </c>
       <c r="R9" t="n">
-        <v>2.577434633176392e-05</v>
+        <v>-3.324102987555109e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.207828838857885e-05</v>
+        <v>-0.000140366223564028</v>
       </c>
       <c r="T9" t="n">
-        <v>-1.6172626606111e-05</v>
+        <v>7.004536453765569e-05</v>
       </c>
       <c r="U9" t="n">
-        <v>-3.147990604941173e-05</v>
+        <v>0.0002635139221584385</v>
       </c>
       <c r="V9" t="n">
-        <v>2.606441380487036e-05</v>
+        <v>-0.000271032375935618</v>
       </c>
       <c r="W9" t="n">
-        <v>1.94884449295365e-05</v>
+        <v>-4.945388129882832e-05</v>
       </c>
       <c r="X9" t="n">
-        <v>-1.275402668232363e-05</v>
+        <v>9.831184292090049e-05</v>
       </c>
       <c r="Y9" t="n">
-        <v>-2.885817811889236e-05</v>
+        <v>0.0001531048600238268</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.090427119761166e-05</v>
+        <v>-0.0002017633582428767</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.837150324103578e-05</v>
+        <v>-2.005162282808896e-05</v>
       </c>
       <c r="AB9" t="n">
-        <v>-1.063517001009228e-05</v>
+        <v>9.090697051552346e-05</v>
       </c>
       <c r="AC9" t="n">
-        <v>-2.54909706797644e-05</v>
+        <v>7.603019569579213e-05</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.702891213367311e-05</v>
+        <v>-0.0001384954403689712</v>
       </c>
       <c r="AE9" t="n">
-        <v>1.70872594737281e-05</v>
+        <v>-3.664265669874047e-06</v>
       </c>
       <c r="AF9" t="n">
-        <v>-8.869185596644911e-06</v>
+        <v>7.37236597418614e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>-2.253737575754608e-05</v>
+        <v>3.24313821898932e-05</v>
       </c>
       <c r="AH9" t="n">
-        <v>-0.0002411417879041685</v>
+        <v>-6.0283971876563e-05</v>
       </c>
       <c r="AI9" t="n">
-        <v>-0.0004190048641971001</v>
+        <v>4.57983784108557e-05</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.485339659105089e-06</v>
+        <v>-7.257117343298604e-05</v>
       </c>
       <c r="AK9" t="n">
-        <v>6.708328221030322e-05</v>
+        <v>7.780232546299756e-05</v>
       </c>
       <c r="AL9" t="n">
-        <v>0.0001402112550110006</v>
+        <v>-3.453775738594633e-05</v>
       </c>
       <c r="AM9" t="n">
-        <v>-0.000204432363883603</v>
+        <v>1.223931131860855e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>-2.39430205072122e-06</v>
+        <v>-4.052653189961699e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.241781308684986e-05</v>
+        <v>5.197100213082437e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0001241187712102378</v>
+        <v>-2.067277650406911e-05</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-0.0001639900691221224</v>
+        <v>8.881540460746051e-07</v>
       </c>
       <c r="AR9" t="n">
-        <v>-9.850988506498726e-06</v>
+        <v>-1.934990446598109e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>4.970256617702023e-05</v>
+        <v>3.178063794509458e-05</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0001076672888324608</v>
+        <v>-1.287589334332308e-05</v>
       </c>
       <c r="AU9" t="n">
-        <v>-0.0001362905198395821</v>
+        <v>-2.908646027652812e-06</v>
       </c>
       <c r="AV9" t="n">
-        <v>-1.720336301951457e-05</v>
+        <v>-8.215139704254001e-06</v>
       </c>
       <c r="AW9" t="n">
-        <v>4.585436462528876e-05</v>
+        <v>1.93043816781864e-05</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0.0001140659011306308</v>
+        <v>-0.0003221546823674668</v>
       </c>
       <c r="AY9" t="n">
-        <v>5.340985556044578e-05</v>
+        <v>8.038390210105508e-05</v>
       </c>
       <c r="AZ9" t="n">
-        <v>3.156822130307982e-05</v>
+        <v>8.531987829242041e-05</v>
       </c>
       <c r="BA9" t="n">
-        <v>9.012890604214104e-06</v>
+        <v>-9.750266313907187e-06</v>
       </c>
       <c r="BB9" t="n">
-        <v>-9.132289206470997e-05</v>
+        <v>-0.0001794106152369146</v>
       </c>
       <c r="BC9" t="n">
-        <v>4.495103448493151e-05</v>
+        <v>7.929059931092063e-05</v>
       </c>
       <c r="BD9" t="n">
-        <v>3.312643677395521e-05</v>
+        <v>7.1633850620545e-05</v>
       </c>
       <c r="BE9" t="n">
-        <v>8.1972033277875e-06</v>
+        <v>-2.559289378101197e-05</v>
       </c>
       <c r="BF9" t="n">
-        <v>-7.795250168361567e-05</v>
+        <v>-0.0001056178867479846</v>
       </c>
       <c r="BG9" t="n">
-        <v>3.487661066984684e-05</v>
+        <v>6.449376501011359e-05</v>
       </c>
       <c r="BH9" t="n">
-        <v>3.208935592700033e-05</v>
+        <v>4.891737162871557e-05</v>
       </c>
       <c r="BI9" t="n">
-        <v>7.201325434242603e-06</v>
+        <v>-3.117065958383373e-05</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-6.687224886780032e-05</v>
+        <v>-6.190050581578163e-05</v>
       </c>
       <c r="BK9" t="n">
-        <v>2.665973125419076e-05</v>
+        <v>4.989416596359252e-05</v>
       </c>
       <c r="BL9" t="n">
-        <v>3.044299607686966e-05</v>
+        <v>3.042066366208748e-05</v>
       </c>
       <c r="BM9" t="n">
-        <v>6.511513562445282e-06</v>
+        <v>-2.969763515772696e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>CostaRica</t>
+          <t>Croatia</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.004211389424389104</v>
+        <v>-0.01340447763710962</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001801562945747068</v>
+        <v>-0.002355338807092421</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.0001451315792163281</v>
+        <v>0.00322439867123357</v>
       </c>
       <c r="E10" t="n">
-        <v>9.957940692377236e-05</v>
+        <v>0.002426717057127414</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0002760248202494819</v>
+        <v>0.001887976999661214</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0002180040073599001</v>
+        <v>-0.0003278294362085113</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.0001393266924149872</v>
+        <v>-0.001287366023375286</v>
       </c>
       <c r="I10" t="n">
-        <v>8.072696263516521e-05</v>
+        <v>-0.0007235393475737337</v>
       </c>
       <c r="J10" t="n">
-        <v>-3.561899881855213e-05</v>
+        <v>-0.0001637276566844221</v>
       </c>
       <c r="K10" t="n">
-        <v>4.622352487852608e-05</v>
+        <v>0.0003002207761600925</v>
       </c>
       <c r="L10" t="n">
-        <v>-7.459301091585917e-05</v>
+        <v>0.0004512114653947258</v>
       </c>
       <c r="M10" t="n">
-        <v>5.194203606023637e-05</v>
+        <v>0.000145341055877901</v>
       </c>
       <c r="N10" t="n">
-        <v>-9.764762860796175e-06</v>
+        <v>-0.0001924428150873172</v>
       </c>
       <c r="O10" t="n">
-        <v>1.371188018495599e-05</v>
+        <v>-0.0002036959223106572</v>
       </c>
       <c r="P10" t="n">
-        <v>-4.089588735002298e-05</v>
+        <v>6.880876760420681e-06</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.262767526185956e-05</v>
+        <v>7.402380924838596e-05</v>
       </c>
       <c r="R10" t="n">
-        <v>-3.324102987555109e-05</v>
+        <v>-0.0001527398952259301</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.000140366223564028</v>
+        <v>-2.532193754156739e-06</v>
       </c>
       <c r="T10" t="n">
-        <v>7.004536453765569e-05</v>
+        <v>2.53106462210255e-05</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0002635139221584385</v>
+        <v>0.0001133850690655301</v>
       </c>
       <c r="V10" t="n">
-        <v>-0.000271032375935618</v>
+        <v>2.352973594153677e-05</v>
       </c>
       <c r="W10" t="n">
-        <v>-4.945388129882832e-05</v>
+        <v>-4.343228892780173e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>9.831184292090049e-05</v>
+        <v>-3.66711716029418e-05</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0001531048600238268</v>
+        <v>5.353740118096418e-05</v>
       </c>
       <c r="Z10" t="n">
-        <v>-0.0002017633582428767</v>
+        <v>1.18837169731875e-05</v>
       </c>
       <c r="AA10" t="n">
-        <v>-2.005162282808896e-05</v>
+        <v>-3.433103537243998e-05</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.090697051552346e-05</v>
+        <v>-1.24471847216441e-05</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.603019569579213e-05</v>
+        <v>5.539884354176578e-05</v>
       </c>
       <c r="AD10" t="n">
-        <v>-0.0001384954403689712</v>
+        <v>1.106631616026092e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>-3.664265669874047e-06</v>
+        <v>-4.763365750305478e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>7.37236597418614e-05</v>
+        <v>-1.754831882644246e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>3.24313821898932e-05</v>
+        <v>5.322401685014712e-05</v>
       </c>
       <c r="AH10" t="n">
-        <v>-6.0283971876563e-05</v>
+        <v>-0.0006445950341095861</v>
       </c>
       <c r="AI10" t="n">
-        <v>4.57983784108557e-05</v>
+        <v>-0.0009917877890339274</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-7.257117343298604e-05</v>
+        <v>-0.0003990007450472555</v>
       </c>
       <c r="AK10" t="n">
-        <v>7.780232546299756e-05</v>
+        <v>0.0004213896295895422</v>
       </c>
       <c r="AL10" t="n">
-        <v>-3.453775738594633e-05</v>
+        <v>0.0001223980526670682</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.223931131860855e-05</v>
+        <v>-0.0005347839501926861</v>
       </c>
       <c r="AN10" t="n">
-        <v>-4.052653189961699e-05</v>
+        <v>-0.0002906075543669415</v>
       </c>
       <c r="AO10" t="n">
-        <v>5.197100213082437e-05</v>
+        <v>0.0003409657801087236</v>
       </c>
       <c r="AP10" t="n">
-        <v>-2.067277650406911e-05</v>
+        <v>6.665278783972634e-05</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8.881540460746051e-07</v>
+        <v>-0.0005087126296724283</v>
       </c>
       <c r="AR10" t="n">
-        <v>-1.934990446598109e-05</v>
+        <v>-0.0001931702640664422</v>
       </c>
       <c r="AS10" t="n">
-        <v>3.178063794509458e-05</v>
+        <v>0.0004480675282011276</v>
       </c>
       <c r="AT10" t="n">
-        <v>-1.287589334332308e-05</v>
+        <v>0.0001428949139659717</v>
       </c>
       <c r="AU10" t="n">
-        <v>-2.908646027652812e-06</v>
+        <v>-0.0004978622469339363</v>
       </c>
       <c r="AV10" t="n">
-        <v>-8.215139704254001e-06</v>
+        <v>-0.0002056882089594981</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.93043816781864e-05</v>
+        <v>0.0004563483158026895</v>
       </c>
       <c r="AX10" t="n">
-        <v>-0.0003221546823674668</v>
+        <v>0.0004214351822502868</v>
       </c>
       <c r="AY10" t="n">
-        <v>8.038390210105508e-05</v>
+        <v>-1.547978295835814e-05</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8.531987829242041e-05</v>
+        <v>-0.0001443716367741423</v>
       </c>
       <c r="BA10" t="n">
-        <v>-9.750266313907187e-06</v>
+        <v>-2.638259381156993e-07</v>
       </c>
       <c r="BB10" t="n">
-        <v>-0.0001794106152369146</v>
+        <v>0.0003422853571893834</v>
       </c>
       <c r="BC10" t="n">
-        <v>7.929059931092063e-05</v>
+        <v>-5.335058938248978e-06</v>
       </c>
       <c r="BD10" t="n">
-        <v>7.1633850620545e-05</v>
+        <v>-0.000212150833987332</v>
       </c>
       <c r="BE10" t="n">
-        <v>-2.559289378101197e-05</v>
+        <v>-7.735295122618524e-06</v>
       </c>
       <c r="BF10" t="n">
-        <v>-0.0001056178867479846</v>
+        <v>0.0003027560045743789</v>
       </c>
       <c r="BG10" t="n">
-        <v>6.449376501011359e-05</v>
+        <v>2.742089693508704e-06</v>
       </c>
       <c r="BH10" t="n">
-        <v>4.891737162871557e-05</v>
+        <v>-0.0002440734339955185</v>
       </c>
       <c r="BI10" t="n">
-        <v>-3.117065958383373e-05</v>
+        <v>-1.175711276249527e-05</v>
       </c>
       <c r="BJ10" t="n">
-        <v>-6.190050581578163e-05</v>
+        <v>0.0002877287258341529</v>
       </c>
       <c r="BK10" t="n">
-        <v>4.989416596359252e-05</v>
+        <v>1.028771701435968e-05</v>
       </c>
       <c r="BL10" t="n">
-        <v>3.042066366208748e-05</v>
+        <v>-0.0002618345269249247</v>
       </c>
       <c r="BM10" t="n">
-        <v>-2.969763515772696e-05</v>
+        <v>-1.735702302297607e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Georgia</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01124494479166272</v>
+        <v>-0.006817454136490148</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.001520653198364417</v>
+        <v>-0.002824349490402249</v>
       </c>
       <c r="D11" t="n">
-        <v>0.00266885419042949</v>
+        <v>0.001908746294458336</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001348636604942609</v>
+        <v>0.0009183449647471652</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0005595281414116825</v>
+        <v>0.00141196092540656</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0002341283208079955</v>
+        <v>-0.0004708797051527248</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0003985426764480988</v>
+        <v>-0.0007148733136847689</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0001005081014103814</v>
+        <v>-0.0009767874470779463</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.000101081676487103</v>
+        <v>0.000503078560413692</v>
       </c>
       <c r="K11" t="n">
-        <v>3.131156799055212e-05</v>
+        <v>0.0001313498933376699</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0001862408915076848</v>
+        <v>0.0005337048892192508</v>
       </c>
       <c r="M11" t="n">
-        <v>7.414954970476478e-05</v>
+        <v>-0.000473385020645305</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.0001538275181453616</v>
+        <v>0.0002195642953954438</v>
       </c>
       <c r="O11" t="n">
-        <v>-7.631298914762942e-05</v>
+        <v>-0.0003286676193286278</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0001182547388272683</v>
+        <v>0.0002696613894595519</v>
       </c>
       <c r="Q11" t="n">
-        <v>6.724241467487257e-05</v>
+        <v>-0.0003676975644150233</v>
       </c>
       <c r="R11" t="n">
-        <v>4.827618317432849e-05</v>
+        <v>0.001216055286032424</v>
       </c>
       <c r="S11" t="n">
-        <v>-9.583178369320356e-06</v>
+        <v>-0.0002795745100847273</v>
       </c>
       <c r="T11" t="n">
-        <v>6.267415724130409e-05</v>
+        <v>-0.0005691126335926916</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0001243332437738888</v>
+        <v>-0.0005830951630117643</v>
       </c>
       <c r="V11" t="n">
-        <v>1.185154139864934e-05</v>
+        <v>0.0001573277791492809</v>
       </c>
       <c r="W11" t="n">
-        <v>6.296709643398501e-05</v>
+        <v>0.0002197927588826258</v>
       </c>
       <c r="X11" t="n">
-        <v>3.647762769452132e-05</v>
+        <v>0.0002600650604791017</v>
       </c>
       <c r="Y11" t="n">
-        <v>-9.414465817093889e-05</v>
+        <v>-0.0003018505284590701</v>
       </c>
       <c r="Z11" t="n">
-        <v>-3.694385046253209e-06</v>
+        <v>8.963026103253453e-05</v>
       </c>
       <c r="AA11" t="n">
-        <v>6.61388418182574e-05</v>
+        <v>-5.266494003405934e-05</v>
       </c>
       <c r="AB11" t="n">
-        <v>2.225588746447834e-05</v>
+        <v>6.847123617284079e-05</v>
       </c>
       <c r="AC11" t="n">
-        <v>-8.118656124590128e-05</v>
+        <v>-0.000240644385097675</v>
       </c>
       <c r="AD11" t="n">
-        <v>-7.600354744077047e-06</v>
+        <v>0.0002165385274900791</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.902513163157527e-05</v>
+        <v>2.065604119064575e-05</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.532772206112763e-05</v>
+        <v>5.76281716373613e-05</v>
       </c>
       <c r="AG11" t="n">
-        <v>-7.445180756781202e-05</v>
+        <v>-0.0002792229617869397</v>
       </c>
       <c r="AH11" t="n">
-        <v>4.014843455820409e-05</v>
+        <v>-0.001868834067770949</v>
       </c>
       <c r="AI11" t="n">
-        <v>-0.001207381575236411</v>
+        <v>0.00116936493897521</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0.0005087488712532211</v>
+        <v>-0.0009875989338892117</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0003502992033153338</v>
+        <v>0.0006297560445297976</v>
       </c>
       <c r="AL11" t="n">
-        <v>7.040955581303119e-05</v>
+        <v>-0.001740714892398925</v>
       </c>
       <c r="AM11" t="n">
-        <v>-0.0006387329502917993</v>
+        <v>0.001521490567209997</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0.0001451339775537079</v>
+        <v>-0.0003756569660115169</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0004622386568182677</v>
+        <v>0.0006658859921988707</v>
       </c>
       <c r="AP11" t="n">
-        <v>7.964270109385136e-05</v>
+        <v>-0.001765616011150358</v>
       </c>
       <c r="AQ11" t="n">
-        <v>-0.0005700032314892271</v>
+        <v>0.001396342869298769</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.0001086438667279979</v>
+        <v>-0.0004281498384506311</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.0004961741849321868</v>
+        <v>0.000690976793022293</v>
       </c>
       <c r="AT11" t="n">
-        <v>9.11568422481247e-05</v>
+        <v>-0.001603205660755752</v>
       </c>
       <c r="AU11" t="n">
-        <v>-0.0005175015664254261</v>
+        <v>0.001383436954469312</v>
       </c>
       <c r="AV11" t="n">
-        <v>-8.676562118368263e-05</v>
+        <v>-0.0004561865280287833</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.0004855017759391453</v>
+        <v>0.0006279972710057978</v>
       </c>
       <c r="AX11" t="n">
-        <v>-0.000512202851873453</v>
+        <v>-0.001481409670242136</v>
       </c>
       <c r="AY11" t="n">
-        <v>5.072483337081829e-05</v>
+        <v>0.0008190640786055996</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0001908454348889969</v>
+        <v>0.0004753683442458637</v>
       </c>
       <c r="BA11" t="n">
-        <v>4.372283268432603e-06</v>
+        <v>1.469140024617399e-05</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.0003746552979910644</v>
+        <v>-0.001325822076303825</v>
       </c>
       <c r="BC11" t="n">
-        <v>4.631743467543516e-05</v>
+        <v>0.0007759242408129056</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0002507635651891117</v>
+        <v>0.0003994069690658975</v>
       </c>
       <c r="BE11" t="n">
-        <v>-1.108118314065868e-05</v>
+        <v>5.369274018256173e-05</v>
       </c>
       <c r="BF11" t="n">
-        <v>-0.0003147467971448381</v>
+        <v>-0.001201982913856476</v>
       </c>
       <c r="BG11" t="n">
-        <v>4.169023549593001e-05</v>
+        <v>0.0007877262001044842</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.000263064741423747</v>
+        <v>0.000353730878009706</v>
       </c>
       <c r="BI11" t="n">
-        <v>-2.383519513086031e-05</v>
+        <v>1.644672141746335e-05</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.00028377946705019</v>
+        <v>-0.00113987776187163</v>
       </c>
       <c r="BK11" t="n">
-        <v>4.010279071250731e-05</v>
+        <v>0.0007840810099507797</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0002593014128646509</v>
+        <v>0.0003212902493106685</v>
       </c>
       <c r="BM11" t="n">
-        <v>-3.238152266751837e-05</v>
+        <v>3.116573100228982e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>NewZealand</t>
+          <t>Lithuania</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.001844770950923809</v>
+        <v>-0.01124494479166272</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0005252721056858477</v>
+        <v>-0.001520653198364417</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0003409218328701549</v>
+        <v>0.00266885419042949</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0002330757610616912</v>
+        <v>0.001348636604942609</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.724212818082704e-05</v>
+        <v>0.0005595281414116825</v>
       </c>
       <c r="G12" t="n">
-        <v>-6.382315009443081e-05</v>
+        <v>-0.0002341283208079955</v>
       </c>
       <c r="H12" t="n">
-        <v>-1.532173342893182e-05</v>
+        <v>-0.0003985426764480988</v>
       </c>
       <c r="I12" t="n">
-        <v>1.13453294446733e-05</v>
+        <v>-0.0001005081014103814</v>
       </c>
       <c r="J12" t="n">
-        <v>7.445738882396754e-06</v>
+        <v>-0.000101081676487103</v>
       </c>
       <c r="K12" t="n">
-        <v>-5.426226723386777e-07</v>
+        <v>3.131156799055212e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>-2.068992621807933e-06</v>
+        <v>0.0001862408915076848</v>
       </c>
       <c r="M12" t="n">
-        <v>-5.12732290966494e-07</v>
+        <v>7.414954970476478e-05</v>
       </c>
       <c r="N12" t="n">
-        <v>3.671196111080049e-07</v>
+        <v>-0.0001538275181453616</v>
       </c>
       <c r="O12" t="n">
-        <v>2.463042958362792e-07</v>
+        <v>-7.631298914762942e-05</v>
       </c>
       <c r="P12" t="n">
-        <v>-1.641541287521996e-08</v>
+        <v>0.0001182547388272683</v>
       </c>
       <c r="Q12" t="n">
-        <v>-6.804469817288168e-08</v>
+        <v>6.724241467487257e-05</v>
       </c>
       <c r="R12" t="n">
-        <v>-0.0001133302537582249</v>
+        <v>4.827618317432849e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>6.176850202814514e-05</v>
+        <v>-9.583178369320356e-06</v>
       </c>
       <c r="T12" t="n">
-        <v>7.775046083533069e-05</v>
+        <v>6.267415724130409e-05</v>
       </c>
       <c r="U12" t="n">
-        <v>-3.84137821911569e-06</v>
+        <v>-0.0001243332437738888</v>
       </c>
       <c r="V12" t="n">
-        <v>-2.355009655523186e-05</v>
+        <v>1.185154139864934e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>-4.887157153101229e-06</v>
+        <v>6.296709643398501e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>4.661912561255115e-06</v>
+        <v>3.647762769452132e-05</v>
       </c>
       <c r="Y12" t="n">
-        <v>2.531742451738756e-06</v>
+        <v>-9.414465817093889e-05</v>
       </c>
       <c r="Z12" t="n">
-        <v>-4.050999478932331e-07</v>
+        <v>-3.694385046253209e-06</v>
       </c>
       <c r="AA12" t="n">
-        <v>-7.530984410373949e-07</v>
+        <v>6.61388418182574e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>-1.330804277500917e-07</v>
+        <v>2.225588746447834e-05</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.482424048777899e-07</v>
+        <v>-8.118656124590128e-05</v>
       </c>
       <c r="AD12" t="n">
-        <v>8.063886795178541e-08</v>
+        <v>-7.600354744077047e-06</v>
       </c>
       <c r="AE12" t="n">
-        <v>-1.229671792347337e-08</v>
+        <v>6.902513163157527e-05</v>
       </c>
       <c r="AF12" t="n">
-        <v>-2.447248789122826e-08</v>
+        <v>1.532772206112763e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>-4.56544120506658e-09</v>
+        <v>-7.445180756781202e-05</v>
       </c>
       <c r="AH12" t="n">
-        <v>-5.667059030262301e-05</v>
+        <v>4.014843455820409e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>-7.700705123095396e-05</v>
+        <v>-0.001207381575236411</v>
       </c>
       <c r="AJ12" t="n">
-        <v>9.594216730967735e-06</v>
+        <v>-0.0005087488712532211</v>
       </c>
       <c r="AK12" t="n">
-        <v>2.803950025104307e-05</v>
+        <v>0.0003502992033153338</v>
       </c>
       <c r="AL12" t="n">
-        <v>3.905105476336399e-06</v>
+        <v>7.040955581303119e-05</v>
       </c>
       <c r="AM12" t="n">
-        <v>-6.377551473475951e-06</v>
+        <v>-0.0006387329502917993</v>
       </c>
       <c r="AN12" t="n">
-        <v>-2.7022878622261e-06</v>
+        <v>-0.0001451339775537079</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.11315604061255e-07</v>
+        <v>0.0004622386568182677</v>
       </c>
       <c r="AP12" t="n">
-        <v>9.0990211657568e-07</v>
+        <v>7.964270109385136e-05</v>
       </c>
       <c r="AQ12" t="n">
-        <v>7.704588312011679e-08</v>
+        <v>-0.0005700032314892271</v>
       </c>
       <c r="AR12" t="n">
-        <v>-2.041939543765025e-07</v>
+        <v>-0.0001086438667279979</v>
       </c>
       <c r="AS12" t="n">
-        <v>-8.38222479122803e-08</v>
+        <v>0.0004961741849321868</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.539247819533712e-08</v>
+        <v>9.11568422481247e-05</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.93979280798473e-08</v>
+        <v>-0.0005175015664254261</v>
       </c>
       <c r="AV12" t="n">
-        <v>2.788849651512442e-09</v>
+        <v>-8.676562118368263e-05</v>
       </c>
       <c r="AW12" t="n">
-        <v>-6.63498330535317e-09</v>
+        <v>0.0004855017759391453</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.0001211065616595247</v>
+        <v>-0.000512202851873453</v>
       </c>
       <c r="AY12" t="n">
-        <v>-5.644049836517429e-06</v>
+        <v>5.072483337081829e-05</v>
       </c>
       <c r="AZ12" t="n">
-        <v>-5.596391993309508e-06</v>
+        <v>0.0001908454348889969</v>
       </c>
       <c r="BA12" t="n">
-        <v>2.877367434362951e-06</v>
+        <v>4.372283268432603e-06</v>
       </c>
       <c r="BB12" t="n">
-        <v>-8.421779942545265e-07</v>
+        <v>-0.0003746552979910644</v>
       </c>
       <c r="BC12" t="n">
-        <v>-1.161251283345174e-06</v>
+        <v>4.631743467543516e-05</v>
       </c>
       <c r="BD12" t="n">
-        <v>2.097624600738905e-07</v>
+        <v>0.0002507635651891117</v>
       </c>
       <c r="BE12" t="n">
-        <v>3.587253349032454e-07</v>
+        <v>-1.108118314065868e-05</v>
       </c>
       <c r="BF12" t="n">
-        <v>1.967952983374167e-08</v>
+        <v>-0.0003147467971448381</v>
       </c>
       <c r="BG12" t="n">
-        <v>-8.265640519933747e-08</v>
+        <v>4.169023549593001e-05</v>
       </c>
       <c r="BH12" t="n">
-        <v>-2.67910906370393e-08</v>
+        <v>0.000263064741423747</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.214086002229205e-08</v>
+        <v>-2.383519513086031e-05</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1.022182575146466e-08</v>
+        <v>-0.00028377946705019</v>
       </c>
       <c r="BK12" t="n">
-        <v>1.948365182048541e-10</v>
+        <v>4.010279071250731e-05</v>
       </c>
       <c r="BL12" t="n">
-        <v>-2.506111877177766e-09</v>
+        <v>0.0002593014128646509</v>
       </c>
       <c r="BM12" t="n">
-        <v>-8.481686077771498e-10</v>
+        <v>-3.238152266751837e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Peru</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.350854589930979e-16</v>
+        <v>-0.01340195179942198</v>
       </c>
       <c r="C13" t="n">
-        <v>8.57641546884664e-17</v>
+        <v>-0.00215910423311057</v>
       </c>
       <c r="D13" t="n">
-        <v>5.827727981547471e-18</v>
+        <v>0.004320808062186363</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.620780776611795e-17</v>
+        <v>0.001239627817110118</v>
       </c>
       <c r="F13" t="n">
-        <v>2.751924501713556e-19</v>
+        <v>3.44205137102013e-05</v>
       </c>
       <c r="G13" t="n">
-        <v>1.813586247263823e-17</v>
+        <v>0.0008204165520472403</v>
       </c>
       <c r="H13" t="n">
-        <v>1.389945995986441e-17</v>
+        <v>-0.0002700300836826422</v>
       </c>
       <c r="I13" t="n">
-        <v>3.230587888701884e-18</v>
+        <v>-0.0005316160576060891</v>
       </c>
       <c r="J13" t="n">
-        <v>-1.134100148960023e-18</v>
+        <v>-0.0006767830446146051</v>
       </c>
       <c r="K13" t="n">
-        <v>5.378990089184732e-18</v>
+        <v>0.0003289585658482285</v>
       </c>
       <c r="L13" t="n">
-        <v>1.72624826750084e-18</v>
+        <v>0.0003543857914316529</v>
       </c>
       <c r="M13" t="n">
-        <v>1.975858643188285e-18</v>
+        <v>0.0001741995960301874</v>
       </c>
       <c r="N13" t="n">
-        <v>-1.357950914947365e-18</v>
+        <v>-0.0003995763720469457</v>
       </c>
       <c r="O13" t="n">
-        <v>4.11677611147856e-18</v>
+        <v>0.0001072739186662811</v>
       </c>
       <c r="P13" t="n">
-        <v>3.061998965646183e-19</v>
+        <v>4.241800913070983e-05</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.25107388871035e-18</v>
+        <v>9.729781752616009e-05</v>
       </c>
       <c r="R13" t="n">
-        <v>-1.822089403079222e-16</v>
+        <v>0.0001142886858605279</v>
       </c>
       <c r="S13" t="n">
-        <v>2.248126013204231e-17</v>
+        <v>-0.0002334590476133944</v>
       </c>
       <c r="T13" t="n">
-        <v>3.172965824986415e-17</v>
+        <v>-3.429228997985494e-05</v>
       </c>
       <c r="U13" t="n">
-        <v>5.096098773166992e-17</v>
+        <v>-0.0001376930675648804</v>
       </c>
       <c r="V13" t="n">
-        <v>1.272870653504502e-17</v>
+        <v>0.0005037309300786058</v>
       </c>
       <c r="W13" t="n">
-        <v>2.564443090085199e-17</v>
+        <v>-3.924766517760296e-05</v>
       </c>
       <c r="X13" t="n">
-        <v>1.033556471223158e-18</v>
+        <v>-6.958059501682217e-05</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.145158816979649e-18</v>
+        <v>-0.0002091360895161582</v>
       </c>
       <c r="Z13" t="n">
-        <v>-2.674856738717085e-19</v>
+        <v>0.0002578039087886762</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.908324822885671e-17</v>
+        <v>-7.380443774571235e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>2.329076783362274e-18</v>
+        <v>3.397037461428601e-05</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.492987108973205e-18</v>
+        <v>-0.0001452533319372399</v>
       </c>
       <c r="AD13" t="n">
-        <v>-6.132034781310492e-18</v>
+        <v>0.0001766890213592016</v>
       </c>
       <c r="AE13" t="n">
-        <v>1.148830834412567e-17</v>
+        <v>-7.458922031190261e-05</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.077701363974743e-19</v>
+        <v>5.275247763382585e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.983311323903732e-18</v>
+        <v>-0.0001221796534716068</v>
       </c>
       <c r="AH13" t="n">
-        <v>5.200162940398799e-17</v>
+        <v>-6.580829577023781e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>-5.933756723342589e-18</v>
+        <v>-0.0007363228526325701</v>
       </c>
       <c r="AJ13" t="n">
-        <v>2.257094138429085e-18</v>
+        <v>-0.000196575159803734</v>
       </c>
       <c r="AK13" t="n">
-        <v>-1.284721676988606e-17</v>
+        <v>0.0001981667385002265</v>
       </c>
       <c r="AL13" t="n">
-        <v>5.150275074523298e-17</v>
+        <v>0.000530052428104713</v>
       </c>
       <c r="AM13" t="n">
-        <v>-5.080107895749152e-18</v>
+        <v>-0.000246549695441277</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.909706666169467e-18</v>
+        <v>-0.0001442107370915589</v>
       </c>
       <c r="AO13" t="n">
-        <v>-2.434329301952605e-17</v>
+        <v>-5.738948063004866e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>3.621117281073781e-17</v>
+        <v>0.0002601067252402717</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-5.154730422133643e-18</v>
+        <v>-0.0001642485840309623</v>
       </c>
       <c r="AR13" t="n">
-        <v>7.767441178062811e-18</v>
+        <v>-1.395338895941474e-05</v>
       </c>
       <c r="AS13" t="n">
-        <v>-2.562814723190435e-17</v>
+        <v>-5.23110844716494e-05</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.619991780871358e-17</v>
+        <v>0.0001858774959933383</v>
       </c>
       <c r="AU13" t="n">
-        <v>-6.18198398159948e-18</v>
+        <v>-0.0001143103217580227</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.124395265947914e-17</v>
+        <v>1.435799618851657e-05</v>
       </c>
       <c r="AW13" t="n">
-        <v>-2.399992184899628e-17</v>
+        <v>-7.011151867722117e-05</v>
       </c>
       <c r="AX13" t="n">
-        <v>2.254855575794018e-16</v>
+        <v>-0.0004264667967940048</v>
       </c>
       <c r="AY13" t="n">
-        <v>-2.016881280613513e-17</v>
+        <v>5.77292331510995e-05</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-1.272363162689549e-17</v>
+        <v>-1.837911910455632e-05</v>
       </c>
       <c r="BA13" t="n">
-        <v>-6.024822096665147e-17</v>
+        <v>0.0001000381288411034</v>
       </c>
       <c r="BB13" t="n">
-        <v>1.458756263977994e-16</v>
+        <v>-0.0002178869855760796</v>
       </c>
       <c r="BC13" t="n">
-        <v>-1.770326062225913e-17</v>
+        <v>8.627766153731088e-05</v>
       </c>
       <c r="BD13" t="n">
-        <v>4.221729037705183e-18</v>
+        <v>-3.784954780883978e-05</v>
       </c>
       <c r="BE13" t="n">
-        <v>-7.518066439088609e-17</v>
+        <v>9.977981017687423e-05</v>
       </c>
       <c r="BF13" t="n">
-        <v>1.042780418148685e-16</v>
+        <v>-0.0001485039658908128</v>
       </c>
       <c r="BG13" t="n">
-        <v>-1.670626415373184e-17</v>
+        <v>7.575048552442566e-05</v>
       </c>
       <c r="BH13" t="n">
-        <v>1.95288132004966e-17</v>
+        <v>-4.925874690211417e-05</v>
       </c>
       <c r="BI13" t="n">
-        <v>-7.677835574398287e-17</v>
+        <v>9.030254526872171e-05</v>
       </c>
       <c r="BJ13" t="n">
-        <v>7.650608026584854e-17</v>
+        <v>-0.0001054289674749679</v>
       </c>
       <c r="BK13" t="n">
-        <v>-1.800179381524212e-17</v>
+        <v>6.630138853474988e-05</v>
       </c>
       <c r="BL13" t="n">
-        <v>3.12195959161396e-17</v>
+        <v>-5.373156436809087e-05</v>
       </c>
       <c r="BM13" t="n">
-        <v>-7.132233385823511e-17</v>
+        <v>7.582441429277511e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>SouthAfrica</t>
+          <t>NewZealand</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0004886071866749847</v>
+        <v>-0.001844770950923809</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001283848457481581</v>
+        <v>-0.0005252721056858477</v>
       </c>
       <c r="D14" t="n">
-        <v>3.406586550309955e-05</v>
+        <v>0.0003409218328701549</v>
       </c>
       <c r="E14" t="n">
-        <v>9.207381014673889e-06</v>
+        <v>0.0002330757610616912</v>
       </c>
       <c r="F14" t="n">
-        <v>2.573085639575122e-06</v>
+        <v>-1.724212818082704e-05</v>
       </c>
       <c r="G14" t="n">
-        <v>7.607252799301883e-07</v>
+        <v>-6.382315009443081e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>2.447647361593976e-07</v>
+        <v>-1.532173342893182e-05</v>
       </c>
       <c r="I14" t="n">
-        <v>8.770279430492774e-08</v>
+        <v>1.13453294446733e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>3.513101090230767e-08</v>
+        <v>7.445738882396754e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>1.545034370378417e-08</v>
+        <v>-5.426226723386777e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>7.253264729847675e-09</v>
+        <v>-2.068992621807933e-06</v>
       </c>
       <c r="M14" t="n">
-        <v>3.543940979762612e-09</v>
+        <v>-5.12732290966494e-07</v>
       </c>
       <c r="N14" t="n">
-        <v>1.770973442444183e-09</v>
+        <v>3.671196111080049e-07</v>
       </c>
       <c r="O14" t="n">
-        <v>8.957339156397494e-10</v>
+        <v>2.463042958362792e-07</v>
       </c>
       <c r="P14" t="n">
-        <v>4.559147783215999e-10</v>
+        <v>-1.641541287521996e-08</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.328082859408469e-10</v>
+        <v>-6.804469817288168e-08</v>
       </c>
       <c r="R14" t="n">
-        <v>2.496327006937845e-06</v>
+        <v>-0.0001133302537582249</v>
       </c>
       <c r="S14" t="n">
-        <v>-5.682331730421668e-07</v>
+        <v>6.176850202814514e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>-7.715019618252645e-07</v>
+        <v>7.775046083533069e-05</v>
       </c>
       <c r="U14" t="n">
-        <v>-5.202035569562496e-07</v>
+        <v>-3.84137821911569e-06</v>
       </c>
       <c r="V14" t="n">
-        <v>-2.990171735677575e-07</v>
+        <v>-2.355009655523186e-05</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.616533375374161e-07</v>
+        <v>-4.887157153101229e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>-8.502246912397576e-08</v>
+        <v>4.661912561255115e-06</v>
       </c>
       <c r="Y14" t="n">
-        <v>-4.413399405905112e-08</v>
+        <v>2.531742451738756e-06</v>
       </c>
       <c r="Z14" t="n">
-        <v>-2.276139987217152e-08</v>
+        <v>-4.050999478932331e-07</v>
       </c>
       <c r="AA14" t="n">
-        <v>-1.170085283787316e-08</v>
+        <v>-7.530984410373949e-07</v>
       </c>
       <c r="AB14" t="n">
-        <v>-6.005195791404332e-09</v>
+        <v>-1.330804277500917e-07</v>
       </c>
       <c r="AC14" t="n">
-        <v>-3.079487157512642e-09</v>
+        <v>1.482424048777899e-07</v>
       </c>
       <c r="AD14" t="n">
-        <v>-1.578512625787981e-09</v>
+        <v>8.063886795178541e-08</v>
       </c>
       <c r="AE14" t="n">
-        <v>-8.089574243695408e-10</v>
+        <v>-1.229671792347337e-08</v>
       </c>
       <c r="AF14" t="n">
-        <v>-4.14530578592058e-10</v>
+        <v>-2.447248789122826e-08</v>
       </c>
       <c r="AG14" t="n">
-        <v>-2.124045354437271e-10</v>
+        <v>-4.56544120506658e-09</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.287828073714382e-06</v>
+        <v>-5.667059030262301e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>1.406487635531341e-05</v>
+        <v>-7.700705123095396e-05</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.626318550134779e-06</v>
+        <v>9.594216730967735e-06</v>
       </c>
       <c r="AK14" t="n">
-        <v>5.561490172935452e-06</v>
+        <v>2.803950025104307e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>3.013165776322726e-06</v>
+        <v>3.905105476336399e-06</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.586402440051808e-06</v>
+        <v>-6.377551473475951e-06</v>
       </c>
       <c r="AN14" t="n">
-        <v>8.238878273427711e-07</v>
+        <v>-2.7022878622261e-06</v>
       </c>
       <c r="AO14" t="n">
-        <v>4.25011697065221e-07</v>
+        <v>8.11315604061255e-07</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.185109592522193e-07</v>
+        <v>9.0990211657568e-07</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.121527792101218e-07</v>
+        <v>7.704588312011679e-08</v>
       </c>
       <c r="AR14" t="n">
-        <v>5.751419105251429e-08</v>
+        <v>-2.041939543765025e-07</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.9481640605523e-08</v>
+        <v>-8.38222479122803e-08</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.510889793858584e-08</v>
+        <v>2.539247819533712e-08</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.742219648934273e-09</v>
+        <v>2.93979280798473e-08</v>
       </c>
       <c r="AV14" t="n">
-        <v>3.967104234113454e-09</v>
+        <v>2.788849651512442e-09</v>
       </c>
       <c r="AW14" t="n">
-        <v>2.032681165518262e-09</v>
+        <v>-6.63498330535317e-09</v>
       </c>
       <c r="AX14" t="n">
-        <v>-4.283023336123716e-05</v>
+        <v>0.0001211065616595247</v>
       </c>
       <c r="AY14" t="n">
-        <v>-2.180392914491935e-05</v>
+        <v>-5.644049836517429e-06</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-1.113500356050127e-05</v>
+        <v>-5.596391993309508e-06</v>
       </c>
       <c r="BA14" t="n">
-        <v>-5.695699050045989e-06</v>
+        <v>2.877367434362951e-06</v>
       </c>
       <c r="BB14" t="n">
-        <v>-2.91582092387228e-06</v>
+        <v>-8.421779942545265e-07</v>
       </c>
       <c r="BC14" t="n">
-        <v>-1.493331623091798e-06</v>
+        <v>-1.161251283345174e-06</v>
       </c>
       <c r="BD14" t="n">
-        <v>-7.649691648059772e-07</v>
+        <v>2.097624600738905e-07</v>
       </c>
       <c r="BE14" t="n">
-        <v>-3.919028667985148e-07</v>
+        <v>3.587253349032454e-07</v>
       </c>
       <c r="BF14" t="n">
-        <v>-2.007875270724512e-07</v>
+        <v>1.967952983374167e-08</v>
       </c>
       <c r="BG14" t="n">
-        <v>-1.028743470060837e-07</v>
+        <v>-8.265640519933747e-08</v>
       </c>
       <c r="BH14" t="n">
-        <v>-5.270885454377946e-08</v>
+        <v>-2.67910906370393e-08</v>
       </c>
       <c r="BI14" t="n">
-        <v>-2.700618101856199e-08</v>
+        <v>1.214086002229205e-08</v>
       </c>
       <c r="BJ14" t="n">
-        <v>-1.383707670296621e-08</v>
+        <v>1.022182575146466e-08</v>
       </c>
       <c r="BK14" t="n">
-        <v>-7.089674938789731e-09</v>
+        <v>1.948365182048541e-10</v>
       </c>
       <c r="BL14" t="n">
-        <v>-3.632525775383655e-09</v>
+        <v>-2.506111877177766e-09</v>
       </c>
       <c r="BM14" t="n">
-        <v>-1.861192493354593e-09</v>
+        <v>-8.481686077771498e-10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Uruguay</t>
+          <t>Peru</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.002684837924965605</v>
+        <v>3.350854589930979e-16</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.001030210162049437</v>
+        <v>8.57641546884664e-17</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0005409276678340413</v>
+        <v>5.827727981547471e-18</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0007093285178104128</v>
+        <v>-4.620780776611795e-17</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0006818069730132979</v>
+        <v>2.751924501713556e-19</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.0004703228548317074</v>
+        <v>1.813586247263823e-17</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.000745735711351515</v>
+        <v>1.389945995986441e-17</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0005223794993428616</v>
+        <v>3.230587888701884e-18</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0003737394419430133</v>
+        <v>-1.134100148960023e-18</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0003169856492798228</v>
+        <v>5.378990089184732e-18</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0001086798641678745</v>
+        <v>1.72624826750084e-18</v>
       </c>
       <c r="M15" t="n">
-        <v>-0.0003199297818909044</v>
+        <v>1.975858643188285e-18</v>
       </c>
       <c r="N15" t="n">
-        <v>-5.124044986039787e-05</v>
+        <v>-1.357950914947365e-18</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.0001103777368566666</v>
+        <v>4.11677611147856e-18</v>
       </c>
       <c r="P15" t="n">
-        <v>5.035627457225896e-05</v>
+        <v>3.061998965646183e-19</v>
       </c>
       <c r="Q15" t="n">
-        <v>-4.115054699897561e-05</v>
+        <v>1.25107388871035e-18</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.0005773481470784791</v>
+        <v>-1.822089403079222e-16</v>
       </c>
       <c r="S15" t="n">
-        <v>0.000113098764525269</v>
+        <v>2.248126013204231e-17</v>
       </c>
       <c r="T15" t="n">
-        <v>0.0002769120813254084</v>
+        <v>3.172965824986415e-17</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0002176618141737224</v>
+        <v>5.096098773166992e-17</v>
       </c>
       <c r="V15" t="n">
-        <v>-8.099160497194758e-05</v>
+        <v>1.272870653504502e-17</v>
       </c>
       <c r="W15" t="n">
-        <v>-3.651465845362142e-05</v>
+        <v>2.564443090085199e-17</v>
       </c>
       <c r="X15" t="n">
-        <v>-6.767072253423078e-05</v>
+        <v>1.033556471223158e-18</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.859694645355165e-05</v>
+        <v>5.145158816979649e-18</v>
       </c>
       <c r="Z15" t="n">
-        <v>-2.971569119001488e-05</v>
+        <v>-2.674856738717085e-19</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.0001224798401115482</v>
+        <v>1.908324822885671e-17</v>
       </c>
       <c r="AB15" t="n">
-        <v>3.093387646007566e-05</v>
+        <v>2.329076783362274e-18</v>
       </c>
       <c r="AC15" t="n">
-        <v>-1.21726315035291e-05</v>
+        <v>2.492987108973205e-18</v>
       </c>
       <c r="AD15" t="n">
-        <v>-0.0001213941460409097</v>
+        <v>-6.132034781310492e-18</v>
       </c>
       <c r="AE15" t="n">
-        <v>4.99154435874827e-05</v>
+        <v>1.148830834412567e-17</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.46961529117875e-05</v>
+        <v>5.077701363974743e-19</v>
       </c>
       <c r="AG15" t="n">
-        <v>4.151268222401253e-05</v>
+        <v>2.983311323903732e-18</v>
       </c>
       <c r="AH15" t="n">
-        <v>-0.001040146206837731</v>
+        <v>5.200162940398799e-17</v>
       </c>
       <c r="AI15" t="n">
-        <v>-0.0003562948433662743</v>
+        <v>-5.933756723342589e-18</v>
       </c>
       <c r="AJ15" t="n">
-        <v>-8.294279399410485e-05</v>
+        <v>2.257094138429085e-18</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.0003811850832178101</v>
+        <v>-1.284721676988606e-17</v>
       </c>
       <c r="AL15" t="n">
-        <v>-0.0006883464522176652</v>
+        <v>5.150275074523298e-17</v>
       </c>
       <c r="AM15" t="n">
-        <v>-0.0001202505060505328</v>
+        <v>-5.080107895749152e-18</v>
       </c>
       <c r="AN15" t="n">
-        <v>-2.1750533690804e-05</v>
+        <v>2.909706666169467e-18</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.0003175771916211763</v>
+        <v>-2.434329301952605e-17</v>
       </c>
       <c r="AP15" t="n">
-        <v>-0.0005744357078888721</v>
+        <v>3.621117281073781e-17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-4.030276892064774e-05</v>
+        <v>-5.154730422133643e-18</v>
       </c>
       <c r="AR15" t="n">
-        <v>6.178545324442914e-05</v>
+        <v>7.767441178062811e-18</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0003420260482801652</v>
+        <v>-2.562814723190435e-17</v>
       </c>
       <c r="AT15" t="n">
-        <v>-0.0004804002394411688</v>
+        <v>2.619991780871358e-17</v>
       </c>
       <c r="AU15" t="n">
-        <v>-4.612055924124274e-05</v>
+        <v>-6.18198398159948e-18</v>
       </c>
       <c r="AV15" t="n">
-        <v>5.169321626193795e-05</v>
+        <v>1.124395265947914e-17</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.0003269560747704425</v>
+        <v>-2.399992184899628e-17</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.0003797286489191955</v>
+        <v>2.254855575794018e-16</v>
       </c>
       <c r="AY15" t="n">
-        <v>-0.0001576335622625486</v>
+        <v>-2.016881280613513e-17</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-5.710439578717554e-05</v>
+        <v>-1.272363162689549e-17</v>
       </c>
       <c r="BA15" t="n">
-        <v>1.754753222002368e-05</v>
+        <v>-6.024822096665147e-17</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.0003211407345764097</v>
+        <v>1.458756263977994e-16</v>
       </c>
       <c r="BC15" t="n">
-        <v>-0.0001432468515826733</v>
+        <v>-1.770326062225913e-17</v>
       </c>
       <c r="BD15" t="n">
-        <v>-7.880721077708461e-05</v>
+        <v>4.221729037705183e-18</v>
       </c>
       <c r="BE15" t="n">
-        <v>-1.951433371021851e-05</v>
+        <v>-7.518066439088609e-17</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.0002684943928917021</v>
+        <v>1.042780418148685e-16</v>
       </c>
       <c r="BG15" t="n">
-        <v>-0.0001205780760755438</v>
+        <v>-1.670626415373184e-17</v>
       </c>
       <c r="BH15" t="n">
-        <v>-6.7762345778202e-05</v>
+        <v>1.95288132004966e-17</v>
       </c>
       <c r="BI15" t="n">
-        <v>-2.638520243591225e-05</v>
+        <v>-7.677835574398287e-17</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.0002248632769197115</v>
+        <v>7.650608026584854e-17</v>
       </c>
       <c r="BK15" t="n">
-        <v>-0.0001096884166562223</v>
+        <v>-1.800179381524212e-17</v>
       </c>
       <c r="BL15" t="n">
-        <v>-6.300118544566062e-05</v>
+        <v>3.12195959161396e-17</v>
       </c>
       <c r="BM15" t="n">
-        <v>-2.708541722459698e-05</v>
+        <v>-7.132233385823511e-17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.011542484778405</v>
+        <v>-0.01396051345341312</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0027841987228592</v>
+        <v>-0.002158976928164716</v>
       </c>
       <c r="D16" t="n">
-        <v>0.002301219534904933</v>
+        <v>0.003116494644317403</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002141423800213681</v>
+        <v>0.002192089939542271</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005921746221370563</v>
+        <v>0.001487031770628142</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0002239874546006131</v>
+        <v>-0.0005671184083243523</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.0005088516293779625</v>
+        <v>-0.001265750274180509</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.000129993192646906</v>
+        <v>-0.0004040237840816947</v>
       </c>
       <c r="J16" t="n">
-        <v>-4.701432280172318e-05</v>
+        <v>0.0002912140634641279</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001531824945621654</v>
+        <v>0.0002589337520266327</v>
       </c>
       <c r="L16" t="n">
-        <v>3.274053524201541e-05</v>
+        <v>1.566441433938606e-05</v>
       </c>
       <c r="M16" t="n">
-        <v>4.693302467361065e-05</v>
+        <v>-4.385363863131341e-06</v>
       </c>
       <c r="N16" t="n">
-        <v>-9.884565423113951e-05</v>
+        <v>7.323272804820467e-05</v>
       </c>
       <c r="O16" t="n">
-        <v>2.750999595005686e-05</v>
+        <v>-8.87079396244289e-05</v>
       </c>
       <c r="P16" t="n">
-        <v>-9.185148750313485e-06</v>
+        <v>-0.000152722109937445</v>
       </c>
       <c r="Q16" t="n">
-        <v>4.277207210603171e-05</v>
+        <v>3.810932301609093e-05</v>
       </c>
       <c r="R16" t="n">
-        <v>2.927095768189455e-05</v>
+        <v>-0.0002139685894622191</v>
       </c>
       <c r="S16" t="n">
-        <v>-2.827039696738755e-05</v>
+        <v>8.76301931360159e-05</v>
       </c>
       <c r="T16" t="n">
-        <v>7.199866608422091e-05</v>
+        <v>0.0001226768641403904</v>
       </c>
       <c r="U16" t="n">
-        <v>-9.343602087913911e-05</v>
+        <v>8.401365196164062e-06</v>
       </c>
       <c r="V16" t="n">
-        <v>9.682269192847693e-05</v>
+        <v>-7.700029338406603e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>-1.716045447717832e-05</v>
+        <v>4.260461600450783e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>1.465288959506389e-05</v>
+        <v>3.739630515009481e-05</v>
       </c>
       <c r="Y16" t="n">
-        <v>-9.123390297232556e-05</v>
+        <v>-1.433675737670788e-05</v>
       </c>
       <c r="Z16" t="n">
-        <v>8.084489299605205e-05</v>
+        <v>-7.584249789264906e-05</v>
       </c>
       <c r="AA16" t="n">
-        <v>-4.154051843094286e-06</v>
+        <v>5.330356006443507e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.852982629980063e-06</v>
+        <v>4.33782974644208e-05</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.402035332472659e-05</v>
+        <v>-1.264869908348796e-05</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.795508548853205e-05</v>
+        <v>-7.686769145436746e-05</v>
       </c>
       <c r="AE16" t="n">
-        <v>-1.682158804288142e-08</v>
+        <v>4.664935348882033e-05</v>
       </c>
       <c r="AF16" t="n">
-        <v>-6.750677671356846e-07</v>
+        <v>3.738901090664405e-05</v>
       </c>
       <c r="AG16" t="n">
-        <v>-6.043109658519211e-05</v>
+        <v>-8.765036897952209e-06</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.0004655613126746067</v>
+        <v>-0.0004521498910312746</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.001077245638825984</v>
+        <v>-0.0002621452860699645</v>
       </c>
       <c r="AJ16" t="n">
-        <v>-0.0002277071482222299</v>
+        <v>8.715320815176587e-05</v>
       </c>
       <c r="AK16" t="n">
-        <v>-1.152386659833562e-05</v>
+        <v>1.026038065505312e-05</v>
       </c>
       <c r="AL16" t="n">
-        <v>0.0004122535513756173</v>
+        <v>-0.0002313720854066402</v>
       </c>
       <c r="AM16" t="n">
-        <v>-0.0003943887749922669</v>
+        <v>-5.848951006772484e-07</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.0001073968974709503</v>
+        <v>0.0001723622650875499</v>
       </c>
       <c r="AO16" t="n">
-        <v>4.760599359832952e-05</v>
+        <v>2.30397345042161e-05</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.0002444628182660329</v>
+        <v>-0.0002305859267309316</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-0.0004010216038687176</v>
+        <v>-7.676493391619687e-06</v>
       </c>
       <c r="AR16" t="n">
-        <v>7.133973243068994e-05</v>
+        <v>0.0001707335949599321</v>
       </c>
       <c r="AS16" t="n">
-        <v>9.283727904658188e-05</v>
+        <v>4.288379770602197e-05</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.000203597807405603</v>
+        <v>-0.0002023575145804124</v>
       </c>
       <c r="AU16" t="n">
-        <v>-0.0003438838005736204</v>
+        <v>-2.8840304993375e-06</v>
       </c>
       <c r="AV16" t="n">
-        <v>5.113010050716808e-05</v>
+        <v>0.0001533864352618064</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.0001051058543844435</v>
+        <v>3.983948602330101e-05</v>
       </c>
       <c r="AX16" t="n">
-        <v>-0.0006748241701191055</v>
+        <v>0.0001594425700768687</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.0003646681919455549</v>
+        <v>-6.271483753174544e-05</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.0001947409761920276</v>
+        <v>-2.745786114883133e-05</v>
       </c>
       <c r="BA16" t="n">
-        <v>1.555615497352041e-05</v>
+        <v>-2.58022146100628e-05</v>
       </c>
       <c r="BB16" t="n">
-        <v>-0.0005526652965100798</v>
+        <v>0.0001395704320665578</v>
       </c>
       <c r="BC16" t="n">
-        <v>0.0003358789764750778</v>
+        <v>-6.944265506908824e-05</v>
       </c>
       <c r="BD16" t="n">
-        <v>0.0002047805413076573</v>
+        <v>-2.65116009081893e-05</v>
       </c>
       <c r="BE16" t="n">
-        <v>-3.051307395688114e-05</v>
+        <v>-3.2987028249834e-05</v>
       </c>
       <c r="BF16" t="n">
-        <v>-0.0004725934012406942</v>
+        <v>0.0001303618711053087</v>
       </c>
       <c r="BG16" t="n">
-        <v>0.0003004052208258338</v>
+        <v>-7.035803289000637e-05</v>
       </c>
       <c r="BH16" t="n">
-        <v>0.0002014713609796367</v>
+        <v>-2.062965602868131e-05</v>
       </c>
       <c r="BI16" t="n">
-        <v>-6.477199607115762e-05</v>
+        <v>-3.580223137803959e-05</v>
       </c>
       <c r="BJ16" t="n">
-        <v>-0.0004043887779086576</v>
+        <v>0.0001244436778162422</v>
       </c>
       <c r="BK16" t="n">
-        <v>0.0002718675192607903</v>
+        <v>-6.983709384066289e-05</v>
       </c>
       <c r="BL16" t="n">
-        <v>0.0001930787607812153</v>
+        <v>-1.44794592640089e-05</v>
       </c>
       <c r="BM16" t="n">
-        <v>-8.979418418545809e-05</v>
+        <v>-3.804509305107701e-05</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.000723789783913524</v>
+        <v>-0.01247208884926686</v>
       </c>
       <c r="C17" t="n">
-        <v>5.337551159147233e-05</v>
+        <v>-0.00259761964084626</v>
       </c>
       <c r="D17" t="n">
-        <v>3.512206109297829e-06</v>
+        <v>0.002638595304687448</v>
       </c>
       <c r="E17" t="n">
-        <v>1.190632137910052e-09</v>
+        <v>0.0009920467579371678</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.397434351554525e-07</v>
+        <v>0.001216174927293032</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.503050745970242e-08</v>
+        <v>0.0002624441670718364</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.612112489947368e-08</v>
+        <v>-0.0006720277498249276</v>
       </c>
       <c r="I17" t="n">
-        <v>-2.464715724395904e-08</v>
+        <v>-0.0004875059774716816</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.314422907094899e-08</v>
+        <v>-8.083789496883309e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>-7.007726464997723e-09</v>
+        <v>9.176121959758774e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>-3.735952969871812e-09</v>
+        <v>0.0001698980105675226</v>
       </c>
       <c r="M17" t="n">
-        <v>-1.991696498388372e-09</v>
+        <v>-3.311562280129565e-05</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.061804514380514e-09</v>
+        <v>-1.537541308267224e-05</v>
       </c>
       <c r="O17" t="n">
-        <v>-5.660645079103802e-10</v>
+        <v>1.431132176642492e-05</v>
       </c>
       <c r="P17" t="n">
-        <v>-3.017777920861969e-10</v>
+        <v>2.286913359563256e-05</v>
       </c>
       <c r="Q17" t="n">
-        <v>-1.608824335711787e-10</v>
+        <v>-9.53394647484344e-05</v>
       </c>
       <c r="R17" t="n">
-        <v>-1.459646503581326e-05</v>
+        <v>0.0002002638726802537</v>
       </c>
       <c r="S17" t="n">
-        <v>5.720428061091758e-06</v>
+        <v>-2.213630224083552e-05</v>
       </c>
       <c r="T17" t="n">
-        <v>4.062565534814152e-06</v>
+        <v>-6.800807606188626e-05</v>
       </c>
       <c r="U17" t="n">
-        <v>2.241805399288638e-06</v>
+        <v>-9.741205056791617e-05</v>
       </c>
       <c r="V17" t="n">
-        <v>1.200841944617782e-06</v>
+        <v>2.798086190531927e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>6.406151719115035e-07</v>
+        <v>8.424003184928677e-06</v>
       </c>
       <c r="X17" t="n">
-        <v>3.415539922658561e-07</v>
+        <v>1.520301477943099e-05</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.820901511690555e-07</v>
+        <v>-5.812359905015329e-05</v>
       </c>
       <c r="Z17" t="n">
-        <v>9.707527159292597e-08</v>
+        <v>4.525870483142159e-05</v>
       </c>
       <c r="AA17" t="n">
-        <v>5.175235032189647e-08</v>
+        <v>4.31399635195741e-06</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.758998370569106e-08</v>
+        <v>2.254414589747095e-06</v>
       </c>
       <c r="AC17" t="n">
-        <v>1.470864940538075e-08</v>
+        <v>-5.993076396724966e-05</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.841409718639324e-09</v>
+        <v>4.564605490101856e-05</v>
       </c>
       <c r="AE17" t="n">
-        <v>4.180377452911712e-09</v>
+        <v>8.175044173947464e-06</v>
       </c>
       <c r="AF17" t="n">
-        <v>2.228624223745305e-09</v>
+        <v>5.593691593324939e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>1.188114228092796e-09</v>
+        <v>-5.75028671031397e-05</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.147046921577e-05</v>
+        <v>-0.001256261703832377</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.244133414807385e-05</v>
+        <v>-0.0008740648352823547</v>
       </c>
       <c r="AJ17" t="n">
-        <v>7.10726108042742e-06</v>
+        <v>-7.418262798252811e-05</v>
       </c>
       <c r="AK17" t="n">
-        <v>3.824595109534211e-06</v>
+        <v>0.0003027655472340206</v>
       </c>
       <c r="AL17" t="n">
-        <v>2.041622098937219e-06</v>
+        <v>-0.0005449009143138616</v>
       </c>
       <c r="AM17" t="n">
-        <v>1.088620862882315e-06</v>
+        <v>-0.0001984661406391989</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.803757417881756e-07</v>
+        <v>0.0002101150711138262</v>
       </c>
       <c r="AO17" t="n">
-        <v>3.094084603084102e-07</v>
+        <v>0.0003614353137033742</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.649505459949991e-07</v>
+        <v>-0.0005285302493241101</v>
       </c>
       <c r="AQ17" t="n">
-        <v>8.793770734610781e-08</v>
+        <v>-0.0002020825545661648</v>
       </c>
       <c r="AR17" t="n">
-        <v>4.688095966625943e-08</v>
+        <v>0.0002347523294704575</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.499296861810585e-08</v>
+        <v>0.0004065816175649672</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.332414020586062e-08</v>
+        <v>-0.0004701207687498053</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.10330633017084e-09</v>
+        <v>-0.0001832008749232752</v>
       </c>
       <c r="AV17" t="n">
-        <v>3.786883058827668e-09</v>
+        <v>0.0002286744828867091</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.018846243512917e-09</v>
+        <v>0.0003994082600885816</v>
       </c>
       <c r="AX17" t="n">
-        <v>-0.0001861341407346146</v>
+        <v>-0.0004548468475511107</v>
       </c>
       <c r="AY17" t="n">
-        <v>-9.94879078076802e-05</v>
+        <v>0.0001590320777461168</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-5.305782341219773e-05</v>
+        <v>9.964096594063287e-05</v>
       </c>
       <c r="BA17" t="n">
-        <v>-2.828739652716761e-05</v>
+        <v>6.237090350537208e-05</v>
       </c>
       <c r="BB17" t="n">
-        <v>-1.508055941462212e-05</v>
+        <v>-0.0004074161715356444</v>
       </c>
       <c r="BC17" t="n">
-        <v>-8.039688858987654e-06</v>
+        <v>0.0001728257074874928</v>
       </c>
       <c r="BD17" t="n">
-        <v>-4.286083755819537e-06</v>
+        <v>0.0001177684775808738</v>
       </c>
       <c r="BE17" t="n">
-        <v>-2.284977943288148e-06</v>
+        <v>7.989876589982197e-05</v>
       </c>
       <c r="BF17" t="n">
-        <v>-1.218157275696945e-06</v>
+        <v>-0.0003838305218304846</v>
       </c>
       <c r="BG17" t="n">
-        <v>-6.494185858975684e-07</v>
+        <v>0.0001703822668606232</v>
       </c>
       <c r="BH17" t="n">
-        <v>-3.462151464178403e-07</v>
+        <v>0.0001195045992095789</v>
       </c>
       <c r="BI17" t="n">
-        <v>-1.845726780943726e-07</v>
+        <v>8.351151675609915e-05</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-9.839856473981063e-08</v>
+        <v>-0.0003702745382049986</v>
       </c>
       <c r="BK17" t="n">
-        <v>-5.245780492980071e-08</v>
+        <v>0.0001623778177596557</v>
       </c>
       <c r="BL17" t="n">
-        <v>-2.796607151058687e-08</v>
+        <v>0.0001179953505449426</v>
       </c>
       <c r="BM17" t="n">
-        <v>-1.490914758598564e-08</v>
+        <v>8.510404194021317e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Colombia</t>
+          <t>SouthAfrica</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01129781201639208</v>
+        <v>0.0004886071866749847</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.003750672387688495</v>
+        <v>0.0001283848457481581</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002158064106622794</v>
+        <v>3.406586550309955e-05</v>
       </c>
       <c r="E18" t="n">
-        <v>0.001491596504195784</v>
+        <v>9.207381014673889e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.000304332099853026</v>
+        <v>2.573085639575122e-06</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0004789439704000658</v>
+        <v>7.607252799301883e-07</v>
       </c>
       <c r="H18" t="n">
-        <v>-1.282572921602585e-05</v>
+        <v>2.447647361593976e-07</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001314598047460085</v>
+        <v>8.770279430492774e-08</v>
       </c>
       <c r="J18" t="n">
-        <v>3.042860567636523e-05</v>
+        <v>3.513101090230767e-08</v>
       </c>
       <c r="K18" t="n">
-        <v>-3.057543079262467e-05</v>
+        <v>1.545034370378417e-08</v>
       </c>
       <c r="L18" t="n">
-        <v>-1.476077933801122e-05</v>
+        <v>7.253264729847675e-09</v>
       </c>
       <c r="M18" t="n">
-        <v>5.542680556365517e-06</v>
+        <v>3.543940979762612e-09</v>
       </c>
       <c r="N18" t="n">
-        <v>5.263039408915522e-06</v>
+        <v>1.770973442444183e-09</v>
       </c>
       <c r="O18" t="n">
-        <v>-4.763702841943097e-07</v>
+        <v>8.957339156397494e-10</v>
       </c>
       <c r="P18" t="n">
-        <v>-1.57025395022482e-06</v>
+        <v>4.559147783215999e-10</v>
       </c>
       <c r="Q18" t="n">
-        <v>-1.873661431387835e-07</v>
+        <v>2.328082859408469e-10</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.0005645770715270606</v>
+        <v>2.496327006937845e-06</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0003021183309953039</v>
+        <v>-5.682331730421668e-07</v>
       </c>
       <c r="T18" t="n">
-        <v>0.0003742726520876313</v>
+        <v>-7.715019618252645e-07</v>
       </c>
       <c r="U18" t="n">
-        <v>-1.944201629540598e-05</v>
+        <v>-5.202035569562496e-07</v>
       </c>
       <c r="V18" t="n">
-        <v>-0.0001041285260479386</v>
+        <v>-2.990171735677575e-07</v>
       </c>
       <c r="W18" t="n">
-        <v>-1.664257147428668e-05</v>
+        <v>-1.616533375374161e-07</v>
       </c>
       <c r="X18" t="n">
-        <v>2.594155761011319e-05</v>
+        <v>-8.502246912397576e-08</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.913737467874904e-06</v>
+        <v>-4.413399405905112e-08</v>
       </c>
       <c r="Z18" t="n">
-        <v>-5.226207041402771e-06</v>
+        <v>-2.276139987217152e-08</v>
       </c>
       <c r="AA18" t="n">
-        <v>-3.843943136011078e-06</v>
+        <v>-1.170085283787316e-08</v>
       </c>
       <c r="AB18" t="n">
-        <v>6.780751532796277e-07</v>
+        <v>-6.005195791404332e-09</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.214184479316006e-06</v>
+        <v>-3.079487157512642e-09</v>
       </c>
       <c r="AD18" t="n">
-        <v>5.821836531727477e-08</v>
+        <v>-1.578512625787981e-09</v>
       </c>
       <c r="AE18" t="n">
-        <v>-3.279285778987807e-07</v>
+        <v>-8.089574243695408e-10</v>
       </c>
       <c r="AF18" t="n">
-        <v>-8.32643006229574e-08</v>
+        <v>-4.14530578592058e-10</v>
       </c>
       <c r="AG18" t="n">
-        <v>7.477224194626928e-08</v>
+        <v>-2.124045354437271e-10</v>
       </c>
       <c r="AH18" t="n">
-        <v>-0.0004656474233849604</v>
+        <v>9.287828073714382e-06</v>
       </c>
       <c r="AI18" t="n">
-        <v>-0.0002385255865849153</v>
+        <v>1.406487635531341e-05</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2.078972274810803e-05</v>
+        <v>9.626318550134779e-06</v>
       </c>
       <c r="AK18" t="n">
-        <v>7.588071470848605e-05</v>
+        <v>5.561490172935452e-06</v>
       </c>
       <c r="AL18" t="n">
-        <v>7.818379039415234e-06</v>
+        <v>3.013165776322726e-06</v>
       </c>
       <c r="AM18" t="n">
-        <v>-1.930261675328244e-05</v>
+        <v>1.586402440051808e-06</v>
       </c>
       <c r="AN18" t="n">
-        <v>-6.211235135160237e-06</v>
+        <v>8.238878273427711e-07</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.150944957357818e-06</v>
+        <v>4.25011697065221e-07</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.582219085262826e-06</v>
+        <v>2.185109592522193e-07</v>
       </c>
       <c r="AQ18" t="n">
-        <v>-6.335220994128412e-07</v>
+        <v>1.121527792101218e-07</v>
       </c>
       <c r="AR18" t="n">
-        <v>-8.522534149296273e-07</v>
+        <v>5.751419105251429e-08</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.291636492048402e-09</v>
+        <v>2.9481640605523e-08</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.391831361992723e-07</v>
+        <v>1.510889793858584e-08</v>
       </c>
       <c r="AU18" t="n">
-        <v>4.792837243806067e-08</v>
+        <v>7.742219648934273e-09</v>
       </c>
       <c r="AV18" t="n">
-        <v>-5.715229777192262e-08</v>
+        <v>3.967104234113454e-09</v>
       </c>
       <c r="AW18" t="n">
-        <v>-2.508563611103822e-08</v>
+        <v>2.032681165518262e-09</v>
       </c>
       <c r="AX18" t="n">
-        <v>8.65852086728806e-05</v>
+        <v>-4.283023336123716e-05</v>
       </c>
       <c r="AY18" t="n">
-        <v>-1.985081832440554e-05</v>
+        <v>-2.180392914491935e-05</v>
       </c>
       <c r="AZ18" t="n">
-        <v>2.096914348264309e-05</v>
+        <v>-1.113500356050127e-05</v>
       </c>
       <c r="BA18" t="n">
-        <v>2.765628338221829e-06</v>
+        <v>-5.695699050045989e-06</v>
       </c>
       <c r="BB18" t="n">
-        <v>-3.397483427823654e-06</v>
+        <v>-2.91582092387228e-06</v>
       </c>
       <c r="BC18" t="n">
-        <v>-1.855720689008862e-06</v>
+        <v>-1.493331623091798e-06</v>
       </c>
       <c r="BD18" t="n">
-        <v>6.602654985352343e-07</v>
+        <v>-7.649691648059772e-07</v>
       </c>
       <c r="BE18" t="n">
-        <v>6.350025691244352e-07</v>
+        <v>-3.919028667985148e-07</v>
       </c>
       <c r="BF18" t="n">
-        <v>-5.084864263971351e-08</v>
+        <v>-2.007875270724512e-07</v>
       </c>
       <c r="BG18" t="n">
-        <v>-1.890377156836957e-07</v>
+        <v>-1.028743470060837e-07</v>
       </c>
       <c r="BH18" t="n">
-        <v>-2.416937281539293e-08</v>
+        <v>-5.270885454377946e-08</v>
       </c>
       <c r="BI18" t="n">
-        <v>4.792449340720134e-08</v>
+        <v>-2.700618101856199e-08</v>
       </c>
       <c r="BJ18" t="n">
-        <v>1.656174732145007e-08</v>
+        <v>-1.383707670296621e-08</v>
       </c>
       <c r="BK18" t="n">
-        <v>-1.003246554819092e-08</v>
+        <v>-7.089674938789731e-09</v>
       </c>
       <c r="BL18" t="n">
-        <v>-6.683544751776286e-09</v>
+        <v>-3.632525775383655e-09</v>
       </c>
       <c r="BM18" t="n">
-        <v>1.442717313373361e-09</v>
+        <v>-1.861192493354593e-09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Uruguay</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01340195179942198</v>
+        <v>-0.002684837924965605</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.00215910423311057</v>
+        <v>-0.001030210162049437</v>
       </c>
       <c r="D19" t="n">
-        <v>0.004320808062186363</v>
+        <v>0.0005409276678340413</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001239627817110118</v>
+        <v>0.0007093285178104128</v>
       </c>
       <c r="F19" t="n">
-        <v>3.44205137102013e-05</v>
+        <v>0.0006818069730132979</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0008204165520472403</v>
+        <v>-0.0004703228548317074</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0002700300836826422</v>
+        <v>-0.000745735711351515</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0005316160576060891</v>
+        <v>-0.0005223794993428616</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0006767830446146051</v>
+        <v>0.0003737394419430133</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003289585658482285</v>
+        <v>0.0003169856492798228</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003543857914316529</v>
+        <v>0.0001086798641678745</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0001741995960301874</v>
+        <v>-0.0003199297818909044</v>
       </c>
       <c r="N19" t="n">
-        <v>-0.0003995763720469457</v>
+        <v>-5.124044986039787e-05</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0001072739186662811</v>
+        <v>-0.0001103777368566666</v>
       </c>
       <c r="P19" t="n">
-        <v>4.241800913070983e-05</v>
+        <v>5.035627457225896e-05</v>
       </c>
       <c r="Q19" t="n">
-        <v>9.729781752616009e-05</v>
+        <v>-4.115054699897561e-05</v>
       </c>
       <c r="R19" t="n">
-        <v>0.0001142886858605279</v>
+        <v>-0.0005773481470784791</v>
       </c>
       <c r="S19" t="n">
-        <v>-0.0002334590476133944</v>
+        <v>0.000113098764525269</v>
       </c>
       <c r="T19" t="n">
-        <v>-3.429228997985494e-05</v>
+        <v>0.0002769120813254084</v>
       </c>
       <c r="U19" t="n">
-        <v>-0.0001376930675648804</v>
+        <v>0.0002176618141737224</v>
       </c>
       <c r="V19" t="n">
-        <v>0.0005037309300786058</v>
+        <v>-8.099160497194758e-05</v>
       </c>
       <c r="W19" t="n">
-        <v>-3.924766517760296e-05</v>
+        <v>-3.651465845362142e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>-6.958059501682217e-05</v>
+        <v>-6.767072253423078e-05</v>
       </c>
       <c r="Y19" t="n">
-        <v>-0.0002091360895161582</v>
+        <v>2.859694645355165e-05</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.0002578039087886762</v>
+        <v>-2.971569119001488e-05</v>
       </c>
       <c r="AA19" t="n">
-        <v>-7.380443774571235e-05</v>
+        <v>0.0001224798401115482</v>
       </c>
       <c r="AB19" t="n">
-        <v>3.397037461428601e-05</v>
+        <v>3.093387646007566e-05</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.0001452533319372399</v>
+        <v>-1.21726315035291e-05</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.0001766890213592016</v>
+        <v>-0.0001213941460409097</v>
       </c>
       <c r="AE19" t="n">
-        <v>-7.458922031190261e-05</v>
+        <v>4.99154435874827e-05</v>
       </c>
       <c r="AF19" t="n">
-        <v>5.275247763382585e-05</v>
+        <v>4.46961529117875e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>-0.0001221796534716068</v>
+        <v>4.151268222401253e-05</v>
       </c>
       <c r="AH19" t="n">
-        <v>-6.580829577023781e-05</v>
+        <v>-0.001040146206837731</v>
       </c>
       <c r="AI19" t="n">
-        <v>-0.0007363228526325701</v>
+        <v>-0.0003562948433662743</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-0.000196575159803734</v>
+        <v>-8.294279399410485e-05</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.0001981667385002265</v>
+        <v>0.0003811850832178101</v>
       </c>
       <c r="AL19" t="n">
-        <v>0.000530052428104713</v>
+        <v>-0.0006883464522176652</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.000246549695441277</v>
+        <v>-0.0001202505060505328</v>
       </c>
       <c r="AN19" t="n">
-        <v>-0.0001442107370915589</v>
+        <v>-2.1750533690804e-05</v>
       </c>
       <c r="AO19" t="n">
-        <v>-5.738948063004866e-05</v>
+        <v>0.0003175771916211763</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.0002601067252402717</v>
+        <v>-0.0005744357078888721</v>
       </c>
       <c r="AQ19" t="n">
-        <v>-0.0001642485840309623</v>
+        <v>-4.030276892064774e-05</v>
       </c>
       <c r="AR19" t="n">
-        <v>-1.395338895941474e-05</v>
+        <v>6.178545324442914e-05</v>
       </c>
       <c r="AS19" t="n">
-        <v>-5.23110844716494e-05</v>
+        <v>0.0003420260482801652</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.0001858774959933383</v>
+        <v>-0.0004804002394411688</v>
       </c>
       <c r="AU19" t="n">
-        <v>-0.0001143103217580227</v>
+        <v>-4.612055924124274e-05</v>
       </c>
       <c r="AV19" t="n">
-        <v>1.435799618851657e-05</v>
+        <v>5.169321626193795e-05</v>
       </c>
       <c r="AW19" t="n">
-        <v>-7.011151867722117e-05</v>
+        <v>0.0003269560747704425</v>
       </c>
       <c r="AX19" t="n">
-        <v>-0.0004264667967940048</v>
+        <v>0.0003797286489191955</v>
       </c>
       <c r="AY19" t="n">
-        <v>5.77292331510995e-05</v>
+        <v>-0.0001576335622625486</v>
       </c>
       <c r="AZ19" t="n">
-        <v>-1.837911910455632e-05</v>
+        <v>-5.710439578717554e-05</v>
       </c>
       <c r="BA19" t="n">
-        <v>0.0001000381288411034</v>
+        <v>1.754753222002368e-05</v>
       </c>
       <c r="BB19" t="n">
-        <v>-0.0002178869855760796</v>
+        <v>0.0003211407345764097</v>
       </c>
       <c r="BC19" t="n">
-        <v>8.627766153731088e-05</v>
+        <v>-0.0001432468515826733</v>
       </c>
       <c r="BD19" t="n">
-        <v>-3.784954780883978e-05</v>
+        <v>-7.880721077708461e-05</v>
       </c>
       <c r="BE19" t="n">
-        <v>9.977981017687423e-05</v>
+        <v>-1.951433371021851e-05</v>
       </c>
       <c r="BF19" t="n">
-        <v>-0.0001485039658908128</v>
+        <v>0.0002684943928917021</v>
       </c>
       <c r="BG19" t="n">
-        <v>7.575048552442566e-05</v>
+        <v>-0.0001205780760755438</v>
       </c>
       <c r="BH19" t="n">
-        <v>-4.925874690211417e-05</v>
+        <v>-6.7762345778202e-05</v>
       </c>
       <c r="BI19" t="n">
-        <v>9.030254526872171e-05</v>
+        <v>-2.638520243591225e-05</v>
       </c>
       <c r="BJ19" t="n">
-        <v>-0.0001054289674749679</v>
+        <v>0.0002248632769197115</v>
       </c>
       <c r="BK19" t="n">
-        <v>6.630138853474988e-05</v>
+        <v>-0.0001096884166562223</v>
       </c>
       <c r="BL19" t="n">
-        <v>-5.373156436809087e-05</v>
+        <v>-6.300118544566062e-05</v>
       </c>
       <c r="BM19" t="n">
-        <v>7.582441429277511e-05</v>
+        <v>-2.708541722459698e-05</v>
       </c>
     </row>
     <row r="20">

--- a/ind-IRs-to-common-shocks.xlsx
+++ b/ind-IRs-to-common-shocks.xlsx
@@ -765,193 +765,193 @@
         <v>0.0002499589041293174</v>
       </c>
       <c r="C2" t="n">
-        <v>7.573192498641132e-05</v>
+        <v>0.0003256908291157287</v>
       </c>
       <c r="D2" t="n">
-        <v>2.281731142785e-05</v>
+        <v>0.0003485081405435787</v>
       </c>
       <c r="E2" t="n">
-        <v>6.846238022000318e-06</v>
+        <v>0.000355354378565579</v>
       </c>
       <c r="F2" t="n">
-        <v>2.047835542168502e-06</v>
+        <v>0.0003574022141077475</v>
       </c>
       <c r="G2" t="n">
-        <v>6.111199329723137e-07</v>
+        <v>0.0003580133340407197</v>
       </c>
       <c r="H2" t="n">
-        <v>1.820509157044416e-07</v>
+        <v>0.0003581953849564242</v>
       </c>
       <c r="I2" t="n">
-        <v>5.4160020509317e-08</v>
+        <v>0.0003582495449769335</v>
       </c>
       <c r="J2" t="n">
-        <v>1.609619033114753e-08</v>
+        <v>0.0003582656411672647</v>
       </c>
       <c r="K2" t="n">
-        <v>4.780029893155664e-09</v>
+        <v>0.0003582704211971578</v>
       </c>
       <c r="L2" t="n">
-        <v>1.418668565788488e-09</v>
+        <v>0.0003582718398657236</v>
       </c>
       <c r="M2" t="n">
-        <v>4.208570810373664e-10</v>
+        <v>0.0003582722607228047</v>
       </c>
       <c r="N2" t="n">
-        <v>1.248066829972778e-10</v>
+        <v>0.0003582723855294876</v>
       </c>
       <c r="O2" t="n">
-        <v>3.700205043275716e-11</v>
+        <v>0.0003582724225315381</v>
       </c>
       <c r="P2" t="n">
-        <v>1.096794911287162e-11</v>
+        <v>0.0003582724334994873</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.250553838551978e-12</v>
+        <v>0.0003582724367500411</v>
       </c>
       <c r="R2" t="n">
         <v>3.066569952868231e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.460917534841666e-05</v>
+        <v>1.605652418026565e-05</v>
       </c>
       <c r="T2" t="n">
-        <v>-9.714817874426261e-06</v>
+        <v>6.341706305839385e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>-4.10267491378824e-06</v>
+        <v>2.239031392051146e-06</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.493819928644068e-06</v>
+        <v>7.452114634070772e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>-5.058291011392792e-07</v>
+        <v>2.39382362267798e-07</v>
       </c>
       <c r="X2" t="n">
-        <v>-1.64236158452622e-07</v>
+        <v>7.514620381517594e-08</v>
       </c>
       <c r="Y2" t="n">
-        <v>-5.192403717892971e-08</v>
+        <v>2.322216663624624e-08</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.612533470196976e-08</v>
+        <v>7.09683193427647e-09</v>
       </c>
       <c r="AA2" t="n">
-        <v>-4.94589321631626e-09</v>
+        <v>2.150938717960211e-09</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.503551408871847e-09</v>
+        <v>6.473873090883638e-10</v>
       </c>
       <c r="AC2" t="n">
-        <v>-4.541300118825544e-10</v>
+        <v>1.932572972058095e-10</v>
       </c>
       <c r="AD2" t="n">
-        <v>-1.365111165298375e-10</v>
+        <v>5.674618067597195e-11</v>
       </c>
       <c r="AE2" t="n">
-        <v>-4.088939935996727e-11</v>
+        <v>1.585678131600469e-11</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.221501519047062e-11</v>
+        <v>3.641766125534069e-12</v>
       </c>
       <c r="AG2" t="n">
-        <v>-3.641686064258427e-12</v>
+        <v>8.006127564188888e-17</v>
       </c>
       <c r="AH2" t="n">
         <v>4.319509195144918e-06</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.175876103511504e-06</v>
+        <v>5.495385298656423e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>3.247493321967999e-07</v>
+        <v>5.820134630853223e-06</v>
       </c>
       <c r="AK2" t="n">
-        <v>9.083792207760252e-08</v>
+        <v>5.910972552930826e-06</v>
       </c>
       <c r="AL2" t="n">
-        <v>2.568932810882765e-08</v>
+        <v>5.936661881039653e-06</v>
       </c>
       <c r="AM2" t="n">
-        <v>7.332566956431382e-09</v>
+        <v>5.943994447996085e-06</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.109033790536641e-09</v>
+        <v>5.946103481786621e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.104068613378479e-10</v>
+        <v>5.946713888647959e-06</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.775555795897674e-10</v>
+        <v>5.946891444227549e-06</v>
       </c>
       <c r="AQ2" t="n">
-        <v>5.185429621520592e-11</v>
+        <v>5.946943298523764e-06</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.519169650574164e-11</v>
+        <v>5.946958490220269e-06</v>
       </c>
       <c r="AS2" t="n">
-        <v>4.461738692389414e-12</v>
+        <v>5.946962951958962e-06</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.312933317507574e-12</v>
+        <v>5.94696426489228e-06</v>
       </c>
       <c r="AU2" t="n">
-        <v>3.869325463472745e-13</v>
+        <v>5.946964651824826e-06</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.14165572133339e-13</v>
+        <v>5.946964765990398e-06</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.37153444325462e-14</v>
+        <v>5.946964799705743e-06</v>
       </c>
       <c r="AX2" t="n">
         <v>-2.432055920778341e-05</v>
       </c>
       <c r="AY2" t="n">
-        <v>-5.751304749674071e-06</v>
+        <v>-3.007186395745748e-05</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-1.373279354689007e-06</v>
+        <v>-3.144514331214649e-05</v>
       </c>
       <c r="BA2" t="n">
-        <v>-3.316716860338336e-07</v>
+        <v>-3.177681499818031e-05</v>
       </c>
       <c r="BB2" t="n">
-        <v>-8.116647676780005e-08</v>
+        <v>-3.185798147494812e-05</v>
       </c>
       <c r="BC2" t="n">
-        <v>-2.015911932385178e-08</v>
+        <v>-3.187814059427196e-05</v>
       </c>
       <c r="BD2" t="n">
-        <v>-5.088370599963357e-09</v>
+        <v>-3.188322896487193e-05</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.306459172766384e-09</v>
+        <v>-3.18845354240447e-05</v>
       </c>
       <c r="BF2" t="n">
-        <v>-3.413362618630716e-10</v>
+        <v>-3.188487676030656e-05</v>
       </c>
       <c r="BG2" t="n">
-        <v>-9.072747227121522e-11</v>
+        <v>-3.188496748777884e-05</v>
       </c>
       <c r="BH2" t="n">
-        <v>-2.451429366206877e-11</v>
+        <v>-3.18849920020725e-05</v>
       </c>
       <c r="BI2" t="n">
-        <v>-6.724759553798038e-12</v>
+        <v>-3.188499872683205e-05</v>
       </c>
       <c r="BJ2" t="n">
-        <v>-1.869930298886911e-12</v>
+        <v>-3.188500059676235e-05</v>
       </c>
       <c r="BK2" t="n">
-        <v>-5.261510640876987e-13</v>
+        <v>-3.188500112291341e-05</v>
       </c>
       <c r="BL2" t="n">
-        <v>-1.495440184142746e-13</v>
+        <v>-3.188500127245742e-05</v>
       </c>
       <c r="BM2" t="n">
-        <v>-4.286247548360363e-14</v>
+        <v>-3.188500131531991e-05</v>
       </c>
     </row>
     <row r="3">
@@ -964,193 +964,193 @@
         <v>-0.0105328426116115</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.001591730123362439</v>
+        <v>-0.01212457273497394</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002781100568545389</v>
+        <v>-0.00934347216642855</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0009889901927044075</v>
+        <v>-0.008354481973724143</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008251809354941366</v>
+        <v>-0.007529301038230006</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001040556447082739</v>
+        <v>-0.007425245393521733</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.0003219082230902691</v>
+        <v>-0.007747153616612002</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0003558014653627363</v>
+        <v>-0.008102955081974738</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.0002409824487244205</v>
+        <v>-0.008343937530699159</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0001066981116065365</v>
+        <v>-0.008237239419092622</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000371545589442316</v>
+        <v>-0.007865693829650307</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.263166176604545e-05</v>
+        <v>-0.007898325491416351</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.0002227923017295831</v>
+        <v>-0.008121117793145935</v>
       </c>
       <c r="O3" t="n">
-        <v>1.467603016123097e-05</v>
+        <v>-0.008106441762984706</v>
       </c>
       <c r="P3" t="n">
-        <v>0.0002208563799336105</v>
+        <v>-0.007885585383051093</v>
       </c>
       <c r="Q3" t="n">
-        <v>-7.329563926958971e-05</v>
+        <v>-0.007958881022320683</v>
       </c>
       <c r="R3" t="n">
         <v>-0.0002136004875584928</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0002795464962101029</v>
+        <v>6.594600865161008e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>-9.731904729197263e-05</v>
+        <v>-3.137303864036256e-05</v>
       </c>
       <c r="U3" t="n">
-        <v>1.509134090039513e-05</v>
+        <v>-1.628169773996744e-05</v>
       </c>
       <c r="V3" t="n">
-        <v>-4.341560873233935e-05</v>
+        <v>-5.969730647230678e-05</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0001896602359987792</v>
+        <v>0.0001299629295264725</v>
       </c>
       <c r="X3" t="n">
-        <v>-0.0001128052801827177</v>
+        <v>1.715764934375473e-05</v>
       </c>
       <c r="Y3" t="n">
-        <v>-1.930979936560755e-05</v>
+        <v>-2.152150021852818e-06</v>
       </c>
       <c r="Z3" t="n">
-        <v>-3.746297936950324e-05</v>
+        <v>-3.961512939135606e-05</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0001625998209002425</v>
+        <v>0.0001229846915088865</v>
       </c>
       <c r="AB3" t="n">
-        <v>-8.716584943677695e-05</v>
+        <v>3.581884207210953e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>-3.366824568357838e-05</v>
+        <v>2.150596388531145e-06</v>
       </c>
       <c r="AD3" t="n">
-        <v>-2.117554918964954e-05</v>
+        <v>-1.90249528011184e-05</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.0001369486533356425</v>
+        <v>0.0001179237005345242</v>
       </c>
       <c r="AF3" t="n">
-        <v>-7.491299518346499e-05</v>
+        <v>4.301070535105917e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>-4.301070535103594e-05</v>
+        <v>2.322557498004088e-17</v>
       </c>
       <c r="AH3" t="n">
         <v>6.922966840751045e-05</v>
       </c>
       <c r="AI3" t="n">
-        <v>-0.00139204523599051</v>
+        <v>-0.001322815567582999</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.0002764118114474998</v>
+        <v>-0.001599227379030499</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.0008689729013129036</v>
+        <v>-0.0007302544777175956</v>
       </c>
       <c r="AL3" t="n">
-        <v>-4.82917711103161e-05</v>
+        <v>-0.0007785462488279117</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.001089740157320466</v>
+        <v>-0.001868286406148377</v>
       </c>
       <c r="AN3" t="n">
-        <v>9.352962252624129e-06</v>
+        <v>-0.001858933443895753</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0008405020721209984</v>
+        <v>-0.001018431371774755</v>
       </c>
       <c r="AP3" t="n">
-        <v>-3.110470959192759e-05</v>
+        <v>-0.001049536081366682</v>
       </c>
       <c r="AQ3" t="n">
-        <v>-0.0009672034863833042</v>
+        <v>-0.002016739567749987</v>
       </c>
       <c r="AR3" t="n">
-        <v>4.663768791512893e-05</v>
+        <v>-0.001970101879834858</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.0008359305916588565</v>
+        <v>-0.001134171288176001</v>
       </c>
       <c r="AT3" t="n">
-        <v>-3.11425526109388e-05</v>
+        <v>-0.00116531384078694</v>
       </c>
       <c r="AU3" t="n">
-        <v>-0.0008892505361840841</v>
+        <v>-0.002054564376971024</v>
       </c>
       <c r="AV3" t="n">
-        <v>7.275083295747981e-05</v>
+        <v>-0.001981813544013545</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.0008020982123507638</v>
+        <v>-0.001179715331662781</v>
       </c>
       <c r="AX3" t="n">
         <v>-0.0007161689681290952</v>
       </c>
       <c r="AY3" t="n">
-        <v>9.019029852591205e-05</v>
+        <v>-0.0006259786696031831</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.0001806603079946683</v>
+        <v>-0.0004453183616085148</v>
       </c>
       <c r="BA3" t="n">
-        <v>5.589424373861232e-05</v>
+        <v>-0.0003894241178699025</v>
       </c>
       <c r="BB3" t="n">
-        <v>-0.0005702834516113524</v>
+        <v>-0.0009597075694812548</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.0001245434197904944</v>
+        <v>-0.0008351641496907603</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.000245145031996731</v>
+        <v>-0.0005900191176940293</v>
       </c>
       <c r="BE3" t="n">
-        <v>4.683134062024944e-05</v>
+        <v>-0.0005431877770737799</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0.0004846546244905359</v>
+        <v>-0.001027842401564316</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.0001225657856856439</v>
+        <v>-0.000905276615878672</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.0002679237466539825</v>
+        <v>-0.0006373528692246895</v>
       </c>
       <c r="BI3" t="n">
-        <v>2.545272026641084e-05</v>
+        <v>-0.0006119001489582786</v>
       </c>
       <c r="BJ3" t="n">
-        <v>-0.0004278095673335058</v>
+        <v>-0.001039709716291785</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0001134194752055613</v>
+        <v>-0.0009262902410862231</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.0002736518524534749</v>
+        <v>-0.0006526383886327483</v>
       </c>
       <c r="BM3" t="n">
-        <v>3.394126012969395e-06</v>
+        <v>-0.0006492442626197789</v>
       </c>
     </row>
     <row r="4">
@@ -1163,193 +1163,193 @@
         <v>-0.00335437437461476</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0008066426345402565</v>
+        <v>-0.004161017009155016</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004722323401855299</v>
+        <v>-0.003688784668969486</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0002873251635292895</v>
+        <v>-0.003401459505440197</v>
       </c>
       <c r="F4" t="n">
-        <v>-9.126100083625855e-05</v>
+        <v>-0.003492720506276455</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.420483487031786e-05</v>
+        <v>-0.003536925341146773</v>
       </c>
       <c r="H4" t="n">
-        <v>4.066278080620381e-05</v>
+        <v>-0.003496262560340569</v>
       </c>
       <c r="I4" t="n">
-        <v>2.89542649134531e-05</v>
+        <v>-0.003467308295427116</v>
       </c>
       <c r="J4" t="n">
-        <v>-7.15650083485053e-05</v>
+        <v>-0.003538873303775621</v>
       </c>
       <c r="K4" t="n">
-        <v>3.395968285659243e-07</v>
+        <v>-0.003538533706947055</v>
       </c>
       <c r="L4" t="n">
-        <v>4.74042660901004e-05</v>
+        <v>-0.003491129440856955</v>
       </c>
       <c r="M4" t="n">
-        <v>2.185441467076684e-05</v>
+        <v>-0.003469275026186188</v>
       </c>
       <c r="N4" t="n">
-        <v>-6.458426082469765e-05</v>
+        <v>-0.003533859287010885</v>
       </c>
       <c r="O4" t="n">
-        <v>-3.080064153293987e-06</v>
+        <v>-0.003536939351164179</v>
       </c>
       <c r="P4" t="n">
-        <v>4.273662903284871e-05</v>
+        <v>-0.003494202722131331</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05613342774975e-05</v>
+        <v>-0.003473641387853834</v>
       </c>
       <c r="R4" t="n">
         <v>2.577434633176392e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>1.207828838857885e-05</v>
+        <v>3.785263472034277e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>-1.6172626606111e-05</v>
+        <v>2.168000811423177e-05</v>
       </c>
       <c r="U4" t="n">
-        <v>-3.147990604941173e-05</v>
+        <v>-9.799897935179962e-06</v>
       </c>
       <c r="V4" t="n">
-        <v>2.606441380487036e-05</v>
+        <v>1.62645158696904e-05</v>
       </c>
       <c r="W4" t="n">
-        <v>1.94884449295365e-05</v>
+        <v>3.575296079922689e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>-1.275402668232363e-05</v>
+        <v>2.299893411690327e-05</v>
       </c>
       <c r="Y4" t="n">
-        <v>-2.885817811889236e-05</v>
+        <v>-5.859244001989094e-06</v>
       </c>
       <c r="Z4" t="n">
-        <v>2.090427119761166e-05</v>
+        <v>1.504502719562257e-05</v>
       </c>
       <c r="AA4" t="n">
-        <v>1.837150324103578e-05</v>
+        <v>3.341653043665835e-05</v>
       </c>
       <c r="AB4" t="n">
-        <v>-1.063517001009228e-05</v>
+        <v>2.278136042656607e-05</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2.54909706797644e-05</v>
+        <v>-2.709610253198333e-06</v>
       </c>
       <c r="AD4" t="n">
-        <v>1.702891213367311e-05</v>
+        <v>1.431930188047478e-05</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.70872594737281e-05</v>
+        <v>3.140656135420289e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>-8.869185596644911e-06</v>
+        <v>2.253737575755798e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>-2.253737575754608e-05</v>
+        <v>1.189509323876156e-17</v>
       </c>
       <c r="AH4" t="n">
         <v>-0.0002411417879041685</v>
       </c>
       <c r="AI4" t="n">
-        <v>-0.0004190048641971001</v>
+        <v>-0.0006601466521012686</v>
       </c>
       <c r="AJ4" t="n">
-        <v>5.485339659105089e-06</v>
+        <v>-0.0006546613124421635</v>
       </c>
       <c r="AK4" t="n">
-        <v>6.708328221030322e-05</v>
+        <v>-0.0005875780302318603</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.0001402112550110006</v>
+        <v>-0.0004473667752208596</v>
       </c>
       <c r="AM4" t="n">
-        <v>-0.000204432363883603</v>
+        <v>-0.0006517991391044626</v>
       </c>
       <c r="AN4" t="n">
-        <v>-2.39430205072122e-06</v>
+        <v>-0.000654193441155184</v>
       </c>
       <c r="AO4" t="n">
-        <v>5.241781308684986e-05</v>
+        <v>-0.000601775628068334</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.0001241187712102378</v>
+        <v>-0.0004776568568580963</v>
       </c>
       <c r="AQ4" t="n">
-        <v>-0.0001639900691221224</v>
+        <v>-0.0006416469259802187</v>
       </c>
       <c r="AR4" t="n">
-        <v>-9.850988506498726e-06</v>
+        <v>-0.0006514979144867175</v>
       </c>
       <c r="AS4" t="n">
-        <v>4.970256617702023e-05</v>
+        <v>-0.0006017953483096972</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.0001076672888324608</v>
+        <v>-0.0004941280594772363</v>
       </c>
       <c r="AU4" t="n">
-        <v>-0.0001362905198395821</v>
+        <v>-0.0006304185793168186</v>
       </c>
       <c r="AV4" t="n">
-        <v>-1.720336301951457e-05</v>
+        <v>-0.0006476219423363331</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.585436462528876e-05</v>
+        <v>-0.0006017675777110444</v>
       </c>
       <c r="AX4" t="n">
         <v>-0.0001140659011306308</v>
       </c>
       <c r="AY4" t="n">
-        <v>5.340985556044578e-05</v>
+        <v>-6.065604557018505e-05</v>
       </c>
       <c r="AZ4" t="n">
-        <v>3.156822130307982e-05</v>
+        <v>-2.908782426710523e-05</v>
       </c>
       <c r="BA4" t="n">
-        <v>9.012890604214104e-06</v>
+        <v>-2.007493366289113e-05</v>
       </c>
       <c r="BB4" t="n">
-        <v>-9.132289206470997e-05</v>
+        <v>-0.0001113978257276011</v>
       </c>
       <c r="BC4" t="n">
-        <v>4.495103448493151e-05</v>
+        <v>-6.644679124266959e-05</v>
       </c>
       <c r="BD4" t="n">
-        <v>3.312643677395521e-05</v>
+        <v>-3.332035446871438e-05</v>
       </c>
       <c r="BE4" t="n">
-        <v>8.1972033277875e-06</v>
+        <v>-2.512315114092688e-05</v>
       </c>
       <c r="BF4" t="n">
-        <v>-7.795250168361567e-05</v>
+        <v>-0.0001030756528245426</v>
       </c>
       <c r="BG4" t="n">
-        <v>3.487661066984684e-05</v>
+        <v>-6.819904215469572e-05</v>
       </c>
       <c r="BH4" t="n">
-        <v>3.208935592700033e-05</v>
+        <v>-3.610968622769539e-05</v>
       </c>
       <c r="BI4" t="n">
-        <v>7.201325434242603e-06</v>
+        <v>-2.890836079345279e-05</v>
       </c>
       <c r="BJ4" t="n">
-        <v>-6.687224886780032e-05</v>
+        <v>-9.57806096612531e-05</v>
       </c>
       <c r="BK4" t="n">
-        <v>2.665973125419076e-05</v>
+        <v>-6.912087840706234e-05</v>
       </c>
       <c r="BL4" t="n">
-        <v>3.044299607686966e-05</v>
+        <v>-3.867788233019268e-05</v>
       </c>
       <c r="BM4" t="n">
-        <v>6.511513562445282e-06</v>
+        <v>-3.21663687677474e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1362,193 +1362,193 @@
         <v>-0.011542484778405</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0027841987228592</v>
+        <v>-0.0143266835012642</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002301219534904933</v>
+        <v>-0.01202546396635927</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002141423800213681</v>
+        <v>-0.009884040166145585</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005921746221370563</v>
+        <v>-0.009291865544008529</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0002239874546006131</v>
+        <v>-0.009515852998609143</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0005088516293779625</v>
+        <v>-0.01002470462798711</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.000129993192646906</v>
+        <v>-0.01015469782063401</v>
       </c>
       <c r="J5" t="n">
-        <v>-4.701432280172318e-05</v>
+        <v>-0.01020171214343574</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0001531824945621654</v>
+        <v>-0.01004852964887357</v>
       </c>
       <c r="L5" t="n">
-        <v>3.274053524201541e-05</v>
+        <v>-0.01001578911363155</v>
       </c>
       <c r="M5" t="n">
-        <v>4.693302467361065e-05</v>
+        <v>-0.009968856088957943</v>
       </c>
       <c r="N5" t="n">
-        <v>-9.884565423113951e-05</v>
+        <v>-0.01006770174318908</v>
       </c>
       <c r="O5" t="n">
-        <v>2.750999595005686e-05</v>
+        <v>-0.01004019174723903</v>
       </c>
       <c r="P5" t="n">
-        <v>-9.185148750313485e-06</v>
+        <v>-0.01004937689598934</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.277207210603171e-05</v>
+        <v>-0.01000660482388331</v>
       </c>
       <c r="R5" t="n">
         <v>2.927095768189455e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>-2.827039696738755e-05</v>
+        <v>1.000560714507e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>7.199866608422091e-05</v>
+        <v>7.299922679872791e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>-9.343602087913911e-05</v>
+        <v>-2.04367940804112e-05</v>
       </c>
       <c r="V5" t="n">
-        <v>9.682269192847693e-05</v>
+        <v>7.638589784806573e-05</v>
       </c>
       <c r="W5" t="n">
-        <v>-1.716045447717832e-05</v>
+        <v>5.922544337088741e-05</v>
       </c>
       <c r="X5" t="n">
-        <v>1.465288959506389e-05</v>
+        <v>7.387833296595131e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>-9.123390297232556e-05</v>
+        <v>-1.735557000637426e-05</v>
       </c>
       <c r="Z5" t="n">
-        <v>8.084489299605205e-05</v>
+        <v>6.34893229896778e-05</v>
       </c>
       <c r="AA5" t="n">
-        <v>-4.154051843094286e-06</v>
+        <v>5.933527114658351e-05</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.852982629980063e-06</v>
+        <v>6.718825377656357e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>-7.402035332472659e-05</v>
+        <v>-6.832099548163002e-06</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.795508548853205e-05</v>
+        <v>6.112298594036905e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>-1.682158804288142e-08</v>
+        <v>6.110616435232616e-05</v>
       </c>
       <c r="AF5" t="n">
-        <v>-6.750677671356846e-07</v>
+        <v>6.043109658519048e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>-6.043109658519211e-05</v>
+        <v>-1.627414732362451e-18</v>
       </c>
       <c r="AH5" t="n">
         <v>0.0004655613126746067</v>
       </c>
       <c r="AI5" t="n">
-        <v>-0.001077245638825984</v>
+        <v>-0.0006116843261513776</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.0002277071482222299</v>
+        <v>-0.0008393914743736074</v>
       </c>
       <c r="AK5" t="n">
-        <v>-1.152386659833562e-05</v>
+        <v>-0.000850915340971943</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0004122535513756173</v>
+        <v>-0.0004386617895963257</v>
       </c>
       <c r="AM5" t="n">
-        <v>-0.0003943887749922669</v>
+        <v>-0.0008330505645885926</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0001073968974709503</v>
+        <v>-0.0007256536671176423</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.760599359832952e-05</v>
+        <v>-0.0006780476735193129</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.0002444628182660329</v>
+        <v>-0.00043358485525328</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.0004010216038687176</v>
+        <v>-0.0008346064591219976</v>
       </c>
       <c r="AR5" t="n">
-        <v>7.133973243068994e-05</v>
+        <v>-0.0007632667266913076</v>
       </c>
       <c r="AS5" t="n">
-        <v>9.283727904658188e-05</v>
+        <v>-0.0006704294476447257</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.000203597807405603</v>
+        <v>-0.0004668316402391227</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0.0003438838005736204</v>
+        <v>-0.0008107154408127431</v>
       </c>
       <c r="AV5" t="n">
-        <v>5.113010050716808e-05</v>
+        <v>-0.0007595853403055751</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0001051058543844435</v>
+        <v>-0.0006544794859211315</v>
       </c>
       <c r="AX5" t="n">
         <v>-0.0006748241701191055</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.0003646681919455549</v>
+        <v>-0.0003101559781735506</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0001947409761920276</v>
+        <v>-0.000115415001981523</v>
       </c>
       <c r="BA5" t="n">
-        <v>1.555615497352041e-05</v>
+        <v>-9.985884700800261e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>-0.0005526652965100798</v>
+        <v>-0.0006525241435180824</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.0003358789764750778</v>
+        <v>-0.0003166451670430046</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.0002047805413076573</v>
+        <v>-0.0001118646257353473</v>
       </c>
       <c r="BE5" t="n">
-        <v>-3.051307395688114e-05</v>
+        <v>-0.0001423776996922284</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0.0004725934012406942</v>
+        <v>-0.0006149711009329227</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0003004052208258338</v>
+        <v>-0.0003145658801070888</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.0002014713609796367</v>
+        <v>-0.0001130945191274522</v>
       </c>
       <c r="BI5" t="n">
-        <v>-6.477199607115762e-05</v>
+        <v>-0.0001778665151986097</v>
       </c>
       <c r="BJ5" t="n">
-        <v>-0.0004043887779086576</v>
+        <v>-0.0005822552931072674</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0002718675192607903</v>
+        <v>-0.0003103877738464771</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.0001930787607812153</v>
+        <v>-0.0001173090130652618</v>
       </c>
       <c r="BM5" t="n">
-        <v>-8.979418418545809e-05</v>
+        <v>-0.0002071031972507199</v>
       </c>
     </row>
     <row r="6">
@@ -1561,193 +1561,193 @@
         <v>0.000723789783913524</v>
       </c>
       <c r="C6" t="n">
-        <v>5.337551159147233e-05</v>
+        <v>0.0007771652955049964</v>
       </c>
       <c r="D6" t="n">
-        <v>3.512206109297829e-06</v>
+        <v>0.0007806775016142942</v>
       </c>
       <c r="E6" t="n">
-        <v>1.190632137910052e-09</v>
+        <v>0.0007806786922464321</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.397434351554525e-07</v>
+        <v>0.0007805389488112767</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.503050745970242e-08</v>
+        <v>0.000780453918303817</v>
       </c>
       <c r="H6" t="n">
-        <v>-4.612112489947368e-08</v>
+        <v>0.0007804077971789175</v>
       </c>
       <c r="I6" t="n">
-        <v>-2.464715724395904e-08</v>
+        <v>0.0007803831500216735</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.314422907094899e-08</v>
+        <v>0.0007803700057926026</v>
       </c>
       <c r="K6" t="n">
-        <v>-7.007726464997723e-09</v>
+        <v>0.0007803629980661376</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.735952969871812e-09</v>
+        <v>0.0007803592621131678</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.991696498388372e-09</v>
+        <v>0.0007803572704166693</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.061804514380514e-09</v>
+        <v>0.0007803562086121548</v>
       </c>
       <c r="O6" t="n">
-        <v>-5.660645079103802e-10</v>
+        <v>0.000780355642547647</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.017777920861969e-10</v>
+        <v>0.000780355340769855</v>
       </c>
       <c r="Q6" t="n">
-        <v>-1.608824335711787e-10</v>
+        <v>0.0007803551798874214</v>
       </c>
       <c r="R6" t="n">
         <v>-1.459646503581326e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>5.720428061091758e-06</v>
+        <v>-8.876036974721503e-06</v>
       </c>
       <c r="T6" t="n">
-        <v>4.062565534814152e-06</v>
+        <v>-4.813471439907352e-06</v>
       </c>
       <c r="U6" t="n">
-        <v>2.241805399288638e-06</v>
+        <v>-2.571666040618714e-06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.200841944617782e-06</v>
+        <v>-1.370824096000932e-06</v>
       </c>
       <c r="W6" t="n">
-        <v>6.406151719115035e-07</v>
+        <v>-7.302089240894286e-07</v>
       </c>
       <c r="X6" t="n">
-        <v>3.415539922658561e-07</v>
+        <v>-3.886549318235725e-07</v>
       </c>
       <c r="Y6" t="n">
-        <v>1.820901511690555e-07</v>
+        <v>-2.06564780654517e-07</v>
       </c>
       <c r="Z6" t="n">
-        <v>9.707527159292597e-08</v>
+        <v>-1.09489509061591e-07</v>
       </c>
       <c r="AA6" t="n">
-        <v>5.175235032189647e-08</v>
+        <v>-5.773715873969457e-08</v>
       </c>
       <c r="AB6" t="n">
-        <v>2.758998370569106e-08</v>
+        <v>-3.014717503400351e-08</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.470864940538075e-08</v>
+        <v>-1.543852562862276e-08</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.841409718639324e-09</v>
+        <v>-7.597115909983435e-09</v>
       </c>
       <c r="AE6" t="n">
-        <v>4.180377452911712e-09</v>
+        <v>-3.416738457071723e-09</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.228624223745305e-09</v>
+        <v>-1.188114233326418e-09</v>
       </c>
       <c r="AG6" t="n">
-        <v>1.188114228092796e-09</v>
+        <v>-5.23362209544416e-18</v>
       </c>
       <c r="AH6" t="n">
         <v>1.147046921577e-05</v>
       </c>
       <c r="AI6" t="n">
-        <v>1.244133414807385e-05</v>
+        <v>2.391180336384386e-05</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.10726108042742e-06</v>
+        <v>3.101906444427127e-05</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.824595109534211e-06</v>
+        <v>3.484365955380548e-05</v>
       </c>
       <c r="AL6" t="n">
-        <v>2.041622098937219e-06</v>
+        <v>3.68852816527427e-05</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.088620862882315e-06</v>
+        <v>3.797390251562502e-05</v>
       </c>
       <c r="AN6" t="n">
-        <v>5.803757417881756e-07</v>
+        <v>3.855427825741319e-05</v>
       </c>
       <c r="AO6" t="n">
-        <v>3.094084603084102e-07</v>
+        <v>3.88636867177216e-05</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.649505459949991e-07</v>
+        <v>3.90286372637166e-05</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8.793770734610781e-08</v>
+        <v>3.911657497106271e-05</v>
       </c>
       <c r="AR6" t="n">
-        <v>4.688095966625943e-08</v>
+        <v>3.916345593072896e-05</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.499296861810585e-08</v>
+        <v>3.918844889934707e-05</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.332414020586062e-08</v>
+        <v>3.920177303955293e-05</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.10330633017084e-09</v>
+        <v>3.92088763458831e-05</v>
       </c>
       <c r="AV6" t="n">
-        <v>3.786883058827668e-09</v>
+        <v>3.921266322894194e-05</v>
       </c>
       <c r="AW6" t="n">
-        <v>2.018846243512917e-09</v>
+        <v>3.921468207518545e-05</v>
       </c>
       <c r="AX6" t="n">
         <v>-0.0001861341407346146</v>
       </c>
       <c r="AY6" t="n">
-        <v>-9.94879078076802e-05</v>
+        <v>-0.0002856220485422948</v>
       </c>
       <c r="AZ6" t="n">
-        <v>-5.305782341219773e-05</v>
+        <v>-0.0003386798719544925</v>
       </c>
       <c r="BA6" t="n">
-        <v>-2.828739652716761e-05</v>
+        <v>-0.0003669672684816601</v>
       </c>
       <c r="BB6" t="n">
-        <v>-1.508055941462212e-05</v>
+        <v>-0.0003820478278962822</v>
       </c>
       <c r="BC6" t="n">
-        <v>-8.039688858987654e-06</v>
+        <v>-0.0003900875167552699</v>
       </c>
       <c r="BD6" t="n">
-        <v>-4.286083755819537e-06</v>
+        <v>-0.0003943736005110894</v>
       </c>
       <c r="BE6" t="n">
-        <v>-2.284977943288148e-06</v>
+        <v>-0.0003966585784543775</v>
       </c>
       <c r="BF6" t="n">
-        <v>-1.218157275696945e-06</v>
+        <v>-0.0003978767357300744</v>
       </c>
       <c r="BG6" t="n">
-        <v>-6.494185858975684e-07</v>
+        <v>-0.000398526154315972</v>
       </c>
       <c r="BH6" t="n">
-        <v>-3.462151464178403e-07</v>
+        <v>-0.0003988723694623898</v>
       </c>
       <c r="BI6" t="n">
-        <v>-1.845726780943726e-07</v>
+        <v>-0.0003990569421404842</v>
       </c>
       <c r="BJ6" t="n">
-        <v>-9.839856473981063e-08</v>
+        <v>-0.000399155340705224</v>
       </c>
       <c r="BK6" t="n">
-        <v>-5.245780492980071e-08</v>
+        <v>-0.0003992077985101538</v>
       </c>
       <c r="BL6" t="n">
-        <v>-2.796607151058687e-08</v>
+        <v>-0.0003992357645816644</v>
       </c>
       <c r="BM6" t="n">
-        <v>-1.490914758598564e-08</v>
+        <v>-0.0003992506737292504</v>
       </c>
     </row>
     <row r="7">
@@ -1760,193 +1760,193 @@
         <v>-0.008623675750620171</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.001879112288707652</v>
+        <v>-0.01050278803932782</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0009725922072498075</v>
+        <v>-0.009530195832078016</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00164196744220046</v>
+        <v>-0.007888228389877556</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.0002231950821626442</v>
+        <v>-0.0081114234720402</v>
       </c>
       <c r="G7" t="n">
-        <v>0.000136637873580965</v>
+        <v>-0.007974785598459235</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0002851856551143374</v>
+        <v>-0.007689599943344899</v>
       </c>
       <c r="I7" t="n">
-        <v>-1.200577253818945e-05</v>
+        <v>-0.007701605715883087</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.0001170399722588486</v>
+        <v>-0.007818645688141937</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0003533726535911293</v>
+        <v>-0.007465273034550806</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0002792920756787848</v>
+        <v>-0.007185980958872022</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0003134699009246316</v>
+        <v>-0.007499450859796654</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.000283313979187826</v>
+        <v>-0.007782764838984478</v>
       </c>
       <c r="O7" t="n">
-        <v>0.000260948453417635</v>
+        <v>-0.007521816385566844</v>
       </c>
       <c r="P7" t="n">
-        <v>0.00029701597834457</v>
+        <v>-0.007224800407222275</v>
       </c>
       <c r="Q7" t="n">
-        <v>-0.0002457005427102546</v>
+        <v>-0.007470500949932529</v>
       </c>
       <c r="R7" t="n">
         <v>-0.0001098106710501806</v>
       </c>
       <c r="S7" t="n">
-        <v>-4.549295569279074e-05</v>
+        <v>-0.0001553036267429714</v>
       </c>
       <c r="T7" t="n">
-        <v>2.582750593343553e-05</v>
+        <v>-0.0001294761208095359</v>
       </c>
       <c r="U7" t="n">
-        <v>9.793861666089557e-05</v>
+        <v>-3.153750414864028e-05</v>
       </c>
       <c r="V7" t="n">
-        <v>9.735954875290758e-05</v>
+        <v>6.58220446042673e-05</v>
       </c>
       <c r="W7" t="n">
-        <v>-4.241230838765178e-05</v>
+        <v>2.340973621661552e-05</v>
       </c>
       <c r="X7" t="n">
-        <v>-4.637129392552176e-05</v>
+        <v>-2.296155770890624e-05</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.618672305551682e-05</v>
+        <v>-6.774834653389417e-06</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.113637150526353e-05</v>
+        <v>7.436153685187411e-05</v>
       </c>
       <c r="AA7" t="n">
-        <v>-3.05226726343195e-05</v>
+        <v>4.383886421755462e-05</v>
       </c>
       <c r="AB7" t="n">
-        <v>-4.193749042955812e-05</v>
+        <v>1.901373787996492e-06</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.581519698540396e-06</v>
+        <v>-2.680145910543904e-06</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.435834637666579e-05</v>
+        <v>6.167820046612188e-05</v>
       </c>
       <c r="AE7" t="n">
-        <v>-2.364351393281584e-05</v>
+        <v>3.803468653330604e-05</v>
       </c>
       <c r="AF7" t="n">
-        <v>-2.972026682911395e-05</v>
+        <v>8.314419704192094e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>-8.314419704172826e-06</v>
+        <v>1.926764236128804e-17</v>
       </c>
       <c r="AH7" t="n">
         <v>2.23542025083285e-05</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0.000376652449185115</v>
+        <v>-0.0003542982466767866</v>
       </c>
       <c r="AJ7" t="n">
-        <v>-0.0003624253650925</v>
+        <v>-0.0007167236117692865</v>
       </c>
       <c r="AK7" t="n">
-        <v>7.13277665321259e-05</v>
+        <v>-0.0006453958452371606</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.0001652580593675823</v>
+        <v>-0.0004801377858695784</v>
       </c>
       <c r="AM7" t="n">
-        <v>-0.0001239424845959904</v>
+        <v>-0.0006040802704655689</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0.0002322574684730112</v>
+        <v>-0.0008363377389385801</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0001031758429834993</v>
+        <v>-0.0007331618959550807</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.0001715481041557776</v>
+        <v>-0.0005616137917993031</v>
       </c>
       <c r="AQ7" t="n">
-        <v>-5.633272801843274e-05</v>
+        <v>-0.0006179465198177358</v>
       </c>
       <c r="AR7" t="n">
-        <v>-0.0001817429046259457</v>
+        <v>-0.0007996894244436815</v>
       </c>
       <c r="AS7" t="n">
-        <v>8.15107635499582e-05</v>
+        <v>-0.0007181786608937233</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.000137309733505627</v>
+        <v>-0.0005808689273880962</v>
       </c>
       <c r="AU7" t="n">
-        <v>-3.693491819418909e-05</v>
+        <v>-0.0006178038455822854</v>
       </c>
       <c r="AV7" t="n">
-        <v>-0.000153546766000793</v>
+        <v>-0.0007713506115830784</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.18206329285906e-05</v>
+        <v>-0.0007095299786544877</v>
       </c>
       <c r="AX7" t="n">
         <v>-7.600203142869161e-05</v>
       </c>
       <c r="AY7" t="n">
-        <v>1.184334029629983e-05</v>
+        <v>-6.415869113239177e-05</v>
       </c>
       <c r="AZ7" t="n">
-        <v>4.692736621711232e-06</v>
+        <v>-5.946595451068055e-05</v>
       </c>
       <c r="BA7" t="n">
-        <v>2.127794501162218e-05</v>
+        <v>-3.818800949905836e-05</v>
       </c>
       <c r="BB7" t="n">
-        <v>-5.269808172678279e-05</v>
+        <v>-9.088609122584115e-05</v>
       </c>
       <c r="BC7" t="n">
-        <v>2.100669364193769e-05</v>
+        <v>-6.987939758390345e-05</v>
       </c>
       <c r="BD7" t="n">
-        <v>3.685112842821075e-06</v>
+        <v>-6.619428474108238e-05</v>
       </c>
       <c r="BE7" t="n">
-        <v>2.430519743160378e-05</v>
+        <v>-4.188908730947859e-05</v>
       </c>
       <c r="BF7" t="n">
-        <v>-4.534966333419292e-05</v>
+        <v>-8.723875064367151e-05</v>
       </c>
       <c r="BG7" t="n">
-        <v>2.049061675230852e-05</v>
+        <v>-6.674813389136298e-05</v>
       </c>
       <c r="BH7" t="n">
-        <v>-7.37957636920753e-07</v>
+        <v>-6.748609152828373e-05</v>
       </c>
       <c r="BI7" t="n">
-        <v>2.413499273339174e-05</v>
+        <v>-4.335109879489199e-05</v>
       </c>
       <c r="BJ7" t="n">
-        <v>-4.073222121124961e-05</v>
+        <v>-8.408332000614161e-05</v>
       </c>
       <c r="BK7" t="n">
-        <v>1.92970535521562e-05</v>
+        <v>-6.478626645398539e-05</v>
       </c>
       <c r="BL7" t="n">
-        <v>-4.389591994440003e-06</v>
+        <v>-6.917585844842541e-05</v>
       </c>
       <c r="BM7" t="n">
-        <v>2.39228694454118e-05</v>
+        <v>-4.52529890030136e-05</v>
       </c>
     </row>
     <row r="8">
@@ -1959,193 +1959,193 @@
         <v>-0.01129781201639208</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.003750672387688495</v>
+        <v>-0.01504848440408058</v>
       </c>
       <c r="D8" t="n">
-        <v>0.002158064106622794</v>
+        <v>-0.01289042029745778</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001491596504195784</v>
+        <v>-0.011398823793262</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.000304332099853026</v>
+        <v>-0.01170315589311502</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0004789439704000658</v>
+        <v>-0.01218209986351509</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.282572921602585e-05</v>
+        <v>-0.01219492559273112</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001314598047460085</v>
+        <v>-0.01206346578798511</v>
       </c>
       <c r="J8" t="n">
-        <v>3.042860567636523e-05</v>
+        <v>-0.01203303718230874</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.057543079262467e-05</v>
+        <v>-0.01206361261310137</v>
       </c>
       <c r="L8" t="n">
-        <v>-1.476077933801122e-05</v>
+        <v>-0.01207837339243938</v>
       </c>
       <c r="M8" t="n">
-        <v>5.542680556365517e-06</v>
+        <v>-0.01207283071188301</v>
       </c>
       <c r="N8" t="n">
-        <v>5.263039408915522e-06</v>
+        <v>-0.0120675676724741</v>
       </c>
       <c r="O8" t="n">
-        <v>-4.763702841943097e-07</v>
+        <v>-0.01206804404275829</v>
       </c>
       <c r="P8" t="n">
-        <v>-1.57025395022482e-06</v>
+        <v>-0.01206961429670852</v>
       </c>
       <c r="Q8" t="n">
-        <v>-1.873661431387835e-07</v>
+        <v>-0.01206980166285166</v>
       </c>
       <c r="R8" t="n">
         <v>-0.0005645770715270606</v>
       </c>
       <c r="S8" t="n">
-        <v>0.0003021183309953039</v>
+        <v>-0.0002624587405317566</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0003742726520876313</v>
+        <v>0.0001118139115558747</v>
       </c>
       <c r="U8" t="n">
-        <v>-1.944201629540598e-05</v>
+        <v>9.23718952604687e-05</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.0001041285260479386</v>
+        <v>-1.175663078746993e-05</v>
       </c>
       <c r="W8" t="n">
-        <v>-1.664257147428668e-05</v>
+        <v>-2.83992022617566e-05</v>
       </c>
       <c r="X8" t="n">
-        <v>2.594155761011319e-05</v>
+        <v>-2.457644651643415e-06</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.913737467874904e-06</v>
+        <v>7.456092816231489e-06</v>
       </c>
       <c r="Z8" t="n">
-        <v>-5.226207041402771e-06</v>
+        <v>2.229885774828718e-06</v>
       </c>
       <c r="AA8" t="n">
-        <v>-3.843943136011078e-06</v>
+        <v>-1.61405736118236e-06</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.780751532796277e-07</v>
+        <v>-9.359822079027323e-07</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.214184479316006e-06</v>
+        <v>2.78202271413274e-07</v>
       </c>
       <c r="AD8" t="n">
-        <v>5.821836531727477e-08</v>
+        <v>3.364206367305488e-07</v>
       </c>
       <c r="AE8" t="n">
-        <v>-3.279285778987807e-07</v>
+        <v>8.492058831768171e-09</v>
       </c>
       <c r="AF8" t="n">
-        <v>-8.32643006229574e-08</v>
+        <v>-7.477224179118922e-08</v>
       </c>
       <c r="AG8" t="n">
-        <v>7.477224194626928e-08</v>
+        <v>1.550800490178859e-16</v>
       </c>
       <c r="AH8" t="n">
         <v>-0.0004656474233849604</v>
       </c>
       <c r="AI8" t="n">
-        <v>-0.0002385255865849153</v>
+        <v>-0.0007041730099698757</v>
       </c>
       <c r="AJ8" t="n">
-        <v>2.078972274810803e-05</v>
+        <v>-0.0006833832872217677</v>
       </c>
       <c r="AK8" t="n">
-        <v>7.588071470848605e-05</v>
+        <v>-0.0006075025725132817</v>
       </c>
       <c r="AL8" t="n">
-        <v>7.818379039415234e-06</v>
+        <v>-0.0005996841934738664</v>
       </c>
       <c r="AM8" t="n">
-        <v>-1.930261675328244e-05</v>
+        <v>-0.0006189868102271488</v>
       </c>
       <c r="AN8" t="n">
-        <v>-6.211235135160237e-06</v>
+        <v>-0.0006251980453623091</v>
       </c>
       <c r="AO8" t="n">
-        <v>4.150944957357818e-06</v>
+        <v>-0.0006210471004049513</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.582219085262826e-06</v>
+        <v>-0.0006184648813196884</v>
       </c>
       <c r="AQ8" t="n">
-        <v>-6.335220994128412e-07</v>
+        <v>-0.0006190984034191013</v>
       </c>
       <c r="AR8" t="n">
-        <v>-8.522534149296273e-07</v>
+        <v>-0.0006199506568340309</v>
       </c>
       <c r="AS8" t="n">
-        <v>3.291636492048402e-09</v>
+        <v>-0.0006199473651975389</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.391831361992723e-07</v>
+        <v>-0.0006197081820613396</v>
       </c>
       <c r="AU8" t="n">
-        <v>4.792837243806067e-08</v>
+        <v>-0.0006196602536889017</v>
       </c>
       <c r="AV8" t="n">
-        <v>-5.715229777192262e-08</v>
+        <v>-0.0006197174059866735</v>
       </c>
       <c r="AW8" t="n">
-        <v>-2.508563611103822e-08</v>
+        <v>-0.0006197424916227845</v>
       </c>
       <c r="AX8" t="n">
         <v>8.65852086728806e-05</v>
       </c>
       <c r="AY8" t="n">
-        <v>-1.985081832440554e-05</v>
+        <v>6.673439034847505e-05</v>
       </c>
       <c r="AZ8" t="n">
-        <v>2.096914348264309e-05</v>
+        <v>8.770353383111816e-05</v>
       </c>
       <c r="BA8" t="n">
-        <v>2.765628338221829e-06</v>
+        <v>9.046916216933999e-05</v>
       </c>
       <c r="BB8" t="n">
-        <v>-3.397483427823654e-06</v>
+        <v>8.707167874151633e-05</v>
       </c>
       <c r="BC8" t="n">
-        <v>-1.855720689008862e-06</v>
+        <v>8.521595805250747e-05</v>
       </c>
       <c r="BD8" t="n">
-        <v>6.602654985352343e-07</v>
+        <v>8.58762235510427e-05</v>
       </c>
       <c r="BE8" t="n">
-        <v>6.350025691244352e-07</v>
+        <v>8.651122612016713e-05</v>
       </c>
       <c r="BF8" t="n">
-        <v>-5.084864263971351e-08</v>
+        <v>8.646037747752742e-05</v>
       </c>
       <c r="BG8" t="n">
-        <v>-1.890377156836957e-07</v>
+        <v>8.627133976184373e-05</v>
       </c>
       <c r="BH8" t="n">
-        <v>-2.416937281539293e-08</v>
+        <v>8.624717038902834e-05</v>
       </c>
       <c r="BI8" t="n">
-        <v>4.792449340720134e-08</v>
+        <v>8.629509488243555e-05</v>
       </c>
       <c r="BJ8" t="n">
-        <v>1.656174732145007e-08</v>
+        <v>8.631165662975699e-05</v>
       </c>
       <c r="BK8" t="n">
-        <v>-1.003246554819092e-08</v>
+        <v>8.63016241642088e-05</v>
       </c>
       <c r="BL8" t="n">
-        <v>-6.683544751776286e-09</v>
+        <v>8.629494061945704e-05</v>
       </c>
       <c r="BM8" t="n">
-        <v>1.442717313373361e-09</v>
+        <v>8.629638333677041e-05</v>
       </c>
     </row>
     <row r="9">
@@ -2158,193 +2158,193 @@
         <v>-0.004211389424389104</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001801562945747068</v>
+        <v>-0.002409826478642036</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0001451315792163281</v>
+        <v>-0.002554958057858364</v>
       </c>
       <c r="E9" t="n">
-        <v>9.957940692377236e-05</v>
+        <v>-0.002455378650934592</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0002760248202494819</v>
+        <v>-0.002731403471184073</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0002180040073599001</v>
+        <v>-0.002513399463824173</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.0001393266924149872</v>
+        <v>-0.00265272615623916</v>
       </c>
       <c r="I9" t="n">
-        <v>8.072696263516521e-05</v>
+        <v>-0.002571999193603995</v>
       </c>
       <c r="J9" t="n">
-        <v>-3.561899881855213e-05</v>
+        <v>-0.002607618192422547</v>
       </c>
       <c r="K9" t="n">
-        <v>4.622352487852608e-05</v>
+        <v>-0.002561394667544021</v>
       </c>
       <c r="L9" t="n">
-        <v>-7.459301091585917e-05</v>
+        <v>-0.00263598767845988</v>
       </c>
       <c r="M9" t="n">
-        <v>5.194203606023637e-05</v>
+        <v>-0.002584045642399644</v>
       </c>
       <c r="N9" t="n">
-        <v>-9.764762860796175e-06</v>
+        <v>-0.00259381040526044</v>
       </c>
       <c r="O9" t="n">
-        <v>1.371188018495599e-05</v>
+        <v>-0.002580098525075484</v>
       </c>
       <c r="P9" t="n">
-        <v>-4.089588735002298e-05</v>
+        <v>-0.002620994412425508</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.262767526185956e-05</v>
+        <v>-0.002588366737163648</v>
       </c>
       <c r="R9" t="n">
         <v>-3.324102987555109e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.000140366223564028</v>
+        <v>-0.0001736072534395791</v>
       </c>
       <c r="T9" t="n">
-        <v>7.004536453765569e-05</v>
+        <v>-0.0001035618889019234</v>
       </c>
       <c r="U9" t="n">
-        <v>0.0002635139221584385</v>
+        <v>0.000159952033256515</v>
       </c>
       <c r="V9" t="n">
-        <v>-0.000271032375935618</v>
+        <v>-0.000111080342679103</v>
       </c>
       <c r="W9" t="n">
-        <v>-4.945388129882832e-05</v>
+        <v>-0.0001605342239779313</v>
       </c>
       <c r="X9" t="n">
-        <v>9.831184292090049e-05</v>
+        <v>-6.222238105703082e-05</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0001531048600238268</v>
+        <v>9.0882478966796e-05</v>
       </c>
       <c r="Z9" t="n">
-        <v>-0.0002017633582428767</v>
+        <v>-0.0001108808792760807</v>
       </c>
       <c r="AA9" t="n">
-        <v>-2.005162282808896e-05</v>
+        <v>-0.0001309325021041697</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.090697051552346e-05</v>
+        <v>-4.002553158864619e-05</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.603019569579213e-05</v>
+        <v>3.600466410714594e-05</v>
       </c>
       <c r="AD9" t="n">
-        <v>-0.0001384954403689712</v>
+        <v>-0.0001024907762618252</v>
       </c>
       <c r="AE9" t="n">
-        <v>-3.664265669874047e-06</v>
+        <v>-0.0001061550419316993</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.37236597418614e-05</v>
+        <v>-3.243138218983789e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>3.24313821898932e-05</v>
+        <v>5.530721107303339e-17</v>
       </c>
       <c r="AH9" t="n">
         <v>-6.0283971876563e-05</v>
       </c>
       <c r="AI9" t="n">
-        <v>4.57983784108557e-05</v>
+        <v>-1.44855934657073e-05</v>
       </c>
       <c r="AJ9" t="n">
-        <v>-7.257117343298604e-05</v>
+        <v>-8.705676689869335e-05</v>
       </c>
       <c r="AK9" t="n">
-        <v>7.780232546299756e-05</v>
+        <v>-9.254441435695787e-06</v>
       </c>
       <c r="AL9" t="n">
-        <v>-3.453775738594633e-05</v>
+        <v>-4.379219882164212e-05</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.223931131860855e-05</v>
+        <v>-3.155288750303356e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>-4.052653189961699e-05</v>
+        <v>-7.207941940265056e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.197100213082437e-05</v>
+        <v>-2.010841727182618e-05</v>
       </c>
       <c r="AP9" t="n">
-        <v>-2.067277650406911e-05</v>
+        <v>-4.078119377589529e-05</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8.881540460746051e-07</v>
+        <v>-3.989303972982068e-05</v>
       </c>
       <c r="AR9" t="n">
-        <v>-1.934990446598109e-05</v>
+        <v>-5.924294419580177e-05</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.178063794509458e-05</v>
+        <v>-2.746230625070719e-05</v>
       </c>
       <c r="AT9" t="n">
-        <v>-1.287589334332308e-05</v>
+        <v>-4.033819959403027e-05</v>
       </c>
       <c r="AU9" t="n">
-        <v>-2.908646027652812e-06</v>
+        <v>-4.324684562168308e-05</v>
       </c>
       <c r="AV9" t="n">
-        <v>-8.215139704254001e-06</v>
+        <v>-5.146198532593709e-05</v>
       </c>
       <c r="AW9" t="n">
-        <v>1.93043816781864e-05</v>
+        <v>-3.215760364775068e-05</v>
       </c>
       <c r="AX9" t="n">
         <v>-0.0003221546823674668</v>
       </c>
       <c r="AY9" t="n">
-        <v>8.038390210105508e-05</v>
+        <v>-0.0002417707802664118</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8.531987829242041e-05</v>
+        <v>-0.0001564509019739914</v>
       </c>
       <c r="BA9" t="n">
-        <v>-9.750266313907187e-06</v>
+        <v>-0.0001662011682878986</v>
       </c>
       <c r="BB9" t="n">
-        <v>-0.0001794106152369146</v>
+        <v>-0.0003456117835248131</v>
       </c>
       <c r="BC9" t="n">
-        <v>7.929059931092063e-05</v>
+        <v>-0.0002663211842138925</v>
       </c>
       <c r="BD9" t="n">
-        <v>7.1633850620545e-05</v>
+        <v>-0.0001946873335933475</v>
       </c>
       <c r="BE9" t="n">
-        <v>-2.559289378101197e-05</v>
+        <v>-0.0002202802273743594</v>
       </c>
       <c r="BF9" t="n">
-        <v>-0.0001056178867479846</v>
+        <v>-0.0003258981141223441</v>
       </c>
       <c r="BG9" t="n">
-        <v>6.449376501011359e-05</v>
+        <v>-0.0002614043491122305</v>
       </c>
       <c r="BH9" t="n">
-        <v>4.891737162871557e-05</v>
+        <v>-0.0002124869774835149</v>
       </c>
       <c r="BI9" t="n">
-        <v>-3.117065958383373e-05</v>
+        <v>-0.0002436576370673487</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-6.190050581578163e-05</v>
+        <v>-0.0003055581428831302</v>
       </c>
       <c r="BK9" t="n">
-        <v>4.989416596359252e-05</v>
+        <v>-0.0002556639769195377</v>
       </c>
       <c r="BL9" t="n">
-        <v>3.042066366208748e-05</v>
+        <v>-0.0002252433132574503</v>
       </c>
       <c r="BM9" t="n">
-        <v>-2.969763515772696e-05</v>
+        <v>-0.0002549409484151772</v>
       </c>
     </row>
     <row r="10">
@@ -2357,193 +2357,193 @@
         <v>-0.01340447763710962</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.002355338807092421</v>
+        <v>-0.01575981644420204</v>
       </c>
       <c r="D10" t="n">
-        <v>0.00322439867123357</v>
+        <v>-0.01253541777296847</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002426717057127414</v>
+        <v>-0.01010870071584106</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001887976999661214</v>
+        <v>-0.008220723716179844</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0003278294362085113</v>
+        <v>-0.008548553152388354</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.001287366023375286</v>
+        <v>-0.009835919175763642</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0007235393475737337</v>
+        <v>-0.01055945852333737</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0001637276566844221</v>
+        <v>-0.0107231861800218</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0003002207761600925</v>
+        <v>-0.0104229654038617</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004512114653947258</v>
+        <v>-0.009971753938466978</v>
       </c>
       <c r="M10" t="n">
-        <v>0.000145341055877901</v>
+        <v>-0.009826412882589076</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0001924428150873172</v>
+        <v>-0.01001885569767639</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.0002036959223106572</v>
+        <v>-0.01022255161998705</v>
       </c>
       <c r="P10" t="n">
-        <v>6.880876760420681e-06</v>
+        <v>-0.01021567074322663</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.402380924838596e-05</v>
+        <v>-0.01014164693397824</v>
       </c>
       <c r="R10" t="n">
         <v>-0.0001527398952259301</v>
       </c>
       <c r="S10" t="n">
-        <v>-2.532193754156739e-06</v>
+        <v>-0.0001552720889800869</v>
       </c>
       <c r="T10" t="n">
-        <v>2.53106462210255e-05</v>
+        <v>-0.0001299614427590613</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0001133850690655301</v>
+        <v>-1.657637369353127e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>2.352973594153677e-05</v>
+        <v>6.953362248005507e-06</v>
       </c>
       <c r="W10" t="n">
-        <v>-4.343228892780173e-05</v>
+        <v>-3.647892667979622e-05</v>
       </c>
       <c r="X10" t="n">
-        <v>-3.66711716029418e-05</v>
+        <v>-7.315009828273802e-05</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.353740118096418e-05</v>
+        <v>-1.961269710177384e-05</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.18837169731875e-05</v>
+        <v>-7.728980128586334e-06</v>
       </c>
       <c r="AA10" t="n">
-        <v>-3.433103537243998e-05</v>
+        <v>-4.206001550102631e-05</v>
       </c>
       <c r="AB10" t="n">
-        <v>-1.24471847216441e-05</v>
+        <v>-5.450720022267042e-05</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.539884354176578e-05</v>
+        <v>8.916433190953584e-07</v>
       </c>
       <c r="AD10" t="n">
-        <v>1.106631616026092e-05</v>
+        <v>1.195795947935628e-05</v>
       </c>
       <c r="AE10" t="n">
-        <v>-4.763365750305478e-05</v>
+        <v>-3.567569802369851e-05</v>
       </c>
       <c r="AF10" t="n">
-        <v>-1.754831882644246e-05</v>
+        <v>-5.322401685014096e-05</v>
       </c>
       <c r="AG10" t="n">
-        <v>5.322401685014712e-05</v>
+        <v>6.166886670518161e-18</v>
       </c>
       <c r="AH10" t="n">
         <v>-0.0006445950341095861</v>
       </c>
       <c r="AI10" t="n">
-        <v>-0.0009917877890339274</v>
+        <v>-0.001636382823143513</v>
       </c>
       <c r="AJ10" t="n">
-        <v>-0.0003990007450472555</v>
+        <v>-0.002035383568190769</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0004213896295895422</v>
+        <v>-0.001613993938601227</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.0001223980526670682</v>
+        <v>-0.001491595885934158</v>
       </c>
       <c r="AM10" t="n">
-        <v>-0.0005347839501926861</v>
+        <v>-0.002026379836126844</v>
       </c>
       <c r="AN10" t="n">
-        <v>-0.0002906075543669415</v>
+        <v>-0.002316987390493786</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.0003409657801087236</v>
+        <v>-0.001976021610385062</v>
       </c>
       <c r="AP10" t="n">
-        <v>6.665278783972634e-05</v>
+        <v>-0.001909368822545336</v>
       </c>
       <c r="AQ10" t="n">
-        <v>-0.0005087126296724283</v>
+        <v>-0.002418081452217764</v>
       </c>
       <c r="AR10" t="n">
-        <v>-0.0001931702640664422</v>
+        <v>-0.002611251716284207</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.0004480675282011276</v>
+        <v>-0.002163184188083079</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.0001428949139659717</v>
+        <v>-0.002020289274117107</v>
       </c>
       <c r="AU10" t="n">
-        <v>-0.0004978622469339363</v>
+        <v>-0.002518151521051044</v>
       </c>
       <c r="AV10" t="n">
-        <v>-0.0002056882089594981</v>
+        <v>-0.002723839730010542</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0004563483158026895</v>
+        <v>-0.002267491414207852</v>
       </c>
       <c r="AX10" t="n">
         <v>0.0004214351822502868</v>
       </c>
       <c r="AY10" t="n">
-        <v>-1.547978295835814e-05</v>
+        <v>0.0004059553992919286</v>
       </c>
       <c r="AZ10" t="n">
-        <v>-0.0001443716367741423</v>
+        <v>0.0002615837625177863</v>
       </c>
       <c r="BA10" t="n">
-        <v>-2.638259381156993e-07</v>
+        <v>0.0002613199365796706</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.0003422853571893834</v>
+        <v>0.0006036052937690539</v>
       </c>
       <c r="BC10" t="n">
-        <v>-5.335058938248978e-06</v>
+        <v>0.0005982702348308049</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0.000212150833987332</v>
+        <v>0.0003861194008434729</v>
       </c>
       <c r="BE10" t="n">
-        <v>-7.735295122618524e-06</v>
+        <v>0.0003783841057208544</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.0003027560045743789</v>
+        <v>0.0006811401102952332</v>
       </c>
       <c r="BG10" t="n">
-        <v>2.742089693508704e-06</v>
+        <v>0.0006838821999887418</v>
       </c>
       <c r="BH10" t="n">
-        <v>-0.0002440734339955185</v>
+        <v>0.0004398087659932234</v>
       </c>
       <c r="BI10" t="n">
-        <v>-1.175711276249527e-05</v>
+        <v>0.0004280516532307281</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.0002877287258341529</v>
+        <v>0.000715780379064881</v>
       </c>
       <c r="BK10" t="n">
-        <v>1.028771701435968e-05</v>
+        <v>0.0007260680960792407</v>
       </c>
       <c r="BL10" t="n">
-        <v>-0.0002618345269249247</v>
+        <v>0.0004642335691543161</v>
       </c>
       <c r="BM10" t="n">
-        <v>-1.735702302297607e-05</v>
+        <v>0.0004468765461313399</v>
       </c>
     </row>
     <row r="11">
@@ -2556,193 +2556,193 @@
         <v>-0.006817454136490148</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.002824349490402249</v>
+        <v>-0.009641803626892398</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001908746294458336</v>
+        <v>-0.007733057332434063</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0009183449647471652</v>
+        <v>-0.006814712367686898</v>
       </c>
       <c r="F11" t="n">
-        <v>0.00141196092540656</v>
+        <v>-0.005402751442280337</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0004708797051527248</v>
+        <v>-0.005873631147433062</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.0007148733136847689</v>
+        <v>-0.006588504461117831</v>
       </c>
       <c r="I11" t="n">
-        <v>-0.0009767874470779463</v>
+        <v>-0.007565291908195777</v>
       </c>
       <c r="J11" t="n">
-        <v>0.000503078560413692</v>
+        <v>-0.007062213347782086</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001313498933376699</v>
+        <v>-0.006930863454444416</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0005337048892192508</v>
+        <v>-0.006397158565225165</v>
       </c>
       <c r="M11" t="n">
-        <v>-0.000473385020645305</v>
+        <v>-0.00687054358587047</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0002195642953954438</v>
+        <v>-0.006650979290475026</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.0003286676193286278</v>
+        <v>-0.006979646909803654</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0002696613894595519</v>
+        <v>-0.006709985520344102</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.0003676975644150233</v>
+        <v>-0.007077683084759125</v>
       </c>
       <c r="R11" t="n">
         <v>0.001216055286032424</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.0002795745100847273</v>
+        <v>0.0009364807759476971</v>
       </c>
       <c r="T11" t="n">
-        <v>-0.0005691126335926916</v>
+        <v>0.0003673681423550055</v>
       </c>
       <c r="U11" t="n">
-        <v>-0.0005830951630117643</v>
+        <v>-0.0002157270206567589</v>
       </c>
       <c r="V11" t="n">
-        <v>0.0001573277791492809</v>
+        <v>-5.839924150747798e-05</v>
       </c>
       <c r="W11" t="n">
-        <v>0.0002197927588826258</v>
+        <v>0.0001613935173751478</v>
       </c>
       <c r="X11" t="n">
-        <v>0.0002600650604791017</v>
+        <v>0.0004214585778542495</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.0003018505284590701</v>
+        <v>0.0001196080493951794</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.963026103253453e-05</v>
+        <v>0.000209238310427714</v>
       </c>
       <c r="AA11" t="n">
-        <v>-5.266494003405934e-05</v>
+        <v>0.0001565733703936546</v>
       </c>
       <c r="AB11" t="n">
-        <v>6.847123617284079e-05</v>
+        <v>0.0002250446065664954</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.000240644385097675</v>
+        <v>-1.559977853117961e-05</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0002165385274900791</v>
+        <v>0.0002009387489588995</v>
       </c>
       <c r="AE11" t="n">
-        <v>2.065604119064575e-05</v>
+        <v>0.0002215947901495452</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.76281716373613e-05</v>
+        <v>0.0002792229617869066</v>
       </c>
       <c r="AG11" t="n">
-        <v>-0.0002792229617869397</v>
+        <v>-3.316462716919661e-17</v>
       </c>
       <c r="AH11" t="n">
         <v>-0.001868834067770949</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.00116936493897521</v>
+        <v>-0.0006994691287957396</v>
       </c>
       <c r="AJ11" t="n">
-        <v>-0.0009875989338892117</v>
+        <v>-0.001687068062684951</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.0006297560445297976</v>
+        <v>-0.001057312018155154</v>
       </c>
       <c r="AL11" t="n">
-        <v>-0.001740714892398925</v>
+        <v>-0.002798026910554079</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.001521490567209997</v>
+        <v>-0.001276536343344082</v>
       </c>
       <c r="AN11" t="n">
-        <v>-0.0003756569660115169</v>
+        <v>-0.001652193309355599</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.0006658859921988707</v>
+        <v>-0.0009863073171567282</v>
       </c>
       <c r="AP11" t="n">
-        <v>-0.001765616011150358</v>
+        <v>-0.002751923328307086</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.001396342869298769</v>
+        <v>-0.001355580459008317</v>
       </c>
       <c r="AR11" t="n">
-        <v>-0.0004281498384506311</v>
+        <v>-0.001783730297458948</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.000690976793022293</v>
+        <v>-0.001092753504436655</v>
       </c>
       <c r="AT11" t="n">
-        <v>-0.001603205660755752</v>
+        <v>-0.002695959165192407</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.001383436954469312</v>
+        <v>-0.001312522210723096</v>
       </c>
       <c r="AV11" t="n">
-        <v>-0.0004561865280287833</v>
+        <v>-0.001768708738751879</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.0006279972710057978</v>
+        <v>-0.001140711467746082</v>
       </c>
       <c r="AX11" t="n">
         <v>-0.001481409670242136</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.0008190640786055996</v>
+        <v>-0.0006623455916365368</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0004753683442458637</v>
+        <v>-0.0001869772473906731</v>
       </c>
       <c r="BA11" t="n">
-        <v>1.469140024617399e-05</v>
+        <v>-0.0001722858471444991</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.001325822076303825</v>
+        <v>-0.001498107923448324</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.0007759242408129056</v>
+        <v>-0.0007221836826354187</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0003994069690658975</v>
+        <v>-0.0003227767135695212</v>
       </c>
       <c r="BE11" t="n">
-        <v>5.369274018256173e-05</v>
+        <v>-0.0002690839733869594</v>
       </c>
       <c r="BF11" t="n">
-        <v>-0.001201982913856476</v>
+        <v>-0.001471066887243435</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.0007877262001044842</v>
+        <v>-0.0006833406871389507</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.000353730878009706</v>
+        <v>-0.0003296098091292447</v>
       </c>
       <c r="BI11" t="n">
-        <v>1.644672141746335e-05</v>
+        <v>-0.0003131630877117813</v>
       </c>
       <c r="BJ11" t="n">
-        <v>-0.00113987776187163</v>
+        <v>-0.001453040849583412</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.0007840810099507797</v>
+        <v>-0.0006689598396326321</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.0003212902493106685</v>
+        <v>-0.0003476695903219635</v>
       </c>
       <c r="BM11" t="n">
-        <v>3.116573100228982e-06</v>
+        <v>-0.0003445530172217345</v>
       </c>
     </row>
     <row r="12">
@@ -2755,193 +2755,193 @@
         <v>-0.01124494479166272</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.001520653198364417</v>
+        <v>-0.01276559799002713</v>
       </c>
       <c r="D12" t="n">
-        <v>0.00266885419042949</v>
+        <v>-0.01009674379959765</v>
       </c>
       <c r="E12" t="n">
-        <v>0.001348636604942609</v>
+        <v>-0.008748107194655037</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0005595281414116825</v>
+        <v>-0.008188579053243354</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0002341283208079955</v>
+        <v>-0.008422707374051349</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0003985426764480988</v>
+        <v>-0.008821250050499448</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0001005081014103814</v>
+        <v>-0.008921758151909829</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.000101081676487103</v>
+        <v>-0.00902283982839693</v>
       </c>
       <c r="K12" t="n">
-        <v>3.131156799055212e-05</v>
+        <v>-0.008991528260406377</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0001862408915076848</v>
+        <v>-0.008805287368898693</v>
       </c>
       <c r="M12" t="n">
-        <v>7.414954970476478e-05</v>
+        <v>-0.00873113781919393</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.0001538275181453616</v>
+        <v>-0.008884965337339292</v>
       </c>
       <c r="O12" t="n">
-        <v>-7.631298914762942e-05</v>
+        <v>-0.008961278326486922</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0001182547388272683</v>
+        <v>-0.008843023587659654</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.724241467487257e-05</v>
+        <v>-0.008775781172984781</v>
       </c>
       <c r="R12" t="n">
         <v>4.827618317432849e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>-9.583178369320356e-06</v>
+        <v>3.869300480500813e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>6.267415724130409e-05</v>
+        <v>0.0001013671620463122</v>
       </c>
       <c r="U12" t="n">
-        <v>-0.0001243332437738888</v>
+        <v>-2.296608172757655e-05</v>
       </c>
       <c r="V12" t="n">
-        <v>1.185154139864934e-05</v>
+        <v>-1.111454032892721e-05</v>
       </c>
       <c r="W12" t="n">
-        <v>6.296709643398501e-05</v>
+        <v>5.185255610505779e-05</v>
       </c>
       <c r="X12" t="n">
-        <v>3.647762769452132e-05</v>
+        <v>8.833018379957912e-05</v>
       </c>
       <c r="Y12" t="n">
-        <v>-9.414465817093889e-05</v>
+        <v>-5.814474371359784e-06</v>
       </c>
       <c r="Z12" t="n">
-        <v>-3.694385046253209e-06</v>
+        <v>-9.508859417612994e-06</v>
       </c>
       <c r="AA12" t="n">
-        <v>6.61388418182574e-05</v>
+        <v>5.662998240064442e-05</v>
       </c>
       <c r="AB12" t="n">
-        <v>2.225588746447834e-05</v>
+        <v>7.888586986512276e-05</v>
       </c>
       <c r="AC12" t="n">
-        <v>-8.118656124590128e-05</v>
+        <v>-2.300691380778526e-06</v>
       </c>
       <c r="AD12" t="n">
-        <v>-7.600354744077047e-06</v>
+        <v>-9.901046124855573e-06</v>
       </c>
       <c r="AE12" t="n">
-        <v>6.902513163157527e-05</v>
+        <v>5.91240855067197e-05</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.532772206112763e-05</v>
+        <v>7.445180756784732e-05</v>
       </c>
       <c r="AG12" t="n">
-        <v>-7.445180756781202e-05</v>
+        <v>3.530680073067344e-17</v>
       </c>
       <c r="AH12" t="n">
         <v>4.014843455820409e-05</v>
       </c>
       <c r="AI12" t="n">
-        <v>-0.001207381575236411</v>
+        <v>-0.001167233140678207</v>
       </c>
       <c r="AJ12" t="n">
-        <v>-0.0005087488712532211</v>
+        <v>-0.001675982011931428</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.0003502992033153338</v>
+        <v>-0.001325682808616094</v>
       </c>
       <c r="AL12" t="n">
-        <v>7.040955581303119e-05</v>
+        <v>-0.001255273252803063</v>
       </c>
       <c r="AM12" t="n">
-        <v>-0.0006387329502917993</v>
+        <v>-0.001894006203094862</v>
       </c>
       <c r="AN12" t="n">
-        <v>-0.0001451339775537079</v>
+        <v>-0.00203914018064857</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.0004622386568182677</v>
+        <v>-0.001576901523830302</v>
       </c>
       <c r="AP12" t="n">
-        <v>7.964270109385136e-05</v>
+        <v>-0.00149725882273645</v>
       </c>
       <c r="AQ12" t="n">
-        <v>-0.0005700032314892271</v>
+        <v>-0.002067262054225678</v>
       </c>
       <c r="AR12" t="n">
-        <v>-0.0001086438667279979</v>
+        <v>-0.002175905920953675</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.0004961741849321868</v>
+        <v>-0.001679731736021489</v>
       </c>
       <c r="AT12" t="n">
-        <v>9.11568422481247e-05</v>
+        <v>-0.001588574893773364</v>
       </c>
       <c r="AU12" t="n">
-        <v>-0.0005175015664254261</v>
+        <v>-0.00210607646019879</v>
       </c>
       <c r="AV12" t="n">
-        <v>-8.676562118368263e-05</v>
+        <v>-0.002192842081382473</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0004855017759391453</v>
+        <v>-0.001707340305443328</v>
       </c>
       <c r="AX12" t="n">
         <v>-0.000512202851873453</v>
       </c>
       <c r="AY12" t="n">
-        <v>5.072483337081829e-05</v>
+        <v>-0.0004614780185026347</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.0001908454348889969</v>
+        <v>-0.0002706325836136378</v>
       </c>
       <c r="BA12" t="n">
-        <v>4.372283268432603e-06</v>
+        <v>-0.0002662603003452051</v>
       </c>
       <c r="BB12" t="n">
-        <v>-0.0003746552979910644</v>
+        <v>-0.0006409155983362696</v>
       </c>
       <c r="BC12" t="n">
-        <v>4.631743467543516e-05</v>
+        <v>-0.0005945981636608345</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.0002507635651891117</v>
+        <v>-0.0003438345984717228</v>
       </c>
       <c r="BE12" t="n">
-        <v>-1.108118314065868e-05</v>
+        <v>-0.0003549157816123815</v>
       </c>
       <c r="BF12" t="n">
-        <v>-0.0003147467971448381</v>
+        <v>-0.0006696625787572196</v>
       </c>
       <c r="BG12" t="n">
-        <v>4.169023549593001e-05</v>
+        <v>-0.0006279723432612896</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.000263064741423747</v>
+        <v>-0.0003649076018375426</v>
       </c>
       <c r="BI12" t="n">
-        <v>-2.383519513086031e-05</v>
+        <v>-0.0003887427969684029</v>
       </c>
       <c r="BJ12" t="n">
-        <v>-0.00028377946705019</v>
+        <v>-0.000672522264018593</v>
       </c>
       <c r="BK12" t="n">
-        <v>4.010279071250731e-05</v>
+        <v>-0.0006324194733060856</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.0002593014128646509</v>
+        <v>-0.0003731180604414347</v>
       </c>
       <c r="BM12" t="n">
-        <v>-3.238152266751837e-05</v>
+        <v>-0.0004054995831089531</v>
       </c>
     </row>
     <row r="13">
@@ -2954,193 +2954,193 @@
         <v>-0.01340195179942198</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00215910423311057</v>
+        <v>-0.01556105603253255</v>
       </c>
       <c r="D13" t="n">
-        <v>0.004320808062186363</v>
+        <v>-0.01124024797034618</v>
       </c>
       <c r="E13" t="n">
-        <v>0.001239627817110118</v>
+        <v>-0.01000062015323606</v>
       </c>
       <c r="F13" t="n">
-        <v>3.44205137102013e-05</v>
+        <v>-0.009966199639525863</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0008204165520472403</v>
+        <v>-0.009145783087478623</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.0002700300836826422</v>
+        <v>-0.009415813171161264</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0005316160576060891</v>
+        <v>-0.009947429228767355</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.0006767830446146051</v>
+        <v>-0.01062421227338196</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0003289585658482285</v>
+        <v>-0.01029525370753373</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003543857914316529</v>
+        <v>-0.009940867916102079</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0001741995960301874</v>
+        <v>-0.009766668320071892</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.0003995763720469457</v>
+        <v>-0.01016624469211884</v>
       </c>
       <c r="O13" t="n">
-        <v>0.0001072739186662811</v>
+        <v>-0.01005897077345256</v>
       </c>
       <c r="P13" t="n">
-        <v>4.241800913070983e-05</v>
+        <v>-0.01001655276432185</v>
       </c>
       <c r="Q13" t="n">
-        <v>9.729781752616009e-05</v>
+        <v>-0.009919254946795686</v>
       </c>
       <c r="R13" t="n">
         <v>0.0001142886858605279</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0002334590476133944</v>
+        <v>-0.0001191703617528665</v>
       </c>
       <c r="T13" t="n">
-        <v>-3.429228997985494e-05</v>
+        <v>-0.0001534626517327214</v>
       </c>
       <c r="U13" t="n">
-        <v>-0.0001376930675648804</v>
+        <v>-0.0002911557192976018</v>
       </c>
       <c r="V13" t="n">
-        <v>0.0005037309300786058</v>
+        <v>0.0002125752107810039</v>
       </c>
       <c r="W13" t="n">
-        <v>-3.924766517760296e-05</v>
+        <v>0.000173327545603401</v>
       </c>
       <c r="X13" t="n">
-        <v>-6.958059501682217e-05</v>
+        <v>0.0001037469505865788</v>
       </c>
       <c r="Y13" t="n">
-        <v>-0.0002091360895161582</v>
+        <v>-0.0001053891389295794</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.0002578039087886762</v>
+        <v>0.0001524147698590968</v>
       </c>
       <c r="AA13" t="n">
-        <v>-7.380443774571235e-05</v>
+        <v>7.861033211338449e-05</v>
       </c>
       <c r="AB13" t="n">
-        <v>3.397037461428601e-05</v>
+        <v>0.0001125807067276705</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.0001452533319372399</v>
+        <v>-3.267262520956943e-05</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.0001766890213592016</v>
+        <v>0.0001440163961496322</v>
       </c>
       <c r="AE13" t="n">
-        <v>-7.458922031190261e-05</v>
+        <v>6.942717583772953e-05</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.275247763382585e-05</v>
+        <v>0.0001221796534715554</v>
       </c>
       <c r="AG13" t="n">
-        <v>-0.0001221796534716068</v>
+        <v>-5.141049149236539e-17</v>
       </c>
       <c r="AH13" t="n">
         <v>-6.580829577023781e-05</v>
       </c>
       <c r="AI13" t="n">
-        <v>-0.0007363228526325701</v>
+        <v>-0.0008021311484028079</v>
       </c>
       <c r="AJ13" t="n">
-        <v>-0.000196575159803734</v>
+        <v>-0.0009987063082065419</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.0001981667385002265</v>
+        <v>-0.0008005395697063153</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.000530052428104713</v>
+        <v>-0.0002704871416016024</v>
       </c>
       <c r="AM13" t="n">
-        <v>-0.000246549695441277</v>
+        <v>-0.0005170368370428794</v>
       </c>
       <c r="AN13" t="n">
-        <v>-0.0001442107370915589</v>
+        <v>-0.0006612475741344382</v>
       </c>
       <c r="AO13" t="n">
-        <v>-5.738948063004866e-05</v>
+        <v>-0.0007186370547644868</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0002601067252402717</v>
+        <v>-0.0004585303295242151</v>
       </c>
       <c r="AQ13" t="n">
-        <v>-0.0001642485840309623</v>
+        <v>-0.0006227789135551774</v>
       </c>
       <c r="AR13" t="n">
-        <v>-1.395338895941474e-05</v>
+        <v>-0.0006367323025145921</v>
       </c>
       <c r="AS13" t="n">
-        <v>-5.23110844716494e-05</v>
+        <v>-0.0006890433869862415</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.0001858774959933383</v>
+        <v>-0.0005031658909929031</v>
       </c>
       <c r="AU13" t="n">
-        <v>-0.0001143103217580227</v>
+        <v>-0.0006174762127509259</v>
       </c>
       <c r="AV13" t="n">
-        <v>1.435799618851657e-05</v>
+        <v>-0.0006031182165624093</v>
       </c>
       <c r="AW13" t="n">
-        <v>-7.011151867722117e-05</v>
+        <v>-0.0006732297352396305</v>
       </c>
       <c r="AX13" t="n">
         <v>-0.0004264667967940048</v>
       </c>
       <c r="AY13" t="n">
-        <v>5.77292331510995e-05</v>
+        <v>-0.0003687375636429052</v>
       </c>
       <c r="AZ13" t="n">
-        <v>-1.837911910455632e-05</v>
+        <v>-0.0003871166827474616</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.0001000381288411034</v>
+        <v>-0.0002870785539063582</v>
       </c>
       <c r="BB13" t="n">
-        <v>-0.0002178869855760796</v>
+        <v>-0.0005049655394824378</v>
       </c>
       <c r="BC13" t="n">
-        <v>8.627766153731088e-05</v>
+        <v>-0.0004186878779451269</v>
       </c>
       <c r="BD13" t="n">
-        <v>-3.784954780883978e-05</v>
+        <v>-0.0004565374257539666</v>
       </c>
       <c r="BE13" t="n">
-        <v>9.977981017687423e-05</v>
+        <v>-0.0003567576155770924</v>
       </c>
       <c r="BF13" t="n">
-        <v>-0.0001485039658908128</v>
+        <v>-0.0005052615814679052</v>
       </c>
       <c r="BG13" t="n">
-        <v>7.575048552442566e-05</v>
+        <v>-0.0004295110959434794</v>
       </c>
       <c r="BH13" t="n">
-        <v>-4.925874690211417e-05</v>
+        <v>-0.0004787698428455936</v>
       </c>
       <c r="BI13" t="n">
-        <v>9.030254526872171e-05</v>
+        <v>-0.0003884672975768719</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-0.0001054289674749679</v>
+        <v>-0.0004938962650518398</v>
       </c>
       <c r="BK13" t="n">
-        <v>6.630138853474988e-05</v>
+        <v>-0.0004275948765170899</v>
       </c>
       <c r="BL13" t="n">
-        <v>-5.373156436809087e-05</v>
+        <v>-0.0004813264408851808</v>
       </c>
       <c r="BM13" t="n">
-        <v>7.582441429277511e-05</v>
+        <v>-0.0004055020265924057</v>
       </c>
     </row>
     <row r="14">
@@ -3153,193 +3153,193 @@
         <v>-0.001844770950923809</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0005252721056858477</v>
+        <v>-0.002370043056609656</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0003409218328701549</v>
+        <v>-0.002029121223739501</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0002330757610616912</v>
+        <v>-0.00179604546267781</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.724212818082704e-05</v>
+        <v>-0.001813287590858637</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.382315009443081e-05</v>
+        <v>-0.001877110740953068</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.532173342893182e-05</v>
+        <v>-0.001892432474381999</v>
       </c>
       <c r="I14" t="n">
-        <v>1.13453294446733e-05</v>
+        <v>-0.001881087144937326</v>
       </c>
       <c r="J14" t="n">
-        <v>7.445738882396754e-06</v>
+        <v>-0.001873641406054929</v>
       </c>
       <c r="K14" t="n">
-        <v>-5.426226723386777e-07</v>
+        <v>-0.001874184028727268</v>
       </c>
       <c r="L14" t="n">
-        <v>-2.068992621807933e-06</v>
+        <v>-0.001876253021349076</v>
       </c>
       <c r="M14" t="n">
-        <v>-5.12732290966494e-07</v>
+        <v>-0.001876765753640042</v>
       </c>
       <c r="N14" t="n">
-        <v>3.671196111080049e-07</v>
+        <v>-0.001876398634028934</v>
       </c>
       <c r="O14" t="n">
-        <v>2.463042958362792e-07</v>
+        <v>-0.001876152329733098</v>
       </c>
       <c r="P14" t="n">
-        <v>-1.641541287521996e-08</v>
+        <v>-0.001876168745145973</v>
       </c>
       <c r="Q14" t="n">
-        <v>-6.804469817288168e-08</v>
+        <v>-0.001876236789844146</v>
       </c>
       <c r="R14" t="n">
         <v>-0.0001133302537582249</v>
       </c>
       <c r="S14" t="n">
-        <v>6.176850202814514e-05</v>
+        <v>-5.156175173007975e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>7.775046083533069e-05</v>
+        <v>2.618870910525094e-05</v>
       </c>
       <c r="U14" t="n">
-        <v>-3.84137821911569e-06</v>
+        <v>2.234733088613524e-05</v>
       </c>
       <c r="V14" t="n">
-        <v>-2.355009655523186e-05</v>
+        <v>-1.20276566909662e-06</v>
       </c>
       <c r="W14" t="n">
-        <v>-4.887157153101229e-06</v>
+        <v>-6.089922822197849e-06</v>
       </c>
       <c r="X14" t="n">
-        <v>4.661912561255115e-06</v>
+        <v>-1.428010260942734e-06</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.531742451738756e-06</v>
+        <v>1.103732190796023e-06</v>
       </c>
       <c r="Z14" t="n">
-        <v>-4.050999478932331e-07</v>
+        <v>6.986322429027898e-07</v>
       </c>
       <c r="AA14" t="n">
-        <v>-7.530984410373949e-07</v>
+        <v>-5.446619813460515e-08</v>
       </c>
       <c r="AB14" t="n">
-        <v>-1.330804277500917e-07</v>
+        <v>-1.875466258846968e-07</v>
       </c>
       <c r="AC14" t="n">
-        <v>1.482424048777899e-07</v>
+        <v>-3.930422100690692e-08</v>
       </c>
       <c r="AD14" t="n">
-        <v>8.063886795178541e-08</v>
+        <v>4.13346469448785e-08</v>
       </c>
       <c r="AE14" t="n">
-        <v>-1.229671792347337e-08</v>
+        <v>2.903792902140513e-08</v>
       </c>
       <c r="AF14" t="n">
-        <v>-2.447248789122826e-08</v>
+        <v>4.565441130176869e-09</v>
       </c>
       <c r="AG14" t="n">
-        <v>-4.56544120506658e-09</v>
+        <v>-7.488971021665929e-17</v>
       </c>
       <c r="AH14" t="n">
         <v>-5.667059030262301e-05</v>
       </c>
       <c r="AI14" t="n">
-        <v>-7.700705123095396e-05</v>
+        <v>-0.000133677641533577</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.594216730967735e-06</v>
+        <v>-0.0001240834248026093</v>
       </c>
       <c r="AK14" t="n">
-        <v>2.803950025104307e-05</v>
+        <v>-9.604392455156617e-05</v>
       </c>
       <c r="AL14" t="n">
-        <v>3.905105476336399e-06</v>
+        <v>-9.213881907522976e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>-6.377551473475951e-06</v>
+        <v>-9.851637054870571e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>-2.7022878622261e-06</v>
+        <v>-0.0001012186584109318</v>
       </c>
       <c r="AO14" t="n">
-        <v>8.11315604061255e-07</v>
+        <v>-0.0001004073428068706</v>
       </c>
       <c r="AP14" t="n">
-        <v>9.0990211657568e-07</v>
+        <v>-9.949744069029487e-05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>7.704588312011679e-08</v>
+        <v>-9.942039480717475e-05</v>
       </c>
       <c r="AR14" t="n">
-        <v>-2.041939543765025e-07</v>
+        <v>-9.962458876155124e-05</v>
       </c>
       <c r="AS14" t="n">
-        <v>-8.38222479122803e-08</v>
+        <v>-9.970841100946353e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.539247819533712e-08</v>
+        <v>-9.968301853126818e-05</v>
       </c>
       <c r="AU14" t="n">
-        <v>2.93979280798473e-08</v>
+        <v>-9.965362060318834e-05</v>
       </c>
       <c r="AV14" t="n">
-        <v>2.788849651512442e-09</v>
+        <v>-9.965083175353682e-05</v>
       </c>
       <c r="AW14" t="n">
-        <v>-6.63498330535317e-09</v>
+        <v>-9.965746673684217e-05</v>
       </c>
       <c r="AX14" t="n">
         <v>0.0001211065616595247</v>
       </c>
       <c r="AY14" t="n">
-        <v>-5.644049836517429e-06</v>
+        <v>0.0001154625118230073</v>
       </c>
       <c r="AZ14" t="n">
-        <v>-5.596391993309508e-06</v>
+        <v>0.0001098661198296978</v>
       </c>
       <c r="BA14" t="n">
-        <v>2.877367434362951e-06</v>
+        <v>0.0001127434872640608</v>
       </c>
       <c r="BB14" t="n">
-        <v>-8.421779942545265e-07</v>
+        <v>0.0001119013092698062</v>
       </c>
       <c r="BC14" t="n">
-        <v>-1.161251283345174e-06</v>
+        <v>0.0001107400579864611</v>
       </c>
       <c r="BD14" t="n">
-        <v>2.097624600738905e-07</v>
+        <v>0.0001109498204465349</v>
       </c>
       <c r="BE14" t="n">
-        <v>3.587253349032454e-07</v>
+        <v>0.0001113085457814382</v>
       </c>
       <c r="BF14" t="n">
-        <v>1.967952983374167e-08</v>
+        <v>0.0001113282253112719</v>
       </c>
       <c r="BG14" t="n">
-        <v>-8.265640519933747e-08</v>
+        <v>0.0001112455689060726</v>
       </c>
       <c r="BH14" t="n">
-        <v>-2.67910906370393e-08</v>
+        <v>0.0001112187778154355</v>
       </c>
       <c r="BI14" t="n">
-        <v>1.214086002229205e-08</v>
+        <v>0.0001112309186754578</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1.022182575146466e-08</v>
+        <v>0.0001112411405012093</v>
       </c>
       <c r="BK14" t="n">
-        <v>1.948365182048541e-10</v>
+        <v>0.0001112413353377275</v>
       </c>
       <c r="BL14" t="n">
-        <v>-2.506111877177766e-09</v>
+        <v>0.0001112388292258503</v>
       </c>
       <c r="BM14" t="n">
-        <v>-8.481686077771498e-10</v>
+        <v>0.0001112379810572425</v>
       </c>
     </row>
     <row r="15">
@@ -3352,193 +3352,193 @@
         <v>3.350854589930979e-16</v>
       </c>
       <c r="C15" t="n">
-        <v>8.57641546884664e-17</v>
+        <v>4.208496136815643e-16</v>
       </c>
       <c r="D15" t="n">
-        <v>5.827727981547471e-18</v>
+        <v>4.266773416631118e-16</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.620780776611795e-17</v>
+        <v>3.804695338969938e-16</v>
       </c>
       <c r="F15" t="n">
-        <v>2.751924501713556e-19</v>
+        <v>3.807447263471652e-16</v>
       </c>
       <c r="G15" t="n">
-        <v>1.813586247263823e-17</v>
+        <v>3.988805888198034e-16</v>
       </c>
       <c r="H15" t="n">
-        <v>1.389945995986441e-17</v>
+        <v>4.127800487796678e-16</v>
       </c>
       <c r="I15" t="n">
-        <v>3.230587888701884e-18</v>
+        <v>4.160106366683697e-16</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.134100148960023e-18</v>
+        <v>4.148765365194096e-16</v>
       </c>
       <c r="K15" t="n">
-        <v>5.378990089184732e-18</v>
+        <v>4.202555266085943e-16</v>
       </c>
       <c r="L15" t="n">
-        <v>1.72624826750084e-18</v>
+        <v>4.219817748760952e-16</v>
       </c>
       <c r="M15" t="n">
-        <v>1.975858643188285e-18</v>
+        <v>4.239576335192835e-16</v>
       </c>
       <c r="N15" t="n">
-        <v>-1.357950914947365e-18</v>
+        <v>4.225996826043361e-16</v>
       </c>
       <c r="O15" t="n">
-        <v>4.11677611147856e-18</v>
+        <v>4.267164587158147e-16</v>
       </c>
       <c r="P15" t="n">
-        <v>3.061998965646183e-19</v>
+        <v>4.270226586123793e-16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.25107388871035e-18</v>
+        <v>4.282737325010896e-16</v>
       </c>
       <c r="R15" t="n">
         <v>-1.822089403079222e-16</v>
       </c>
       <c r="S15" t="n">
-        <v>2.248126013204231e-17</v>
+        <v>-1.597276801758799e-16</v>
       </c>
       <c r="T15" t="n">
-        <v>3.172965824986415e-17</v>
+        <v>-1.279980219260158e-16</v>
       </c>
       <c r="U15" t="n">
-        <v>5.096098773166992e-17</v>
+        <v>-7.703703419434583e-17</v>
       </c>
       <c r="V15" t="n">
-        <v>1.272870653504502e-17</v>
+        <v>-6.430832765930082e-17</v>
       </c>
       <c r="W15" t="n">
-        <v>2.564443090085199e-17</v>
+        <v>-3.866389675844882e-17</v>
       </c>
       <c r="X15" t="n">
-        <v>1.033556471223158e-18</v>
+        <v>-3.763034028722567e-17</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.145158816979649e-18</v>
+        <v>-3.248518147024602e-17</v>
       </c>
       <c r="Z15" t="n">
-        <v>-2.674856738717085e-19</v>
+        <v>-3.275266714411773e-17</v>
       </c>
       <c r="AA15" t="n">
-        <v>1.908324822885671e-17</v>
+        <v>-1.366941891526101e-17</v>
       </c>
       <c r="AB15" t="n">
-        <v>2.329076783362274e-18</v>
+        <v>-1.134034213189874e-17</v>
       </c>
       <c r="AC15" t="n">
-        <v>2.492987108973205e-18</v>
+        <v>-8.847355022925532e-18</v>
       </c>
       <c r="AD15" t="n">
-        <v>-6.132034781310492e-18</v>
+        <v>-1.497938980423602e-17</v>
       </c>
       <c r="AE15" t="n">
-        <v>1.148830834412567e-17</v>
+        <v>-3.49108146011035e-18</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.077701363974743e-19</v>
+        <v>-2.983311323712876e-18</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.983311323903732e-18</v>
+        <v>1.908557717086882e-28</v>
       </c>
       <c r="AH15" t="n">
         <v>5.200162940398799e-17</v>
       </c>
       <c r="AI15" t="n">
-        <v>-5.933756723342589e-18</v>
+        <v>4.60678726806454e-17</v>
       </c>
       <c r="AJ15" t="n">
-        <v>2.257094138429085e-18</v>
+        <v>4.832496681907449e-17</v>
       </c>
       <c r="AK15" t="n">
-        <v>-1.284721676988606e-17</v>
+        <v>3.547775004918843e-17</v>
       </c>
       <c r="AL15" t="n">
-        <v>5.150275074523298e-17</v>
+        <v>8.698050079442141e-17</v>
       </c>
       <c r="AM15" t="n">
-        <v>-5.080107895749152e-18</v>
+        <v>8.190039289867226e-17</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.909706666169467e-18</v>
+        <v>8.481009956484173e-17</v>
       </c>
       <c r="AO15" t="n">
-        <v>-2.434329301952605e-17</v>
+        <v>6.046680654531568e-17</v>
       </c>
       <c r="AP15" t="n">
-        <v>3.621117281073781e-17</v>
+        <v>9.667797935605349e-17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>-5.154730422133643e-18</v>
+        <v>9.152324893391985e-17</v>
       </c>
       <c r="AR15" t="n">
-        <v>7.767441178062811e-18</v>
+        <v>9.929069011198267e-17</v>
       </c>
       <c r="AS15" t="n">
-        <v>-2.562814723190435e-17</v>
+        <v>7.366254288007833e-17</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.619991780871358e-17</v>
+        <v>9.986246068879191e-17</v>
       </c>
       <c r="AU15" t="n">
-        <v>-6.18198398159948e-18</v>
+        <v>9.368047670719244e-17</v>
       </c>
       <c r="AV15" t="n">
-        <v>1.124395265947914e-17</v>
+        <v>1.049244293666716e-16</v>
       </c>
       <c r="AW15" t="n">
-        <v>-2.399992184899628e-17</v>
+        <v>8.09245075176753e-17</v>
       </c>
       <c r="AX15" t="n">
         <v>2.254855575794018e-16</v>
       </c>
       <c r="AY15" t="n">
-        <v>-2.016881280613513e-17</v>
+        <v>2.053167447732667e-16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>-1.272363162689549e-17</v>
+        <v>1.925931131463712e-16</v>
       </c>
       <c r="BA15" t="n">
-        <v>-6.024822096665147e-17</v>
+        <v>1.323448921797197e-16</v>
       </c>
       <c r="BB15" t="n">
-        <v>1.458756263977994e-16</v>
+        <v>2.782205185775191e-16</v>
       </c>
       <c r="BC15" t="n">
-        <v>-1.770326062225913e-17</v>
+        <v>2.6051725795526e-16</v>
       </c>
       <c r="BD15" t="n">
-        <v>4.221729037705183e-18</v>
+        <v>2.647389869929652e-16</v>
       </c>
       <c r="BE15" t="n">
-        <v>-7.518066439088609e-17</v>
+        <v>1.895583226020791e-16</v>
       </c>
       <c r="BF15" t="n">
-        <v>1.042780418148685e-16</v>
+        <v>2.938363644169477e-16</v>
       </c>
       <c r="BG15" t="n">
-        <v>-1.670626415373184e-17</v>
+        <v>2.771301002632158e-16</v>
       </c>
       <c r="BH15" t="n">
-        <v>1.95288132004966e-17</v>
+        <v>2.966589134637124e-16</v>
       </c>
       <c r="BI15" t="n">
-        <v>-7.677835574398287e-17</v>
+        <v>2.198805577197295e-16</v>
       </c>
       <c r="BJ15" t="n">
-        <v>7.650608026584854e-17</v>
+        <v>2.963866379855781e-16</v>
       </c>
       <c r="BK15" t="n">
-        <v>-1.800179381524212e-17</v>
+        <v>2.78384844170336e-16</v>
       </c>
       <c r="BL15" t="n">
-        <v>3.12195959161396e-17</v>
+        <v>3.096044400864756e-16</v>
       </c>
       <c r="BM15" t="n">
-        <v>-7.132233385823511e-17</v>
+        <v>2.382821062282405e-16</v>
       </c>
     </row>
     <row r="16">
@@ -3551,193 +3551,193 @@
         <v>-0.01396051345341312</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.002158976928164716</v>
+        <v>-0.01611949038157783</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003116494644317403</v>
+        <v>-0.01300299573726043</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002192089939542271</v>
+        <v>-0.01081090579771816</v>
       </c>
       <c r="F16" t="n">
-        <v>0.001487031770628142</v>
+        <v>-0.009323874027090019</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0005671184083243523</v>
+        <v>-0.009890992435414371</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.001265750274180509</v>
+        <v>-0.01115674270959488</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0004040237840816947</v>
+        <v>-0.01156076649367657</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002912140634641279</v>
+        <v>-0.01126955243021245</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002589337520266327</v>
+        <v>-0.01101061867818581</v>
       </c>
       <c r="L16" t="n">
-        <v>1.566441433938606e-05</v>
+        <v>-0.01099495426384643</v>
       </c>
       <c r="M16" t="n">
-        <v>-4.385363863131341e-06</v>
+        <v>-0.01099933962770956</v>
       </c>
       <c r="N16" t="n">
-        <v>7.323272804820467e-05</v>
+        <v>-0.01092610689966136</v>
       </c>
       <c r="O16" t="n">
-        <v>-8.87079396244289e-05</v>
+        <v>-0.01101481483928578</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.000152722109937445</v>
+        <v>-0.01116753694922323</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.810932301609093e-05</v>
+        <v>-0.01112942762620714</v>
       </c>
       <c r="R16" t="n">
         <v>-0.0002139685894622191</v>
       </c>
       <c r="S16" t="n">
-        <v>8.76301931360159e-05</v>
+        <v>-0.0001263383963262032</v>
       </c>
       <c r="T16" t="n">
-        <v>0.0001226768641403904</v>
+        <v>-3.661532185812807e-06</v>
       </c>
       <c r="U16" t="n">
-        <v>8.401365196164062e-06</v>
+        <v>4.739833010351255e-06</v>
       </c>
       <c r="V16" t="n">
-        <v>-7.700029338406603e-05</v>
+        <v>-7.226046037371477e-05</v>
       </c>
       <c r="W16" t="n">
-        <v>4.260461600450783e-05</v>
+        <v>-2.965584436920694e-05</v>
       </c>
       <c r="X16" t="n">
-        <v>3.739630515009481e-05</v>
+        <v>7.740460780887869e-06</v>
       </c>
       <c r="Y16" t="n">
-        <v>-1.433675737670788e-05</v>
+        <v>-6.59629659582001e-06</v>
       </c>
       <c r="Z16" t="n">
-        <v>-7.584249789264906e-05</v>
+        <v>-8.243879448846907e-05</v>
       </c>
       <c r="AA16" t="n">
-        <v>5.330356006443507e-05</v>
+        <v>-2.9135234424034e-05</v>
       </c>
       <c r="AB16" t="n">
-        <v>4.33782974644208e-05</v>
+        <v>1.42430630403868e-05</v>
       </c>
       <c r="AC16" t="n">
-        <v>-1.264869908348796e-05</v>
+        <v>1.594363956898836e-06</v>
       </c>
       <c r="AD16" t="n">
-        <v>-7.686769145436746e-05</v>
+        <v>-7.527332749746862e-05</v>
       </c>
       <c r="AE16" t="n">
-        <v>4.664935348882033e-05</v>
+        <v>-2.862397400864829e-05</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.738901090664405e-05</v>
+        <v>8.765036897995769e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>-8.765036897952209e-06</v>
+        <v>4.355917402808424e-17</v>
       </c>
       <c r="AH16" t="n">
         <v>-0.0004521498910312746</v>
       </c>
       <c r="AI16" t="n">
-        <v>-0.0002621452860699645</v>
+        <v>-0.0007142951771012393</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.715320815176587e-05</v>
+        <v>-0.0006271419689494733</v>
       </c>
       <c r="AK16" t="n">
-        <v>1.026038065505312e-05</v>
+        <v>-0.0006168815882944202</v>
       </c>
       <c r="AL16" t="n">
-        <v>-0.0002313720854066402</v>
+        <v>-0.0008482536737010604</v>
       </c>
       <c r="AM16" t="n">
-        <v>-5.848951006772484e-07</v>
+        <v>-0.0008488385688017377</v>
       </c>
       <c r="AN16" t="n">
-        <v>0.0001723622650875499</v>
+        <v>-0.0006764763037141879</v>
       </c>
       <c r="AO16" t="n">
-        <v>2.30397345042161e-05</v>
+        <v>-0.0006534365692099718</v>
       </c>
       <c r="AP16" t="n">
-        <v>-0.0002305859267309316</v>
+        <v>-0.0008840224959409033</v>
       </c>
       <c r="AQ16" t="n">
-        <v>-7.676493391619687e-06</v>
+        <v>-0.0008916989893325229</v>
       </c>
       <c r="AR16" t="n">
-        <v>0.0001707335949599321</v>
+        <v>-0.000720965394372591</v>
       </c>
       <c r="AS16" t="n">
-        <v>4.288379770602197e-05</v>
+        <v>-0.0006780815966665689</v>
       </c>
       <c r="AT16" t="n">
-        <v>-0.0002023575145804124</v>
+        <v>-0.0008804391112469814</v>
       </c>
       <c r="AU16" t="n">
-        <v>-2.8840304993375e-06</v>
+        <v>-0.0008833231417463189</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.0001533864352618064</v>
+        <v>-0.0007299367064845124</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.983948602330101e-05</v>
+        <v>-0.0006900972204612114</v>
       </c>
       <c r="AX16" t="n">
         <v>0.0001594425700768687</v>
       </c>
       <c r="AY16" t="n">
-        <v>-6.271483753174544e-05</v>
+        <v>9.672773254512323e-05</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-2.745786114883133e-05</v>
+        <v>6.926987139629191e-05</v>
       </c>
       <c r="BA16" t="n">
-        <v>-2.58022146100628e-05</v>
+        <v>4.34676567862291e-05</v>
       </c>
       <c r="BB16" t="n">
-        <v>0.0001395704320665578</v>
+        <v>0.0001830380888527869</v>
       </c>
       <c r="BC16" t="n">
-        <v>-6.944265506908824e-05</v>
+        <v>0.0001135954337836987</v>
       </c>
       <c r="BD16" t="n">
-        <v>-2.65116009081893e-05</v>
+        <v>8.708383287550941e-05</v>
       </c>
       <c r="BE16" t="n">
-        <v>-3.2987028249834e-05</v>
+        <v>5.409680462567541e-05</v>
       </c>
       <c r="BF16" t="n">
-        <v>0.0001303618711053087</v>
+        <v>0.0001844586757309841</v>
       </c>
       <c r="BG16" t="n">
-        <v>-7.035803289000637e-05</v>
+        <v>0.0001141006428409777</v>
       </c>
       <c r="BH16" t="n">
-        <v>-2.062965602868131e-05</v>
+        <v>9.34709868122964e-05</v>
       </c>
       <c r="BI16" t="n">
-        <v>-3.580223137803959e-05</v>
+        <v>5.766875543425681e-05</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0.0001244436778162422</v>
+        <v>0.000182112433250499</v>
       </c>
       <c r="BK16" t="n">
-        <v>-6.983709384066289e-05</v>
+        <v>0.0001122753394098361</v>
       </c>
       <c r="BL16" t="n">
-        <v>-1.44794592640089e-05</v>
+        <v>9.779588014582719e-05</v>
       </c>
       <c r="BM16" t="n">
-        <v>-3.804509305107701e-05</v>
+        <v>5.975078709475018e-05</v>
       </c>
     </row>
     <row r="17">
@@ -3750,193 +3750,193 @@
         <v>-0.01247208884926686</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.00259761964084626</v>
+        <v>-0.01506970849011312</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002638595304687448</v>
+        <v>-0.01243111318542567</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0009920467579371678</v>
+        <v>-0.0114390664274885</v>
       </c>
       <c r="F17" t="n">
-        <v>0.001216174927293032</v>
+        <v>-0.01022289150019547</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002624441670718364</v>
+        <v>-0.009960447333123637</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.0006720277498249276</v>
+        <v>-0.01063247508294856</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.0004875059774716816</v>
+        <v>-0.01111998106042025</v>
       </c>
       <c r="J17" t="n">
-        <v>-8.083789496883309e-05</v>
+        <v>-0.01120081895538908</v>
       </c>
       <c r="K17" t="n">
-        <v>9.176121959758774e-05</v>
+        <v>-0.01110905773579149</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0001698980105675226</v>
+        <v>-0.01093915972522397</v>
       </c>
       <c r="M17" t="n">
-        <v>-3.311562280129565e-05</v>
+        <v>-0.01097227534802526</v>
       </c>
       <c r="N17" t="n">
-        <v>-1.537541308267224e-05</v>
+        <v>-0.01098765076110794</v>
       </c>
       <c r="O17" t="n">
-        <v>1.431132176642492e-05</v>
+        <v>-0.01097333943934151</v>
       </c>
       <c r="P17" t="n">
-        <v>2.286913359563256e-05</v>
+        <v>-0.01095047030574588</v>
       </c>
       <c r="Q17" t="n">
-        <v>-9.53394647484344e-05</v>
+        <v>-0.01104580977049431</v>
       </c>
       <c r="R17" t="n">
         <v>0.0002002638726802537</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.213630224083552e-05</v>
+        <v>0.0001781275704394182</v>
       </c>
       <c r="T17" t="n">
-        <v>-6.800807606188626e-05</v>
+        <v>0.0001101194943775319</v>
       </c>
       <c r="U17" t="n">
-        <v>-9.741205056791617e-05</v>
+        <v>1.270744380961571e-05</v>
       </c>
       <c r="V17" t="n">
-        <v>2.798086190531927e-05</v>
+        <v>4.068830571493498e-05</v>
       </c>
       <c r="W17" t="n">
-        <v>8.424003184928677e-06</v>
+        <v>4.911230889986366e-05</v>
       </c>
       <c r="X17" t="n">
-        <v>1.520301477943099e-05</v>
+        <v>6.431532367929465e-05</v>
       </c>
       <c r="Y17" t="n">
-        <v>-5.812359905015329e-05</v>
+        <v>6.191724629141358e-06</v>
       </c>
       <c r="Z17" t="n">
-        <v>4.525870483142159e-05</v>
+        <v>5.145042946056295e-05</v>
       </c>
       <c r="AA17" t="n">
-        <v>4.31399635195741e-06</v>
+        <v>5.576442581252037e-05</v>
       </c>
       <c r="AB17" t="n">
-        <v>2.254414589747095e-06</v>
+        <v>5.801884040226746e-05</v>
       </c>
       <c r="AC17" t="n">
-        <v>-5.993076396724966e-05</v>
+        <v>-1.911923564982207e-06</v>
       </c>
       <c r="AD17" t="n">
-        <v>4.564605490101856e-05</v>
+        <v>4.373413133603636e-05</v>
       </c>
       <c r="AE17" t="n">
-        <v>8.175044173947464e-06</v>
+        <v>5.190917550998382e-05</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.593691593324939e-06</v>
+        <v>5.750286710330876e-05</v>
       </c>
       <c r="AG17" t="n">
-        <v>-5.75028671031397e-05</v>
+        <v>1.690583505727212e-16</v>
       </c>
       <c r="AH17" t="n">
         <v>-0.001256261703832377</v>
       </c>
       <c r="AI17" t="n">
-        <v>-0.0008740648352823547</v>
+        <v>-0.002130326539114733</v>
       </c>
       <c r="AJ17" t="n">
-        <v>-7.418262798252811e-05</v>
+        <v>-0.00220450916709726</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.0003027655472340206</v>
+        <v>-0.00190174361986324</v>
       </c>
       <c r="AL17" t="n">
-        <v>-0.0005449009143138616</v>
+        <v>-0.002446644534177101</v>
       </c>
       <c r="AM17" t="n">
-        <v>-0.0001984661406391989</v>
+        <v>-0.0026451106748163</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.0002101150711138262</v>
+        <v>-0.002434995603702474</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.0003614353137033742</v>
+        <v>-0.0020735602899991</v>
       </c>
       <c r="AP17" t="n">
-        <v>-0.0005285302493241101</v>
+        <v>-0.00260209053932321</v>
       </c>
       <c r="AQ17" t="n">
-        <v>-0.0002020825545661648</v>
+        <v>-0.002804173093889375</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.0002347523294704575</v>
+        <v>-0.002569420764418917</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.0004065816175649672</v>
+        <v>-0.00216283914685395</v>
       </c>
       <c r="AT17" t="n">
-        <v>-0.0004701207687498053</v>
+        <v>-0.002632959915603755</v>
       </c>
       <c r="AU17" t="n">
-        <v>-0.0001832008749232752</v>
+        <v>-0.00281616079052703</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.0002286744828867091</v>
+        <v>-0.002587486307640321</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.0003994082600885816</v>
+        <v>-0.002188078047551739</v>
       </c>
       <c r="AX17" t="n">
         <v>-0.0004548468475511107</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.0001590320777461168</v>
+        <v>-0.000295814769804994</v>
       </c>
       <c r="AZ17" t="n">
-        <v>9.964096594063287e-05</v>
+        <v>-0.0001961738038643611</v>
       </c>
       <c r="BA17" t="n">
-        <v>6.237090350537208e-05</v>
+        <v>-0.000133802900358989</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0.0004074161715356444</v>
+        <v>-0.0005412190718946333</v>
       </c>
       <c r="BC17" t="n">
-        <v>0.0001728257074874928</v>
+        <v>-0.0003683933644071405</v>
       </c>
       <c r="BD17" t="n">
-        <v>0.0001177684775808738</v>
+        <v>-0.0002506248868262667</v>
       </c>
       <c r="BE17" t="n">
-        <v>7.989876589982197e-05</v>
+        <v>-0.0001707261209264447</v>
       </c>
       <c r="BF17" t="n">
-        <v>-0.0003838305218304846</v>
+        <v>-0.0005545566427569293</v>
       </c>
       <c r="BG17" t="n">
-        <v>0.0001703822668606232</v>
+        <v>-0.0003841743758963061</v>
       </c>
       <c r="BH17" t="n">
-        <v>0.0001195045992095789</v>
+        <v>-0.0002646697766867272</v>
       </c>
       <c r="BI17" t="n">
-        <v>8.351151675609915e-05</v>
+        <v>-0.000181158259930628</v>
       </c>
       <c r="BJ17" t="n">
-        <v>-0.0003702745382049986</v>
+        <v>-0.0005514327981356266</v>
       </c>
       <c r="BK17" t="n">
-        <v>0.0001623778177596557</v>
+        <v>-0.0003890549803759709</v>
       </c>
       <c r="BL17" t="n">
-        <v>0.0001179953505449426</v>
+        <v>-0.0002710596298310283</v>
       </c>
       <c r="BM17" t="n">
-        <v>8.510404194021317e-05</v>
+        <v>-0.0001859555878908151</v>
       </c>
     </row>
     <row r="18">
@@ -3949,193 +3949,193 @@
         <v>0.0004886071866749847</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001283848457481581</v>
+        <v>0.0006169920324231429</v>
       </c>
       <c r="D18" t="n">
-        <v>3.406586550309955e-05</v>
+        <v>0.0006510578979262424</v>
       </c>
       <c r="E18" t="n">
-        <v>9.207381014673889e-06</v>
+        <v>0.0006602652789409163</v>
       </c>
       <c r="F18" t="n">
-        <v>2.573085639575122e-06</v>
+        <v>0.0006628383645804915</v>
       </c>
       <c r="G18" t="n">
-        <v>7.607252799301883e-07</v>
+        <v>0.0006635990898604216</v>
       </c>
       <c r="H18" t="n">
-        <v>2.447647361593976e-07</v>
+        <v>0.000663843854596581</v>
       </c>
       <c r="I18" t="n">
-        <v>8.770279430492774e-08</v>
+        <v>0.0006639315573908859</v>
       </c>
       <c r="J18" t="n">
-        <v>3.513101090230767e-08</v>
+        <v>0.0006639666884017883</v>
       </c>
       <c r="K18" t="n">
-        <v>1.545034370378417e-08</v>
+        <v>0.000663982138745492</v>
       </c>
       <c r="L18" t="n">
-        <v>7.253264729847675e-09</v>
+        <v>0.0006639893920102218</v>
       </c>
       <c r="M18" t="n">
-        <v>3.543940979762612e-09</v>
+        <v>0.0006639929359512016</v>
       </c>
       <c r="N18" t="n">
-        <v>1.770973442444183e-09</v>
+        <v>0.000663994706924644</v>
       </c>
       <c r="O18" t="n">
-        <v>8.957339156397494e-10</v>
+        <v>0.0006639956026585597</v>
       </c>
       <c r="P18" t="n">
-        <v>4.559147783215999e-10</v>
+        <v>0.0006639960585733381</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.328082859408469e-10</v>
+        <v>0.0006639962913816239</v>
       </c>
       <c r="R18" t="n">
         <v>2.496327006937845e-06</v>
       </c>
       <c r="S18" t="n">
-        <v>-5.682331730421668e-07</v>
+        <v>1.928093833895678e-06</v>
       </c>
       <c r="T18" t="n">
-        <v>-7.715019618252645e-07</v>
+        <v>1.156591872070414e-06</v>
       </c>
       <c r="U18" t="n">
-        <v>-5.202035569562496e-07</v>
+        <v>6.363883151141641e-07</v>
       </c>
       <c r="V18" t="n">
-        <v>-2.990171735677575e-07</v>
+        <v>3.373711415464066e-07</v>
       </c>
       <c r="W18" t="n">
-        <v>-1.616533375374161e-07</v>
+        <v>1.757178040089905e-07</v>
       </c>
       <c r="X18" t="n">
-        <v>-8.502246912397576e-08</v>
+        <v>9.069533488501472e-08</v>
       </c>
       <c r="Y18" t="n">
-        <v>-4.413399405905112e-08</v>
+        <v>4.65613408259636e-08</v>
       </c>
       <c r="Z18" t="n">
-        <v>-2.276139987217152e-08</v>
+        <v>2.379994095379208e-08</v>
       </c>
       <c r="AA18" t="n">
-        <v>-1.170085283787316e-08</v>
+        <v>1.209908811591892e-08</v>
       </c>
       <c r="AB18" t="n">
-        <v>-6.005195791404332e-09</v>
+        <v>6.093892324514591e-09</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.079487157512642e-09</v>
+        <v>3.01440516700195e-09</v>
       </c>
       <c r="AD18" t="n">
-        <v>-1.578512625787981e-09</v>
+        <v>1.435892541213968e-09</v>
       </c>
       <c r="AE18" t="n">
-        <v>-8.089574243695408e-10</v>
+        <v>6.269351168444275e-10</v>
       </c>
       <c r="AF18" t="n">
-        <v>-4.14530578592058e-10</v>
+        <v>2.124045382523695e-10</v>
       </c>
       <c r="AG18" t="n">
-        <v>-2.124045354437271e-10</v>
+        <v>2.808642416180297e-18</v>
       </c>
       <c r="AH18" t="n">
         <v>9.287828073714382e-06</v>
       </c>
       <c r="AI18" t="n">
-        <v>1.406487635531341e-05</v>
+        <v>2.335270442902779e-05</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.626318550134779e-06</v>
+        <v>3.297902297916256e-05</v>
       </c>
       <c r="AK18" t="n">
-        <v>5.561490172935452e-06</v>
+        <v>3.854051315209802e-05</v>
       </c>
       <c r="AL18" t="n">
-        <v>3.013165776322726e-06</v>
+        <v>4.155367892842074e-05</v>
       </c>
       <c r="AM18" t="n">
-        <v>1.586402440051808e-06</v>
+        <v>4.314008136847255e-05</v>
       </c>
       <c r="AN18" t="n">
-        <v>8.238878273427711e-07</v>
+        <v>4.396396919581532e-05</v>
       </c>
       <c r="AO18" t="n">
-        <v>4.25011697065221e-07</v>
+        <v>4.438898089288054e-05</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.185109592522193e-07</v>
+        <v>4.460749185213276e-05</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.121527792101218e-07</v>
+        <v>4.471964463134288e-05</v>
       </c>
       <c r="AR18" t="n">
-        <v>5.751419105251429e-08</v>
+        <v>4.47771588223954e-05</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.9481640605523e-08</v>
+        <v>4.480664046300092e-05</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.510889793858584e-08</v>
+        <v>4.482174936093951e-05</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.742219648934273e-09</v>
+        <v>4.482949158058844e-05</v>
       </c>
       <c r="AV18" t="n">
-        <v>3.967104234113454e-09</v>
+        <v>4.483345868482256e-05</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.032681165518262e-09</v>
+        <v>4.483549136598808e-05</v>
       </c>
       <c r="AX18" t="n">
         <v>-4.283023336123716e-05</v>
       </c>
       <c r="AY18" t="n">
-        <v>-2.180392914491935e-05</v>
+        <v>-6.463416250615651e-05</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-1.113500356050127e-05</v>
+        <v>-7.576916606665777e-05</v>
       </c>
       <c r="BA18" t="n">
-        <v>-5.695699050045989e-06</v>
+        <v>-8.146486511670376e-05</v>
       </c>
       <c r="BB18" t="n">
-        <v>-2.91582092387228e-06</v>
+        <v>-8.438068604057605e-05</v>
       </c>
       <c r="BC18" t="n">
-        <v>-1.493331623091798e-06</v>
+        <v>-8.587401766366784e-05</v>
       </c>
       <c r="BD18" t="n">
-        <v>-7.649691648059772e-07</v>
+        <v>-8.663898682847382e-05</v>
       </c>
       <c r="BE18" t="n">
-        <v>-3.919028667985148e-07</v>
+        <v>-8.703088969527233e-05</v>
       </c>
       <c r="BF18" t="n">
-        <v>-2.007875270724512e-07</v>
+        <v>-8.723167722234478e-05</v>
       </c>
       <c r="BG18" t="n">
-        <v>-1.028743470060837e-07</v>
+        <v>-8.733455156935086e-05</v>
       </c>
       <c r="BH18" t="n">
-        <v>-5.270885454377946e-08</v>
+        <v>-8.738726042389464e-05</v>
       </c>
       <c r="BI18" t="n">
-        <v>-2.700618101856199e-08</v>
+        <v>-8.741426660491321e-05</v>
       </c>
       <c r="BJ18" t="n">
-        <v>-1.383707670296621e-08</v>
+        <v>-8.742810368161617e-05</v>
       </c>
       <c r="BK18" t="n">
-        <v>-7.089674938789731e-09</v>
+        <v>-8.743519335655496e-05</v>
       </c>
       <c r="BL18" t="n">
-        <v>-3.632525775383655e-09</v>
+        <v>-8.743882588233035e-05</v>
       </c>
       <c r="BM18" t="n">
-        <v>-1.861192493354593e-09</v>
+        <v>-8.74406870748237e-05</v>
       </c>
     </row>
     <row r="19">
@@ -4148,193 +4148,193 @@
         <v>-0.002684837924965605</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.001030210162049437</v>
+        <v>-0.003715048087015042</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0005409276678340413</v>
+        <v>-0.003174120419181001</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0007093285178104128</v>
+        <v>-0.002464791901370588</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0006818069730132979</v>
+        <v>-0.00178298492835729</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0004703228548317074</v>
+        <v>-0.002253307783188997</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.000745735711351515</v>
+        <v>-0.002999043494540512</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.0005223794993428616</v>
+        <v>-0.003521422993883373</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0003737394419430133</v>
+        <v>-0.00314768355194036</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003169856492798228</v>
+        <v>-0.002830697902660538</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0001086798641678745</v>
+        <v>-0.002722018038492663</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0003199297818909044</v>
+        <v>-0.003041947820383568</v>
       </c>
       <c r="N19" t="n">
-        <v>-5.124044986039787e-05</v>
+        <v>-0.003093188270243965</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.0001103777368566666</v>
+        <v>-0.003203566007100632</v>
       </c>
       <c r="P19" t="n">
-        <v>5.035627457225896e-05</v>
+        <v>-0.003153209732528373</v>
       </c>
       <c r="Q19" t="n">
-        <v>-4.115054699897561e-05</v>
+        <v>-0.003194360279527349</v>
       </c>
       <c r="R19" t="n">
         <v>-0.0005773481470784791</v>
       </c>
       <c r="S19" t="n">
-        <v>0.000113098764525269</v>
+        <v>-0.00046424938255321</v>
       </c>
       <c r="T19" t="n">
-        <v>0.0002769120813254084</v>
+        <v>-0.0001873373012278016</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0002176618141737224</v>
+        <v>3.032451294592078e-05</v>
       </c>
       <c r="V19" t="n">
-        <v>-8.099160497194758e-05</v>
+        <v>-5.06670920260268e-05</v>
       </c>
       <c r="W19" t="n">
-        <v>-3.651465845362142e-05</v>
+        <v>-8.718175047964821e-05</v>
       </c>
       <c r="X19" t="n">
-        <v>-6.767072253423078e-05</v>
+        <v>-0.000154852473013879</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.859694645355165e-05</v>
+        <v>-0.0001262555265603274</v>
       </c>
       <c r="Z19" t="n">
-        <v>-2.971569119001488e-05</v>
+        <v>-0.0001559712177503422</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.0001224798401115482</v>
+        <v>-3.349137763879403e-05</v>
       </c>
       <c r="AB19" t="n">
-        <v>3.093387646007566e-05</v>
+        <v>-2.557501178718366e-06</v>
       </c>
       <c r="AC19" t="n">
-        <v>-1.21726315035291e-05</v>
+        <v>-1.473013268224746e-05</v>
       </c>
       <c r="AD19" t="n">
-        <v>-0.0001213941460409097</v>
+        <v>-0.0001361242787231571</v>
       </c>
       <c r="AE19" t="n">
-        <v>4.99154435874827e-05</v>
+        <v>-8.620883513567441e-05</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.46961529117875e-05</v>
+        <v>-4.151268222388691e-05</v>
       </c>
       <c r="AG19" t="n">
-        <v>4.151268222401253e-05</v>
+        <v>1.256158819918869e-16</v>
       </c>
       <c r="AH19" t="n">
         <v>-0.001040146206837731</v>
       </c>
       <c r="AI19" t="n">
-        <v>-0.0003562948433662743</v>
+        <v>-0.001396441050204005</v>
       </c>
       <c r="AJ19" t="n">
-        <v>-8.294279399410485e-05</v>
+        <v>-0.00147938384419811</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.0003811850832178101</v>
+        <v>-0.001098198760980299</v>
       </c>
       <c r="AL19" t="n">
-        <v>-0.0006883464522176652</v>
+        <v>-0.001786545213197965</v>
       </c>
       <c r="AM19" t="n">
-        <v>-0.0001202505060505328</v>
+        <v>-0.001906795719248498</v>
       </c>
       <c r="AN19" t="n">
-        <v>-2.1750533690804e-05</v>
+        <v>-0.001928546252939301</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.0003175771916211763</v>
+        <v>-0.001610969061318125</v>
       </c>
       <c r="AP19" t="n">
-        <v>-0.0005744357078888721</v>
+        <v>-0.002185404769206997</v>
       </c>
       <c r="AQ19" t="n">
-        <v>-4.030276892064774e-05</v>
+        <v>-0.002225707538127645</v>
       </c>
       <c r="AR19" t="n">
-        <v>6.178545324442914e-05</v>
+        <v>-0.002163922084883215</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.0003420260482801652</v>
+        <v>-0.001821896036603051</v>
       </c>
       <c r="AT19" t="n">
-        <v>-0.0004804002394411688</v>
+        <v>-0.00230229627604422</v>
       </c>
       <c r="AU19" t="n">
-        <v>-4.612055924124274e-05</v>
+        <v>-0.002348416835285462</v>
       </c>
       <c r="AV19" t="n">
-        <v>5.169321626193795e-05</v>
+        <v>-0.002296723619023524</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.0003269560747704425</v>
+        <v>-0.001969767544253082</v>
       </c>
       <c r="AX19" t="n">
         <v>0.0003797286489191955</v>
       </c>
       <c r="AY19" t="n">
-        <v>-0.0001576335622625486</v>
+        <v>0.0002220950866566469</v>
       </c>
       <c r="AZ19" t="n">
-        <v>-5.710439578717554e-05</v>
+        <v>0.0001649906908694714</v>
       </c>
       <c r="BA19" t="n">
-        <v>1.754753222002368e-05</v>
+        <v>0.0001825382230894951</v>
       </c>
       <c r="BB19" t="n">
-        <v>0.0003211407345764097</v>
+        <v>0.0005036789576659047</v>
       </c>
       <c r="BC19" t="n">
-        <v>-0.0001432468515826733</v>
+        <v>0.0003604321060832314</v>
       </c>
       <c r="BD19" t="n">
-        <v>-7.880721077708461e-05</v>
+        <v>0.0002816248953061468</v>
       </c>
       <c r="BE19" t="n">
-        <v>-1.951433371021851e-05</v>
+        <v>0.0002621105615959283</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.0002684943928917021</v>
+        <v>0.0005306049544876304</v>
       </c>
       <c r="BG19" t="n">
-        <v>-0.0001205780760755438</v>
+        <v>0.0004100268784120866</v>
       </c>
       <c r="BH19" t="n">
-        <v>-6.7762345778202e-05</v>
+        <v>0.0003422645326338846</v>
       </c>
       <c r="BI19" t="n">
-        <v>-2.638520243591225e-05</v>
+        <v>0.0003158793301979724</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0.0002248632769197115</v>
+        <v>0.0005407426071176839</v>
       </c>
       <c r="BK19" t="n">
-        <v>-0.0001096884166562223</v>
+        <v>0.0004310541904614616</v>
       </c>
       <c r="BL19" t="n">
-        <v>-6.300118544566062e-05</v>
+        <v>0.000368053005015801</v>
       </c>
       <c r="BM19" t="n">
-        <v>-2.708541722459698e-05</v>
+        <v>0.000340967587791204</v>
       </c>
     </row>
     <row r="20">
